--- a/assets/score/bxb-template.xlsx
+++ b/assets/score/bxb-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWRCh\OneDrive\Desktop\BatuuScoring\assets\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F2E3A3-D57E-4642-8E72-02E7DE5B122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E2598-9D40-4082-A68C-E66F5B93EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
   </bookViews>
@@ -365,12 +365,6 @@
     <t>Ahmad Abid Adam</t>
   </si>
   <si>
-    <t>Ahmed mohammed khaled alareqi</t>
-  </si>
-  <si>
-    <t>AIMAN HAKEEMI BIN AWANG SUPIAN</t>
-  </si>
-  <si>
     <t>Ali Umar</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>Amanda Lee Mun Yee</t>
   </si>
   <si>
-    <t>Amani</t>
-  </si>
-  <si>
     <t>Amirul</t>
   </si>
   <si>
@@ -398,12 +389,6 @@
     <t>Ang Yue</t>
   </si>
   <si>
-    <t>Arif Rasydan bin Abdul Rauf</t>
-  </si>
-  <si>
-    <t>Asfaq luthfiya</t>
-  </si>
-  <si>
     <t>Benjamin Chuah Xiao Xun</t>
   </si>
   <si>
@@ -431,9 +416,6 @@
     <t>Chan Zi Yue</t>
   </si>
   <si>
-    <t>CHANG CHING YET</t>
-  </si>
-  <si>
     <t>Charlotte Amanda Gan Sveet Ting</t>
   </si>
   <si>
@@ -461,9 +443,6 @@
     <t>Choo Hong Kai</t>
   </si>
   <si>
-    <t>Choo Wen hui</t>
-  </si>
-  <si>
     <t>Chow Ee Ling Zoe</t>
   </si>
   <si>
@@ -485,9 +464,6 @@
     <t>Daryl Lim Wei Sien</t>
   </si>
   <si>
-    <t>Denise</t>
-  </si>
-  <si>
     <t>Denver Wong Der-Qi</t>
   </si>
   <si>
@@ -506,9 +482,6 @@
     <t>Ethan Khoo Kay Shing</t>
   </si>
   <si>
-    <t>Ethan tan bo wen</t>
-  </si>
-  <si>
     <t>Eugene Chin Hwa En</t>
   </si>
   <si>
@@ -530,21 +503,12 @@
     <t>Fun Keng Soon</t>
   </si>
   <si>
-    <t>Gan Hoong liang</t>
-  </si>
-  <si>
     <t>Gwen Koh Ting Zhi</t>
   </si>
   <si>
-    <t>HAZIM MUSYRIF BIN SAIFUDDIN</t>
-  </si>
-  <si>
     <t>Henry Choo Wen Hui</t>
   </si>
   <si>
-    <t>IMAN DANIAL BIN FAIRUL AZRAI</t>
-  </si>
-  <si>
     <t>Irsyad Izac</t>
   </si>
   <si>
@@ -605,9 +569,6 @@
     <t>Justin Peck Qing En</t>
   </si>
   <si>
-    <t>karly tan kai yen</t>
-  </si>
-  <si>
     <t>Katherina Izreen</t>
   </si>
   <si>
@@ -617,18 +578,12 @@
     <t>Kenton Ng</t>
   </si>
   <si>
-    <t>KIANG XIN YIN</t>
-  </si>
-  <si>
     <t>Kimberly Ho Mei Yi</t>
   </si>
   <si>
     <t>Kong Zheng Yang</t>
   </si>
   <si>
-    <t>LANISHA ANUSRI A/P SARAVANAN</t>
-  </si>
-  <si>
     <t>Lavender Ling Wei Huey</t>
   </si>
   <si>
@@ -656,9 +611,6 @@
     <t>Lexus Goh Ka Shing</t>
   </si>
   <si>
-    <t>Lian YaoMing</t>
-  </si>
-  <si>
     <t>Liew Heng Jian</t>
   </si>
   <si>
@@ -668,9 +620,6 @@
     <t>Lim Jian Tao</t>
   </si>
   <si>
-    <t>LIM JUN</t>
-  </si>
-  <si>
     <t>Lim Jun Hong</t>
   </si>
   <si>
@@ -704,9 +653,6 @@
     <t>Luo Kian Yang</t>
   </si>
   <si>
-    <t>MALCOLM MU JENN BANG</t>
-  </si>
-  <si>
     <t>Matthew Thong</t>
   </si>
   <si>
@@ -758,12 +704,6 @@
     <t>Nie Naik Wei Qin</t>
   </si>
   <si>
-    <t>Nik Zulhariz bin Nik Fuaad</t>
-  </si>
-  <si>
-    <t>NUR UMIRAH BINTI MAT YUSNI</t>
-  </si>
-  <si>
     <t>Nurul Farhana Azman</t>
   </si>
   <si>
@@ -791,9 +731,6 @@
     <t>Raslan Abdul Rahman</t>
   </si>
   <si>
-    <t>RIKKI WEN</t>
-  </si>
-  <si>
     <t>Ronald Lee Yit Yuan</t>
   </si>
   <si>
@@ -815,9 +752,6 @@
     <t>San Haw Nan</t>
   </si>
   <si>
-    <t>Shahrizad bin Shazuddin</t>
-  </si>
-  <si>
     <t>Sharifah Farzana Binti Syed Alfarly</t>
   </si>
   <si>
@@ -878,9 +812,6 @@
     <t>Timothy Tan Ming Yang</t>
   </si>
   <si>
-    <t>Trisha Tiffenie tan</t>
-  </si>
-  <si>
     <t>Tristan Alexander Pheh Xin Jian</t>
   </si>
   <si>
@@ -932,9 +863,6 @@
     <t>Yap Kee Sheng</t>
   </si>
   <si>
-    <t>Yee Kah hao</t>
-  </si>
-  <si>
     <t>Yeo Aik Cheng</t>
   </si>
   <si>
@@ -956,10 +884,82 @@
     <t>Yusuf Hamdani Bin Abd Manan</t>
   </si>
   <si>
-    <t>Zachary Matthew alabaster</t>
-  </si>
-  <si>
     <t>Zachary Ng Yie-Jie</t>
+  </si>
+  <si>
+    <t>Ahmed Mohammed Khaled Alareqi</t>
+  </si>
+  <si>
+    <t>Aiman Hakeemi Bin Awang Supian</t>
+  </si>
+  <si>
+    <t>Arif Rasydan Bin Abdul Rauf</t>
+  </si>
+  <si>
+    <t>Asfaq Luthfiya</t>
+  </si>
+  <si>
+    <t>Chang Ching Yet</t>
+  </si>
+  <si>
+    <t>Choo Wen Hui</t>
+  </si>
+  <si>
+    <t>Denise Wong</t>
+  </si>
+  <si>
+    <t>Ethan Tan Bo Wen</t>
+  </si>
+  <si>
+    <t>Gan Hoong Liang</t>
+  </si>
+  <si>
+    <t>Hazim Musyrif Bin Saifuddin</t>
+  </si>
+  <si>
+    <t>Iman Danial Bin Fairul Azrai</t>
+  </si>
+  <si>
+    <t>Izzah Amani</t>
+  </si>
+  <si>
+    <t>Karly Tan Kai Yen</t>
+  </si>
+  <si>
+    <t>Kiang Xin Yin</t>
+  </si>
+  <si>
+    <t>Lanisha Anusri A/P Saravanan</t>
+  </si>
+  <si>
+    <t>Lian Yaoming</t>
+  </si>
+  <si>
+    <t>Lim Jun</t>
+  </si>
+  <si>
+    <t>Malcolm Mu Jenn Bang</t>
+  </si>
+  <si>
+    <t>Nik Zulhariz Bin Nik Fuaad</t>
+  </si>
+  <si>
+    <t>Nur Umirah Binti Mat Yusni</t>
+  </si>
+  <si>
+    <t>Rikki Wen</t>
+  </si>
+  <si>
+    <t>Shahrizad Bin Shazuddin</t>
+  </si>
+  <si>
+    <t>Trisha Tiffenie Tan</t>
+  </si>
+  <si>
+    <t>Yee Kah Hao</t>
+  </si>
+  <si>
+    <t>Zachary Matthew Alabaster</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD4630-A43E-4101-88FC-4337AD741BC4}">
   <dimension ref="A1:CX207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AA207"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="10" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="11" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="12" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="13" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="14" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="15" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="16" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="40" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="53" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">SUM(C67:CX67)</f>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="71" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="72" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="73" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="74" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="76" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="77" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="78" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="80" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="81" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="82" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="84" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="85" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="86" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="87" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="88" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="89" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="91" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="92" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="93" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="94" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="95" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="97" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="99" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="100" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="101" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="102" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="103" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="104" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="105" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="106" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="107" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="108" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="109" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="110" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="111" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="112" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="113" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="114" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="115" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="116" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="117" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="118" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="119" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="120" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="121" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="122" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="123" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="124" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="125" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="126" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="127" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="128" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="129" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="130" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="131" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="2">SUM(C131:CX131)</f>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="132" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="133" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="134" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="135" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="136" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="137" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="138" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="139" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="140" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="141" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="142" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="143" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="144" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="145" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="146" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="147" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="148" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="149" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="150" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="151" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="152" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="153" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="154" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="155" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="156" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="157" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="158" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="159" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="160" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="161" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="162" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="163" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="164" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="165" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="166" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="167" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="168" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="169" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="170" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="171" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="172" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="173" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="174" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="175" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="176" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="177" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="178" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="179" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="180" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="181" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="182" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="183" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="184" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="185" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="186" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="187" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="188" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="189" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
@@ -8166,7 +8166,7 @@
     </row>
     <row r="190" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="191" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="192" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="193" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="194" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="195" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B207" si="3">SUM(C195:CX195)</f>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="196" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="197" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="198" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="199" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="200" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="201" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="202" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="203" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="204" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="205" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="206" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="207" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>

--- a/assets/score/bxb-template.xlsx
+++ b/assets/score/bxb-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWRCh\OneDrive\Desktop\BatuuScoring\assets\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genryu\Desktop\bxbscore\assets\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E2598-9D40-4082-A68C-E66F5B93EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D99477-50A3-4FA5-ADBF-090B73C95DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,6 +1104,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,31 +1443,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD4630-A43E-4101-88FC-4337AD741BC4}">
-  <dimension ref="A1:CX207"/>
+  <dimension ref="A1:CX217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AA217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="52" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="77" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="78" max="86" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="87" max="89" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="86" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:102" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1772,13 +1775,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
       <c r="B2">
         <f>SUM(C2:CX2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -1793,40 +1796,66 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>1</v>
+      </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="T2" s="12">
+        <v>1</v>
+      </c>
+      <c r="U2" s="12">
+        <v>1</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1</v>
+      </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">SUM(C3:CX3)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
       <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -1840,26 +1869,36 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -1874,27 +1913,45 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1908,41 +1965,63 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
       <c r="O6" s="8"/>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
       <c r="Q6" s="9"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="11">
+        <v>1</v>
+      </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="11"/>
+      <c r="V6" s="11">
+        <v>1</v>
+      </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="11"/>
+      <c r="Z6" s="11">
+        <v>1</v>
+      </c>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -1976,27 +2055,51 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2010,27 +2113,45 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>283</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
       <c r="N9" s="8"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2044,26 +2165,38 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>284</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
       <c r="O10" s="8"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -2078,27 +2211,45 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
@@ -2112,16 +2263,20 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2130,8 +2285,12 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -2146,7 +2305,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2180,13 +2339,13 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
@@ -2201,20 +2360,32 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="11"/>
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="V14" s="11">
+        <v>1</v>
+      </c>
+      <c r="W14" s="11">
+        <v>1</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="11"/>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2248,7 +2419,7 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -2282,7 +2453,7 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -2316,13 +2487,13 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
@@ -2337,39 +2508,71 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>1</v>
+      </c>
+      <c r="R18" s="11">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>1</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1</v>
+      </c>
+      <c r="U18" s="11">
+        <v>1</v>
+      </c>
+      <c r="V18" s="11">
+        <v>1</v>
+      </c>
+      <c r="W18" s="11">
+        <v>1</v>
+      </c>
+      <c r="X18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>1</v>
+      </c>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>285</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
       <c r="O19" s="8"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2384,27 +2587,43 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>286</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -2418,7 +2637,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2452,7 +2671,7 @@
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -2486,7 +2705,7 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -2520,27 +2739,45 @@
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>120</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1</v>
+      </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -2554,7 +2791,7 @@
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -2588,27 +2825,51 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -2622,27 +2883,47 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>123</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
@@ -2656,26 +2937,38 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>124</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
       <c r="J28" s="8"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
       <c r="O28" s="8"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2690,7 +2983,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -2724,7 +3017,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -2758,7 +3051,7 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -2792,16 +3085,20 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2811,7 +3108,9 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
       <c r="O32" s="8"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2826,7 +3125,7 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -2860,7 +3159,7 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -2868,18 +3167,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -2894,47 +3193,59 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>130</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1</v>
+      </c>
       <c r="O35" s="8"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="11"/>
+      <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>131</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="8"/>
@@ -2949,40 +3260,74 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="11">
+        <v>1</v>
+      </c>
+      <c r="R36" s="11">
+        <v>1</v>
+      </c>
+      <c r="S36" s="11">
+        <v>1</v>
+      </c>
+      <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+      <c r="V36" s="11">
+        <v>1</v>
+      </c>
+      <c r="W36" s="11">
+        <v>1</v>
+      </c>
       <c r="X36" s="9"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
+      <c r="Y36" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>132</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1</v>
+      </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -2996,61 +3341,105 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>133</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>1</v>
+      </c>
+      <c r="R38" s="11">
+        <v>1</v>
+      </c>
+      <c r="S38" s="11">
+        <v>1</v>
+      </c>
+      <c r="T38" s="11">
+        <v>1</v>
+      </c>
       <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="V38" s="11">
+        <v>1</v>
+      </c>
+      <c r="W38" s="11">
+        <v>1</v>
+      </c>
       <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
+      <c r="Y38" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>1</v>
+      </c>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>134</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1</v>
+      </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -3064,27 +3453,45 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>288</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
       <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -3098,16 +3505,20 @@
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>135</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -3132,27 +3543,51 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>136</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1</v>
+      </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
@@ -3166,7 +3601,7 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3200,7 +3635,7 @@
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -3208,19 +3643,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -3234,7 +3669,7 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -3242,19 +3677,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
@@ -3268,27 +3703,53 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1</v>
+      </c>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
@@ -3302,27 +3763,45 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
       <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
       <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="M47" s="7">
+        <v>1</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>1</v>
+      </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
@@ -3336,7 +3815,7 @@
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -3357,54 +3836,72 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-    </row>
-    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>142</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
+      <c r="P49" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>1</v>
+      </c>
+      <c r="R49" s="11">
+        <v>1</v>
+      </c>
+      <c r="S49" s="11">
+        <v>1</v>
+      </c>
+      <c r="T49" s="11">
+        <v>1</v>
+      </c>
       <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="V49" s="11">
+        <v>1</v>
+      </c>
+      <c r="W49" s="11">
+        <v>1</v>
+      </c>
       <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
+      <c r="Y49" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>1</v>
+      </c>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -3438,13 +3935,13 @@
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>144</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="8"/>
@@ -3459,40 +3956,76 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-    </row>
-    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P51" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>1</v>
+      </c>
+      <c r="R51" s="11">
+        <v>1</v>
+      </c>
+      <c r="S51" s="11">
+        <v>1</v>
+      </c>
+      <c r="T51" s="11">
+        <v>1</v>
+      </c>
+      <c r="U51" s="11">
+        <v>1</v>
+      </c>
+      <c r="V51" s="11">
+        <v>1</v>
+      </c>
+      <c r="W51" s="11">
+        <v>1</v>
+      </c>
+      <c r="X51" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>145</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8"/>
+      <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
@@ -3506,13 +4039,13 @@
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>146</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="8"/>
@@ -3527,20 +4060,38 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
+      <c r="P53" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>1</v>
+      </c>
+      <c r="R53" s="11">
+        <v>1</v>
+      </c>
+      <c r="S53" s="11">
+        <v>1</v>
+      </c>
+      <c r="T53" s="11">
+        <v>1</v>
+      </c>
       <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
+      <c r="V53" s="11">
+        <v>1</v>
+      </c>
+      <c r="W53" s="11">
+        <v>1</v>
+      </c>
       <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
+      <c r="Y53" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>1</v>
+      </c>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -3574,27 +4125,51 @@
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>290</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="I55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>1</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
+      <c r="O55" s="7">
+        <v>1</v>
+      </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
@@ -3608,7 +4183,7 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>148</v>
       </c>
@@ -3642,7 +4217,7 @@
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -3676,7 +4251,7 @@
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -3697,20 +4272,20 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="11"/>
+      <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="11"/>
+      <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>151</v>
       </c>
@@ -3733,37 +4308,51 @@
       <c r="O59" s="8"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
-      <c r="Z59" s="11"/>
+      <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>152</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
       <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
       <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
       <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
+      <c r="M60" s="7">
+        <v>1</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
       <c r="O60" s="8"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -3778,13 +4367,13 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="8"/>
@@ -3799,26 +4388,30 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="9"/>
+      <c r="P61" s="11">
+        <v>1</v>
+      </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
+      <c r="V61" s="11">
+        <v>1</v>
+      </c>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>154</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="8"/>
@@ -3835,18 +4428,28 @@
       <c r="O62" s="8"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="R62" s="11">
+        <v>1</v>
+      </c>
+      <c r="S62" s="11">
+        <v>1</v>
+      </c>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="V62" s="11">
+        <v>1</v>
+      </c>
+      <c r="W62" s="11">
+        <v>1</v>
+      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
+      <c r="Z62" s="11">
+        <v>1</v>
+      </c>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>291</v>
       </c>
@@ -3854,19 +4457,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
@@ -3880,7 +4483,7 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>155</v>
       </c>
@@ -3914,27 +4517,41 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+      <c r="O65" s="7">
+        <v>1</v>
+      </c>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
@@ -3948,41 +4565,87 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>156</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
+      <c r="I66" s="7">
+        <v>1</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7">
+        <v>1</v>
+      </c>
+      <c r="P66" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>1</v>
+      </c>
+      <c r="R66" s="11">
+        <v>1</v>
+      </c>
+      <c r="S66" s="11">
+        <v>1</v>
+      </c>
+      <c r="T66" s="11">
+        <v>1</v>
+      </c>
+      <c r="U66" s="11">
+        <v>1</v>
+      </c>
+      <c r="V66" s="11">
+        <v>1</v>
+      </c>
+      <c r="W66" s="11">
+        <v>1</v>
+      </c>
+      <c r="X66" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>1</v>
+      </c>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>293</v>
       </c>
@@ -4016,61 +4679,101 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>157</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>1</v>
+      </c>
+      <c r="R68" s="11">
+        <v>1</v>
+      </c>
+      <c r="S68" s="11">
+        <v>1</v>
+      </c>
+      <c r="T68" s="11">
+        <v>1</v>
+      </c>
+      <c r="U68" s="11">
+        <v>1</v>
+      </c>
+      <c r="V68" s="11">
+        <v>1</v>
+      </c>
+      <c r="W68" s="11">
+        <v>1</v>
+      </c>
+      <c r="X68" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="11">
+        <v>1</v>
+      </c>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>158</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="I69" s="7">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
       <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
+      <c r="M69" s="7">
+        <v>1</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <v>1</v>
+      </c>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
@@ -4084,7 +4787,7 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -4092,19 +4795,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -4118,27 +4821,53 @@
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>294</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" s="7">
+        <v>1</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1</v>
+      </c>
+      <c r="N71" s="7">
+        <v>1</v>
+      </c>
+      <c r="O71" s="7">
+        <v>1</v>
+      </c>
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
@@ -4152,7 +4881,7 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -4186,27 +4915,51 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>161</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
       <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
+      <c r="L73" s="7">
+        <v>1</v>
+      </c>
+      <c r="M73" s="7">
+        <v>1</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1</v>
+      </c>
+      <c r="O73" s="7">
+        <v>1</v>
+      </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
@@ -4220,7 +4973,7 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -4254,7 +5007,7 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -4263,17 +5016,17 @@
         <v>0</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="7"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="7"/>
+      <c r="K75" s="8"/>
       <c r="L75" s="8"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
@@ -4288,7 +5041,7 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -4322,7 +5075,7 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -4330,19 +5083,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
@@ -4356,7 +5109,7 @@
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>166</v>
       </c>
@@ -4390,26 +5143,34 @@
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>167</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="K79" s="7">
+        <v>1</v>
+      </c>
       <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="M79" s="7">
+        <v>1</v>
+      </c>
+      <c r="N79" s="7">
+        <v>1</v>
+      </c>
       <c r="O79" s="8"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
@@ -4424,26 +5185,38 @@
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>168</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
       <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+      <c r="K80" s="7">
+        <v>1</v>
+      </c>
       <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="M80" s="7">
+        <v>1</v>
+      </c>
+      <c r="N80" s="7">
+        <v>1</v>
+      </c>
       <c r="O80" s="8"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
@@ -4458,75 +5231,137 @@
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>169</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1</v>
+      </c>
       <c r="H81" s="8"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
-      <c r="AA81" s="9"/>
-    </row>
-    <row r="82" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+      <c r="K81" s="7">
+        <v>1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7">
+        <v>1</v>
+      </c>
+      <c r="N81" s="7">
+        <v>1</v>
+      </c>
+      <c r="O81" s="7">
+        <v>1</v>
+      </c>
+      <c r="P81" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>1</v>
+      </c>
+      <c r="R81" s="11">
+        <v>1</v>
+      </c>
+      <c r="S81" s="11">
+        <v>1</v>
+      </c>
+      <c r="T81" s="11">
+        <v>1</v>
+      </c>
+      <c r="U81" s="11">
+        <v>1</v>
+      </c>
+      <c r="V81" s="11">
+        <v>1</v>
+      </c>
+      <c r="W81" s="11">
+        <v>1</v>
+      </c>
+      <c r="X81" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>170</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="I82" s="7">
+        <v>1</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1</v>
+      </c>
       <c r="L82" s="8"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
+      <c r="M82" s="7">
+        <v>1</v>
+      </c>
+      <c r="N82" s="7">
+        <v>1</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
       <c r="U82" s="9"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
       <c r="X82" s="9"/>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -4560,13 +5395,13 @@
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>172</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="8"/>
@@ -4581,7 +5416,9 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="9"/>
+      <c r="P84" s="11">
+        <v>1</v>
+      </c>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
@@ -4594,27 +5431,45 @@
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>173</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
+      <c r="I85" s="7">
+        <v>1</v>
+      </c>
+      <c r="J85" s="7">
+        <v>1</v>
+      </c>
+      <c r="K85" s="7">
+        <v>1</v>
+      </c>
+      <c r="L85" s="7">
+        <v>1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>1</v>
+      </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
@@ -4628,41 +5483,75 @@
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>174</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
+      <c r="J86" s="7">
+        <v>1</v>
+      </c>
+      <c r="K86" s="7">
+        <v>1</v>
+      </c>
       <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
+      <c r="M86" s="7">
+        <v>1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>1</v>
+      </c>
+      <c r="O86" s="7">
+        <v>1</v>
+      </c>
+      <c r="P86" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>1</v>
+      </c>
+      <c r="R86" s="11">
+        <v>1</v>
+      </c>
+      <c r="S86" s="11">
+        <v>1</v>
+      </c>
+      <c r="T86" s="11">
+        <v>1</v>
+      </c>
       <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
+      <c r="V86" s="11">
+        <v>1</v>
+      </c>
+      <c r="W86" s="11">
+        <v>1</v>
+      </c>
       <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
+      <c r="Y86" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="11">
+        <v>1</v>
+      </c>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>175</v>
       </c>
@@ -4670,19 +5559,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -4696,7 +5585,7 @@
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -4730,7 +5619,7 @@
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>295</v>
       </c>
@@ -4738,8 +5627,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -4764,7 +5653,7 @@
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -4798,27 +5687,51 @@
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
-    <row r="91" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>178</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7">
+        <v>1</v>
+      </c>
       <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
+      <c r="I91" s="7">
+        <v>1</v>
+      </c>
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+      <c r="K91" s="7">
+        <v>1</v>
+      </c>
+      <c r="L91" s="7">
+        <v>1</v>
+      </c>
+      <c r="M91" s="7">
+        <v>1</v>
+      </c>
+      <c r="N91" s="7">
+        <v>1</v>
+      </c>
+      <c r="O91" s="7">
+        <v>1</v>
+      </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
@@ -4832,7 +5745,7 @@
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -4840,18 +5753,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="8"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
@@ -4866,16 +5779,20 @@
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
     </row>
-    <row r="93" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>296</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -4887,20 +5804,20 @@
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
-      <c r="P93" s="11"/>
+      <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
     </row>
-    <row r="94" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -4908,18 +5825,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="7"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="8"/>
-      <c r="K94" s="7"/>
+      <c r="K94" s="8"/>
       <c r="L94" s="8"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
@@ -4934,13 +5851,13 @@
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
     </row>
-    <row r="95" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>181</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="8"/>
@@ -4955,39 +5872,65 @@
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
-      <c r="P95" s="9"/>
+      <c r="P95" s="11">
+        <v>1</v>
+      </c>
       <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
+      <c r="R95" s="11">
+        <v>1</v>
+      </c>
+      <c r="S95" s="11">
+        <v>1</v>
+      </c>
+      <c r="T95" s="11">
+        <v>1</v>
+      </c>
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
+      <c r="W95" s="11">
+        <v>1</v>
+      </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
-      <c r="Z95" s="9"/>
+      <c r="Z95" s="11">
+        <v>1</v>
+      </c>
       <c r="AA95" s="9"/>
     </row>
-    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>297</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
+      <c r="I96" s="7">
+        <v>1</v>
+      </c>
+      <c r="J96" s="7">
+        <v>1</v>
+      </c>
+      <c r="K96" s="7">
+        <v>1</v>
+      </c>
       <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
+      <c r="M96" s="7">
+        <v>1</v>
+      </c>
+      <c r="N96" s="7">
+        <v>1</v>
+      </c>
       <c r="O96" s="8"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
@@ -5002,26 +5945,38 @@
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
     </row>
-    <row r="97" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>182</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
       <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
+      <c r="K97" s="7">
+        <v>1</v>
+      </c>
       <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+      <c r="M97" s="7">
+        <v>1</v>
+      </c>
+      <c r="N97" s="7">
+        <v>1</v>
+      </c>
       <c r="O97" s="8"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
@@ -5036,13 +5991,13 @@
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
     </row>
-    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>183</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="8"/>
@@ -5057,54 +6012,90 @@
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
-      <c r="P98" s="9"/>
+      <c r="P98" s="11">
+        <v>1</v>
+      </c>
       <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
+      <c r="R98" s="11">
+        <v>1</v>
+      </c>
+      <c r="S98" s="11">
+        <v>1</v>
+      </c>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
+      <c r="V98" s="11">
+        <v>1</v>
+      </c>
+      <c r="W98" s="11">
+        <v>1</v>
+      </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
     </row>
-    <row r="99" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>184</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="G99" s="7">
+        <v>1</v>
+      </c>
       <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="I99" s="7">
+        <v>1</v>
+      </c>
       <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+      <c r="K99" s="7">
+        <v>1</v>
+      </c>
       <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
+      <c r="M99" s="7">
+        <v>1</v>
+      </c>
+      <c r="N99" s="7">
+        <v>1</v>
+      </c>
       <c r="O99" s="8"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
+      <c r="P99" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="11">
+        <v>1</v>
+      </c>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
+      <c r="T99" s="11">
+        <v>1</v>
+      </c>
       <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
+      <c r="V99" s="11">
+        <v>1</v>
+      </c>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="9"/>
+      <c r="Y99" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>1</v>
+      </c>
       <c r="AA99" s="9"/>
     </row>
-    <row r="100" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -5138,27 +6129,41 @@
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
     </row>
-    <row r="101" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>186</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1</v>
+      </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="I101" s="7">
+        <v>1</v>
+      </c>
       <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
+      <c r="K101" s="7">
+        <v>1</v>
+      </c>
       <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
+      <c r="M101" s="7">
+        <v>1</v>
+      </c>
+      <c r="N101" s="7">
+        <v>1</v>
+      </c>
+      <c r="O101" s="7">
+        <v>1</v>
+      </c>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
@@ -5172,7 +6177,7 @@
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -5193,7 +6198,7 @@
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
-      <c r="P102" s="11"/>
+      <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
@@ -5206,26 +6211,38 @@
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>188</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="7">
+        <v>1</v>
+      </c>
       <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
+      <c r="K103" s="7">
+        <v>1</v>
+      </c>
       <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="7"/>
+      <c r="M103" s="7">
+        <v>1</v>
+      </c>
+      <c r="N103" s="7">
+        <v>1</v>
+      </c>
       <c r="O103" s="8"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
@@ -5240,7 +6257,7 @@
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -5248,18 +6265,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="7"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="8"/>
-      <c r="K104" s="7"/>
+      <c r="K104" s="8"/>
       <c r="L104" s="8"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
@@ -5274,7 +6291,7 @@
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
     </row>
-    <row r="105" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>190</v>
       </c>
@@ -5282,19 +6299,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="7"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="7"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="K105" s="7"/>
+      <c r="K105" s="8"/>
       <c r="L105" s="8"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
@@ -5308,7 +6325,7 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>298</v>
       </c>
@@ -5342,28 +6359,30 @@
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
     </row>
-    <row r="107" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>191</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
       <c r="L107" s="8"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
       <c r="O107" s="8"/>
-      <c r="P107" s="9"/>
+      <c r="P107" s="11">
+        <v>1</v>
+      </c>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
@@ -5376,16 +6395,20 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
     </row>
-    <row r="108" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>192</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C108" s="6">
+        <v>1</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
@@ -5394,9 +6417,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="7">
+        <v>1</v>
+      </c>
+      <c r="O108" s="8"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
@@ -5410,61 +6435,95 @@
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>193</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7">
+        <v>1</v>
+      </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="I109" s="7">
+        <v>1</v>
+      </c>
       <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
+      <c r="K109" s="7">
+        <v>1</v>
+      </c>
       <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
+      <c r="M109" s="7">
+        <v>1</v>
+      </c>
+      <c r="N109" s="7">
+        <v>1</v>
+      </c>
       <c r="O109" s="8"/>
-      <c r="P109" s="9"/>
+      <c r="P109" s="11">
+        <v>1</v>
+      </c>
       <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
+      <c r="R109" s="11">
+        <v>1</v>
+      </c>
+      <c r="S109" s="11">
+        <v>1</v>
+      </c>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
       <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
+      <c r="W109" s="11">
+        <v>1</v>
+      </c>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
     </row>
-    <row r="110" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>299</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1</v>
+      </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="I110" s="7">
+        <v>1</v>
+      </c>
       <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
+      <c r="K110" s="7">
+        <v>1</v>
+      </c>
       <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
+      <c r="M110" s="7">
+        <v>1</v>
+      </c>
+      <c r="N110" s="7">
+        <v>1</v>
+      </c>
+      <c r="O110" s="7">
+        <v>1</v>
+      </c>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
@@ -5478,7 +6537,7 @@
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
     </row>
-    <row r="111" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -5512,41 +6571,55 @@
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
     </row>
-    <row r="112" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>195</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
+      <c r="I112" s="7">
+        <v>1</v>
+      </c>
+      <c r="J112" s="7">
+        <v>1</v>
+      </c>
+      <c r="K112" s="7">
+        <v>1</v>
+      </c>
       <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
+      <c r="M112" s="7">
+        <v>1</v>
+      </c>
+      <c r="N112" s="7">
+        <v>1</v>
+      </c>
       <c r="O112" s="8"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
-      <c r="V112" s="11"/>
+      <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
     </row>
-    <row r="113" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -5580,27 +6653,37 @@
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
     </row>
-    <row r="114" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>197</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
       <c r="L114" s="8"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
+      <c r="M114" s="7">
+        <v>1</v>
+      </c>
+      <c r="N114" s="7">
+        <v>1</v>
+      </c>
+      <c r="O114" s="7">
+        <v>1</v>
+      </c>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
@@ -5614,7 +6697,7 @@
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
     </row>
-    <row r="115" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -5648,27 +6731,43 @@
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
     </row>
-    <row r="116" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>199</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
+      </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
+      <c r="I116" s="7">
+        <v>1</v>
+      </c>
+      <c r="J116" s="7">
+        <v>1</v>
+      </c>
+      <c r="K116" s="7">
+        <v>1</v>
+      </c>
       <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
+      <c r="M116" s="7">
+        <v>1</v>
+      </c>
+      <c r="N116" s="7">
+        <v>1</v>
+      </c>
+      <c r="O116" s="7">
+        <v>1</v>
+      </c>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
@@ -5682,7 +6781,7 @@
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
     </row>
-    <row r="117" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -5703,29 +6802,29 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
       <c r="S117" s="9"/>
-      <c r="T117" s="11"/>
+      <c r="T117" s="9"/>
       <c r="U117" s="9"/>
-      <c r="V117" s="11"/>
+      <c r="V117" s="9"/>
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
-      <c r="Y117" s="11"/>
-      <c r="Z117" s="11"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
     </row>
-    <row r="118" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>201</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
@@ -5735,22 +6834,28 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
-      <c r="N118" s="7"/>
+      <c r="N118" s="8"/>
       <c r="O118" s="8"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
+      <c r="P118" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="11">
+        <v>1</v>
+      </c>
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
+      <c r="V118" s="11">
+        <v>1</v>
+      </c>
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
     </row>
-    <row r="119" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -5758,19 +6863,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
@@ -5784,27 +6889,43 @@
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
     </row>
-    <row r="120" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>203</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
-      <c r="G120" s="7"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
+      <c r="I120" s="7">
+        <v>1</v>
+      </c>
+      <c r="J120" s="7">
+        <v>1</v>
+      </c>
+      <c r="K120" s="7">
+        <v>1</v>
+      </c>
       <c r="L120" s="8"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
+      <c r="M120" s="7">
+        <v>1</v>
+      </c>
+      <c r="N120" s="7">
+        <v>1</v>
+      </c>
+      <c r="O120" s="7">
+        <v>1</v>
+      </c>
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
@@ -5818,27 +6939,43 @@
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
     </row>
-    <row r="121" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>204</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1</v>
+      </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
+      <c r="I121" s="7">
+        <v>1</v>
+      </c>
+      <c r="J121" s="7">
+        <v>1</v>
+      </c>
+      <c r="K121" s="7">
+        <v>1</v>
+      </c>
       <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
+      <c r="M121" s="7">
+        <v>1</v>
+      </c>
+      <c r="N121" s="7">
+        <v>1</v>
+      </c>
+      <c r="O121" s="7">
+        <v>1</v>
+      </c>
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
@@ -5852,7 +6989,7 @@
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
     </row>
-    <row r="122" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>300</v>
       </c>
@@ -5860,19 +6997,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="7"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="7"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="8"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
@@ -5886,61 +7023,101 @@
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
     </row>
-    <row r="123" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>205</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+      <c r="D123" s="7">
+        <v>1</v>
+      </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7">
+        <v>1</v>
+      </c>
+      <c r="H123" s="7">
+        <v>1</v>
+      </c>
+      <c r="I123" s="7">
+        <v>1</v>
+      </c>
       <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
+      <c r="K123" s="7">
+        <v>1</v>
+      </c>
+      <c r="L123" s="7">
+        <v>1</v>
+      </c>
+      <c r="M123" s="7">
+        <v>1</v>
+      </c>
+      <c r="N123" s="7">
+        <v>1</v>
+      </c>
+      <c r="O123" s="7">
+        <v>1</v>
+      </c>
+      <c r="P123" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="11">
+        <v>1</v>
+      </c>
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
+      <c r="T123" s="11">
+        <v>1</v>
+      </c>
       <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
+      <c r="V123" s="11">
+        <v>1</v>
+      </c>
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="9"/>
+      <c r="Y123" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="11">
+        <v>1</v>
+      </c>
       <c r="AA123" s="9"/>
     </row>
-    <row r="124" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>206</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1</v>
+      </c>
       <c r="E124" s="8"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="7">
+        <v>1</v>
+      </c>
+      <c r="O124" s="8"/>
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
@@ -5954,27 +7131,51 @@
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
     </row>
-    <row r="125" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>207</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1</v>
+      </c>
+      <c r="E125" s="7">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
+        <v>1</v>
+      </c>
       <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
+      <c r="I125" s="7">
+        <v>1</v>
+      </c>
+      <c r="J125" s="7">
+        <v>1</v>
+      </c>
+      <c r="K125" s="7">
+        <v>1</v>
+      </c>
+      <c r="L125" s="7">
+        <v>1</v>
+      </c>
+      <c r="M125" s="7">
+        <v>1</v>
+      </c>
+      <c r="N125" s="7">
+        <v>1</v>
+      </c>
+      <c r="O125" s="7">
+        <v>1</v>
+      </c>
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
@@ -5988,27 +7189,53 @@
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
     </row>
-    <row r="126" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>208</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>1</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7">
+        <v>1</v>
+      </c>
+      <c r="H126" s="7">
+        <v>1</v>
+      </c>
+      <c r="I126" s="7">
+        <v>1</v>
+      </c>
+      <c r="J126" s="7">
+        <v>1</v>
+      </c>
+      <c r="K126" s="7">
+        <v>1</v>
+      </c>
+      <c r="L126" s="7">
+        <v>1</v>
+      </c>
+      <c r="M126" s="7">
+        <v>1</v>
+      </c>
+      <c r="N126" s="7">
+        <v>1</v>
+      </c>
+      <c r="O126" s="7">
+        <v>1</v>
+      </c>
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
@@ -6022,27 +7249,49 @@
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
     </row>
-    <row r="127" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>209</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7">
+        <v>1</v>
+      </c>
+      <c r="E127" s="7">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1</v>
+      </c>
       <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
+      <c r="I127" s="7">
+        <v>1</v>
+      </c>
+      <c r="J127" s="7">
+        <v>1</v>
+      </c>
+      <c r="K127" s="7">
+        <v>1</v>
+      </c>
       <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
+      <c r="M127" s="7">
+        <v>1</v>
+      </c>
+      <c r="N127" s="7">
+        <v>1</v>
+      </c>
+      <c r="O127" s="7">
+        <v>1</v>
+      </c>
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
@@ -6056,7 +7305,7 @@
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
     </row>
-    <row r="128" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -6090,27 +7339,47 @@
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
     </row>
-    <row r="129" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>211</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
       <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7">
+        <v>1</v>
+      </c>
       <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
+      <c r="I129" s="7">
+        <v>1</v>
+      </c>
       <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
+      <c r="K129" s="7">
+        <v>1</v>
+      </c>
+      <c r="L129" s="7">
+        <v>1</v>
+      </c>
+      <c r="M129" s="7">
+        <v>1</v>
+      </c>
+      <c r="N129" s="7">
+        <v>1</v>
+      </c>
+      <c r="O129" s="7">
+        <v>1</v>
+      </c>
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
@@ -6124,13 +7393,13 @@
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
     </row>
-    <row r="130" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>212</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="8"/>
@@ -6145,40 +7414,78 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
-      <c r="P130" s="9"/>
+      <c r="P130" s="11">
+        <v>1</v>
+      </c>
       <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
+      <c r="R130" s="11">
+        <v>1</v>
+      </c>
       <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
+      <c r="T130" s="11">
+        <v>1</v>
+      </c>
       <c r="U130" s="9"/>
-      <c r="V130" s="9"/>
+      <c r="V130" s="11">
+        <v>1</v>
+      </c>
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="Z130" s="9"/>
+      <c r="Y130" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="11">
+        <v>1</v>
+      </c>
       <c r="AA130" s="9"/>
     </row>
-    <row r="131" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>213</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="2">SUM(C131:CX131)</f>
-        <v>0</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7">
+        <v>1</v>
+      </c>
+      <c r="E131" s="7">
+        <v>1</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7">
+        <v>1</v>
+      </c>
+      <c r="H131" s="7">
+        <v>1</v>
+      </c>
+      <c r="I131" s="7">
+        <v>1</v>
+      </c>
+      <c r="J131" s="7">
+        <v>1</v>
+      </c>
+      <c r="K131" s="7">
+        <v>1</v>
+      </c>
+      <c r="L131" s="7">
+        <v>1</v>
+      </c>
+      <c r="M131" s="7">
+        <v>1</v>
+      </c>
+      <c r="N131" s="7">
+        <v>1</v>
+      </c>
+      <c r="O131" s="7">
+        <v>1</v>
+      </c>
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
@@ -6192,41 +7499,85 @@
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
     </row>
-    <row r="132" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>214</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1</v>
+      </c>
       <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
+      <c r="F132" s="7">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7">
+        <v>1</v>
+      </c>
+      <c r="H132" s="7">
+        <v>1</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1</v>
+      </c>
+      <c r="J132" s="7">
+        <v>1</v>
+      </c>
+      <c r="K132" s="7">
+        <v>1</v>
+      </c>
+      <c r="L132" s="7">
+        <v>1</v>
+      </c>
+      <c r="M132" s="7">
+        <v>1</v>
+      </c>
+      <c r="N132" s="7">
+        <v>1</v>
+      </c>
+      <c r="O132" s="7">
+        <v>1</v>
+      </c>
+      <c r="P132" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="11">
+        <v>1</v>
+      </c>
+      <c r="R132" s="11">
+        <v>1</v>
+      </c>
+      <c r="S132" s="11">
+        <v>1</v>
+      </c>
+      <c r="T132" s="11">
+        <v>1</v>
+      </c>
+      <c r="U132" s="11">
+        <v>1</v>
+      </c>
+      <c r="V132" s="11">
+        <v>1</v>
+      </c>
+      <c r="W132" s="11">
+        <v>1</v>
+      </c>
       <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="9"/>
+      <c r="Y132" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z132" s="11">
+        <v>1</v>
+      </c>
       <c r="AA132" s="9"/>
     </row>
-    <row r="133" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -6234,18 +7585,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="7"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
       <c r="L133" s="8"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
@@ -6260,26 +7611,38 @@
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
     </row>
-    <row r="134" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>216</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
+      <c r="I134" s="7">
+        <v>1</v>
+      </c>
       <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
+      <c r="K134" s="7">
+        <v>1</v>
+      </c>
       <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
+      <c r="M134" s="7">
+        <v>1</v>
+      </c>
+      <c r="N134" s="7">
+        <v>1</v>
+      </c>
       <c r="O134" s="8"/>
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
@@ -6294,41 +7657,59 @@
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
     </row>
-    <row r="135" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>217</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7">
+        <v>1</v>
+      </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="G135" s="7">
+        <v>1</v>
+      </c>
       <c r="H135" s="8"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="7"/>
+      <c r="I135" s="7">
+        <v>1</v>
+      </c>
+      <c r="J135" s="7">
+        <v>1</v>
+      </c>
+      <c r="K135" s="7">
+        <v>1</v>
+      </c>
       <c r="L135" s="8"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="11"/>
+      <c r="M135" s="7">
+        <v>1</v>
+      </c>
+      <c r="N135" s="7">
+        <v>1</v>
+      </c>
+      <c r="O135" s="7">
+        <v>1</v>
+      </c>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
       <c r="R135" s="9"/>
       <c r="S135" s="9"/>
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
-      <c r="V135" s="11"/>
+      <c r="V135" s="9"/>
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
-      <c r="Z135" s="11"/>
+      <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
     </row>
-    <row r="136" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -6362,7 +7743,7 @@
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
     </row>
-    <row r="137" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>219</v>
       </c>
@@ -6370,19 +7751,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="7"/>
+      <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
       <c r="L137" s="8"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
       <c r="R137" s="9"/>
@@ -6396,13 +7777,13 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>220</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="8"/>
@@ -6417,40 +7798,76 @@
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
+      <c r="P138" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="11">
+        <v>1</v>
+      </c>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
-      <c r="V138" s="9"/>
+      <c r="V138" s="11">
+        <v>1</v>
+      </c>
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
-      <c r="Y138" s="9"/>
-      <c r="Z138" s="9"/>
+      <c r="Y138" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z138" s="11">
+        <v>1</v>
+      </c>
       <c r="AA138" s="9"/>
     </row>
-    <row r="139" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>221</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
+      <c r="E139" s="7">
+        <v>1</v>
+      </c>
+      <c r="F139" s="7">
+        <v>1</v>
+      </c>
+      <c r="G139" s="7">
+        <v>1</v>
+      </c>
+      <c r="H139" s="7">
+        <v>1</v>
+      </c>
+      <c r="I139" s="7">
+        <v>1</v>
+      </c>
+      <c r="J139" s="7">
+        <v>1</v>
+      </c>
+      <c r="K139" s="7">
+        <v>1</v>
+      </c>
+      <c r="L139" s="7">
+        <v>1</v>
+      </c>
+      <c r="M139" s="7">
+        <v>1</v>
+      </c>
+      <c r="N139" s="7">
+        <v>1</v>
+      </c>
+      <c r="O139" s="7">
+        <v>1</v>
+      </c>
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
       <c r="R139" s="9"/>
@@ -6464,27 +7881,49 @@
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
-    <row r="140" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>301</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C140" s="6">
+        <v>1</v>
+      </c>
+      <c r="D140" s="7">
+        <v>1</v>
+      </c>
       <c r="E140" s="8"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
+      <c r="F140" s="7">
+        <v>1</v>
+      </c>
+      <c r="G140" s="7">
+        <v>1</v>
+      </c>
       <c r="H140" s="8"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
+      <c r="I140" s="7">
+        <v>1</v>
+      </c>
+      <c r="J140" s="7">
+        <v>1</v>
+      </c>
+      <c r="K140" s="7">
+        <v>1</v>
+      </c>
+      <c r="L140" s="7">
+        <v>1</v>
+      </c>
+      <c r="M140" s="7">
+        <v>1</v>
+      </c>
+      <c r="N140" s="7">
+        <v>1</v>
+      </c>
+      <c r="O140" s="7">
+        <v>1</v>
+      </c>
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
@@ -6498,13 +7937,13 @@
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
     </row>
-    <row r="141" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>302</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="8"/>
@@ -6519,39 +7958,71 @@
       <c r="M141" s="8"/>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
+      <c r="P141" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="11">
+        <v>1</v>
+      </c>
+      <c r="R141" s="11">
+        <v>1</v>
+      </c>
+      <c r="S141" s="11">
+        <v>1</v>
+      </c>
+      <c r="T141" s="11">
+        <v>1</v>
+      </c>
       <c r="U141" s="9"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
+      <c r="V141" s="11">
+        <v>1</v>
+      </c>
+      <c r="W141" s="11">
+        <v>1</v>
+      </c>
       <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
-      <c r="Z141" s="9"/>
+      <c r="Y141" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z141" s="11">
+        <v>1</v>
+      </c>
       <c r="AA141" s="9"/>
     </row>
-    <row r="142" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>222</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
+      <c r="D142" s="7">
+        <v>1</v>
+      </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
+      <c r="I142" s="7">
+        <v>1</v>
+      </c>
+      <c r="J142" s="7">
+        <v>1</v>
+      </c>
+      <c r="K142" s="7">
+        <v>1</v>
+      </c>
       <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
+      <c r="M142" s="7">
+        <v>1</v>
+      </c>
+      <c r="N142" s="7">
+        <v>1</v>
+      </c>
       <c r="O142" s="8"/>
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
@@ -6566,13 +8037,13 @@
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
     </row>
-    <row r="143" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>223</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="8"/>
@@ -6587,74 +8058,138 @@
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9"/>
+      <c r="P143" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="11">
+        <v>1</v>
+      </c>
+      <c r="R143" s="11">
+        <v>1</v>
+      </c>
+      <c r="S143" s="11">
+        <v>1</v>
+      </c>
+      <c r="T143" s="11">
+        <v>1</v>
+      </c>
       <c r="U143" s="9"/>
-      <c r="V143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="X143" s="9"/>
-      <c r="Y143" s="9"/>
-      <c r="Z143" s="11"/>
-      <c r="AA143" s="9"/>
-    </row>
-    <row r="144" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V143" s="11">
+        <v>1</v>
+      </c>
+      <c r="W143" s="11">
+        <v>1</v>
+      </c>
+      <c r="X143" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y143" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z143" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA143" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>224</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C144" s="6">
+        <v>1</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1</v>
+      </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
+      <c r="I144" s="7">
+        <v>1</v>
+      </c>
       <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
+      <c r="K144" s="7">
+        <v>1</v>
+      </c>
       <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
+      <c r="M144" s="7">
+        <v>1</v>
+      </c>
+      <c r="N144" s="7">
+        <v>1</v>
+      </c>
       <c r="O144" s="8"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
+      <c r="P144" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="11">
+        <v>1</v>
+      </c>
       <c r="R144" s="9"/>
       <c r="S144" s="9"/>
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
-      <c r="V144" s="9"/>
+      <c r="V144" s="11">
+        <v>1</v>
+      </c>
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="9"/>
-      <c r="Z144" s="9"/>
+      <c r="Z144" s="11">
+        <v>1</v>
+      </c>
       <c r="AA144" s="9"/>
     </row>
-    <row r="145" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>225</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="7">
+        <v>1</v>
+      </c>
       <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7">
+        <v>1</v>
+      </c>
       <c r="H145" s="8"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="7"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="8"/>
+      <c r="I145" s="7">
+        <v>1</v>
+      </c>
+      <c r="J145" s="7">
+        <v>1</v>
+      </c>
+      <c r="K145" s="7">
+        <v>1</v>
+      </c>
+      <c r="L145" s="7">
+        <v>1</v>
+      </c>
+      <c r="M145" s="7">
+        <v>1</v>
+      </c>
+      <c r="N145" s="7">
+        <v>1</v>
+      </c>
+      <c r="O145" s="7">
+        <v>1</v>
+      </c>
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
       <c r="R145" s="9"/>
@@ -6668,27 +8203,47 @@
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
     </row>
-    <row r="146" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>226</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1</v>
+      </c>
       <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
+      <c r="F146" s="7">
+        <v>1</v>
+      </c>
+      <c r="G146" s="7">
+        <v>1</v>
+      </c>
       <c r="H146" s="8"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
+      <c r="I146" s="7">
+        <v>1</v>
+      </c>
+      <c r="J146" s="7">
+        <v>1</v>
+      </c>
+      <c r="K146" s="7">
+        <v>1</v>
+      </c>
       <c r="L146" s="8"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
+      <c r="M146" s="7">
+        <v>1</v>
+      </c>
+      <c r="N146" s="7">
+        <v>1</v>
+      </c>
+      <c r="O146" s="7">
+        <v>1</v>
+      </c>
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
@@ -6702,7 +8257,7 @@
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
     </row>
-    <row r="147" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>227</v>
       </c>
@@ -6723,20 +8278,20 @@
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
-      <c r="P147" s="11"/>
+      <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
-      <c r="T147" s="11"/>
+      <c r="T147" s="9"/>
       <c r="U147" s="9"/>
-      <c r="V147" s="11"/>
+      <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
-      <c r="Y147" s="11"/>
-      <c r="Z147" s="11"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
     </row>
-    <row r="148" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>228</v>
       </c>
@@ -6757,40 +8312,62 @@
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
-      <c r="P148" s="11"/>
+      <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
       <c r="U148" s="9"/>
-      <c r="V148" s="11"/>
-      <c r="W148" s="11"/>
-      <c r="X148" s="11"/>
-      <c r="Y148" s="11"/>
-      <c r="Z148" s="11"/>
-      <c r="AA148" s="11"/>
-    </row>
-    <row r="149" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V148" s="9"/>
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+      <c r="Z148" s="9"/>
+      <c r="AA148" s="9"/>
+    </row>
+    <row r="149" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>229</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7">
+        <v>1</v>
+      </c>
       <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7">
+        <v>1</v>
+      </c>
       <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-      <c r="O149" s="8"/>
+      <c r="I149" s="7">
+        <v>1</v>
+      </c>
+      <c r="J149" s="7">
+        <v>1</v>
+      </c>
+      <c r="K149" s="7">
+        <v>1</v>
+      </c>
+      <c r="L149" s="7">
+        <v>1</v>
+      </c>
+      <c r="M149" s="7">
+        <v>1</v>
+      </c>
+      <c r="N149" s="7">
+        <v>1</v>
+      </c>
+      <c r="O149" s="7">
+        <v>1</v>
+      </c>
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
@@ -6804,7 +8381,7 @@
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
     </row>
-    <row r="150" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>230</v>
       </c>
@@ -6838,7 +8415,7 @@
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
     </row>
-    <row r="151" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>303</v>
       </c>
@@ -6872,29 +8449,33 @@
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
     </row>
-    <row r="152" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>231</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="7"/>
+      <c r="G152" s="8"/>
       <c r="H152" s="8"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="9"/>
-      <c r="Q152" s="9"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="11">
+        <v>1</v>
+      </c>
       <c r="R152" s="9"/>
       <c r="S152" s="9"/>
       <c r="T152" s="9"/>
@@ -6903,30 +8484,46 @@
       <c r="W152" s="9"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="9"/>
-      <c r="Z152" s="9"/>
+      <c r="Z152" s="11">
+        <v>1</v>
+      </c>
       <c r="AA152" s="9"/>
     </row>
-    <row r="153" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>232</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C153" s="6">
+        <v>1</v>
+      </c>
+      <c r="D153" s="7">
+        <v>1</v>
+      </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="7"/>
+      <c r="I153" s="7">
+        <v>1</v>
+      </c>
+      <c r="J153" s="7">
+        <v>1</v>
+      </c>
+      <c r="K153" s="7">
+        <v>1</v>
+      </c>
       <c r="L153" s="8"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
+      <c r="M153" s="7">
+        <v>1</v>
+      </c>
+      <c r="N153" s="7">
+        <v>1</v>
+      </c>
+      <c r="O153" s="8"/>
       <c r="P153" s="9"/>
       <c r="Q153" s="9"/>
       <c r="R153" s="9"/>
@@ -6940,13 +8537,13 @@
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
     </row>
-    <row r="154" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>233</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="8"/>
@@ -6961,39 +8558,73 @@
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
-      <c r="P154" s="9"/>
-      <c r="Q154" s="9"/>
-      <c r="R154" s="9"/>
-      <c r="S154" s="9"/>
-      <c r="T154" s="9"/>
-      <c r="U154" s="9"/>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9"/>
-      <c r="X154" s="9"/>
-      <c r="Y154" s="9"/>
-      <c r="Z154" s="9"/>
+      <c r="P154" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="11">
+        <v>1</v>
+      </c>
+      <c r="R154" s="11">
+        <v>1</v>
+      </c>
+      <c r="S154" s="11">
+        <v>1</v>
+      </c>
+      <c r="T154" s="11">
+        <v>1</v>
+      </c>
+      <c r="U154" s="11">
+        <v>1</v>
+      </c>
+      <c r="V154" s="11">
+        <v>1</v>
+      </c>
+      <c r="W154" s="11">
+        <v>1</v>
+      </c>
+      <c r="X154" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y154" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z154" s="11">
+        <v>1</v>
+      </c>
       <c r="AA154" s="9"/>
     </row>
-    <row r="155" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>234</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="7">
+        <v>1</v>
+      </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
+      <c r="I155" s="7">
+        <v>1</v>
+      </c>
       <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
+      <c r="K155" s="7">
+        <v>1</v>
+      </c>
       <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
+      <c r="M155" s="7">
+        <v>1</v>
+      </c>
+      <c r="N155" s="7">
+        <v>1</v>
+      </c>
       <c r="O155" s="8"/>
       <c r="P155" s="9"/>
       <c r="Q155" s="9"/>
@@ -7008,30 +8639,52 @@
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
     </row>
-    <row r="156" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>235</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C156" s="6">
+        <v>1</v>
+      </c>
+      <c r="D156" s="7">
+        <v>1</v>
+      </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
+      <c r="I156" s="7">
+        <v>1</v>
+      </c>
+      <c r="J156" s="7">
+        <v>1</v>
+      </c>
+      <c r="K156" s="7">
+        <v>1</v>
+      </c>
       <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-      <c r="P156" s="9"/>
-      <c r="Q156" s="9"/>
-      <c r="R156" s="9"/>
+      <c r="M156" s="7">
+        <v>1</v>
+      </c>
+      <c r="N156" s="7">
+        <v>1</v>
+      </c>
+      <c r="O156" s="7">
+        <v>1</v>
+      </c>
+      <c r="P156" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="11">
+        <v>1</v>
+      </c>
+      <c r="R156" s="11">
+        <v>1</v>
+      </c>
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
@@ -7039,19 +8692,21 @@
       <c r="W156" s="9"/>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
-      <c r="Z156" s="9"/>
+      <c r="Z156" s="11">
+        <v>1</v>
+      </c>
       <c r="AA156" s="9"/>
     </row>
-    <row r="157" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>236</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
@@ -7061,28 +8716,38 @@
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
-      <c r="N157" s="7"/>
+      <c r="N157" s="8"/>
       <c r="O157" s="8"/>
-      <c r="P157" s="9"/>
+      <c r="P157" s="11">
+        <v>1</v>
+      </c>
       <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
       <c r="S157" s="9"/>
-      <c r="T157" s="9"/>
+      <c r="T157" s="11">
+        <v>1</v>
+      </c>
       <c r="U157" s="9"/>
-      <c r="V157" s="9"/>
+      <c r="V157" s="11">
+        <v>1</v>
+      </c>
       <c r="W157" s="9"/>
       <c r="X157" s="9"/>
-      <c r="Y157" s="9"/>
-      <c r="Z157" s="9"/>
+      <c r="Y157" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z157" s="11">
+        <v>1</v>
+      </c>
       <c r="AA157" s="9"/>
     </row>
-    <row r="158" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>237</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="8"/>
@@ -7097,20 +8762,40 @@
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
-      <c r="P158" s="9"/>
+      <c r="P158" s="11">
+        <v>1</v>
+      </c>
       <c r="Q158" s="9"/>
-      <c r="R158" s="9"/>
-      <c r="S158" s="9"/>
-      <c r="T158" s="9"/>
+      <c r="R158" s="11">
+        <v>1</v>
+      </c>
+      <c r="S158" s="11">
+        <v>1</v>
+      </c>
+      <c r="T158" s="11">
+        <v>1</v>
+      </c>
       <c r="U158" s="9"/>
-      <c r="V158" s="9"/>
-      <c r="W158" s="9"/>
-      <c r="X158" s="9"/>
-      <c r="Y158" s="9"/>
-      <c r="Z158" s="9"/>
-      <c r="AA158" s="9"/>
-    </row>
-    <row r="159" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V158" s="11">
+        <v>1</v>
+      </c>
+      <c r="W158" s="11">
+        <v>1</v>
+      </c>
+      <c r="X158" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y158" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z158" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA158" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>304</v>
       </c>
@@ -7144,27 +8829,47 @@
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
     </row>
-    <row r="160" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>238</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1</v>
+      </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
+      <c r="G160" s="7">
+        <v>1</v>
+      </c>
       <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
-      <c r="O160" s="8"/>
+      <c r="I160" s="7">
+        <v>1</v>
+      </c>
+      <c r="J160" s="7">
+        <v>1</v>
+      </c>
+      <c r="K160" s="7">
+        <v>1</v>
+      </c>
+      <c r="L160" s="7">
+        <v>1</v>
+      </c>
+      <c r="M160" s="7">
+        <v>1</v>
+      </c>
+      <c r="N160" s="7">
+        <v>1</v>
+      </c>
+      <c r="O160" s="7">
+        <v>1</v>
+      </c>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
@@ -7178,16 +8883,20 @@
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
     </row>
-    <row r="161" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>239</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="7">
+        <v>1</v>
+      </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
@@ -7197,7 +8906,9 @@
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
+      <c r="N161" s="7">
+        <v>1</v>
+      </c>
       <c r="O161" s="8"/>
       <c r="P161" s="9"/>
       <c r="Q161" s="9"/>
@@ -7212,27 +8923,47 @@
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
     </row>
-    <row r="162" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>240</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C162" s="6">
+        <v>1</v>
+      </c>
+      <c r="D162" s="7">
+        <v>1</v>
+      </c>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
+      <c r="G162" s="7">
+        <v>1</v>
+      </c>
       <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="8"/>
+      <c r="I162" s="7">
+        <v>1</v>
+      </c>
+      <c r="J162" s="7">
+        <v>1</v>
+      </c>
+      <c r="K162" s="7">
+        <v>1</v>
+      </c>
+      <c r="L162" s="7">
+        <v>1</v>
+      </c>
+      <c r="M162" s="7">
+        <v>1</v>
+      </c>
+      <c r="N162" s="7">
+        <v>1</v>
+      </c>
+      <c r="O162" s="7">
+        <v>1</v>
+      </c>
       <c r="P162" s="9"/>
       <c r="Q162" s="9"/>
       <c r="R162" s="9"/>
@@ -7246,27 +8977,41 @@
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
     </row>
-    <row r="163" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>241</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C163" s="6">
+        <v>1</v>
+      </c>
+      <c r="D163" s="7">
+        <v>1</v>
+      </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="7"/>
+      <c r="G163" s="8"/>
       <c r="H163" s="8"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
+      <c r="I163" s="7">
+        <v>1</v>
+      </c>
+      <c r="J163" s="8"/>
+      <c r="K163" s="7">
+        <v>1</v>
+      </c>
       <c r="L163" s="8"/>
-      <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
-      <c r="O163" s="7"/>
+      <c r="M163" s="7">
+        <v>1</v>
+      </c>
+      <c r="N163" s="7">
+        <v>1</v>
+      </c>
+      <c r="O163" s="7">
+        <v>1</v>
+      </c>
       <c r="P163" s="9"/>
       <c r="Q163" s="9"/>
       <c r="R163" s="9"/>
@@ -7280,7 +9025,7 @@
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
     </row>
-    <row r="164" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -7314,7 +9059,7 @@
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
     </row>
-    <row r="165" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -7348,7 +9093,7 @@
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
     </row>
-    <row r="166" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>244</v>
       </c>
@@ -7356,19 +9101,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="7"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="7"/>
+      <c r="G166" s="8"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="7"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
       <c r="L166" s="8"/>
-      <c r="M166" s="7"/>
-      <c r="N166" s="7"/>
-      <c r="O166" s="7"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
@@ -7382,26 +9127,32 @@
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
     </row>
-    <row r="167" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>245</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C167" s="6">
+        <v>1</v>
+      </c>
+      <c r="D167" s="7">
+        <v>1</v>
+      </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="7">
+        <v>1</v>
+      </c>
       <c r="O167" s="8"/>
       <c r="P167" s="9"/>
       <c r="Q167" s="9"/>
@@ -7416,7 +9167,7 @@
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
     </row>
-    <row r="168" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -7424,18 +9175,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="7"/>
+      <c r="G168" s="8"/>
       <c r="H168" s="8"/>
-      <c r="I168" s="7"/>
+      <c r="I168" s="8"/>
       <c r="J168" s="8"/>
-      <c r="K168" s="7"/>
+      <c r="K168" s="8"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
       <c r="O168" s="8"/>
       <c r="P168" s="9"/>
       <c r="Q168" s="9"/>
@@ -7450,26 +9201,30 @@
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
     </row>
-    <row r="169" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>247</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="7">
+        <v>1</v>
+      </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
       <c r="L169" s="8"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="7"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="7">
+        <v>1</v>
+      </c>
       <c r="O169" s="8"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
@@ -7484,7 +9239,7 @@
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
     </row>
-    <row r="170" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>248</v>
       </c>
@@ -7492,18 +9247,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="7"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
-      <c r="K170" s="7"/>
+      <c r="K170" s="8"/>
       <c r="L170" s="8"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
       <c r="O170" s="8"/>
       <c r="P170" s="9"/>
       <c r="Q170" s="9"/>
@@ -7518,7 +9273,7 @@
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
     </row>
-    <row r="171" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>249</v>
       </c>
@@ -7552,7 +9307,7 @@
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
     </row>
-    <row r="172" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>250</v>
       </c>
@@ -7586,27 +9341,45 @@
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
     </row>
-    <row r="173" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>251</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C173" s="6">
+        <v>1</v>
+      </c>
+      <c r="D173" s="7">
+        <v>1</v>
+      </c>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
+      <c r="G173" s="7">
+        <v>1</v>
+      </c>
       <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
+      <c r="I173" s="7">
+        <v>1</v>
+      </c>
+      <c r="J173" s="7">
+        <v>1</v>
+      </c>
+      <c r="K173" s="7">
+        <v>1</v>
+      </c>
       <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
-      <c r="O173" s="8"/>
+      <c r="M173" s="7">
+        <v>1</v>
+      </c>
+      <c r="N173" s="7">
+        <v>1</v>
+      </c>
+      <c r="O173" s="7">
+        <v>1</v>
+      </c>
       <c r="P173" s="9"/>
       <c r="Q173" s="9"/>
       <c r="R173" s="9"/>
@@ -7620,7 +9393,7 @@
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
     </row>
-    <row r="174" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -7654,7 +9427,7 @@
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
     </row>
-    <row r="175" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>253</v>
       </c>
@@ -7662,18 +9435,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="7"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="8"/>
       <c r="O175" s="8"/>
       <c r="P175" s="9"/>
       <c r="Q175" s="9"/>
@@ -7688,27 +9461,45 @@
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
     </row>
-    <row r="176" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>254</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C176" s="6">
+        <v>1</v>
+      </c>
+      <c r="D176" s="7">
+        <v>1</v>
+      </c>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
+      <c r="G176" s="7">
+        <v>1</v>
+      </c>
       <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
+      <c r="I176" s="7">
+        <v>1</v>
+      </c>
+      <c r="J176" s="7">
+        <v>1</v>
+      </c>
+      <c r="K176" s="7">
+        <v>1</v>
+      </c>
       <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="8"/>
+      <c r="M176" s="7">
+        <v>1</v>
+      </c>
+      <c r="N176" s="7">
+        <v>1</v>
+      </c>
+      <c r="O176" s="7">
+        <v>1</v>
+      </c>
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
@@ -7722,26 +9513,40 @@
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
     </row>
-    <row r="177" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>255</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C177" s="6">
+        <v>1</v>
+      </c>
+      <c r="D177" s="7">
+        <v>1</v>
+      </c>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
+      <c r="I177" s="7">
+        <v>1</v>
+      </c>
+      <c r="J177" s="7">
+        <v>1</v>
+      </c>
+      <c r="K177" s="7">
+        <v>1</v>
+      </c>
       <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
+      <c r="M177" s="7">
+        <v>1</v>
+      </c>
+      <c r="N177" s="7">
+        <v>1</v>
+      </c>
       <c r="O177" s="8"/>
       <c r="P177" s="9"/>
       <c r="Q177" s="9"/>
@@ -7756,26 +9561,42 @@
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
     </row>
-    <row r="178" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>256</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C178" s="6">
+        <v>1</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1</v>
+      </c>
+      <c r="E178" s="7">
+        <v>1</v>
+      </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
+      <c r="G178" s="7">
+        <v>1</v>
+      </c>
       <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
+      <c r="I178" s="7">
+        <v>1</v>
+      </c>
       <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+      <c r="K178" s="7">
+        <v>1</v>
+      </c>
       <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
+      <c r="M178" s="7">
+        <v>1</v>
+      </c>
+      <c r="N178" s="7">
+        <v>1</v>
+      </c>
       <c r="O178" s="8"/>
       <c r="P178" s="9"/>
       <c r="Q178" s="9"/>
@@ -7790,26 +9611,40 @@
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
     </row>
-    <row r="179" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>257</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C179" s="6">
+        <v>1</v>
+      </c>
+      <c r="D179" s="7">
+        <v>1</v>
+      </c>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
+      <c r="I179" s="7">
+        <v>1</v>
+      </c>
+      <c r="J179" s="7">
+        <v>1</v>
+      </c>
+      <c r="K179" s="7">
+        <v>1</v>
+      </c>
       <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
+      <c r="M179" s="7">
+        <v>1</v>
+      </c>
+      <c r="N179" s="7">
+        <v>1</v>
+      </c>
       <c r="O179" s="8"/>
       <c r="P179" s="9"/>
       <c r="Q179" s="9"/>
@@ -7824,26 +9659,36 @@
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
     </row>
-    <row r="180" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>305</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C180" s="6"/>
-      <c r="D180" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C180" s="6">
+        <v>1</v>
+      </c>
+      <c r="D180" s="7">
+        <v>1</v>
+      </c>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
-      <c r="K180" s="7"/>
+      <c r="K180" s="7">
+        <v>1</v>
+      </c>
       <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="7"/>
+      <c r="M180" s="7">
+        <v>1</v>
+      </c>
+      <c r="N180" s="7">
+        <v>1</v>
+      </c>
       <c r="O180" s="8"/>
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
@@ -7858,7 +9703,7 @@
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
     </row>
-    <row r="181" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>258</v>
       </c>
@@ -7866,19 +9711,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C181" s="6"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
       <c r="H181" s="8"/>
-      <c r="I181" s="7"/>
+      <c r="I181" s="8"/>
       <c r="J181" s="8"/>
-      <c r="K181" s="7"/>
+      <c r="K181" s="8"/>
       <c r="L181" s="8"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="8"/>
       <c r="P181" s="9"/>
       <c r="Q181" s="9"/>
       <c r="R181" s="9"/>
@@ -7892,7 +9737,7 @@
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
     </row>
-    <row r="182" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>259</v>
       </c>
@@ -7926,7 +9771,7 @@
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
     </row>
-    <row r="183" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>260</v>
       </c>
@@ -7960,7 +9805,7 @@
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
     </row>
-    <row r="184" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>261</v>
       </c>
@@ -7994,26 +9839,40 @@
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
     </row>
-    <row r="185" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>262</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C185" s="6">
+        <v>1</v>
+      </c>
+      <c r="D185" s="7">
+        <v>1</v>
+      </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="7"/>
+      <c r="I185" s="7">
+        <v>1</v>
+      </c>
+      <c r="J185" s="7">
+        <v>1</v>
+      </c>
+      <c r="K185" s="7">
+        <v>1</v>
+      </c>
       <c r="L185" s="8"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
+      <c r="M185" s="7">
+        <v>1</v>
+      </c>
+      <c r="N185" s="7">
+        <v>1</v>
+      </c>
       <c r="O185" s="8"/>
       <c r="P185" s="9"/>
       <c r="Q185" s="9"/>
@@ -8028,7 +9887,7 @@
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
     </row>
-    <row r="186" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -8062,7 +9921,7 @@
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
     </row>
-    <row r="187" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>264</v>
       </c>
@@ -8096,7 +9955,7 @@
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
     </row>
-    <row r="188" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>265</v>
       </c>
@@ -8117,20 +9976,20 @@
       <c r="M188" s="8"/>
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
-      <c r="P188" s="11"/>
-      <c r="Q188" s="11"/>
-      <c r="R188" s="11"/>
+      <c r="P188" s="9"/>
+      <c r="Q188" s="9"/>
+      <c r="R188" s="9"/>
       <c r="S188" s="9"/>
       <c r="T188" s="9"/>
-      <c r="U188" s="11"/>
-      <c r="V188" s="11"/>
+      <c r="U188" s="9"/>
+      <c r="V188" s="9"/>
       <c r="W188" s="9"/>
       <c r="X188" s="9"/>
-      <c r="Y188" s="11"/>
-      <c r="Z188" s="11"/>
-      <c r="AA188" s="11"/>
-    </row>
-    <row r="189" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y188" s="9"/>
+      <c r="Z188" s="9"/>
+      <c r="AA188" s="9"/>
+    </row>
+    <row r="189" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>266</v>
       </c>
@@ -8138,19 +9997,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="7"/>
+      <c r="G189" s="8"/>
       <c r="H189" s="8"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="8"/>
       <c r="P189" s="9"/>
       <c r="Q189" s="9"/>
       <c r="R189" s="9"/>
@@ -8164,26 +10023,34 @@
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
     </row>
-    <row r="190" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>267</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="C190" s="6">
+        <v>1</v>
+      </c>
+      <c r="D190" s="7">
+        <v>1</v>
+      </c>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
+      <c r="K190" s="7">
+        <v>1</v>
+      </c>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
-      <c r="N190" s="8"/>
+      <c r="N190" s="7">
+        <v>1</v>
+      </c>
       <c r="O190" s="8"/>
       <c r="P190" s="9"/>
       <c r="Q190" s="9"/>
@@ -8198,27 +10065,47 @@
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
     </row>
-    <row r="191" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>268</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C191" s="6">
+        <v>1</v>
+      </c>
+      <c r="D191" s="7">
+        <v>1</v>
+      </c>
+      <c r="E191" s="7">
+        <v>1</v>
+      </c>
+      <c r="F191" s="7">
+        <v>1</v>
+      </c>
+      <c r="G191" s="7">
+        <v>1</v>
+      </c>
       <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="7">
+        <v>1</v>
+      </c>
       <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
+      <c r="K191" s="7">
+        <v>1</v>
+      </c>
       <c r="L191" s="8"/>
-      <c r="M191" s="8"/>
-      <c r="N191" s="8"/>
-      <c r="O191" s="8"/>
+      <c r="M191" s="7">
+        <v>1</v>
+      </c>
+      <c r="N191" s="7">
+        <v>1</v>
+      </c>
+      <c r="O191" s="7">
+        <v>1</v>
+      </c>
       <c r="P191" s="9"/>
       <c r="Q191" s="9"/>
       <c r="R191" s="9"/>
@@ -8232,7 +10119,7 @@
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
     </row>
-    <row r="192" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>269</v>
       </c>
@@ -8253,20 +10140,20 @@
       <c r="M192" s="8"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
-      <c r="P192" s="11"/>
-      <c r="Q192" s="11"/>
+      <c r="P192" s="9"/>
+      <c r="Q192" s="9"/>
       <c r="R192" s="9"/>
       <c r="S192" s="9"/>
       <c r="T192" s="9"/>
       <c r="U192" s="9"/>
-      <c r="V192" s="11"/>
+      <c r="V192" s="9"/>
       <c r="W192" s="9"/>
       <c r="X192" s="9"/>
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
     </row>
-    <row r="193" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>270</v>
       </c>
@@ -8274,18 +10161,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="7"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="7"/>
+      <c r="I193" s="8"/>
       <c r="J193" s="8"/>
-      <c r="K193" s="7"/>
+      <c r="K193" s="8"/>
       <c r="L193" s="8"/>
-      <c r="M193" s="7"/>
-      <c r="N193" s="7"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8"/>
       <c r="O193" s="8"/>
       <c r="P193" s="9"/>
       <c r="Q193" s="9"/>
@@ -8300,7 +10187,7 @@
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
     </row>
-    <row r="194" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>271</v>
       </c>
@@ -8308,19 +10195,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C194" s="6"/>
-      <c r="D194" s="7"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="8"/>
       <c r="E194" s="8"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
       <c r="H194" s="8"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="7"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
       <c r="L194" s="8"/>
-      <c r="M194" s="7"/>
-      <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
+      <c r="O194" s="8"/>
       <c r="P194" s="9"/>
       <c r="Q194" s="9"/>
       <c r="R194" s="9"/>
@@ -8334,61 +10221,101 @@
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
     </row>
-    <row r="195" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>272</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B207" si="3">SUM(C195:CX195)</f>
-        <v>0</v>
-      </c>
-      <c r="C195" s="6"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="7"/>
-      <c r="M195" s="7"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C195" s="6">
+        <v>1</v>
+      </c>
+      <c r="D195" s="7">
+        <v>1</v>
+      </c>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="7">
+        <v>1</v>
+      </c>
+      <c r="J195" s="8"/>
+      <c r="K195" s="7">
+        <v>1</v>
+      </c>
+      <c r="L195" s="8"/>
+      <c r="M195" s="7">
+        <v>1</v>
+      </c>
+      <c r="N195" s="7">
+        <v>1</v>
+      </c>
+      <c r="O195" s="8"/>
+      <c r="P195" s="11">
+        <v>1</v>
+      </c>
       <c r="Q195" s="9"/>
-      <c r="R195" s="9"/>
-      <c r="S195" s="9"/>
+      <c r="R195" s="11">
+        <v>1</v>
+      </c>
+      <c r="S195" s="11">
+        <v>1</v>
+      </c>
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
-      <c r="V195" s="9"/>
-      <c r="W195" s="9"/>
+      <c r="V195" s="11">
+        <v>1</v>
+      </c>
+      <c r="W195" s="11">
+        <v>1</v>
+      </c>
       <c r="X195" s="9"/>
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
     </row>
-    <row r="196" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>273</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C196" s="6">
+        <v>1</v>
+      </c>
+      <c r="D196" s="7">
+        <v>1</v>
+      </c>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
+      <c r="G196" s="7">
+        <v>1</v>
+      </c>
       <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
+      <c r="I196" s="7">
+        <v>1</v>
+      </c>
+      <c r="J196" s="7">
+        <v>1</v>
+      </c>
+      <c r="K196" s="7">
+        <v>1</v>
+      </c>
       <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
+      <c r="M196" s="7">
+        <v>1</v>
+      </c>
+      <c r="N196" s="7">
+        <v>1</v>
+      </c>
+      <c r="O196" s="7">
+        <v>1</v>
+      </c>
       <c r="P196" s="9"/>
       <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
@@ -8402,7 +10329,7 @@
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
     </row>
-    <row r="197" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>274</v>
       </c>
@@ -8436,13 +10363,13 @@
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
     </row>
-    <row r="198" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>306</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="8"/>
@@ -8457,40 +10384,78 @@
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
-      <c r="P198" s="11"/>
-      <c r="Q198" s="11"/>
-      <c r="R198" s="11"/>
-      <c r="S198" s="11"/>
-      <c r="T198" s="11"/>
-      <c r="U198" s="11"/>
-      <c r="V198" s="11"/>
+      <c r="P198" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="11">
+        <v>1</v>
+      </c>
+      <c r="R198" s="11">
+        <v>1</v>
+      </c>
+      <c r="S198" s="9"/>
+      <c r="T198" s="9"/>
+      <c r="U198" s="11">
+        <v>1</v>
+      </c>
+      <c r="V198" s="11">
+        <v>1</v>
+      </c>
       <c r="W198" s="9"/>
-      <c r="X198" s="11"/>
-      <c r="Y198" s="11"/>
-      <c r="Z198" s="11"/>
-      <c r="AA198" s="9"/>
-    </row>
-    <row r="199" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X198" s="9"/>
+      <c r="Y198" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z198" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA198" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>275</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C199" s="6">
+        <v>1</v>
+      </c>
+      <c r="D199" s="7">
+        <v>1</v>
+      </c>
+      <c r="E199" s="7">
+        <v>1</v>
+      </c>
       <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
+      <c r="G199" s="7">
+        <v>1</v>
+      </c>
       <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
-      <c r="N199" s="8"/>
-      <c r="O199" s="8"/>
+      <c r="I199" s="7">
+        <v>1</v>
+      </c>
+      <c r="J199" s="7">
+        <v>1</v>
+      </c>
+      <c r="K199" s="7">
+        <v>1</v>
+      </c>
+      <c r="L199" s="7">
+        <v>1</v>
+      </c>
+      <c r="M199" s="7">
+        <v>1</v>
+      </c>
+      <c r="N199" s="7">
+        <v>1</v>
+      </c>
+      <c r="O199" s="7">
+        <v>1</v>
+      </c>
       <c r="P199" s="9"/>
       <c r="Q199" s="9"/>
       <c r="R199" s="9"/>
@@ -8504,27 +10469,43 @@
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
     </row>
-    <row r="200" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>276</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C200" s="6">
+        <v>1</v>
+      </c>
+      <c r="D200" s="7">
+        <v>1</v>
+      </c>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="8"/>
+      <c r="I200" s="7">
+        <v>1</v>
+      </c>
+      <c r="J200" s="7">
+        <v>1</v>
+      </c>
+      <c r="K200" s="7">
+        <v>1</v>
+      </c>
       <c r="L200" s="8"/>
-      <c r="M200" s="8"/>
-      <c r="N200" s="8"/>
-      <c r="O200" s="8"/>
+      <c r="M200" s="7">
+        <v>1</v>
+      </c>
+      <c r="N200" s="7">
+        <v>1</v>
+      </c>
+      <c r="O200" s="7">
+        <v>1</v>
+      </c>
       <c r="P200" s="9"/>
       <c r="Q200" s="9"/>
       <c r="R200" s="9"/>
@@ -8538,7 +10519,7 @@
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
     </row>
-    <row r="201" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>277</v>
       </c>
@@ -8546,39 +10527,39 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="11"/>
-      <c r="Q201" s="11"/>
-      <c r="R201" s="11"/>
-      <c r="S201" s="11"/>
-      <c r="T201" s="11"/>
-      <c r="U201" s="11"/>
-      <c r="V201" s="11"/>
-      <c r="W201" s="11"/>
-      <c r="X201" s="11"/>
-      <c r="Y201" s="11"/>
-      <c r="Z201" s="11"/>
-      <c r="AA201" s="11"/>
-    </row>
-    <row r="202" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C201" s="10"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="8"/>
+      <c r="P201" s="9"/>
+      <c r="Q201" s="9"/>
+      <c r="R201" s="9"/>
+      <c r="S201" s="9"/>
+      <c r="T201" s="9"/>
+      <c r="U201" s="9"/>
+      <c r="V201" s="9"/>
+      <c r="W201" s="9"/>
+      <c r="X201" s="9"/>
+      <c r="Y201" s="9"/>
+      <c r="Z201" s="9"/>
+      <c r="AA201" s="9"/>
+    </row>
+    <row r="202" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>278</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="8"/>
@@ -8593,39 +10574,57 @@
       <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
-      <c r="P202" s="11"/>
-      <c r="Q202" s="11"/>
-      <c r="R202" s="11"/>
-      <c r="S202" s="11"/>
-      <c r="T202" s="11"/>
-      <c r="U202" s="11"/>
-      <c r="V202" s="11"/>
-      <c r="W202" s="11"/>
-      <c r="X202" s="11"/>
-      <c r="Y202" s="11"/>
-      <c r="Z202" s="11"/>
+      <c r="P202" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="11">
+        <v>1</v>
+      </c>
+      <c r="R202" s="9"/>
+      <c r="S202" s="9"/>
+      <c r="T202" s="9"/>
+      <c r="U202" s="9"/>
+      <c r="V202" s="11">
+        <v>1</v>
+      </c>
+      <c r="W202" s="9"/>
+      <c r="X202" s="9"/>
+      <c r="Y202" s="9"/>
+      <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
     </row>
-    <row r="203" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>279</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C203" s="6">
+        <v>1</v>
+      </c>
+      <c r="D203" s="7">
+        <v>1</v>
+      </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
-      <c r="I203" s="7"/>
+      <c r="I203" s="7">
+        <v>1</v>
+      </c>
       <c r="J203" s="8"/>
-      <c r="K203" s="7"/>
+      <c r="K203" s="7">
+        <v>1</v>
+      </c>
       <c r="L203" s="8"/>
-      <c r="M203" s="7"/>
-      <c r="N203" s="7"/>
+      <c r="M203" s="7">
+        <v>1</v>
+      </c>
+      <c r="N203" s="7">
+        <v>1</v>
+      </c>
       <c r="O203" s="8"/>
       <c r="P203" s="9"/>
       <c r="Q203" s="9"/>
@@ -8640,81 +10639,175 @@
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
     </row>
-    <row r="204" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>280</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C204" s="6">
+        <v>1</v>
+      </c>
+      <c r="D204" s="7">
+        <v>1</v>
+      </c>
       <c r="E204" s="8"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
+      <c r="F204" s="7">
+        <v>1</v>
+      </c>
+      <c r="G204" s="7">
+        <v>1</v>
+      </c>
       <c r="H204" s="8"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="7"/>
-      <c r="M204" s="7"/>
-      <c r="N204" s="7"/>
-      <c r="O204" s="7"/>
-      <c r="P204" s="9"/>
-      <c r="Q204" s="9"/>
-      <c r="R204" s="9"/>
-      <c r="S204" s="9"/>
-      <c r="T204" s="9"/>
-      <c r="U204" s="9"/>
-      <c r="V204" s="9"/>
-      <c r="W204" s="9"/>
-      <c r="X204" s="9"/>
-      <c r="Y204" s="9"/>
-      <c r="Z204" s="9"/>
-      <c r="AA204" s="9"/>
-    </row>
-    <row r="205" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I204" s="7">
+        <v>1</v>
+      </c>
+      <c r="J204" s="7">
+        <v>1</v>
+      </c>
+      <c r="K204" s="7">
+        <v>1</v>
+      </c>
+      <c r="L204" s="8"/>
+      <c r="M204" s="7">
+        <v>1</v>
+      </c>
+      <c r="N204" s="7">
+        <v>1</v>
+      </c>
+      <c r="O204" s="7">
+        <v>1</v>
+      </c>
+      <c r="P204" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="11">
+        <v>1</v>
+      </c>
+      <c r="R204" s="11">
+        <v>1</v>
+      </c>
+      <c r="S204" s="11">
+        <v>1</v>
+      </c>
+      <c r="T204" s="11">
+        <v>1</v>
+      </c>
+      <c r="U204" s="11">
+        <v>1</v>
+      </c>
+      <c r="V204" s="11">
+        <v>1</v>
+      </c>
+      <c r="W204" s="11">
+        <v>1</v>
+      </c>
+      <c r="X204" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y204" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z204" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA204" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>281</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="M205" s="8"/>
-      <c r="N205" s="8"/>
-      <c r="O205" s="8"/>
-      <c r="P205" s="11"/>
-      <c r="Q205" s="11"/>
-      <c r="R205" s="9"/>
-      <c r="S205" s="9"/>
-      <c r="T205" s="11"/>
-      <c r="U205" s="9"/>
-      <c r="V205" s="11"/>
-      <c r="W205" s="9"/>
-      <c r="X205" s="9"/>
-      <c r="Y205" s="11"/>
-      <c r="Z205" s="11"/>
-      <c r="AA205" s="9"/>
-    </row>
-    <row r="206" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="C205" s="6">
+        <v>1</v>
+      </c>
+      <c r="D205" s="7">
+        <v>1</v>
+      </c>
+      <c r="E205" s="7">
+        <v>1</v>
+      </c>
+      <c r="F205" s="7">
+        <v>1</v>
+      </c>
+      <c r="G205" s="7">
+        <v>1</v>
+      </c>
+      <c r="H205" s="7">
+        <v>1</v>
+      </c>
+      <c r="I205" s="7">
+        <v>1</v>
+      </c>
+      <c r="J205" s="7">
+        <v>1</v>
+      </c>
+      <c r="K205" s="7">
+        <v>1</v>
+      </c>
+      <c r="L205" s="7">
+        <v>1</v>
+      </c>
+      <c r="M205" s="7">
+        <v>1</v>
+      </c>
+      <c r="N205" s="7">
+        <v>1</v>
+      </c>
+      <c r="O205" s="7">
+        <v>1</v>
+      </c>
+      <c r="P205" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="11">
+        <v>1</v>
+      </c>
+      <c r="R205" s="11">
+        <v>1</v>
+      </c>
+      <c r="S205" s="11">
+        <v>1</v>
+      </c>
+      <c r="T205" s="11">
+        <v>1</v>
+      </c>
+      <c r="U205" s="11">
+        <v>1</v>
+      </c>
+      <c r="V205" s="11">
+        <v>1</v>
+      </c>
+      <c r="W205" s="11">
+        <v>1</v>
+      </c>
+      <c r="X205" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y205" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z205" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA205" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>307</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="8"/>
@@ -8729,20 +10822,42 @@
       <c r="M206" s="8"/>
       <c r="N206" s="8"/>
       <c r="O206" s="8"/>
-      <c r="P206" s="9"/>
-      <c r="Q206" s="9"/>
-      <c r="R206" s="9"/>
-      <c r="S206" s="9"/>
-      <c r="T206" s="9"/>
-      <c r="U206" s="9"/>
-      <c r="V206" s="9"/>
-      <c r="W206" s="9"/>
-      <c r="X206" s="9"/>
-      <c r="Y206" s="9"/>
-      <c r="Z206" s="9"/>
+      <c r="P206" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="11">
+        <v>1</v>
+      </c>
+      <c r="R206" s="11">
+        <v>1</v>
+      </c>
+      <c r="S206" s="11">
+        <v>1</v>
+      </c>
+      <c r="T206" s="11">
+        <v>1</v>
+      </c>
+      <c r="U206" s="11">
+        <v>1</v>
+      </c>
+      <c r="V206" s="11">
+        <v>1</v>
+      </c>
+      <c r="W206" s="11">
+        <v>1</v>
+      </c>
+      <c r="X206" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y206" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z206" s="11">
+        <v>1</v>
+      </c>
       <c r="AA206" s="9"/>
     </row>
-    <row r="207" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>282</v>
       </c>
@@ -8776,6 +10891,462 @@
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
     </row>
+    <row r="208" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="10"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
+      <c r="K208" s="8"/>
+      <c r="L208" s="8"/>
+      <c r="M208" s="8"/>
+      <c r="N208" s="8"/>
+      <c r="O208" s="8"/>
+      <c r="P208" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="11">
+        <v>1</v>
+      </c>
+      <c r="R208" s="11">
+        <v>1</v>
+      </c>
+      <c r="S208" s="11">
+        <v>1</v>
+      </c>
+      <c r="T208" s="11">
+        <v>1</v>
+      </c>
+      <c r="U208" s="11">
+        <v>1</v>
+      </c>
+      <c r="V208" s="11">
+        <v>1</v>
+      </c>
+      <c r="W208" s="9"/>
+      <c r="X208" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y208" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z208" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA208" s="9"/>
+    </row>
+    <row r="209" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="10"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="8"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="8"/>
+      <c r="N209" s="8"/>
+      <c r="O209" s="8"/>
+      <c r="P209" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="11">
+        <v>1</v>
+      </c>
+      <c r="R209" s="11">
+        <v>1</v>
+      </c>
+      <c r="S209" s="11">
+        <v>1</v>
+      </c>
+      <c r="T209" s="11">
+        <v>1</v>
+      </c>
+      <c r="U209" s="9"/>
+      <c r="V209" s="11">
+        <v>1</v>
+      </c>
+      <c r="W209" s="11">
+        <v>1</v>
+      </c>
+      <c r="X209" s="9"/>
+      <c r="Y209" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z209" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA209" s="9"/>
+    </row>
+    <row r="210" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="10"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="8"/>
+      <c r="L210" s="8"/>
+      <c r="M210" s="8"/>
+      <c r="N210" s="8"/>
+      <c r="O210" s="8"/>
+      <c r="P210" s="9"/>
+      <c r="Q210" s="9"/>
+      <c r="R210" s="9"/>
+      <c r="S210" s="9"/>
+      <c r="T210" s="9"/>
+      <c r="U210" s="9"/>
+      <c r="V210" s="9"/>
+      <c r="W210" s="9"/>
+      <c r="X210" s="9"/>
+      <c r="Y210" s="9"/>
+      <c r="Z210" s="9"/>
+      <c r="AA210" s="9"/>
+    </row>
+    <row r="211" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="6">
+        <v>1</v>
+      </c>
+      <c r="D211" s="7">
+        <v>1</v>
+      </c>
+      <c r="E211" s="7">
+        <v>1</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1</v>
+      </c>
+      <c r="G211" s="7">
+        <v>1</v>
+      </c>
+      <c r="H211" s="7">
+        <v>1</v>
+      </c>
+      <c r="I211" s="7">
+        <v>1</v>
+      </c>
+      <c r="J211" s="7">
+        <v>1</v>
+      </c>
+      <c r="K211" s="7">
+        <v>1</v>
+      </c>
+      <c r="L211" s="7">
+        <v>1</v>
+      </c>
+      <c r="M211" s="7">
+        <v>1</v>
+      </c>
+      <c r="N211" s="7">
+        <v>1</v>
+      </c>
+      <c r="O211" s="7">
+        <v>1</v>
+      </c>
+      <c r="P211" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="11">
+        <v>1</v>
+      </c>
+      <c r="R211" s="11">
+        <v>1</v>
+      </c>
+      <c r="S211" s="11">
+        <v>1</v>
+      </c>
+      <c r="T211" s="11">
+        <v>1</v>
+      </c>
+      <c r="U211" s="11">
+        <v>1</v>
+      </c>
+      <c r="V211" s="11">
+        <v>1</v>
+      </c>
+      <c r="W211" s="11">
+        <v>1</v>
+      </c>
+      <c r="X211" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y211" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z211" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA211" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="6">
+        <v>1</v>
+      </c>
+      <c r="D212" s="7">
+        <v>1</v>
+      </c>
+      <c r="E212" s="8"/>
+      <c r="F212" s="7">
+        <v>1</v>
+      </c>
+      <c r="G212" s="7">
+        <v>1</v>
+      </c>
+      <c r="H212" s="8"/>
+      <c r="I212" s="7">
+        <v>1</v>
+      </c>
+      <c r="J212" s="7">
+        <v>1</v>
+      </c>
+      <c r="K212" s="7">
+        <v>1</v>
+      </c>
+      <c r="L212" s="8"/>
+      <c r="M212" s="7">
+        <v>1</v>
+      </c>
+      <c r="N212" s="7">
+        <v>1</v>
+      </c>
+      <c r="O212" s="7">
+        <v>1</v>
+      </c>
+      <c r="P212" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="11">
+        <v>1</v>
+      </c>
+      <c r="R212" s="11">
+        <v>1</v>
+      </c>
+      <c r="S212" s="11">
+        <v>1</v>
+      </c>
+      <c r="T212" s="11">
+        <v>1</v>
+      </c>
+      <c r="U212" s="11">
+        <v>1</v>
+      </c>
+      <c r="V212" s="11">
+        <v>1</v>
+      </c>
+      <c r="W212" s="11">
+        <v>1</v>
+      </c>
+      <c r="X212" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y212" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z212" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA212" s="9"/>
+    </row>
+    <row r="213" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="6">
+        <v>1</v>
+      </c>
+      <c r="D213" s="7">
+        <v>1</v>
+      </c>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="7">
+        <v>1</v>
+      </c>
+      <c r="J213" s="8"/>
+      <c r="K213" s="7">
+        <v>1</v>
+      </c>
+      <c r="L213" s="8"/>
+      <c r="M213" s="7">
+        <v>1</v>
+      </c>
+      <c r="N213" s="7">
+        <v>1</v>
+      </c>
+      <c r="O213" s="8"/>
+      <c r="P213" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="9"/>
+      <c r="R213" s="11">
+        <v>1</v>
+      </c>
+      <c r="S213" s="11">
+        <v>1</v>
+      </c>
+      <c r="T213" s="9"/>
+      <c r="U213" s="9"/>
+      <c r="V213" s="9"/>
+      <c r="W213" s="11">
+        <v>1</v>
+      </c>
+      <c r="X213" s="9"/>
+      <c r="Y213" s="9"/>
+      <c r="Z213" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA213" s="9"/>
+    </row>
+    <row r="214" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="6">
+        <v>1</v>
+      </c>
+      <c r="D214" s="7">
+        <v>1</v>
+      </c>
+      <c r="E214" s="8"/>
+      <c r="F214" s="7">
+        <v>1</v>
+      </c>
+      <c r="G214" s="7">
+        <v>1</v>
+      </c>
+      <c r="H214" s="8"/>
+      <c r="I214" s="7">
+        <v>1</v>
+      </c>
+      <c r="J214" s="7">
+        <v>1</v>
+      </c>
+      <c r="K214" s="7">
+        <v>1</v>
+      </c>
+      <c r="L214" s="7">
+        <v>1</v>
+      </c>
+      <c r="M214" s="7">
+        <v>1</v>
+      </c>
+      <c r="N214" s="7">
+        <v>1</v>
+      </c>
+      <c r="O214" s="7">
+        <v>1</v>
+      </c>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="9"/>
+      <c r="T214" s="9"/>
+      <c r="U214" s="9"/>
+      <c r="V214" s="9"/>
+      <c r="W214" s="9"/>
+      <c r="X214" s="9"/>
+      <c r="Y214" s="9"/>
+      <c r="Z214" s="9"/>
+      <c r="AA214" s="9"/>
+    </row>
+    <row r="215" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="10"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="8"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
+      <c r="N215" s="8"/>
+      <c r="O215" s="8"/>
+      <c r="P215" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q215" s="11">
+        <v>1</v>
+      </c>
+      <c r="R215" s="9"/>
+      <c r="S215" s="9"/>
+      <c r="T215" s="11">
+        <v>1</v>
+      </c>
+      <c r="U215" s="9"/>
+      <c r="V215" s="11">
+        <v>1</v>
+      </c>
+      <c r="W215" s="9"/>
+      <c r="X215" s="9"/>
+      <c r="Y215" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z215" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA215" s="9"/>
+    </row>
+    <row r="216" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="10"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="8"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
+      <c r="N216" s="8"/>
+      <c r="O216" s="8"/>
+      <c r="P216" s="9"/>
+      <c r="Q216" s="9"/>
+      <c r="R216" s="9"/>
+      <c r="S216" s="9"/>
+      <c r="T216" s="9"/>
+      <c r="U216" s="9"/>
+      <c r="V216" s="9"/>
+      <c r="W216" s="9"/>
+      <c r="X216" s="9"/>
+      <c r="Y216" s="9"/>
+      <c r="Z216" s="9"/>
+      <c r="AA216" s="9"/>
+    </row>
+    <row r="217" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="10"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+      <c r="J217" s="8"/>
+      <c r="K217" s="8"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
+      <c r="N217" s="8"/>
+      <c r="O217" s="8"/>
+      <c r="P217" s="9"/>
+      <c r="Q217" s="9"/>
+      <c r="R217" s="9"/>
+      <c r="S217" s="9"/>
+      <c r="T217" s="9"/>
+      <c r="U217" s="9"/>
+      <c r="V217" s="9"/>
+      <c r="W217" s="9"/>
+      <c r="X217" s="9"/>
+      <c r="Y217" s="9"/>
+      <c r="Z217" s="9"/>
+      <c r="AA217" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/score/bxb-template.xlsx
+++ b/assets/score/bxb-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genryu\Desktop\bxbscore\assets\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWRCh\OneDrive\Desktop\gitproject\bxbscore\assets\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D99477-50A3-4FA5-ADBF-090B73C95DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E15F9-E2C3-4BAA-87B5-27421E1D81A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Participant Name</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Benno</t>
   </si>
   <si>
-    <t>Brendon Chew Whei Jin</t>
-  </si>
-  <si>
     <t>Brennan Shin</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Chu Jia Chen</t>
   </si>
   <si>
-    <t>Chua Xue Yi</t>
-  </si>
-  <si>
     <t>Chun Sin Ling</t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t>Esther Ooi Lay Tsim</t>
   </si>
   <si>
-    <t>Ethan Khoo Kay Shing</t>
-  </si>
-  <si>
     <t>Eugene Chin Hwa En</t>
   </si>
   <si>
@@ -491,9 +482,6 @@
     <t>Felix Chai Yueh Hong</t>
   </si>
   <si>
-    <t>Fern Chong</t>
-  </si>
-  <si>
     <t>Foo Joo Wee</t>
   </si>
   <si>
@@ -581,9 +569,6 @@
     <t>Kimberly Ho Mei Yi</t>
   </si>
   <si>
-    <t>Kong Zheng Yang</t>
-  </si>
-  <si>
     <t>Lavender Ling Wei Huey</t>
   </si>
   <si>
@@ -680,9 +665,6 @@
     <t>Ng Hong Ming</t>
   </si>
   <si>
-    <t>Ng Jing En</t>
-  </si>
-  <si>
     <t>Ng Wan Wen</t>
   </si>
   <si>
@@ -782,9 +764,6 @@
     <t>Sudais Bin Mohd Ferhard</t>
   </si>
   <si>
-    <t>Syahryl Bin Mohamad Serkawini</t>
-  </si>
-  <si>
     <t>Syed Kamal Azriff Bin Syed Amran</t>
   </si>
   <si>
@@ -960,13 +939,64 @@
   </si>
   <si>
     <t>Zachary Matthew Alabaster</t>
+  </si>
+  <si>
+    <t>Charmaine Lim Xin Le</t>
+  </si>
+  <si>
+    <t>Cheong Wei Shin Samuel</t>
+  </si>
+  <si>
+    <t>Danial Imran</t>
+  </si>
+  <si>
+    <t>Khairul Irfan Bin Khairul Hamidi</t>
+  </si>
+  <si>
+    <t>Liew Qi Yan (Terrence)</t>
+  </si>
+  <si>
+    <t>Marilyn Tee Yan Zyn</t>
+  </si>
+  <si>
+    <t>Ng Shan-Zi</t>
+  </si>
+  <si>
+    <t>Arif Fikri Bin Othman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendon Chew Whei Jin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chua Xue Yi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethan Khoo Kay Shing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fern Chong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kong Zheng Yang </t>
+  </si>
+  <si>
+    <t>Low Jin Shen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ng Jing En </t>
+  </si>
+  <si>
+    <t>Ong Kuok Tjun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syahryl Bin Mohamad Serkawini </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +1009,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1073,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1108,6 +1143,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,25 +1493,25 @@
       <selection activeCell="C2" sqref="C2:AA217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="52" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="77" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="86" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="89" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="52" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="77" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="86" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:102" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +1819,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B2">
@@ -1819,8 +1863,8 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B3">
@@ -1869,8 +1913,8 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B4">
@@ -1913,8 +1957,8 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B5">
@@ -1965,8 +2009,8 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B6">
@@ -2021,8 +2065,8 @@
       </c>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B7">
@@ -2055,8 +2099,8 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B8">
@@ -2113,9 +2157,9 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>283</v>
+    <row r="9" spans="1:102" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -2165,9 +2209,9 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>284</v>
+    <row r="10" spans="1:102" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -2211,8 +2255,8 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B11">
@@ -2263,8 +2307,8 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B12">
@@ -2305,8 +2349,8 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B13">
@@ -2339,8 +2383,8 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B14">
@@ -2385,8 +2429,8 @@
       </c>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B15">
@@ -2419,8 +2463,8 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B16">
@@ -2453,8 +2497,8 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B17">
@@ -2487,8 +2531,8 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B18">
@@ -2543,9 +2587,9 @@
       </c>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>285</v>
+    <row r="19" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -2587,9 +2631,9 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>286</v>
+    <row r="20" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -2637,9 +2681,9 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>117</v>
+    <row r="21" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -2671,9 +2715,9 @@
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+    <row r="22" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -2705,9 +2749,9 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>119</v>
+    <row r="23" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -2739,9 +2783,9 @@
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>120</v>
+    <row r="24" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -2791,9 +2835,9 @@
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+    <row r="25" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -2825,9 +2869,9 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>122</v>
+    <row r="26" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -2883,9 +2927,9 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>123</v>
+    <row r="27" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -2937,9 +2981,9 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>124</v>
+    <row r="28" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -2983,9 +3027,9 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>125</v>
+    <row r="29" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -3017,9 +3061,9 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>287</v>
+    <row r="30" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -3051,9 +3095,9 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>126</v>
+    <row r="31" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -3085,9 +3129,9 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>127</v>
+    <row r="32" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -3125,9 +3169,9 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>128</v>
+    <row r="33" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -3159,9 +3203,9 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>129</v>
+    <row r="34" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -3193,9 +3237,9 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>130</v>
+    <row r="35" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -3239,13 +3283,13 @@
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>131</v>
+    <row r="36" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="8"/>
@@ -3260,7 +3304,9 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="9"/>
+      <c r="P36" s="11">
+        <v>1</v>
+      </c>
       <c r="Q36" s="11">
         <v>1</v>
       </c>
@@ -3285,9 +3331,9 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>132</v>
+    <row r="37" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -3341,9 +3387,9 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>133</v>
+    <row r="38" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -3393,9 +3439,9 @@
       </c>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>134</v>
+    <row r="39" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -3453,13 +3499,13 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>288</v>
+    <row r="40" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3492,22 +3538,34 @@
       <c r="O40" s="7">
         <v>1</v>
       </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
+      <c r="P40" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>1</v>
+      </c>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="T40" s="11">
+        <v>1</v>
+      </c>
       <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
+      <c r="V40" s="11">
+        <v>1</v>
+      </c>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
+      <c r="Y40" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>1</v>
+      </c>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>135</v>
+    <row r="41" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -3543,9 +3601,9 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>136</v>
+    <row r="42" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -3601,9 +3659,9 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>137</v>
+    <row r="43" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -3635,9 +3693,9 @@
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>138</v>
+    <row r="44" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -3669,9 +3727,9 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>139</v>
+    <row r="45" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -3703,9 +3761,9 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>140</v>
+    <row r="46" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -3763,9 +3821,9 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>141</v>
+    <row r="47" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -3815,9 +3873,9 @@
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>289</v>
+    <row r="48" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -3849,9 +3907,9 @@
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>142</v>
+    <row r="49" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -3901,9 +3959,9 @@
       </c>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>143</v>
+    <row r="50" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -3935,9 +3993,9 @@
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>144</v>
+    <row r="51" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -3993,9 +4051,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>145</v>
+    <row r="52" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -4039,9 +4097,9 @@
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>146</v>
+    <row r="53" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -4091,9 +4149,9 @@
       </c>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>147</v>
+    <row r="54" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -4125,9 +4183,9 @@
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>290</v>
+    <row r="55" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -4183,9 +4241,9 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>148</v>
+    <row r="56" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -4217,9 +4275,9 @@
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>149</v>
+    <row r="57" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -4251,9 +4309,9 @@
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>150</v>
+    <row r="58" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -4285,9 +4343,9 @@
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>151</v>
+    <row r="59" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -4319,9 +4377,9 @@
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>152</v>
+    <row r="60" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -4367,9 +4425,9 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>153</v>
+    <row r="61" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -4405,9 +4463,9 @@
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>154</v>
+    <row r="62" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -4449,9 +4507,9 @@
       </c>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>291</v>
+    <row r="63" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -4483,9 +4541,9 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>155</v>
+    <row r="64" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -4517,9 +4575,9 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>292</v>
+    <row r="65" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -4565,9 +4623,9 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>156</v>
+    <row r="66" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -4645,9 +4703,9 @@
       </c>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>293</v>
+    <row r="67" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">SUM(C67:CX67)</f>
@@ -4679,9 +4737,9 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>157</v>
+    <row r="68" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
@@ -4735,9 +4793,9 @@
       </c>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>158</v>
+    <row r="69" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
@@ -4787,9 +4845,9 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>159</v>
+    <row r="70" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
@@ -4821,9 +4879,9 @@
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>294</v>
+    <row r="71" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
@@ -4881,9 +4939,9 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>160</v>
+    <row r="72" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
@@ -4915,9 +4973,9 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>161</v>
+    <row r="73" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
@@ -4973,9 +5031,9 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>162</v>
+    <row r="74" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
@@ -5007,9 +5065,9 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>163</v>
+    <row r="75" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="14" t="s">
+        <v>287</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
@@ -5041,9 +5099,9 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>164</v>
+    <row r="76" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
@@ -5075,9 +5133,9 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>165</v>
+    <row r="77" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
@@ -5109,9 +5167,9 @@
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>166</v>
+    <row r="78" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
@@ -5143,9 +5201,9 @@
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>167</v>
+    <row r="79" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
@@ -5185,9 +5243,9 @@
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>168</v>
+    <row r="80" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
@@ -5231,9 +5289,9 @@
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>169</v>
+    <row r="81" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
@@ -5313,9 +5371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>170</v>
+    <row r="82" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
@@ -5361,9 +5419,9 @@
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>171</v>
+    <row r="83" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
@@ -5395,9 +5453,9 @@
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>172</v>
+    <row r="84" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
@@ -5431,9 +5489,9 @@
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>173</v>
+    <row r="85" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
@@ -5483,9 +5541,9 @@
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>174</v>
+    <row r="86" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
@@ -5551,9 +5609,9 @@
       </c>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>175</v>
+    <row r="87" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
@@ -5585,9 +5643,9 @@
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>176</v>
+    <row r="88" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
@@ -5619,9 +5677,9 @@
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>295</v>
+    <row r="89" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
@@ -5653,9 +5711,9 @@
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>177</v>
+    <row r="90" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
@@ -5687,9 +5745,9 @@
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>178</v>
+    <row r="91" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
@@ -5745,9 +5803,9 @@
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>179</v>
+    <row r="92" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
@@ -5779,9 +5837,9 @@
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>296</v>
+    <row r="93" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
@@ -5817,9 +5875,9 @@
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>180</v>
+    <row r="94" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
@@ -5851,9 +5909,9 @@
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>181</v>
+    <row r="95" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
@@ -5897,9 +5955,9 @@
       </c>
       <c r="AA95" s="9"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>297</v>
+    <row r="96" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
@@ -5945,9 +6003,9 @@
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>182</v>
+    <row r="97" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
@@ -5991,9 +6049,9 @@
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>183</v>
+    <row r="98" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
@@ -6035,9 +6093,9 @@
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>184</v>
+    <row r="99" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
@@ -6095,9 +6153,9 @@
       </c>
       <c r="AA99" s="9"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>185</v>
+    <row r="100" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
@@ -6129,9 +6187,9 @@
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>186</v>
+    <row r="101" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
@@ -6177,9 +6235,9 @@
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>187</v>
+    <row r="102" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
@@ -6211,9 +6269,9 @@
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>188</v>
+    <row r="103" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
@@ -6257,9 +6315,9 @@
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>189</v>
+    <row r="104" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
@@ -6291,9 +6349,9 @@
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>190</v>
+    <row r="105" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
@@ -6325,9 +6383,9 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>298</v>
+    <row r="106" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
@@ -6359,9 +6417,9 @@
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>191</v>
+    <row r="107" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
@@ -6395,9 +6453,9 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>192</v>
+    <row r="108" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
@@ -6435,9 +6493,9 @@
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>193</v>
+    <row r="109" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
@@ -6489,9 +6547,9 @@
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>299</v>
+    <row r="110" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
@@ -6537,9 +6595,9 @@
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>194</v>
+    <row r="111" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
@@ -6571,9 +6629,9 @@
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>195</v>
+    <row r="112" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
@@ -6619,9 +6677,9 @@
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>196</v>
+    <row r="113" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
@@ -6653,9 +6711,9 @@
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>197</v>
+    <row r="114" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
@@ -6697,9 +6755,9 @@
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>198</v>
+    <row r="115" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
@@ -6731,9 +6789,9 @@
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>199</v>
+    <row r="116" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
@@ -6781,9 +6839,9 @@
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>200</v>
+    <row r="117" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
@@ -6815,9 +6873,9 @@
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>201</v>
+    <row r="118" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
@@ -6855,9 +6913,9 @@
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>202</v>
+    <row r="119" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
@@ -6889,9 +6947,9 @@
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>203</v>
+    <row r="120" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
@@ -6939,9 +6997,9 @@
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>204</v>
+    <row r="121" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
@@ -6989,9 +7047,9 @@
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>300</v>
+    <row r="122" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
@@ -7023,9 +7081,9 @@
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>205</v>
+    <row r="123" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
@@ -7091,9 +7149,9 @@
       </c>
       <c r="AA123" s="9"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>206</v>
+    <row r="124" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
@@ -7131,9 +7189,9 @@
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>207</v>
+    <row r="125" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
@@ -7189,9 +7247,9 @@
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>208</v>
+    <row r="126" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
@@ -7249,9 +7307,9 @@
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>209</v>
+    <row r="127" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
@@ -7305,9 +7363,9 @@
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>210</v>
+    <row r="128" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
@@ -7339,9 +7397,9 @@
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>211</v>
+    <row r="129" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
@@ -7393,9 +7451,9 @@
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>212</v>
+    <row r="130" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
@@ -7439,9 +7497,9 @@
       </c>
       <c r="AA130" s="9"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>213</v>
+    <row r="131" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="2">SUM(C131:CX131)</f>
@@ -7499,9 +7557,9 @@
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>214</v>
+    <row r="132" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
@@ -7577,9 +7635,9 @@
       </c>
       <c r="AA132" s="9"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>215</v>
+    <row r="133" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
@@ -7611,9 +7669,9 @@
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>216</v>
+    <row r="134" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
@@ -7657,9 +7715,9 @@
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>217</v>
+    <row r="135" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
@@ -7709,9 +7767,9 @@
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>218</v>
+    <row r="136" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
@@ -7743,9 +7801,9 @@
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>219</v>
+    <row r="137" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
@@ -7777,9 +7835,9 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>220</v>
+    <row r="138" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
@@ -7821,9 +7879,9 @@
       </c>
       <c r="AA138" s="9"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>221</v>
+    <row r="139" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
@@ -7881,9 +7939,9 @@
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>301</v>
+    <row r="140" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="14" t="s">
+        <v>315</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
@@ -7937,9 +7995,9 @@
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>302</v>
+    <row r="141" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
@@ -7989,9 +8047,9 @@
       </c>
       <c r="AA141" s="9"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>222</v>
+    <row r="142" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
@@ -8037,9 +8095,9 @@
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>223</v>
+    <row r="143" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
@@ -8093,9 +8151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>224</v>
+    <row r="144" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
@@ -8147,9 +8205,9 @@
       </c>
       <c r="AA144" s="9"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>225</v>
+    <row r="145" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
@@ -8203,9 +8261,9 @@
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>226</v>
+    <row r="146" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
@@ -8257,9 +8315,9 @@
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>227</v>
+    <row r="147" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
@@ -8291,9 +8349,9 @@
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>228</v>
+    <row r="148" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
@@ -8325,9 +8383,9 @@
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>229</v>
+    <row r="149" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
@@ -8381,9 +8439,9 @@
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>230</v>
+    <row r="150" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
@@ -8415,9 +8473,9 @@
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>303</v>
+    <row r="151" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
@@ -8449,9 +8507,9 @@
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>231</v>
+    <row r="152" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
@@ -8489,9 +8547,9 @@
       </c>
       <c r="AA152" s="9"/>
     </row>
-    <row r="153" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>232</v>
+    <row r="153" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
@@ -8537,9 +8595,9 @@
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>233</v>
+    <row r="154" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
@@ -8593,9 +8651,9 @@
       </c>
       <c r="AA154" s="9"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>234</v>
+    <row r="155" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
@@ -8639,9 +8697,9 @@
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>235</v>
+    <row r="156" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
@@ -8697,9 +8755,9 @@
       </c>
       <c r="AA156" s="9"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>236</v>
+    <row r="157" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
@@ -8741,9 +8799,9 @@
       </c>
       <c r="AA157" s="9"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>237</v>
+    <row r="158" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
@@ -8795,9 +8853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>304</v>
+    <row r="159" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
@@ -8829,9 +8887,9 @@
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>238</v>
+    <row r="160" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
@@ -8883,9 +8941,9 @@
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>239</v>
+    <row r="161" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
@@ -8923,9 +8981,9 @@
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>240</v>
+    <row r="162" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
@@ -8977,9 +9035,9 @@
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>241</v>
+    <row r="163" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
@@ -9025,9 +9083,9 @@
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>242</v>
+    <row r="164" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
@@ -9059,9 +9117,9 @@
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>243</v>
+    <row r="165" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
@@ -9093,9 +9151,9 @@
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>244</v>
+    <row r="166" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
@@ -9127,9 +9185,9 @@
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>245</v>
+    <row r="167" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
@@ -9167,9 +9225,9 @@
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>246</v>
+    <row r="168" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
@@ -9201,9 +9259,9 @@
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>247</v>
+    <row r="169" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
@@ -9239,9 +9297,9 @@
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>248</v>
+    <row r="170" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
@@ -9273,9 +9331,9 @@
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>249</v>
+    <row r="171" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
@@ -9307,9 +9365,9 @@
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>250</v>
+    <row r="172" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
@@ -9341,9 +9399,9 @@
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>251</v>
+    <row r="173" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
@@ -9393,9 +9451,9 @@
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>252</v>
+    <row r="174" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
@@ -9427,9 +9485,9 @@
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>253</v>
+    <row r="175" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
@@ -9461,9 +9519,9 @@
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>254</v>
+    <row r="176" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
@@ -9513,9 +9571,9 @@
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
     </row>
-    <row r="177" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>255</v>
+    <row r="177" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
@@ -9561,9 +9619,9 @@
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>256</v>
+    <row r="178" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
@@ -9611,9 +9669,9 @@
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>257</v>
+    <row r="179" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
@@ -9659,9 +9717,9 @@
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>305</v>
+    <row r="180" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
@@ -9703,9 +9761,9 @@
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>258</v>
+    <row r="181" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
@@ -9737,9 +9795,9 @@
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>259</v>
+    <row r="182" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
@@ -9771,9 +9829,9 @@
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
     </row>
-    <row r="183" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>260</v>
+    <row r="183" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
@@ -9805,9 +9863,9 @@
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>261</v>
+    <row r="184" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
@@ -9839,9 +9897,9 @@
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>262</v>
+    <row r="185" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
@@ -9887,9 +9945,9 @@
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>263</v>
+    <row r="186" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
@@ -9921,9 +9979,9 @@
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>264</v>
+    <row r="187" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
@@ -9955,9 +10013,9 @@
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>265</v>
+    <row r="188" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
@@ -9989,9 +10047,9 @@
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
     </row>
-    <row r="189" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>266</v>
+    <row r="189" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
@@ -10023,9 +10081,9 @@
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>267</v>
+    <row r="190" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
@@ -10065,9 +10123,9 @@
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
     </row>
-    <row r="191" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>268</v>
+    <row r="191" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
@@ -10119,9 +10177,9 @@
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>269</v>
+    <row r="192" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
@@ -10153,9 +10211,9 @@
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
     </row>
-    <row r="193" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>270</v>
+    <row r="193" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
@@ -10187,9 +10245,9 @@
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>271</v>
+    <row r="194" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
@@ -10221,12 +10279,12 @@
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>272</v>
+    <row r="195" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B207" si="3">SUM(C195:CX195)</f>
+        <f t="shared" ref="B195:B217" si="3">SUM(C195:CX195)</f>
         <v>11</v>
       </c>
       <c r="C195" s="6">
@@ -10277,9 +10335,9 @@
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>273</v>
+    <row r="196" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
@@ -10329,9 +10387,9 @@
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
     </row>
-    <row r="197" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>274</v>
+    <row r="197" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
@@ -10363,9 +10421,9 @@
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>306</v>
+    <row r="198" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
@@ -10413,9 +10471,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>275</v>
+    <row r="199" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
@@ -10469,9 +10527,9 @@
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>276</v>
+    <row r="200" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
@@ -10519,9 +10577,9 @@
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>277</v>
+    <row r="201" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
@@ -10553,9 +10611,9 @@
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>278</v>
+    <row r="202" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
@@ -10593,9 +10651,9 @@
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>279</v>
+    <row r="203" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
@@ -10639,9 +10697,9 @@
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>280</v>
+    <row r="204" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
@@ -10717,9 +10775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>281</v>
+    <row r="205" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
@@ -10801,9 +10859,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>307</v>
+    <row r="206" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
@@ -10857,9 +10915,9 @@
       </c>
       <c r="AA206" s="9"/>
     </row>
-    <row r="207" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>282</v>
+    <row r="207" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
@@ -10891,7 +10949,14 @@
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="C208" s="10"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
@@ -10938,7 +11003,14 @@
       </c>
       <c r="AA208" s="9"/>
     </row>
-    <row r="209" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="C209" s="10"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
@@ -10983,7 +11055,14 @@
       </c>
       <c r="AA209" s="9"/>
     </row>
-    <row r="210" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C210" s="10"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
@@ -11010,7 +11089,14 @@
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
     </row>
-    <row r="211" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="C211" s="6">
         <v>1</v>
       </c>
@@ -11087,7 +11173,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="C212" s="6">
         <v>1</v>
       </c>
@@ -11156,7 +11249,14 @@
       </c>
       <c r="AA212" s="9"/>
     </row>
-    <row r="213" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="C213" s="6">
         <v>1</v>
       </c>
@@ -11205,7 +11305,14 @@
       </c>
       <c r="AA213" s="9"/>
     </row>
-    <row r="214" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="C214" s="6">
         <v>1</v>
       </c>
@@ -11254,7 +11361,14 @@
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
     </row>
-    <row r="215" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="C215" s="10"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
@@ -11293,7 +11407,14 @@
       </c>
       <c r="AA215" s="9"/>
     </row>
-    <row r="216" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C216" s="10"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
@@ -11320,7 +11441,14 @@
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
     </row>
-    <row r="217" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C217" s="10"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
@@ -11349,5 +11477,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/score/bxb-template.xlsx
+++ b/assets/score/bxb-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWRCh\OneDrive\Desktop\gitproject\bxbscore\assets\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8418D5E1-F9A1-41DA-B189-5B997DC2FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A73A4-56E6-4436-BC79-7A4A37C614B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1155,11 +1155,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,6 +1221,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD4630-A43E-4101-88FC-4337AD741BC4}">
   <dimension ref="A1:CX234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="I222" sqref="I222"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,6 +1944,19 @@
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
@@ -1982,6 +2013,19 @@
         <v>1</v>
       </c>
       <c r="AA3" s="9"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
     </row>
     <row r="4" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
@@ -2038,6 +2082,19 @@
         <v>1</v>
       </c>
       <c r="AA4" s="9"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
     </row>
     <row r="5" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
@@ -2106,6 +2163,19 @@
         <v>1</v>
       </c>
       <c r="AA5" s="9"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
     </row>
     <row r="6" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
@@ -2166,6 +2236,19 @@
         <v>1</v>
       </c>
       <c r="AA6" s="9"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
     </row>
     <row r="7" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
@@ -2208,6 +2291,19 @@
         <v>1</v>
       </c>
       <c r="AA7" s="9"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
     </row>
     <row r="8" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
@@ -2290,6 +2386,19 @@
       <c r="AA8" s="11">
         <v>1</v>
       </c>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
     </row>
     <row r="9" spans="1:102" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
@@ -2326,6 +2435,19 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
     </row>
     <row r="10" spans="1:102" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
@@ -2402,6 +2524,19 @@
       <c r="AA10" s="11">
         <v>1</v>
       </c>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:102" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
@@ -2458,6 +2593,19 @@
         <v>1</v>
       </c>
       <c r="AA11" s="9"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
     </row>
     <row r="12" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
@@ -2528,6 +2676,19 @@
         <v>1</v>
       </c>
       <c r="AA12" s="9"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
     </row>
     <row r="13" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
@@ -2584,6 +2745,19 @@
         <v>1</v>
       </c>
       <c r="AA13" s="9"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
     </row>
     <row r="14" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
@@ -2630,6 +2804,19 @@
         <v>1</v>
       </c>
       <c r="AA14" s="9"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
     </row>
     <row r="15" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
@@ -2682,6 +2869,19 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
     </row>
     <row r="16" spans="1:102" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
@@ -2740,8 +2940,21 @@
         <v>1</v>
       </c>
       <c r="AA16" s="9"/>
-    </row>
-    <row r="17" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+    </row>
+    <row r="17" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>288</v>
       </c>
@@ -2802,8 +3015,21 @@
         <v>1</v>
       </c>
       <c r="AA17" s="9"/>
-    </row>
-    <row r="18" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+    </row>
+    <row r="18" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>113</v>
       </c>
@@ -2868,8 +3094,21 @@
         <v>1</v>
       </c>
       <c r="AA18" s="9"/>
-    </row>
-    <row r="19" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+    </row>
+    <row r="19" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>114</v>
       </c>
@@ -2922,8 +3161,21 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
-    </row>
-    <row r="20" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+    </row>
+    <row r="20" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>289</v>
       </c>
@@ -2980,8 +3232,21 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
-    </row>
-    <row r="21" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+    </row>
+    <row r="21" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>115</v>
       </c>
@@ -3060,8 +3325,21 @@
         <v>1</v>
       </c>
       <c r="AA21" s="9"/>
-    </row>
-    <row r="22" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+    </row>
+    <row r="22" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
         <v>290</v>
       </c>
@@ -3104,8 +3382,21 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
-    </row>
-    <row r="23" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+    </row>
+    <row r="23" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14" t="s">
         <v>291</v>
       </c>
@@ -3188,8 +3479,21 @@
       <c r="AA23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+    </row>
+    <row r="24" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14" t="s">
         <v>292</v>
       </c>
@@ -3222,8 +3526,21 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-    </row>
-    <row r="25" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+    </row>
+    <row r="25" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
         <v>116</v>
       </c>
@@ -3282,8 +3599,21 @@
       </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
-    </row>
-    <row r="26" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+    </row>
+    <row r="26" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="14" t="s">
         <v>117</v>
       </c>
@@ -3316,8 +3646,21 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
-    </row>
-    <row r="27" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+    </row>
+    <row r="27" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="14" t="s">
         <v>293</v>
       </c>
@@ -3380,8 +3723,21 @@
         <v>1</v>
       </c>
       <c r="AA27" s="9"/>
-    </row>
-    <row r="28" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+    </row>
+    <row r="28" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14" t="s">
         <v>118</v>
       </c>
@@ -3426,8 +3782,21 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
-    </row>
-    <row r="29" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+    </row>
+    <row r="29" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14" t="s">
         <v>119</v>
       </c>
@@ -3508,8 +3877,21 @@
       <c r="AA29" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+    </row>
+    <row r="30" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14" t="s">
         <v>120</v>
       </c>
@@ -3582,8 +3964,21 @@
         <v>1</v>
       </c>
       <c r="AA30" s="9"/>
-    </row>
-    <row r="31" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+    </row>
+    <row r="31" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
         <v>121</v>
       </c>
@@ -3628,8 +4023,21 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
-    </row>
-    <row r="32" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+    </row>
+    <row r="32" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14" t="s">
         <v>122</v>
       </c>
@@ -3676,28 +4084,57 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
-    </row>
-    <row r="33" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+    </row>
+    <row r="33" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
       <c r="P33" s="11">
         <v>1</v>
       </c>
@@ -3714,8 +4151,21 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
-    </row>
-    <row r="34" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+    </row>
+    <row r="34" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
         <v>294</v>
       </c>
@@ -3782,8 +4232,21 @@
         <v>1</v>
       </c>
       <c r="AA34" s="9"/>
-    </row>
-    <row r="35" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+    </row>
+    <row r="35" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
         <v>124</v>
       </c>
@@ -3822,8 +4285,21 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
-    </row>
-    <row r="36" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+    </row>
+    <row r="36" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
         <v>277</v>
       </c>
@@ -3870,8 +4346,21 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
-    </row>
-    <row r="37" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+    </row>
+    <row r="37" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
         <v>125</v>
       </c>
@@ -3912,8 +4401,21 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
-    </row>
-    <row r="38" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+    </row>
+    <row r="38" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
         <v>126</v>
       </c>
@@ -3968,8 +4470,21 @@
         <v>1</v>
       </c>
       <c r="AA38" s="9"/>
-    </row>
-    <row r="39" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+    </row>
+    <row r="39" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>127</v>
       </c>
@@ -4032,14 +4547,27 @@
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
-    </row>
-    <row r="40" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+    </row>
+    <row r="40" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -4052,9 +4580,7 @@
       <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
+      <c r="H40" s="8"/>
       <c r="I40" s="7">
         <v>1</v>
       </c>
@@ -4088,28 +4614,59 @@
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
-    </row>
-    <row r="41" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+    </row>
+    <row r="41" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>1</v>
+      </c>
       <c r="P41" s="11">
         <v>1</v>
       </c>
@@ -4140,8 +4697,21 @@
         <v>1</v>
       </c>
       <c r="AA41" s="9"/>
-    </row>
-    <row r="42" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+    </row>
+    <row r="42" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>129</v>
       </c>
@@ -4224,8 +4794,21 @@
       <c r="AA42" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+    </row>
+    <row r="43" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
         <v>130</v>
       </c>
@@ -4288,8 +4871,21 @@
         <v>1</v>
       </c>
       <c r="AA43" s="9"/>
-    </row>
-    <row r="44" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+    </row>
+    <row r="44" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
         <v>131</v>
       </c>
@@ -4328,8 +4924,21 @@
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
-    </row>
-    <row r="45" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+    </row>
+    <row r="45" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
         <v>132</v>
       </c>
@@ -4408,8 +5017,21 @@
         <v>1</v>
       </c>
       <c r="AA45" s="9"/>
-    </row>
-    <row r="46" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+    </row>
+    <row r="46" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="14" t="s">
         <v>295</v>
       </c>
@@ -4456,8 +5078,21 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
-    </row>
-    <row r="47" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+    </row>
+    <row r="47" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
         <v>133</v>
       </c>
@@ -4490,8 +5125,21 @@
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
-    </row>
-    <row r="48" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+    </row>
+    <row r="48" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>134</v>
       </c>
@@ -4524,8 +5172,21 @@
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
-    </row>
-    <row r="49" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+    </row>
+    <row r="49" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
         <v>296</v>
       </c>
@@ -4608,8 +5269,21 @@
       <c r="AA49" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+    </row>
+    <row r="50" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
         <v>135</v>
       </c>
@@ -4680,8 +5354,21 @@
         <v>1</v>
       </c>
       <c r="AA50" s="9"/>
-    </row>
-    <row r="51" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+    </row>
+    <row r="51" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14" t="s">
         <v>279</v>
       </c>
@@ -4714,28 +5401,59 @@
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
-    </row>
-    <row r="52" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+    </row>
+    <row r="52" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
       <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
       <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+      <c r="O52" s="7">
+        <v>1</v>
+      </c>
       <c r="P52" s="11">
         <v>1</v>
       </c>
@@ -4766,8 +5484,21 @@
         <v>1</v>
       </c>
       <c r="AA52" s="9"/>
-    </row>
-    <row r="53" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+    </row>
+    <row r="53" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
         <v>137</v>
       </c>
@@ -4800,8 +5531,21 @@
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
-    </row>
-    <row r="54" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+    </row>
+    <row r="54" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
         <v>138</v>
       </c>
@@ -4884,8 +5628,21 @@
       <c r="AA54" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+    </row>
+    <row r="55" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>273</v>
       </c>
@@ -4938,8 +5695,21 @@
         <v>1</v>
       </c>
       <c r="AA55" s="9"/>
-    </row>
-    <row r="56" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+    </row>
+    <row r="56" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
         <v>139</v>
       </c>
@@ -5010,8 +5780,21 @@
         <v>1</v>
       </c>
       <c r="AA56" s="9"/>
-    </row>
-    <row r="57" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+    </row>
+    <row r="57" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
         <v>140</v>
       </c>
@@ -5068,8 +5851,21 @@
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
-    </row>
-    <row r="58" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="8"/>
+    </row>
+    <row r="58" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
         <v>297</v>
       </c>
@@ -5114,8 +5910,21 @@
         <v>1</v>
       </c>
       <c r="AA58" s="9"/>
-    </row>
-    <row r="59" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+      <c r="AL58" s="17"/>
+      <c r="AM58" s="17"/>
+      <c r="AN58" s="17"/>
+    </row>
+    <row r="59" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
         <v>141</v>
       </c>
@@ -5172,8 +5981,21 @@
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
-    </row>
-    <row r="60" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
+      <c r="AN59" s="8"/>
+    </row>
+    <row r="60" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
         <v>142</v>
       </c>
@@ -5224,8 +6046,21 @@
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
-    </row>
-    <row r="61" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
+      <c r="AN60" s="8"/>
+    </row>
+    <row r="61" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
         <v>143</v>
       </c>
@@ -5258,8 +6093,21 @@
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
-    </row>
-    <row r="62" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+    </row>
+    <row r="62" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="14" t="s">
         <v>298</v>
       </c>
@@ -5316,8 +6164,21 @@
       <c r="AA62" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+    </row>
+    <row r="63" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
         <v>299</v>
       </c>
@@ -5368,8 +6229,21 @@
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
-    </row>
-    <row r="64" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="8"/>
+      <c r="AN63" s="8"/>
+    </row>
+    <row r="64" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
         <v>300</v>
       </c>
@@ -5402,28 +6276,59 @@
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
-    </row>
-    <row r="65" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="8"/>
+      <c r="AN64" s="8"/>
+    </row>
+    <row r="65" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
       <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
       <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+      <c r="O65" s="7">
+        <v>1</v>
+      </c>
       <c r="P65" s="11">
         <v>1</v>
       </c>
@@ -5454,8 +6359,21 @@
         <v>1</v>
       </c>
       <c r="AA65" s="9"/>
-    </row>
-    <row r="66" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="8"/>
+    </row>
+    <row r="66" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
         <v>144</v>
       </c>
@@ -5512,8 +6430,21 @@
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
-    </row>
-    <row r="67" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="8"/>
+    </row>
+    <row r="67" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
         <v>301</v>
       </c>
@@ -5588,8 +6519,21 @@
       <c r="AA67" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="8"/>
+    </row>
+    <row r="68" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
         <v>145</v>
       </c>
@@ -5640,28 +6584,59 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
-    </row>
-    <row r="69" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="8"/>
+      <c r="AN68" s="8"/>
+    </row>
+    <row r="69" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="I69" s="7">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
       <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
+      <c r="M69" s="7">
+        <v>1</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <v>1</v>
+      </c>
       <c r="P69" s="11">
         <v>1</v>
       </c>
@@ -5694,8 +6669,21 @@
       <c r="AA69" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="8"/>
+    </row>
+    <row r="70" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
         <v>146</v>
       </c>
@@ -5764,8 +6752,21 @@
         <v>1</v>
       </c>
       <c r="AA70" s="9"/>
-    </row>
-    <row r="71" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="8"/>
+    </row>
+    <row r="71" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
         <v>303</v>
       </c>
@@ -5808,8 +6809,21 @@
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
-    </row>
-    <row r="72" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="8"/>
+      <c r="AN71" s="8"/>
+    </row>
+    <row r="72" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
         <v>147</v>
       </c>
@@ -5850,8 +6864,21 @@
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
-    </row>
-    <row r="73" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="8"/>
+      <c r="AN72" s="8"/>
+    </row>
+    <row r="73" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
         <v>148</v>
       </c>
@@ -5914,8 +6941,21 @@
         <v>1</v>
       </c>
       <c r="AA73" s="9"/>
-    </row>
-    <row r="74" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="8"/>
+    </row>
+    <row r="74" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
         <v>149</v>
       </c>
@@ -5994,27 +7034,52 @@
         <v>1</v>
       </c>
       <c r="AA74" s="9"/>
-    </row>
-    <row r="75" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="8"/>
+    </row>
+    <row r="75" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
       <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="K75" s="7">
+        <v>1</v>
+      </c>
       <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
+      <c r="M75" s="7">
+        <v>1</v>
+      </c>
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
       <c r="O75" s="8"/>
       <c r="P75" s="11">
         <v>1</v>
@@ -6034,28 +7099,59 @@
         <v>1</v>
       </c>
       <c r="AA75" s="9"/>
-    </row>
-    <row r="76" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+    </row>
+    <row r="76" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
       <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1</v>
+      </c>
       <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="M76" s="7">
+        <v>1</v>
+      </c>
+      <c r="N76" s="7">
+        <v>1</v>
+      </c>
+      <c r="O76" s="7">
+        <v>1</v>
+      </c>
       <c r="P76" s="11">
         <v>1</v>
       </c>
@@ -6090,8 +7186,21 @@
         <v>1</v>
       </c>
       <c r="AA76" s="9"/>
-    </row>
-    <row r="77" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="8"/>
+      <c r="AN76" s="8"/>
+    </row>
+    <row r="77" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
         <v>305</v>
       </c>
@@ -6160,8 +7269,21 @@
         <v>1</v>
       </c>
       <c r="AA77" s="9"/>
-    </row>
-    <row r="78" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="8"/>
+      <c r="AN77" s="8"/>
+    </row>
+    <row r="78" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
         <v>151</v>
       </c>
@@ -6194,8 +7316,21 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
-    </row>
-    <row r="79" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
+      <c r="AN78" s="8"/>
+    </row>
+    <row r="79" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
         <v>306</v>
       </c>
@@ -6278,8 +7413,21 @@
       <c r="AA79" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="8"/>
+      <c r="AN79" s="8"/>
+    </row>
+    <row r="80" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
         <v>152</v>
       </c>
@@ -6320,8 +7468,21 @@
         <v>1</v>
       </c>
       <c r="AA80" s="9"/>
-    </row>
-    <row r="81" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="8"/>
+      <c r="AL80" s="8"/>
+      <c r="AM80" s="8"/>
+      <c r="AN80" s="8"/>
+    </row>
+    <row r="81" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="14" t="s">
         <v>153</v>
       </c>
@@ -6402,8 +7563,21 @@
       <c r="AA81" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="8"/>
+      <c r="AL81" s="8"/>
+      <c r="AM81" s="8"/>
+      <c r="AN81" s="8"/>
+    </row>
+    <row r="82" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="14" t="s">
         <v>154</v>
       </c>
@@ -6468,8 +7642,21 @@
         <v>1</v>
       </c>
       <c r="AA82" s="9"/>
-    </row>
-    <row r="83" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="8"/>
+      <c r="AH82" s="8"/>
+      <c r="AI82" s="8"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="8"/>
+      <c r="AL82" s="8"/>
+      <c r="AM82" s="8"/>
+      <c r="AN82" s="8"/>
+    </row>
+    <row r="83" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="14" t="s">
         <v>275</v>
       </c>
@@ -6502,8 +7689,21 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
-    </row>
-    <row r="84" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="8"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="8"/>
+    </row>
+    <row r="84" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="14" t="s">
         <v>155</v>
       </c>
@@ -6580,8 +7780,21 @@
         <v>1</v>
       </c>
       <c r="AA84" s="9"/>
-    </row>
-    <row r="85" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB84" s="8"/>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="8"/>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="8"/>
+      <c r="AN84" s="8"/>
+    </row>
+    <row r="85" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="14" t="s">
         <v>156</v>
       </c>
@@ -6616,27 +7829,52 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
-    </row>
-    <row r="86" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8"/>
+      <c r="AJ85" s="8"/>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="8"/>
+      <c r="AM85" s="8"/>
+      <c r="AN85" s="8"/>
+    </row>
+    <row r="86" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
       <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+      <c r="K86" s="7">
+        <v>1</v>
+      </c>
       <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
+      <c r="M86" s="7">
+        <v>1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>1</v>
+      </c>
       <c r="O86" s="8"/>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
@@ -6650,8 +7888,21 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
-    </row>
-    <row r="87" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="8"/>
+      <c r="AK86" s="8"/>
+      <c r="AL86" s="8"/>
+      <c r="AM86" s="8"/>
+      <c r="AN86" s="8"/>
+    </row>
+    <row r="87" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="14" t="s">
         <v>158</v>
       </c>
@@ -6696,8 +7947,21 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
-    </row>
-    <row r="88" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+    </row>
+    <row r="88" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="14" t="s">
         <v>159</v>
       </c>
@@ -6748,8 +8012,21 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
-    </row>
-    <row r="89" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+    </row>
+    <row r="89" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="14" t="s">
         <v>160</v>
       </c>
@@ -6832,8 +8109,21 @@
       <c r="AA89" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+    </row>
+    <row r="90" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="14" t="s">
         <v>307</v>
       </c>
@@ -6882,8 +8172,21 @@
         <v>1</v>
       </c>
       <c r="AA90" s="9"/>
-    </row>
-    <row r="91" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="8"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="8"/>
+    </row>
+    <row r="91" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="14" t="s">
         <v>161</v>
       </c>
@@ -6938,8 +8241,21 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
-    </row>
-    <row r="92" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="8"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
+      <c r="AL91" s="8"/>
+      <c r="AM91" s="8"/>
+      <c r="AN91" s="8"/>
+    </row>
+    <row r="92" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="14" t="s">
         <v>308</v>
       </c>
@@ -6990,8 +8306,21 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
-    </row>
-    <row r="93" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="8"/>
+      <c r="AE92" s="8"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="8"/>
+      <c r="AH92" s="8"/>
+      <c r="AI92" s="8"/>
+      <c r="AJ92" s="8"/>
+      <c r="AK92" s="8"/>
+      <c r="AL92" s="8"/>
+      <c r="AM92" s="8"/>
+      <c r="AN92" s="8"/>
+    </row>
+    <row r="93" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="14" t="s">
         <v>162</v>
       </c>
@@ -7038,8 +8367,21 @@
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
-    </row>
-    <row r="94" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="8"/>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="8"/>
+      <c r="AL93" s="8"/>
+      <c r="AM93" s="8"/>
+      <c r="AN93" s="8"/>
+    </row>
+    <row r="94" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="14" t="s">
         <v>309</v>
       </c>
@@ -7084,8 +8426,21 @@
         <v>1</v>
       </c>
       <c r="AA94" s="9"/>
-    </row>
-    <row r="95" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="17"/>
+      <c r="AE94" s="17"/>
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="17"/>
+      <c r="AI94" s="17"/>
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+      <c r="AL94" s="17"/>
+      <c r="AM94" s="17"/>
+      <c r="AN94" s="17"/>
+    </row>
+    <row r="95" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="15" t="s">
         <v>310</v>
       </c>
@@ -7142,8 +8497,21 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
-    </row>
-    <row r="96" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="8"/>
+      <c r="AD95" s="8"/>
+      <c r="AE95" s="8"/>
+      <c r="AF95" s="8"/>
+      <c r="AG95" s="8"/>
+      <c r="AH95" s="8"/>
+      <c r="AI95" s="8"/>
+      <c r="AJ95" s="8"/>
+      <c r="AK95" s="8"/>
+      <c r="AL95" s="8"/>
+      <c r="AM95" s="8"/>
+      <c r="AN95" s="8"/>
+    </row>
+    <row r="96" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="14" t="s">
         <v>163</v>
       </c>
@@ -7184,14 +8552,27 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
-    </row>
-    <row r="97" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="8"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+    </row>
+    <row r="97" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -7212,9 +8593,7 @@
       <c r="K97" s="7">
         <v>1</v>
       </c>
-      <c r="L97" s="7">
-        <v>1</v>
-      </c>
+      <c r="L97" s="8"/>
       <c r="M97" s="7">
         <v>1</v>
       </c>
@@ -7250,8 +8629,21 @@
         <v>1</v>
       </c>
       <c r="AA97" s="9"/>
-    </row>
-    <row r="98" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB97" s="8"/>
+      <c r="AC97" s="8"/>
+      <c r="AD97" s="8"/>
+      <c r="AE97" s="8"/>
+      <c r="AF97" s="8"/>
+      <c r="AG97" s="8"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+    </row>
+    <row r="98" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="14" t="s">
         <v>311</v>
       </c>
@@ -7322,8 +8714,21 @@
         <v>1</v>
       </c>
       <c r="AA98" s="9"/>
-    </row>
-    <row r="99" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="8"/>
+      <c r="AD98" s="8"/>
+      <c r="AE98" s="8"/>
+      <c r="AF98" s="8"/>
+      <c r="AG98" s="8"/>
+      <c r="AH98" s="8"/>
+      <c r="AI98" s="8"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="8"/>
+      <c r="AL98" s="8"/>
+      <c r="AM98" s="8"/>
+      <c r="AN98" s="8"/>
+    </row>
+    <row r="99" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="14" t="s">
         <v>165</v>
       </c>
@@ -7390,8 +8795,21 @@
         <v>1</v>
       </c>
       <c r="AA99" s="9"/>
-    </row>
-    <row r="100" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB99" s="8"/>
+      <c r="AC99" s="8"/>
+      <c r="AD99" s="8"/>
+      <c r="AE99" s="8"/>
+      <c r="AF99" s="8"/>
+      <c r="AG99" s="8"/>
+      <c r="AH99" s="8"/>
+      <c r="AI99" s="8"/>
+      <c r="AJ99" s="8"/>
+      <c r="AK99" s="8"/>
+      <c r="AL99" s="8"/>
+      <c r="AM99" s="8"/>
+      <c r="AN99" s="8"/>
+    </row>
+    <row r="100" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="14" t="s">
         <v>166</v>
       </c>
@@ -7474,8 +8892,21 @@
       <c r="AA100" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB100" s="8"/>
+      <c r="AC100" s="8"/>
+      <c r="AD100" s="8"/>
+      <c r="AE100" s="8"/>
+      <c r="AF100" s="8"/>
+      <c r="AG100" s="8"/>
+      <c r="AH100" s="8"/>
+      <c r="AI100" s="8"/>
+      <c r="AJ100" s="8"/>
+      <c r="AK100" s="8"/>
+      <c r="AL100" s="8"/>
+      <c r="AM100" s="8"/>
+      <c r="AN100" s="8"/>
+    </row>
+    <row r="101" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="14" t="s">
         <v>167</v>
       </c>
@@ -7508,8 +8939,21 @@
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
-    </row>
-    <row r="102" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="8"/>
+      <c r="AD101" s="8"/>
+      <c r="AE101" s="8"/>
+      <c r="AF101" s="8"/>
+      <c r="AG101" s="8"/>
+      <c r="AH101" s="8"/>
+      <c r="AI101" s="8"/>
+      <c r="AJ101" s="8"/>
+      <c r="AK101" s="8"/>
+      <c r="AL101" s="8"/>
+      <c r="AM101" s="8"/>
+      <c r="AN101" s="8"/>
+    </row>
+    <row r="102" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="14" t="s">
         <v>168</v>
       </c>
@@ -7560,8 +9004,21 @@
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
-    </row>
-    <row r="103" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="8"/>
+      <c r="AD102" s="8"/>
+      <c r="AE102" s="8"/>
+      <c r="AF102" s="8"/>
+      <c r="AG102" s="8"/>
+      <c r="AH102" s="8"/>
+      <c r="AI102" s="8"/>
+      <c r="AJ102" s="8"/>
+      <c r="AK102" s="8"/>
+      <c r="AL102" s="8"/>
+      <c r="AM102" s="8"/>
+      <c r="AN102" s="8"/>
+    </row>
+    <row r="103" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="14" t="s">
         <v>169</v>
       </c>
@@ -7644,8 +9101,21 @@
       <c r="AA103" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB103" s="8"/>
+      <c r="AC103" s="8"/>
+      <c r="AD103" s="8"/>
+      <c r="AE103" s="8"/>
+      <c r="AF103" s="8"/>
+      <c r="AG103" s="8"/>
+      <c r="AH103" s="8"/>
+      <c r="AI103" s="8"/>
+      <c r="AJ103" s="8"/>
+      <c r="AK103" s="8"/>
+      <c r="AL103" s="8"/>
+      <c r="AM103" s="8"/>
+      <c r="AN103" s="8"/>
+    </row>
+    <row r="104" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="14" t="s">
         <v>170</v>
       </c>
@@ -7702,8 +9172,21 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
-    </row>
-    <row r="105" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB104" s="8"/>
+      <c r="AC104" s="8"/>
+      <c r="AD104" s="8"/>
+      <c r="AE104" s="8"/>
+      <c r="AF104" s="8"/>
+      <c r="AG104" s="8"/>
+      <c r="AH104" s="8"/>
+      <c r="AI104" s="8"/>
+      <c r="AJ104" s="8"/>
+      <c r="AK104" s="8"/>
+      <c r="AL104" s="8"/>
+      <c r="AM104" s="8"/>
+      <c r="AN104" s="8"/>
+    </row>
+    <row r="105" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="14" t="s">
         <v>171</v>
       </c>
@@ -7736,8 +9219,21 @@
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
-    </row>
-    <row r="106" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="8"/>
+      <c r="AD105" s="8"/>
+      <c r="AE105" s="8"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="8"/>
+      <c r="AH105" s="8"/>
+      <c r="AI105" s="8"/>
+      <c r="AJ105" s="8"/>
+      <c r="AK105" s="8"/>
+      <c r="AL105" s="8"/>
+      <c r="AM105" s="8"/>
+      <c r="AN105" s="8"/>
+    </row>
+    <row r="106" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="14" t="s">
         <v>276</v>
       </c>
@@ -7774,8 +9270,21 @@
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
-    </row>
-    <row r="107" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB106" s="8"/>
+      <c r="AC106" s="8"/>
+      <c r="AD106" s="8"/>
+      <c r="AE106" s="8"/>
+      <c r="AF106" s="8"/>
+      <c r="AG106" s="8"/>
+      <c r="AH106" s="8"/>
+      <c r="AI106" s="8"/>
+      <c r="AJ106" s="8"/>
+      <c r="AK106" s="8"/>
+      <c r="AL106" s="8"/>
+      <c r="AM106" s="8"/>
+      <c r="AN106" s="8"/>
+    </row>
+    <row r="107" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="14" t="s">
         <v>172</v>
       </c>
@@ -7808,8 +9317,21 @@
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
-    </row>
-    <row r="108" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB107" s="8"/>
+      <c r="AC107" s="8"/>
+      <c r="AD107" s="8"/>
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+    </row>
+    <row r="108" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="14" t="s">
         <v>173</v>
       </c>
@@ -7866,8 +9388,21 @@
         <v>1</v>
       </c>
       <c r="AA108" s="9"/>
-    </row>
-    <row r="109" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB108" s="8"/>
+      <c r="AC108" s="8"/>
+      <c r="AD108" s="8"/>
+      <c r="AE108" s="8"/>
+      <c r="AF108" s="8"/>
+      <c r="AG108" s="8"/>
+      <c r="AH108" s="8"/>
+      <c r="AI108" s="8"/>
+      <c r="AJ108" s="8"/>
+      <c r="AK108" s="8"/>
+      <c r="AL108" s="8"/>
+      <c r="AM108" s="8"/>
+      <c r="AN108" s="8"/>
+    </row>
+    <row r="109" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="14" t="s">
         <v>174</v>
       </c>
@@ -7928,8 +9463,21 @@
         <v>1</v>
       </c>
       <c r="AA109" s="9"/>
-    </row>
-    <row r="110" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB109" s="8"/>
+      <c r="AC109" s="8"/>
+      <c r="AD109" s="8"/>
+      <c r="AE109" s="8"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="8"/>
+      <c r="AH109" s="8"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8"/>
+      <c r="AK109" s="8"/>
+      <c r="AL109" s="8"/>
+      <c r="AM109" s="8"/>
+      <c r="AN109" s="8"/>
+    </row>
+    <row r="110" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="14" t="s">
         <v>280</v>
       </c>
@@ -7988,8 +9536,21 @@
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
-    </row>
-    <row r="111" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB110" s="8"/>
+      <c r="AC110" s="8"/>
+      <c r="AD110" s="8"/>
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+      <c r="AH110" s="8"/>
+      <c r="AI110" s="8"/>
+      <c r="AJ110" s="8"/>
+      <c r="AK110" s="8"/>
+      <c r="AL110" s="8"/>
+      <c r="AM110" s="8"/>
+      <c r="AN110" s="8"/>
+    </row>
+    <row r="111" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="14" t="s">
         <v>312</v>
       </c>
@@ -8046,8 +9607,21 @@
         <v>1</v>
       </c>
       <c r="AA111" s="9"/>
-    </row>
-    <row r="112" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB111" s="8"/>
+      <c r="AC111" s="8"/>
+      <c r="AD111" s="8"/>
+      <c r="AE111" s="8"/>
+      <c r="AF111" s="8"/>
+      <c r="AG111" s="8"/>
+      <c r="AH111" s="8"/>
+      <c r="AI111" s="8"/>
+      <c r="AJ111" s="8"/>
+      <c r="AK111" s="8"/>
+      <c r="AL111" s="8"/>
+      <c r="AM111" s="8"/>
+      <c r="AN111" s="8"/>
+    </row>
+    <row r="112" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="14" t="s">
         <v>175</v>
       </c>
@@ -8114,27 +9688,58 @@
         <v>1</v>
       </c>
       <c r="AA112" s="9"/>
-    </row>
-    <row r="113" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB112" s="8"/>
+      <c r="AC112" s="8"/>
+      <c r="AD112" s="8"/>
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+      <c r="AH112" s="8"/>
+      <c r="AI112" s="8"/>
+      <c r="AJ112" s="8"/>
+      <c r="AK112" s="8"/>
+      <c r="AL112" s="8"/>
+      <c r="AM112" s="8"/>
+      <c r="AN112" s="8"/>
+    </row>
+    <row r="113" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1</v>
+      </c>
       <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7">
+        <v>1</v>
+      </c>
       <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="I113" s="7">
+        <v>1</v>
+      </c>
       <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
+      <c r="K113" s="7">
+        <v>1</v>
+      </c>
+      <c r="L113" s="7">
+        <v>1</v>
+      </c>
+      <c r="M113" s="7">
+        <v>1</v>
+      </c>
+      <c r="N113" s="7">
+        <v>1</v>
+      </c>
       <c r="O113" s="8"/>
       <c r="P113" s="11">
         <v>1</v>
@@ -8158,8 +9763,21 @@
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
-    </row>
-    <row r="114" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB113" s="8"/>
+      <c r="AC113" s="8"/>
+      <c r="AD113" s="8"/>
+      <c r="AE113" s="8"/>
+      <c r="AF113" s="8"/>
+      <c r="AG113" s="8"/>
+      <c r="AH113" s="8"/>
+      <c r="AI113" s="8"/>
+      <c r="AJ113" s="8"/>
+      <c r="AK113" s="8"/>
+      <c r="AL113" s="8"/>
+      <c r="AM113" s="8"/>
+      <c r="AN113" s="8"/>
+    </row>
+    <row r="114" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="14" t="s">
         <v>314</v>
       </c>
@@ -8212,8 +9830,21 @@
         <v>1</v>
       </c>
       <c r="AA114" s="9"/>
-    </row>
-    <row r="115" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB114" s="8"/>
+      <c r="AC114" s="8"/>
+      <c r="AD114" s="8"/>
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+      <c r="AH114" s="8"/>
+      <c r="AI114" s="8"/>
+      <c r="AJ114" s="8"/>
+      <c r="AK114" s="8"/>
+      <c r="AL114" s="8"/>
+      <c r="AM114" s="8"/>
+      <c r="AN114" s="8"/>
+    </row>
+    <row r="115" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="14" t="s">
         <v>176</v>
       </c>
@@ -8246,8 +9877,21 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
-    </row>
-    <row r="116" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB115" s="8"/>
+      <c r="AC115" s="8"/>
+      <c r="AD115" s="8"/>
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="8"/>
+      <c r="AH115" s="8"/>
+      <c r="AI115" s="8"/>
+      <c r="AJ115" s="8"/>
+      <c r="AK115" s="8"/>
+      <c r="AL115" s="8"/>
+      <c r="AM115" s="8"/>
+      <c r="AN115" s="8"/>
+    </row>
+    <row r="116" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="14" t="s">
         <v>177</v>
       </c>
@@ -8302,8 +9946,21 @@
         <v>1</v>
       </c>
       <c r="AA116" s="9"/>
-    </row>
-    <row r="117" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="8"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+      <c r="AM116" s="8"/>
+      <c r="AN116" s="8"/>
+    </row>
+    <row r="117" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="14" t="s">
         <v>178</v>
       </c>
@@ -8344,8 +10001,21 @@
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
-    </row>
-    <row r="118" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB117" s="8"/>
+      <c r="AC117" s="8"/>
+      <c r="AD117" s="8"/>
+      <c r="AE117" s="8"/>
+      <c r="AF117" s="8"/>
+      <c r="AG117" s="8"/>
+      <c r="AH117" s="8"/>
+      <c r="AI117" s="8"/>
+      <c r="AJ117" s="8"/>
+      <c r="AK117" s="8"/>
+      <c r="AL117" s="8"/>
+      <c r="AM117" s="8"/>
+      <c r="AN117" s="8"/>
+    </row>
+    <row r="118" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="14" t="s">
         <v>179</v>
       </c>
@@ -8388,8 +10058,21 @@
         <v>1</v>
       </c>
       <c r="AA118" s="9"/>
-    </row>
-    <row r="119" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB118" s="8"/>
+      <c r="AC118" s="8"/>
+      <c r="AD118" s="8"/>
+      <c r="AE118" s="8"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="8"/>
+      <c r="AH118" s="8"/>
+      <c r="AI118" s="8"/>
+      <c r="AJ118" s="8"/>
+      <c r="AK118" s="8"/>
+      <c r="AL118" s="8"/>
+      <c r="AM118" s="8"/>
+      <c r="AN118" s="8"/>
+    </row>
+    <row r="119" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="16" t="s">
         <v>315</v>
       </c>
@@ -8452,8 +10135,21 @@
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
-    </row>
-    <row r="120" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB119" s="8"/>
+      <c r="AC119" s="8"/>
+      <c r="AD119" s="8"/>
+      <c r="AE119" s="8"/>
+      <c r="AF119" s="8"/>
+      <c r="AG119" s="8"/>
+      <c r="AH119" s="8"/>
+      <c r="AI119" s="8"/>
+      <c r="AJ119" s="8"/>
+      <c r="AK119" s="8"/>
+      <c r="AL119" s="8"/>
+      <c r="AM119" s="8"/>
+      <c r="AN119" s="8"/>
+    </row>
+    <row r="120" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="14" t="s">
         <v>180</v>
       </c>
@@ -8512,8 +10208,21 @@
         <v>1</v>
       </c>
       <c r="AA120" s="9"/>
-    </row>
-    <row r="121" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB120" s="8"/>
+      <c r="AC120" s="8"/>
+      <c r="AD120" s="8"/>
+      <c r="AE120" s="8"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="8"/>
+      <c r="AH120" s="8"/>
+      <c r="AI120" s="8"/>
+      <c r="AJ120" s="8"/>
+      <c r="AK120" s="8"/>
+      <c r="AL120" s="8"/>
+      <c r="AM120" s="8"/>
+      <c r="AN120" s="8"/>
+    </row>
+    <row r="121" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="14" t="s">
         <v>181</v>
       </c>
@@ -8562,8 +10271,21 @@
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
-    </row>
-    <row r="122" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="8"/>
+      <c r="AD121" s="8"/>
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+      <c r="AH121" s="8"/>
+      <c r="AI121" s="8"/>
+      <c r="AJ121" s="8"/>
+      <c r="AK121" s="8"/>
+      <c r="AL121" s="8"/>
+      <c r="AM121" s="8"/>
+      <c r="AN121" s="8"/>
+    </row>
+    <row r="122" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="14" t="s">
         <v>182</v>
       </c>
@@ -8604,8 +10326,21 @@
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
-    </row>
-    <row r="123" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB122" s="8"/>
+      <c r="AC122" s="8"/>
+      <c r="AD122" s="8"/>
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
+      <c r="AH122" s="8"/>
+      <c r="AI122" s="8"/>
+      <c r="AJ122" s="8"/>
+      <c r="AK122" s="8"/>
+      <c r="AL122" s="8"/>
+      <c r="AM122" s="8"/>
+      <c r="AN122" s="8"/>
+    </row>
+    <row r="123" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="14" t="s">
         <v>183</v>
       </c>
@@ -8658,8 +10393,21 @@
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
-    </row>
-    <row r="124" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB123" s="8"/>
+      <c r="AC123" s="8"/>
+      <c r="AD123" s="8"/>
+      <c r="AE123" s="8"/>
+      <c r="AF123" s="8"/>
+      <c r="AG123" s="8"/>
+      <c r="AH123" s="8"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="8"/>
+      <c r="AM123" s="8"/>
+      <c r="AN123" s="8"/>
+    </row>
+    <row r="124" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="14" t="s">
         <v>184</v>
       </c>
@@ -8706,8 +10454,21 @@
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
-    </row>
-    <row r="125" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB124" s="8"/>
+      <c r="AC124" s="8"/>
+      <c r="AD124" s="8"/>
+      <c r="AE124" s="8"/>
+      <c r="AF124" s="8"/>
+      <c r="AG124" s="8"/>
+      <c r="AH124" s="8"/>
+      <c r="AI124" s="8"/>
+      <c r="AJ124" s="8"/>
+      <c r="AK124" s="8"/>
+      <c r="AL124" s="8"/>
+      <c r="AM124" s="8"/>
+      <c r="AN124" s="8"/>
+    </row>
+    <row r="125" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="14" t="s">
         <v>316</v>
       </c>
@@ -8740,8 +10501,21 @@
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
-    </row>
-    <row r="126" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB125" s="8"/>
+      <c r="AC125" s="8"/>
+      <c r="AD125" s="8"/>
+      <c r="AE125" s="8"/>
+      <c r="AF125" s="8"/>
+      <c r="AG125" s="8"/>
+      <c r="AH125" s="8"/>
+      <c r="AI125" s="8"/>
+      <c r="AJ125" s="8"/>
+      <c r="AK125" s="8"/>
+      <c r="AL125" s="8"/>
+      <c r="AM125" s="8"/>
+      <c r="AN125" s="8"/>
+    </row>
+    <row r="126" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="14" t="s">
         <v>185</v>
       </c>
@@ -8802,21 +10576,30 @@
         <v>1</v>
       </c>
       <c r="AA126" s="9"/>
-    </row>
-    <row r="127" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB126" s="8"/>
+      <c r="AC126" s="8"/>
+      <c r="AD126" s="8"/>
+      <c r="AE126" s="8"/>
+      <c r="AF126" s="8"/>
+      <c r="AG126" s="8"/>
+      <c r="AH126" s="8"/>
+      <c r="AI126" s="8"/>
+      <c r="AJ126" s="8"/>
+      <c r="AK126" s="8"/>
+      <c r="AL126" s="8"/>
+      <c r="AM126" s="8"/>
+      <c r="AN126" s="8"/>
+    </row>
+    <row r="127" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C127" s="6">
-        <v>1</v>
-      </c>
-      <c r="D127" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -8830,9 +10613,7 @@
       <c r="M127" s="7">
         <v>1</v>
       </c>
-      <c r="N127" s="7">
-        <v>1</v>
-      </c>
+      <c r="N127" s="8"/>
       <c r="O127" s="8"/>
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
@@ -8846,8 +10627,21 @@
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
-    </row>
-    <row r="128" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB127" s="8"/>
+      <c r="AC127" s="8"/>
+      <c r="AD127" s="8"/>
+      <c r="AE127" s="8"/>
+      <c r="AF127" s="8"/>
+      <c r="AG127" s="8"/>
+      <c r="AH127" s="8"/>
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="8"/>
+      <c r="AK127" s="8"/>
+      <c r="AL127" s="8"/>
+      <c r="AM127" s="8"/>
+      <c r="AN127" s="8"/>
+    </row>
+    <row r="128" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="14" t="s">
         <v>186</v>
       </c>
@@ -8900,8 +10694,21 @@
         <v>1</v>
       </c>
       <c r="AA128" s="9"/>
-    </row>
-    <row r="129" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB128" s="8"/>
+      <c r="AC128" s="8"/>
+      <c r="AD128" s="8"/>
+      <c r="AE128" s="8"/>
+      <c r="AF128" s="8"/>
+      <c r="AG128" s="8"/>
+      <c r="AH128" s="8"/>
+      <c r="AI128" s="8"/>
+      <c r="AJ128" s="8"/>
+      <c r="AK128" s="8"/>
+      <c r="AL128" s="8"/>
+      <c r="AM128" s="8"/>
+      <c r="AN128" s="8"/>
+    </row>
+    <row r="129" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="14" t="s">
         <v>187</v>
       </c>
@@ -8952,8 +10759,21 @@
         <v>1</v>
       </c>
       <c r="AA129" s="9"/>
-    </row>
-    <row r="130" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB129" s="8"/>
+      <c r="AC129" s="8"/>
+      <c r="AD129" s="8"/>
+      <c r="AE129" s="8"/>
+      <c r="AF129" s="8"/>
+      <c r="AG129" s="8"/>
+      <c r="AH129" s="8"/>
+      <c r="AI129" s="8"/>
+      <c r="AJ129" s="8"/>
+      <c r="AK129" s="8"/>
+      <c r="AL129" s="8"/>
+      <c r="AM129" s="8"/>
+      <c r="AN129" s="8"/>
+    </row>
+    <row r="130" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="14" t="s">
         <v>317</v>
       </c>
@@ -9022,8 +10842,21 @@
       <c r="AA130" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB130" s="8"/>
+      <c r="AC130" s="8"/>
+      <c r="AD130" s="8"/>
+      <c r="AE130" s="8"/>
+      <c r="AF130" s="8"/>
+      <c r="AG130" s="8"/>
+      <c r="AH130" s="8"/>
+      <c r="AI130" s="8"/>
+      <c r="AJ130" s="8"/>
+      <c r="AK130" s="8"/>
+      <c r="AL130" s="8"/>
+      <c r="AM130" s="8"/>
+      <c r="AN130" s="8"/>
+    </row>
+    <row r="131" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="14" t="s">
         <v>188</v>
       </c>
@@ -9056,8 +10889,21 @@
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
-    </row>
-    <row r="132" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB131" s="8"/>
+      <c r="AC131" s="8"/>
+      <c r="AD131" s="8"/>
+      <c r="AE131" s="8"/>
+      <c r="AF131" s="8"/>
+      <c r="AG131" s="8"/>
+      <c r="AH131" s="8"/>
+      <c r="AI131" s="8"/>
+      <c r="AJ131" s="8"/>
+      <c r="AK131" s="8"/>
+      <c r="AL131" s="8"/>
+      <c r="AM131" s="8"/>
+      <c r="AN131" s="8"/>
+    </row>
+    <row r="132" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="14" t="s">
         <v>189</v>
       </c>
@@ -9108,8 +10954,21 @@
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
-    </row>
-    <row r="133" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB132" s="8"/>
+      <c r="AC132" s="8"/>
+      <c r="AD132" s="8"/>
+      <c r="AE132" s="8"/>
+      <c r="AF132" s="8"/>
+      <c r="AG132" s="8"/>
+      <c r="AH132" s="8"/>
+      <c r="AI132" s="8"/>
+      <c r="AJ132" s="8"/>
+      <c r="AK132" s="8"/>
+      <c r="AL132" s="8"/>
+      <c r="AM132" s="8"/>
+      <c r="AN132" s="8"/>
+    </row>
+    <row r="133" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="14" t="s">
         <v>190</v>
       </c>
@@ -9142,8 +11001,21 @@
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
-    </row>
-    <row r="134" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB133" s="8"/>
+      <c r="AC133" s="8"/>
+      <c r="AD133" s="8"/>
+      <c r="AE133" s="8"/>
+      <c r="AF133" s="8"/>
+      <c r="AG133" s="8"/>
+      <c r="AH133" s="8"/>
+      <c r="AI133" s="8"/>
+      <c r="AJ133" s="8"/>
+      <c r="AK133" s="8"/>
+      <c r="AL133" s="8"/>
+      <c r="AM133" s="8"/>
+      <c r="AN133" s="8"/>
+    </row>
+    <row r="134" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="14" t="s">
         <v>191</v>
       </c>
@@ -9204,8 +11076,21 @@
         <v>1</v>
       </c>
       <c r="AA134" s="9"/>
-    </row>
-    <row r="135" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB134" s="8"/>
+      <c r="AC134" s="8"/>
+      <c r="AD134" s="8"/>
+      <c r="AE134" s="8"/>
+      <c r="AF134" s="8"/>
+      <c r="AG134" s="8"/>
+      <c r="AH134" s="8"/>
+      <c r="AI134" s="8"/>
+      <c r="AJ134" s="8"/>
+      <c r="AK134" s="8"/>
+      <c r="AL134" s="8"/>
+      <c r="AM134" s="8"/>
+      <c r="AN134" s="8"/>
+    </row>
+    <row r="135" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="14" t="s">
         <v>192</v>
       </c>
@@ -9274,8 +11159,21 @@
         <v>1</v>
       </c>
       <c r="AA135" s="9"/>
-    </row>
-    <row r="136" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB135" s="8"/>
+      <c r="AC135" s="8"/>
+      <c r="AD135" s="8"/>
+      <c r="AE135" s="8"/>
+      <c r="AF135" s="8"/>
+      <c r="AG135" s="8"/>
+      <c r="AH135" s="8"/>
+      <c r="AI135" s="8"/>
+      <c r="AJ135" s="8"/>
+      <c r="AK135" s="8"/>
+      <c r="AL135" s="8"/>
+      <c r="AM135" s="8"/>
+      <c r="AN135" s="8"/>
+    </row>
+    <row r="136" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="14" t="s">
         <v>193</v>
       </c>
@@ -9308,8 +11206,21 @@
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
-    </row>
-    <row r="137" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB136" s="8"/>
+      <c r="AC136" s="8"/>
+      <c r="AD136" s="8"/>
+      <c r="AE136" s="8"/>
+      <c r="AF136" s="8"/>
+      <c r="AG136" s="8"/>
+      <c r="AH136" s="8"/>
+      <c r="AI136" s="8"/>
+      <c r="AJ136" s="8"/>
+      <c r="AK136" s="8"/>
+      <c r="AL136" s="8"/>
+      <c r="AM136" s="8"/>
+      <c r="AN136" s="8"/>
+    </row>
+    <row r="137" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="14" t="s">
         <v>194</v>
       </c>
@@ -9386,8 +11297,21 @@
         <v>1</v>
       </c>
       <c r="AA137" s="9"/>
-    </row>
-    <row r="138" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB137" s="8"/>
+      <c r="AC137" s="8"/>
+      <c r="AD137" s="8"/>
+      <c r="AE137" s="8"/>
+      <c r="AF137" s="8"/>
+      <c r="AG137" s="8"/>
+      <c r="AH137" s="8"/>
+      <c r="AI137" s="8"/>
+      <c r="AJ137" s="8"/>
+      <c r="AK137" s="8"/>
+      <c r="AL137" s="8"/>
+      <c r="AM137" s="8"/>
+      <c r="AN137" s="8"/>
+    </row>
+    <row r="138" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="14" t="s">
         <v>195</v>
       </c>
@@ -9434,8 +11358,21 @@
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
-    </row>
-    <row r="139" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB138" s="8"/>
+      <c r="AC138" s="8"/>
+      <c r="AD138" s="8"/>
+      <c r="AE138" s="8"/>
+      <c r="AF138" s="8"/>
+      <c r="AG138" s="8"/>
+      <c r="AH138" s="8"/>
+      <c r="AI138" s="8"/>
+      <c r="AJ138" s="8"/>
+      <c r="AK138" s="8"/>
+      <c r="AL138" s="8"/>
+      <c r="AM138" s="8"/>
+      <c r="AN138" s="8"/>
+    </row>
+    <row r="139" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="14" t="s">
         <v>318</v>
       </c>
@@ -9492,8 +11429,21 @@
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
-    </row>
-    <row r="140" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB139" s="8"/>
+      <c r="AC139" s="8"/>
+      <c r="AD139" s="8"/>
+      <c r="AE139" s="8"/>
+      <c r="AF139" s="8"/>
+      <c r="AG139" s="8"/>
+      <c r="AH139" s="8"/>
+      <c r="AI139" s="8"/>
+      <c r="AJ139" s="8"/>
+      <c r="AK139" s="8"/>
+      <c r="AL139" s="8"/>
+      <c r="AM139" s="8"/>
+      <c r="AN139" s="8"/>
+    </row>
+    <row r="140" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="14" t="s">
         <v>196</v>
       </c>
@@ -9576,8 +11526,21 @@
       <c r="AA140" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB140" s="8"/>
+      <c r="AC140" s="8"/>
+      <c r="AD140" s="8"/>
+      <c r="AE140" s="8"/>
+      <c r="AF140" s="8"/>
+      <c r="AG140" s="8"/>
+      <c r="AH140" s="8"/>
+      <c r="AI140" s="8"/>
+      <c r="AJ140" s="8"/>
+      <c r="AK140" s="8"/>
+      <c r="AL140" s="8"/>
+      <c r="AM140" s="8"/>
+      <c r="AN140" s="8"/>
+    </row>
+    <row r="141" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="14" t="s">
         <v>197</v>
       </c>
@@ -9656,8 +11619,21 @@
         <v>1</v>
       </c>
       <c r="AA141" s="9"/>
-    </row>
-    <row r="142" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB141" s="8"/>
+      <c r="AC141" s="8"/>
+      <c r="AD141" s="8"/>
+      <c r="AE141" s="8"/>
+      <c r="AF141" s="8"/>
+      <c r="AG141" s="8"/>
+      <c r="AH141" s="8"/>
+      <c r="AI141" s="8"/>
+      <c r="AJ141" s="8"/>
+      <c r="AK141" s="8"/>
+      <c r="AL141" s="8"/>
+      <c r="AM141" s="8"/>
+      <c r="AN141" s="8"/>
+    </row>
+    <row r="142" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="14" t="s">
         <v>198</v>
       </c>
@@ -9700,8 +11676,21 @@
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
-    </row>
-    <row r="143" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB142" s="8"/>
+      <c r="AC142" s="8"/>
+      <c r="AD142" s="8"/>
+      <c r="AE142" s="8"/>
+      <c r="AF142" s="8"/>
+      <c r="AG142" s="8"/>
+      <c r="AH142" s="8"/>
+      <c r="AI142" s="8"/>
+      <c r="AJ142" s="8"/>
+      <c r="AK142" s="8"/>
+      <c r="AL142" s="8"/>
+      <c r="AM142" s="8"/>
+      <c r="AN142" s="8"/>
+    </row>
+    <row r="143" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="14" t="s">
         <v>319</v>
       </c>
@@ -9774,8 +11763,21 @@
         <v>1</v>
       </c>
       <c r="AA143" s="9"/>
-    </row>
-    <row r="144" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB143" s="8"/>
+      <c r="AC143" s="8"/>
+      <c r="AD143" s="8"/>
+      <c r="AE143" s="8"/>
+      <c r="AF143" s="8"/>
+      <c r="AG143" s="8"/>
+      <c r="AH143" s="8"/>
+      <c r="AI143" s="8"/>
+      <c r="AJ143" s="8"/>
+      <c r="AK143" s="8"/>
+      <c r="AL143" s="8"/>
+      <c r="AM143" s="8"/>
+      <c r="AN143" s="8"/>
+    </row>
+    <row r="144" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="14" t="s">
         <v>282</v>
       </c>
@@ -9820,14 +11822,27 @@
         <v>1</v>
       </c>
       <c r="AA144" s="9"/>
-    </row>
-    <row r="145" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB144" s="8"/>
+      <c r="AC144" s="8"/>
+      <c r="AD144" s="8"/>
+      <c r="AE144" s="8"/>
+      <c r="AF144" s="8"/>
+      <c r="AG144" s="8"/>
+      <c r="AH144" s="8"/>
+      <c r="AI144" s="8"/>
+      <c r="AJ144" s="8"/>
+      <c r="AK144" s="8"/>
+      <c r="AL144" s="8"/>
+      <c r="AM144" s="8"/>
+      <c r="AN144" s="8"/>
+    </row>
+    <row r="145" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C145" s="6">
         <v>1</v>
@@ -9835,9 +11850,7 @@
       <c r="D145" s="7">
         <v>1</v>
       </c>
-      <c r="E145" s="7">
-        <v>1</v>
-      </c>
+      <c r="E145" s="8"/>
       <c r="F145" s="7">
         <v>1</v>
       </c>
@@ -9902,8 +11915,21 @@
       <c r="AA145" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB145" s="8"/>
+      <c r="AC145" s="8"/>
+      <c r="AD145" s="8"/>
+      <c r="AE145" s="8"/>
+      <c r="AF145" s="8"/>
+      <c r="AG145" s="8"/>
+      <c r="AH145" s="8"/>
+      <c r="AI145" s="8"/>
+      <c r="AJ145" s="8"/>
+      <c r="AK145" s="8"/>
+      <c r="AL145" s="8"/>
+      <c r="AM145" s="8"/>
+      <c r="AN145" s="8"/>
+    </row>
+    <row r="146" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="14" t="s">
         <v>200</v>
       </c>
@@ -9982,8 +12008,21 @@
         <v>1</v>
       </c>
       <c r="AA146" s="9"/>
-    </row>
-    <row r="147" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB146" s="8"/>
+      <c r="AC146" s="8"/>
+      <c r="AD146" s="8"/>
+      <c r="AE146" s="8"/>
+      <c r="AF146" s="8"/>
+      <c r="AG146" s="8"/>
+      <c r="AH146" s="8"/>
+      <c r="AI146" s="8"/>
+      <c r="AJ146" s="8"/>
+      <c r="AK146" s="8"/>
+      <c r="AL146" s="8"/>
+      <c r="AM146" s="8"/>
+      <c r="AN146" s="8"/>
+    </row>
+    <row r="147" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="14" t="s">
         <v>201</v>
       </c>
@@ -10036,8 +12075,21 @@
         <v>1</v>
       </c>
       <c r="AA147" s="9"/>
-    </row>
-    <row r="148" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB147" s="8"/>
+      <c r="AC147" s="8"/>
+      <c r="AD147" s="8"/>
+      <c r="AE147" s="8"/>
+      <c r="AF147" s="8"/>
+      <c r="AG147" s="8"/>
+      <c r="AH147" s="8"/>
+      <c r="AI147" s="8"/>
+      <c r="AJ147" s="8"/>
+      <c r="AK147" s="8"/>
+      <c r="AL147" s="8"/>
+      <c r="AM147" s="8"/>
+      <c r="AN147" s="8"/>
+    </row>
+    <row r="148" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="14" t="s">
         <v>202</v>
       </c>
@@ -10092,8 +12144,21 @@
         <v>1</v>
       </c>
       <c r="AA148" s="9"/>
-    </row>
-    <row r="149" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB148" s="8"/>
+      <c r="AC148" s="8"/>
+      <c r="AD148" s="8"/>
+      <c r="AE148" s="8"/>
+      <c r="AF148" s="8"/>
+      <c r="AG148" s="8"/>
+      <c r="AH148" s="8"/>
+      <c r="AI148" s="8"/>
+      <c r="AJ148" s="8"/>
+      <c r="AK148" s="8"/>
+      <c r="AL148" s="8"/>
+      <c r="AM148" s="8"/>
+      <c r="AN148" s="8"/>
+    </row>
+    <row r="149" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="14" t="s">
         <v>203</v>
       </c>
@@ -10168,8 +12233,21 @@
       <c r="AA149" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB149" s="8"/>
+      <c r="AC149" s="8"/>
+      <c r="AD149" s="8"/>
+      <c r="AE149" s="8"/>
+      <c r="AF149" s="8"/>
+      <c r="AG149" s="8"/>
+      <c r="AH149" s="8"/>
+      <c r="AI149" s="8"/>
+      <c r="AJ149" s="8"/>
+      <c r="AK149" s="8"/>
+      <c r="AL149" s="8"/>
+      <c r="AM149" s="8"/>
+      <c r="AN149" s="8"/>
+    </row>
+    <row r="150" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="14" t="s">
         <v>320</v>
       </c>
@@ -10248,8 +12326,21 @@
         <v>1</v>
       </c>
       <c r="AA150" s="9"/>
-    </row>
-    <row r="151" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB150" s="8"/>
+      <c r="AC150" s="8"/>
+      <c r="AD150" s="8"/>
+      <c r="AE150" s="8"/>
+      <c r="AF150" s="8"/>
+      <c r="AG150" s="8"/>
+      <c r="AH150" s="8"/>
+      <c r="AI150" s="8"/>
+      <c r="AJ150" s="8"/>
+      <c r="AK150" s="8"/>
+      <c r="AL150" s="8"/>
+      <c r="AM150" s="8"/>
+      <c r="AN150" s="8"/>
+    </row>
+    <row r="151" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="14" t="s">
         <v>204</v>
       </c>
@@ -10302,8 +12393,21 @@
         <v>1</v>
       </c>
       <c r="AA151" s="9"/>
-    </row>
-    <row r="152" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB151" s="8"/>
+      <c r="AC151" s="8"/>
+      <c r="AD151" s="8"/>
+      <c r="AE151" s="8"/>
+      <c r="AF151" s="8"/>
+      <c r="AG151" s="8"/>
+      <c r="AH151" s="8"/>
+      <c r="AI151" s="8"/>
+      <c r="AJ151" s="8"/>
+      <c r="AK151" s="8"/>
+      <c r="AL151" s="8"/>
+      <c r="AM151" s="8"/>
+      <c r="AN151" s="8"/>
+    </row>
+    <row r="152" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="14" t="s">
         <v>205</v>
       </c>
@@ -10338,8 +12442,21 @@
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
-    </row>
-    <row r="153" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB152" s="8"/>
+      <c r="AC152" s="8"/>
+      <c r="AD152" s="8"/>
+      <c r="AE152" s="8"/>
+      <c r="AF152" s="8"/>
+      <c r="AG152" s="8"/>
+      <c r="AH152" s="8"/>
+      <c r="AI152" s="8"/>
+      <c r="AJ152" s="8"/>
+      <c r="AK152" s="8"/>
+      <c r="AL152" s="8"/>
+      <c r="AM152" s="8"/>
+      <c r="AN152" s="8"/>
+    </row>
+    <row r="153" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="14" t="s">
         <v>206</v>
       </c>
@@ -10406,8 +12523,21 @@
         <v>1</v>
       </c>
       <c r="AA153" s="9"/>
-    </row>
-    <row r="154" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB153" s="8"/>
+      <c r="AC153" s="8"/>
+      <c r="AD153" s="8"/>
+      <c r="AE153" s="8"/>
+      <c r="AF153" s="8"/>
+      <c r="AG153" s="8"/>
+      <c r="AH153" s="8"/>
+      <c r="AI153" s="8"/>
+      <c r="AJ153" s="8"/>
+      <c r="AK153" s="8"/>
+      <c r="AL153" s="8"/>
+      <c r="AM153" s="8"/>
+      <c r="AN153" s="8"/>
+    </row>
+    <row r="154" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="14" t="s">
         <v>207</v>
       </c>
@@ -10490,8 +12620,21 @@
       <c r="AA154" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB154" s="8"/>
+      <c r="AC154" s="8"/>
+      <c r="AD154" s="8"/>
+      <c r="AE154" s="8"/>
+      <c r="AF154" s="8"/>
+      <c r="AG154" s="8"/>
+      <c r="AH154" s="8"/>
+      <c r="AI154" s="8"/>
+      <c r="AJ154" s="8"/>
+      <c r="AK154" s="8"/>
+      <c r="AL154" s="8"/>
+      <c r="AM154" s="8"/>
+      <c r="AN154" s="8"/>
+    </row>
+    <row r="155" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="14" t="s">
         <v>321</v>
       </c>
@@ -10574,8 +12717,21 @@
       <c r="AA155" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB155" s="8"/>
+      <c r="AC155" s="8"/>
+      <c r="AD155" s="8"/>
+      <c r="AE155" s="8"/>
+      <c r="AF155" s="8"/>
+      <c r="AG155" s="8"/>
+      <c r="AH155" s="8"/>
+      <c r="AI155" s="8"/>
+      <c r="AJ155" s="8"/>
+      <c r="AK155" s="8"/>
+      <c r="AL155" s="8"/>
+      <c r="AM155" s="8"/>
+      <c r="AN155" s="8"/>
+    </row>
+    <row r="156" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="14" t="s">
         <v>283</v>
       </c>
@@ -10642,8 +12798,21 @@
         <v>1</v>
       </c>
       <c r="AA156" s="9"/>
-    </row>
-    <row r="157" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB156" s="8"/>
+      <c r="AC156" s="8"/>
+      <c r="AD156" s="8"/>
+      <c r="AE156" s="8"/>
+      <c r="AF156" s="8"/>
+      <c r="AG156" s="8"/>
+      <c r="AH156" s="8"/>
+      <c r="AI156" s="8"/>
+      <c r="AJ156" s="8"/>
+      <c r="AK156" s="8"/>
+      <c r="AL156" s="8"/>
+      <c r="AM156" s="8"/>
+      <c r="AN156" s="8"/>
+    </row>
+    <row r="157" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="14" t="s">
         <v>208</v>
       </c>
@@ -10690,8 +12859,21 @@
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
-    </row>
-    <row r="158" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB157" s="8"/>
+      <c r="AC157" s="8"/>
+      <c r="AD157" s="8"/>
+      <c r="AE157" s="8"/>
+      <c r="AF157" s="8"/>
+      <c r="AG157" s="8"/>
+      <c r="AH157" s="8"/>
+      <c r="AI157" s="8"/>
+      <c r="AJ157" s="8"/>
+      <c r="AK157" s="8"/>
+      <c r="AL157" s="8"/>
+      <c r="AM157" s="8"/>
+      <c r="AN157" s="8"/>
+    </row>
+    <row r="158" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="14" t="s">
         <v>209</v>
       </c>
@@ -10762,8 +12944,21 @@
       <c r="AA158" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB158" s="8"/>
+      <c r="AC158" s="8"/>
+      <c r="AD158" s="8"/>
+      <c r="AE158" s="8"/>
+      <c r="AF158" s="8"/>
+      <c r="AG158" s="8"/>
+      <c r="AH158" s="8"/>
+      <c r="AI158" s="8"/>
+      <c r="AJ158" s="8"/>
+      <c r="AK158" s="8"/>
+      <c r="AL158" s="8"/>
+      <c r="AM158" s="8"/>
+      <c r="AN158" s="8"/>
+    </row>
+    <row r="159" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="14" t="s">
         <v>210</v>
       </c>
@@ -10830,8 +13025,21 @@
         <v>1</v>
       </c>
       <c r="AA159" s="9"/>
-    </row>
-    <row r="160" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB159" s="8"/>
+      <c r="AC159" s="8"/>
+      <c r="AD159" s="8"/>
+      <c r="AE159" s="8"/>
+      <c r="AF159" s="8"/>
+      <c r="AG159" s="8"/>
+      <c r="AH159" s="8"/>
+      <c r="AI159" s="8"/>
+      <c r="AJ159" s="8"/>
+      <c r="AK159" s="8"/>
+      <c r="AL159" s="8"/>
+      <c r="AM159" s="8"/>
+      <c r="AN159" s="8"/>
+    </row>
+    <row r="160" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="14" t="s">
         <v>211</v>
       </c>
@@ -10910,8 +13118,21 @@
       <c r="AA160" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB160" s="8"/>
+      <c r="AC160" s="8"/>
+      <c r="AD160" s="8"/>
+      <c r="AE160" s="8"/>
+      <c r="AF160" s="8"/>
+      <c r="AG160" s="8"/>
+      <c r="AH160" s="8"/>
+      <c r="AI160" s="8"/>
+      <c r="AJ160" s="8"/>
+      <c r="AK160" s="8"/>
+      <c r="AL160" s="8"/>
+      <c r="AM160" s="8"/>
+      <c r="AN160" s="8"/>
+    </row>
+    <row r="161" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="14" t="s">
         <v>212</v>
       </c>
@@ -10978,8 +13199,21 @@
         <v>1</v>
       </c>
       <c r="AA161" s="9"/>
-    </row>
-    <row r="162" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB161" s="8"/>
+      <c r="AC161" s="8"/>
+      <c r="AD161" s="8"/>
+      <c r="AE161" s="8"/>
+      <c r="AF161" s="8"/>
+      <c r="AG161" s="8"/>
+      <c r="AH161" s="8"/>
+      <c r="AI161" s="8"/>
+      <c r="AJ161" s="8"/>
+      <c r="AK161" s="8"/>
+      <c r="AL161" s="8"/>
+      <c r="AM161" s="8"/>
+      <c r="AN161" s="8"/>
+    </row>
+    <row r="162" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="14" t="s">
         <v>213</v>
       </c>
@@ -11012,28 +13246,63 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
-    </row>
-    <row r="163" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB162" s="8"/>
+      <c r="AC162" s="8"/>
+      <c r="AD162" s="8"/>
+      <c r="AE162" s="8"/>
+      <c r="AF162" s="8"/>
+      <c r="AG162" s="8"/>
+      <c r="AH162" s="8"/>
+      <c r="AI162" s="8"/>
+      <c r="AJ162" s="8"/>
+      <c r="AK162" s="8"/>
+      <c r="AL162" s="8"/>
+      <c r="AM162" s="8"/>
+      <c r="AN162" s="8"/>
+    </row>
+    <row r="163" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C163" s="6">
+        <v>1</v>
+      </c>
+      <c r="D163" s="7">
+        <v>1</v>
+      </c>
       <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="F163" s="7">
+        <v>1</v>
+      </c>
+      <c r="G163" s="7">
+        <v>1</v>
+      </c>
       <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
+      <c r="I163" s="7">
+        <v>1</v>
+      </c>
+      <c r="J163" s="7">
+        <v>1</v>
+      </c>
+      <c r="K163" s="7">
+        <v>1</v>
+      </c>
+      <c r="L163" s="7">
+        <v>1</v>
+      </c>
+      <c r="M163" s="7">
+        <v>1</v>
+      </c>
+      <c r="N163" s="7">
+        <v>1</v>
+      </c>
+      <c r="O163" s="7">
+        <v>1</v>
+      </c>
       <c r="P163" s="11">
         <v>1</v>
       </c>
@@ -11070,8 +13339,21 @@
       <c r="AA163" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB163" s="8"/>
+      <c r="AC163" s="8"/>
+      <c r="AD163" s="8"/>
+      <c r="AE163" s="8"/>
+      <c r="AF163" s="8"/>
+      <c r="AG163" s="8"/>
+      <c r="AH163" s="8"/>
+      <c r="AI163" s="8"/>
+      <c r="AJ163" s="8"/>
+      <c r="AK163" s="8"/>
+      <c r="AL163" s="8"/>
+      <c r="AM163" s="8"/>
+      <c r="AN163" s="8"/>
+    </row>
+    <row r="164" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="14" t="s">
         <v>322</v>
       </c>
@@ -11146,8 +13428,21 @@
         <v>1</v>
       </c>
       <c r="AA164" s="9"/>
-    </row>
-    <row r="165" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB164" s="8"/>
+      <c r="AC164" s="8"/>
+      <c r="AD164" s="8"/>
+      <c r="AE164" s="8"/>
+      <c r="AF164" s="8"/>
+      <c r="AG164" s="8"/>
+      <c r="AH164" s="8"/>
+      <c r="AI164" s="8"/>
+      <c r="AJ164" s="8"/>
+      <c r="AK164" s="8"/>
+      <c r="AL164" s="8"/>
+      <c r="AM164" s="8"/>
+      <c r="AN164" s="8"/>
+    </row>
+    <row r="165" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
         <v>323</v>
       </c>
@@ -11198,8 +13493,21 @@
         <v>1</v>
       </c>
       <c r="AA165" s="9"/>
-    </row>
-    <row r="166" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB165" s="8"/>
+      <c r="AC165" s="8"/>
+      <c r="AD165" s="8"/>
+      <c r="AE165" s="8"/>
+      <c r="AF165" s="8"/>
+      <c r="AG165" s="8"/>
+      <c r="AH165" s="8"/>
+      <c r="AI165" s="8"/>
+      <c r="AJ165" s="8"/>
+      <c r="AK165" s="8"/>
+      <c r="AL165" s="8"/>
+      <c r="AM165" s="8"/>
+      <c r="AN165" s="8"/>
+    </row>
+    <row r="166" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="14" t="s">
         <v>215</v>
       </c>
@@ -11242,27 +13550,54 @@
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
-    </row>
-    <row r="167" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB166" s="8"/>
+      <c r="AC166" s="8"/>
+      <c r="AD166" s="8"/>
+      <c r="AE166" s="8"/>
+      <c r="AF166" s="8"/>
+      <c r="AG166" s="8"/>
+      <c r="AH166" s="8"/>
+      <c r="AI166" s="8"/>
+      <c r="AJ166" s="8"/>
+      <c r="AK166" s="8"/>
+      <c r="AL166" s="8"/>
+      <c r="AM166" s="8"/>
+      <c r="AN166" s="8"/>
+    </row>
+    <row r="167" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C167" s="6">
+        <v>1</v>
+      </c>
+      <c r="D167" s="7">
+        <v>1</v>
+      </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
+      <c r="I167" s="7">
+        <v>1</v>
+      </c>
+      <c r="J167" s="7">
+        <v>1</v>
+      </c>
+      <c r="K167" s="7">
+        <v>1</v>
+      </c>
       <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
+      <c r="M167" s="7">
+        <v>1</v>
+      </c>
+      <c r="N167" s="7">
+        <v>1</v>
+      </c>
       <c r="O167" s="8"/>
       <c r="P167" s="11">
         <v>1</v>
@@ -11290,8 +13625,21 @@
       </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
-    </row>
-    <row r="168" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB167" s="8"/>
+      <c r="AC167" s="8"/>
+      <c r="AD167" s="8"/>
+      <c r="AE167" s="8"/>
+      <c r="AF167" s="8"/>
+      <c r="AG167" s="8"/>
+      <c r="AH167" s="8"/>
+      <c r="AI167" s="8"/>
+      <c r="AJ167" s="8"/>
+      <c r="AK167" s="8"/>
+      <c r="AL167" s="8"/>
+      <c r="AM167" s="8"/>
+      <c r="AN167" s="8"/>
+    </row>
+    <row r="168" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="14" t="s">
         <v>216</v>
       </c>
@@ -11360,8 +13708,21 @@
         <v>1</v>
       </c>
       <c r="AA168" s="9"/>
-    </row>
-    <row r="169" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB168" s="8"/>
+      <c r="AC168" s="8"/>
+      <c r="AD168" s="8"/>
+      <c r="AE168" s="8"/>
+      <c r="AF168" s="8"/>
+      <c r="AG168" s="8"/>
+      <c r="AH168" s="8"/>
+      <c r="AI168" s="8"/>
+      <c r="AJ168" s="8"/>
+      <c r="AK168" s="8"/>
+      <c r="AL168" s="8"/>
+      <c r="AM168" s="8"/>
+      <c r="AN168" s="8"/>
+    </row>
+    <row r="169" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="14" t="s">
         <v>325</v>
       </c>
@@ -11440,8 +13801,21 @@
         <v>1</v>
       </c>
       <c r="AA169" s="9"/>
-    </row>
-    <row r="170" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB169" s="8"/>
+      <c r="AC169" s="8"/>
+      <c r="AD169" s="8"/>
+      <c r="AE169" s="8"/>
+      <c r="AF169" s="8"/>
+      <c r="AG169" s="8"/>
+      <c r="AH169" s="8"/>
+      <c r="AI169" s="8"/>
+      <c r="AJ169" s="8"/>
+      <c r="AK169" s="8"/>
+      <c r="AL169" s="8"/>
+      <c r="AM169" s="8"/>
+      <c r="AN169" s="8"/>
+    </row>
+    <row r="170" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="14" t="s">
         <v>217</v>
       </c>
@@ -11496,8 +13870,21 @@
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
-    </row>
-    <row r="171" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB170" s="8"/>
+      <c r="AC170" s="8"/>
+      <c r="AD170" s="8"/>
+      <c r="AE170" s="8"/>
+      <c r="AF170" s="8"/>
+      <c r="AG170" s="8"/>
+      <c r="AH170" s="8"/>
+      <c r="AI170" s="8"/>
+      <c r="AJ170" s="8"/>
+      <c r="AK170" s="8"/>
+      <c r="AL170" s="8"/>
+      <c r="AM170" s="8"/>
+      <c r="AN170" s="8"/>
+    </row>
+    <row r="171" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="14" t="s">
         <v>326</v>
       </c>
@@ -11576,8 +13963,21 @@
       <c r="AA171" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB171" s="8"/>
+      <c r="AC171" s="8"/>
+      <c r="AD171" s="8"/>
+      <c r="AE171" s="8"/>
+      <c r="AF171" s="8"/>
+      <c r="AG171" s="8"/>
+      <c r="AH171" s="8"/>
+      <c r="AI171" s="8"/>
+      <c r="AJ171" s="8"/>
+      <c r="AK171" s="8"/>
+      <c r="AL171" s="8"/>
+      <c r="AM171" s="8"/>
+      <c r="AN171" s="8"/>
+    </row>
+    <row r="172" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="14" t="s">
         <v>218</v>
       </c>
@@ -11640,8 +14040,21 @@
         <v>1</v>
       </c>
       <c r="AA172" s="9"/>
-    </row>
-    <row r="173" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB172" s="8"/>
+      <c r="AC172" s="8"/>
+      <c r="AD172" s="8"/>
+      <c r="AE172" s="8"/>
+      <c r="AF172" s="8"/>
+      <c r="AG172" s="8"/>
+      <c r="AH172" s="8"/>
+      <c r="AI172" s="8"/>
+      <c r="AJ172" s="8"/>
+      <c r="AK172" s="8"/>
+      <c r="AL172" s="8"/>
+      <c r="AM172" s="8"/>
+      <c r="AN172" s="8"/>
+    </row>
+    <row r="173" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="14" t="s">
         <v>219</v>
       </c>
@@ -11716,8 +14129,21 @@
         <v>1</v>
       </c>
       <c r="AA173" s="9"/>
-    </row>
-    <row r="174" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB173" s="8"/>
+      <c r="AC173" s="8"/>
+      <c r="AD173" s="8"/>
+      <c r="AE173" s="8"/>
+      <c r="AF173" s="8"/>
+      <c r="AG173" s="8"/>
+      <c r="AH173" s="8"/>
+      <c r="AI173" s="8"/>
+      <c r="AJ173" s="8"/>
+      <c r="AK173" s="8"/>
+      <c r="AL173" s="8"/>
+      <c r="AM173" s="8"/>
+      <c r="AN173" s="8"/>
+    </row>
+    <row r="174" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="14" t="s">
         <v>220</v>
       </c>
@@ -11790,8 +14216,21 @@
       <c r="AA174" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB174" s="8"/>
+      <c r="AC174" s="8"/>
+      <c r="AD174" s="8"/>
+      <c r="AE174" s="8"/>
+      <c r="AF174" s="8"/>
+      <c r="AG174" s="8"/>
+      <c r="AH174" s="8"/>
+      <c r="AI174" s="8"/>
+      <c r="AJ174" s="8"/>
+      <c r="AK174" s="8"/>
+      <c r="AL174" s="8"/>
+      <c r="AM174" s="8"/>
+      <c r="AN174" s="8"/>
+    </row>
+    <row r="175" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="14" t="s">
         <v>221</v>
       </c>
@@ -11868,8 +14307,21 @@
         <v>1</v>
       </c>
       <c r="AA175" s="9"/>
-    </row>
-    <row r="176" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB175" s="8"/>
+      <c r="AC175" s="8"/>
+      <c r="AD175" s="8"/>
+      <c r="AE175" s="8"/>
+      <c r="AF175" s="8"/>
+      <c r="AG175" s="8"/>
+      <c r="AH175" s="8"/>
+      <c r="AI175" s="8"/>
+      <c r="AJ175" s="8"/>
+      <c r="AK175" s="8"/>
+      <c r="AL175" s="8"/>
+      <c r="AM175" s="8"/>
+      <c r="AN175" s="8"/>
+    </row>
+    <row r="176" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="14" t="s">
         <v>222</v>
       </c>
@@ -11922,8 +14374,21 @@
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
-    </row>
-    <row r="177" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB176" s="8"/>
+      <c r="AC176" s="8"/>
+      <c r="AD176" s="8"/>
+      <c r="AE176" s="8"/>
+      <c r="AF176" s="8"/>
+      <c r="AG176" s="8"/>
+      <c r="AH176" s="8"/>
+      <c r="AI176" s="8"/>
+      <c r="AJ176" s="8"/>
+      <c r="AK176" s="8"/>
+      <c r="AL176" s="8"/>
+      <c r="AM176" s="8"/>
+      <c r="AN176" s="8"/>
+    </row>
+    <row r="177" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="14" t="s">
         <v>327</v>
       </c>
@@ -11974,8 +14439,21 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
-    </row>
-    <row r="178" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB177" s="8"/>
+      <c r="AC177" s="8"/>
+      <c r="AD177" s="8"/>
+      <c r="AE177" s="8"/>
+      <c r="AF177" s="8"/>
+      <c r="AG177" s="8"/>
+      <c r="AH177" s="8"/>
+      <c r="AI177" s="8"/>
+      <c r="AJ177" s="8"/>
+      <c r="AK177" s="8"/>
+      <c r="AL177" s="8"/>
+      <c r="AM177" s="8"/>
+      <c r="AN177" s="8"/>
+    </row>
+    <row r="178" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="14" t="s">
         <v>223</v>
       </c>
@@ -12050,8 +14528,21 @@
       <c r="AA178" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB178" s="8"/>
+      <c r="AC178" s="8"/>
+      <c r="AD178" s="8"/>
+      <c r="AE178" s="8"/>
+      <c r="AF178" s="8"/>
+      <c r="AG178" s="8"/>
+      <c r="AH178" s="8"/>
+      <c r="AI178" s="8"/>
+      <c r="AJ178" s="8"/>
+      <c r="AK178" s="8"/>
+      <c r="AL178" s="8"/>
+      <c r="AM178" s="8"/>
+      <c r="AN178" s="8"/>
+    </row>
+    <row r="179" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="14" t="s">
         <v>224</v>
       </c>
@@ -12110,8 +14601,21 @@
         <v>1</v>
       </c>
       <c r="AA179" s="9"/>
-    </row>
-    <row r="180" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB179" s="8"/>
+      <c r="AC179" s="8"/>
+      <c r="AD179" s="8"/>
+      <c r="AE179" s="8"/>
+      <c r="AF179" s="8"/>
+      <c r="AG179" s="8"/>
+      <c r="AH179" s="8"/>
+      <c r="AI179" s="8"/>
+      <c r="AJ179" s="8"/>
+      <c r="AK179" s="8"/>
+      <c r="AL179" s="8"/>
+      <c r="AM179" s="8"/>
+      <c r="AN179" s="8"/>
+    </row>
+    <row r="180" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="14" t="s">
         <v>225</v>
       </c>
@@ -12144,8 +14648,21 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
-    </row>
-    <row r="181" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB180" s="8"/>
+      <c r="AC180" s="8"/>
+      <c r="AD180" s="8"/>
+      <c r="AE180" s="8"/>
+      <c r="AF180" s="8"/>
+      <c r="AG180" s="8"/>
+      <c r="AH180" s="8"/>
+      <c r="AI180" s="8"/>
+      <c r="AJ180" s="8"/>
+      <c r="AK180" s="8"/>
+      <c r="AL180" s="8"/>
+      <c r="AM180" s="8"/>
+      <c r="AN180" s="8"/>
+    </row>
+    <row r="181" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="14" t="s">
         <v>226</v>
       </c>
@@ -12178,8 +14695,21 @@
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
-    </row>
-    <row r="182" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB181" s="8"/>
+      <c r="AC181" s="8"/>
+      <c r="AD181" s="8"/>
+      <c r="AE181" s="8"/>
+      <c r="AF181" s="8"/>
+      <c r="AG181" s="8"/>
+      <c r="AH181" s="8"/>
+      <c r="AI181" s="8"/>
+      <c r="AJ181" s="8"/>
+      <c r="AK181" s="8"/>
+      <c r="AL181" s="8"/>
+      <c r="AM181" s="8"/>
+      <c r="AN181" s="8"/>
+    </row>
+    <row r="182" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="14" t="s">
         <v>227</v>
       </c>
@@ -12218,8 +14748,21 @@
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
-    </row>
-    <row r="183" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB182" s="8"/>
+      <c r="AC182" s="8"/>
+      <c r="AD182" s="8"/>
+      <c r="AE182" s="8"/>
+      <c r="AF182" s="8"/>
+      <c r="AG182" s="8"/>
+      <c r="AH182" s="8"/>
+      <c r="AI182" s="8"/>
+      <c r="AJ182" s="8"/>
+      <c r="AK182" s="8"/>
+      <c r="AL182" s="8"/>
+      <c r="AM182" s="8"/>
+      <c r="AN182" s="8"/>
+    </row>
+    <row r="183" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="14" t="s">
         <v>228</v>
       </c>
@@ -12278,8 +14821,21 @@
         <v>1</v>
       </c>
       <c r="AA183" s="9"/>
-    </row>
-    <row r="184" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB183" s="8"/>
+      <c r="AC183" s="8"/>
+      <c r="AD183" s="8"/>
+      <c r="AE183" s="8"/>
+      <c r="AF183" s="8"/>
+      <c r="AG183" s="8"/>
+      <c r="AH183" s="8"/>
+      <c r="AI183" s="8"/>
+      <c r="AJ183" s="8"/>
+      <c r="AK183" s="8"/>
+      <c r="AL183" s="8"/>
+      <c r="AM183" s="8"/>
+      <c r="AN183" s="8"/>
+    </row>
+    <row r="184" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="14" t="s">
         <v>328</v>
       </c>
@@ -12316,17 +14872,32 @@
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
-    </row>
-    <row r="185" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB184" s="8"/>
+      <c r="AC184" s="8"/>
+      <c r="AD184" s="8"/>
+      <c r="AE184" s="8"/>
+      <c r="AF184" s="8"/>
+      <c r="AG184" s="8"/>
+      <c r="AH184" s="8"/>
+      <c r="AI184" s="8"/>
+      <c r="AJ184" s="8"/>
+      <c r="AK184" s="8"/>
+      <c r="AL184" s="8"/>
+      <c r="AM184" s="8"/>
+      <c r="AN184" s="8"/>
+    </row>
+    <row r="185" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="14" t="s">
         <v>229</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" s="10"/>
-      <c r="D185" s="8"/>
+      <c r="D185" s="7">
+        <v>1</v>
+      </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
@@ -12350,8 +14921,21 @@
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
-    </row>
-    <row r="186" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB185" s="8"/>
+      <c r="AC185" s="8"/>
+      <c r="AD185" s="8"/>
+      <c r="AE185" s="8"/>
+      <c r="AF185" s="8"/>
+      <c r="AG185" s="8"/>
+      <c r="AH185" s="8"/>
+      <c r="AI185" s="8"/>
+      <c r="AJ185" s="8"/>
+      <c r="AK185" s="8"/>
+      <c r="AL185" s="8"/>
+      <c r="AM185" s="8"/>
+      <c r="AN185" s="8"/>
+    </row>
+    <row r="186" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="14" t="s">
         <v>230</v>
       </c>
@@ -12404,8 +14988,21 @@
         <v>1</v>
       </c>
       <c r="AA186" s="9"/>
-    </row>
-    <row r="187" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB186" s="8"/>
+      <c r="AC186" s="8"/>
+      <c r="AD186" s="8"/>
+      <c r="AE186" s="8"/>
+      <c r="AF186" s="8"/>
+      <c r="AG186" s="8"/>
+      <c r="AH186" s="8"/>
+      <c r="AI186" s="8"/>
+      <c r="AJ186" s="8"/>
+      <c r="AK186" s="8"/>
+      <c r="AL186" s="8"/>
+      <c r="AM186" s="8"/>
+      <c r="AN186" s="8"/>
+    </row>
+    <row r="187" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="14" t="s">
         <v>231</v>
       </c>
@@ -12448,8 +15045,21 @@
         <v>1</v>
       </c>
       <c r="AA187" s="9"/>
-    </row>
-    <row r="188" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB187" s="8"/>
+      <c r="AC187" s="8"/>
+      <c r="AD187" s="8"/>
+      <c r="AE187" s="8"/>
+      <c r="AF187" s="8"/>
+      <c r="AG187" s="8"/>
+      <c r="AH187" s="8"/>
+      <c r="AI187" s="8"/>
+      <c r="AJ187" s="8"/>
+      <c r="AK187" s="8"/>
+      <c r="AL187" s="8"/>
+      <c r="AM187" s="8"/>
+      <c r="AN187" s="8"/>
+    </row>
+    <row r="188" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="14" t="s">
         <v>232</v>
       </c>
@@ -12500,8 +15110,21 @@
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
-    </row>
-    <row r="189" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB188" s="8"/>
+      <c r="AC188" s="8"/>
+      <c r="AD188" s="8"/>
+      <c r="AE188" s="8"/>
+      <c r="AF188" s="8"/>
+      <c r="AG188" s="8"/>
+      <c r="AH188" s="8"/>
+      <c r="AI188" s="8"/>
+      <c r="AJ188" s="8"/>
+      <c r="AK188" s="8"/>
+      <c r="AL188" s="8"/>
+      <c r="AM188" s="8"/>
+      <c r="AN188" s="8"/>
+    </row>
+    <row r="189" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="14" t="s">
         <v>233</v>
       </c>
@@ -12568,8 +15191,21 @@
         <v>1</v>
       </c>
       <c r="AA189" s="9"/>
-    </row>
-    <row r="190" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB189" s="8"/>
+      <c r="AC189" s="8"/>
+      <c r="AD189" s="8"/>
+      <c r="AE189" s="8"/>
+      <c r="AF189" s="8"/>
+      <c r="AG189" s="8"/>
+      <c r="AH189" s="8"/>
+      <c r="AI189" s="8"/>
+      <c r="AJ189" s="8"/>
+      <c r="AK189" s="8"/>
+      <c r="AL189" s="8"/>
+      <c r="AM189" s="8"/>
+      <c r="AN189" s="8"/>
+    </row>
+    <row r="190" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="14" t="s">
         <v>234</v>
       </c>
@@ -12618,8 +15254,21 @@
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
-    </row>
-    <row r="191" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB190" s="8"/>
+      <c r="AC190" s="8"/>
+      <c r="AD190" s="8"/>
+      <c r="AE190" s="8"/>
+      <c r="AF190" s="8"/>
+      <c r="AG190" s="8"/>
+      <c r="AH190" s="8"/>
+      <c r="AI190" s="8"/>
+      <c r="AJ190" s="8"/>
+      <c r="AK190" s="8"/>
+      <c r="AL190" s="8"/>
+      <c r="AM190" s="8"/>
+      <c r="AN190" s="8"/>
+    </row>
+    <row r="191" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="14" t="s">
         <v>235</v>
       </c>
@@ -12690,8 +15339,21 @@
         <v>1</v>
       </c>
       <c r="AA191" s="9"/>
-    </row>
-    <row r="192" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB191" s="8"/>
+      <c r="AC191" s="8"/>
+      <c r="AD191" s="8"/>
+      <c r="AE191" s="8"/>
+      <c r="AF191" s="8"/>
+      <c r="AG191" s="8"/>
+      <c r="AH191" s="8"/>
+      <c r="AI191" s="8"/>
+      <c r="AJ191" s="8"/>
+      <c r="AK191" s="8"/>
+      <c r="AL191" s="8"/>
+      <c r="AM191" s="8"/>
+      <c r="AN191" s="8"/>
+    </row>
+    <row r="192" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="14" t="s">
         <v>236</v>
       </c>
@@ -12748,8 +15410,21 @@
         <v>1</v>
       </c>
       <c r="AA192" s="9"/>
-    </row>
-    <row r="193" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB192" s="8"/>
+      <c r="AC192" s="8"/>
+      <c r="AD192" s="8"/>
+      <c r="AE192" s="8"/>
+      <c r="AF192" s="8"/>
+      <c r="AG192" s="8"/>
+      <c r="AH192" s="8"/>
+      <c r="AI192" s="8"/>
+      <c r="AJ192" s="8"/>
+      <c r="AK192" s="8"/>
+      <c r="AL192" s="8"/>
+      <c r="AM192" s="8"/>
+      <c r="AN192" s="8"/>
+    </row>
+    <row r="193" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="14" t="s">
         <v>237</v>
       </c>
@@ -12798,8 +15473,21 @@
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
-    </row>
-    <row r="194" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB193" s="8"/>
+      <c r="AC193" s="8"/>
+      <c r="AD193" s="8"/>
+      <c r="AE193" s="8"/>
+      <c r="AF193" s="8"/>
+      <c r="AG193" s="8"/>
+      <c r="AH193" s="8"/>
+      <c r="AI193" s="8"/>
+      <c r="AJ193" s="8"/>
+      <c r="AK193" s="8"/>
+      <c r="AL193" s="8"/>
+      <c r="AM193" s="8"/>
+      <c r="AN193" s="8"/>
+    </row>
+    <row r="194" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="14" t="s">
         <v>238</v>
       </c>
@@ -12866,8 +15554,21 @@
         <v>1</v>
       </c>
       <c r="AA194" s="9"/>
-    </row>
-    <row r="195" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB194" s="8"/>
+      <c r="AC194" s="8"/>
+      <c r="AD194" s="8"/>
+      <c r="AE194" s="8"/>
+      <c r="AF194" s="8"/>
+      <c r="AG194" s="8"/>
+      <c r="AH194" s="8"/>
+      <c r="AI194" s="8"/>
+      <c r="AJ194" s="8"/>
+      <c r="AK194" s="8"/>
+      <c r="AL194" s="8"/>
+      <c r="AM194" s="8"/>
+      <c r="AN194" s="8"/>
+    </row>
+    <row r="195" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="14" t="s">
         <v>329</v>
       </c>
@@ -12914,8 +15615,21 @@
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
-    </row>
-    <row r="196" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB195" s="8"/>
+      <c r="AC195" s="8"/>
+      <c r="AD195" s="8"/>
+      <c r="AE195" s="8"/>
+      <c r="AF195" s="8"/>
+      <c r="AG195" s="8"/>
+      <c r="AH195" s="8"/>
+      <c r="AI195" s="8"/>
+      <c r="AJ195" s="8"/>
+      <c r="AK195" s="8"/>
+      <c r="AL195" s="8"/>
+      <c r="AM195" s="8"/>
+      <c r="AN195" s="8"/>
+    </row>
+    <row r="196" spans="1:40" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="14" t="s">
         <v>239</v>
       </c>
@@ -12948,8 +15662,21 @@
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
-    </row>
-    <row r="197" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB196" s="8"/>
+      <c r="AC196" s="8"/>
+      <c r="AD196" s="8"/>
+      <c r="AE196" s="8"/>
+      <c r="AF196" s="8"/>
+      <c r="AG196" s="8"/>
+      <c r="AH196" s="8"/>
+      <c r="AI196" s="8"/>
+      <c r="AJ196" s="8"/>
+      <c r="AK196" s="8"/>
+      <c r="AL196" s="8"/>
+      <c r="AM196" s="8"/>
+      <c r="AN196" s="8"/>
+    </row>
+    <row r="197" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="14" t="s">
         <v>240</v>
       </c>
@@ -13002,8 +15729,21 @@
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
-    </row>
-    <row r="198" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB197" s="8"/>
+      <c r="AC197" s="8"/>
+      <c r="AD197" s="8"/>
+      <c r="AE197" s="8"/>
+      <c r="AF197" s="8"/>
+      <c r="AG197" s="8"/>
+      <c r="AH197" s="8"/>
+      <c r="AI197" s="8"/>
+      <c r="AJ197" s="8"/>
+      <c r="AK197" s="8"/>
+      <c r="AL197" s="8"/>
+      <c r="AM197" s="8"/>
+      <c r="AN197" s="8"/>
+    </row>
+    <row r="198" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="14" t="s">
         <v>241</v>
       </c>
@@ -13044,8 +15784,21 @@
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
-    </row>
-    <row r="199" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB198" s="8"/>
+      <c r="AC198" s="8"/>
+      <c r="AD198" s="8"/>
+      <c r="AE198" s="8"/>
+      <c r="AF198" s="8"/>
+      <c r="AG198" s="8"/>
+      <c r="AH198" s="8"/>
+      <c r="AI198" s="8"/>
+      <c r="AJ198" s="8"/>
+      <c r="AK198" s="8"/>
+      <c r="AL198" s="8"/>
+      <c r="AM198" s="8"/>
+      <c r="AN198" s="8"/>
+    </row>
+    <row r="199" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="14" t="s">
         <v>242</v>
       </c>
@@ -13118,8 +15871,21 @@
         <v>1</v>
       </c>
       <c r="AA199" s="9"/>
-    </row>
-    <row r="200" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB199" s="8"/>
+      <c r="AC199" s="8"/>
+      <c r="AD199" s="8"/>
+      <c r="AE199" s="8"/>
+      <c r="AF199" s="8"/>
+      <c r="AG199" s="8"/>
+      <c r="AH199" s="8"/>
+      <c r="AI199" s="8"/>
+      <c r="AJ199" s="8"/>
+      <c r="AK199" s="8"/>
+      <c r="AL199" s="8"/>
+      <c r="AM199" s="8"/>
+      <c r="AN199" s="8"/>
+    </row>
+    <row r="200" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="14" t="s">
         <v>243</v>
       </c>
@@ -13178,27 +15944,52 @@
       <c r="AA200" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB200" s="8"/>
+      <c r="AC200" s="8"/>
+      <c r="AD200" s="8"/>
+      <c r="AE200" s="8"/>
+      <c r="AF200" s="8"/>
+      <c r="AG200" s="8"/>
+      <c r="AH200" s="8"/>
+      <c r="AI200" s="8"/>
+      <c r="AJ200" s="8"/>
+      <c r="AK200" s="8"/>
+      <c r="AL200" s="8"/>
+      <c r="AM200" s="8"/>
+      <c r="AN200" s="8"/>
+    </row>
+    <row r="201" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C201" s="6">
+        <v>1</v>
+      </c>
+      <c r="D201" s="7">
+        <v>1</v>
+      </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
+      <c r="I201" s="7">
+        <v>1</v>
+      </c>
       <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
+      <c r="K201" s="7">
+        <v>1</v>
+      </c>
       <c r="L201" s="8"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
+      <c r="M201" s="7">
+        <v>1</v>
+      </c>
+      <c r="N201" s="7">
+        <v>1</v>
+      </c>
       <c r="O201" s="8"/>
       <c r="P201" s="9"/>
       <c r="Q201" s="9"/>
@@ -13212,8 +16003,21 @@
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
-    </row>
-    <row r="202" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB201" s="8"/>
+      <c r="AC201" s="8"/>
+      <c r="AD201" s="8"/>
+      <c r="AE201" s="8"/>
+      <c r="AF201" s="8"/>
+      <c r="AG201" s="8"/>
+      <c r="AH201" s="8"/>
+      <c r="AI201" s="8"/>
+      <c r="AJ201" s="8"/>
+      <c r="AK201" s="8"/>
+      <c r="AL201" s="8"/>
+      <c r="AM201" s="8"/>
+      <c r="AN201" s="8"/>
+    </row>
+    <row r="202" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="14" t="s">
         <v>245</v>
       </c>
@@ -13246,8 +16050,21 @@
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
-    </row>
-    <row r="203" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB202" s="8"/>
+      <c r="AC202" s="8"/>
+      <c r="AD202" s="8"/>
+      <c r="AE202" s="8"/>
+      <c r="AF202" s="8"/>
+      <c r="AG202" s="8"/>
+      <c r="AH202" s="8"/>
+      <c r="AI202" s="8"/>
+      <c r="AJ202" s="8"/>
+      <c r="AK202" s="8"/>
+      <c r="AL202" s="8"/>
+      <c r="AM202" s="8"/>
+      <c r="AN202" s="8"/>
+    </row>
+    <row r="203" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="14" t="s">
         <v>246</v>
       </c>
@@ -13294,8 +16111,21 @@
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
-    </row>
-    <row r="204" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB203" s="8"/>
+      <c r="AC203" s="8"/>
+      <c r="AD203" s="8"/>
+      <c r="AE203" s="8"/>
+      <c r="AF203" s="8"/>
+      <c r="AG203" s="8"/>
+      <c r="AH203" s="8"/>
+      <c r="AI203" s="8"/>
+      <c r="AJ203" s="8"/>
+      <c r="AK203" s="8"/>
+      <c r="AL203" s="8"/>
+      <c r="AM203" s="8"/>
+      <c r="AN203" s="8"/>
+    </row>
+    <row r="204" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="15" t="s">
         <v>330</v>
       </c>
@@ -13358,8 +16188,21 @@
         <v>1</v>
       </c>
       <c r="AA204" s="9"/>
-    </row>
-    <row r="205" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB204" s="8"/>
+      <c r="AC204" s="8"/>
+      <c r="AD204" s="8"/>
+      <c r="AE204" s="8"/>
+      <c r="AF204" s="8"/>
+      <c r="AG204" s="8"/>
+      <c r="AH204" s="8"/>
+      <c r="AI204" s="8"/>
+      <c r="AJ204" s="8"/>
+      <c r="AK204" s="8"/>
+      <c r="AL204" s="8"/>
+      <c r="AM204" s="8"/>
+      <c r="AN204" s="8"/>
+    </row>
+    <row r="205" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="14" t="s">
         <v>247</v>
       </c>
@@ -13414,8 +16257,21 @@
         <v>1</v>
       </c>
       <c r="AA205" s="9"/>
-    </row>
-    <row r="206" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB205" s="8"/>
+      <c r="AC205" s="8"/>
+      <c r="AD205" s="8"/>
+      <c r="AE205" s="8"/>
+      <c r="AF205" s="8"/>
+      <c r="AG205" s="8"/>
+      <c r="AH205" s="8"/>
+      <c r="AI205" s="8"/>
+      <c r="AJ205" s="8"/>
+      <c r="AK205" s="8"/>
+      <c r="AL205" s="8"/>
+      <c r="AM205" s="8"/>
+      <c r="AN205" s="8"/>
+    </row>
+    <row r="206" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="14" t="s">
         <v>331</v>
       </c>
@@ -13464,14 +16320,27 @@
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
-    </row>
-    <row r="207" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB206" s="8"/>
+      <c r="AC206" s="8"/>
+      <c r="AD206" s="8"/>
+      <c r="AE206" s="8"/>
+      <c r="AF206" s="8"/>
+      <c r="AG206" s="8"/>
+      <c r="AH206" s="8"/>
+      <c r="AI206" s="8"/>
+      <c r="AJ206" s="8"/>
+      <c r="AK206" s="8"/>
+      <c r="AL206" s="8"/>
+      <c r="AM206" s="8"/>
+      <c r="AN206" s="8"/>
+    </row>
+    <row r="207" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C207" s="6">
         <v>1</v>
@@ -13492,7 +16361,9 @@
       <c r="I207" s="7">
         <v>1</v>
       </c>
-      <c r="J207" s="8"/>
+      <c r="J207" s="7">
+        <v>1</v>
+      </c>
       <c r="K207" s="7">
         <v>1</v>
       </c>
@@ -13540,8 +16411,21 @@
         <v>1</v>
       </c>
       <c r="AA207" s="9"/>
-    </row>
-    <row r="208" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB207" s="8"/>
+      <c r="AC207" s="8"/>
+      <c r="AD207" s="8"/>
+      <c r="AE207" s="8"/>
+      <c r="AF207" s="8"/>
+      <c r="AG207" s="8"/>
+      <c r="AH207" s="8"/>
+      <c r="AI207" s="8"/>
+      <c r="AJ207" s="8"/>
+      <c r="AK207" s="8"/>
+      <c r="AL207" s="8"/>
+      <c r="AM207" s="8"/>
+      <c r="AN207" s="8"/>
+    </row>
+    <row r="208" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="14" t="s">
         <v>249</v>
       </c>
@@ -13582,8 +16466,21 @@
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
-    </row>
-    <row r="209" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB208" s="8"/>
+      <c r="AC208" s="8"/>
+      <c r="AD208" s="8"/>
+      <c r="AE208" s="8"/>
+      <c r="AF208" s="8"/>
+      <c r="AG208" s="8"/>
+      <c r="AH208" s="8"/>
+      <c r="AI208" s="8"/>
+      <c r="AJ208" s="8"/>
+      <c r="AK208" s="8"/>
+      <c r="AL208" s="8"/>
+      <c r="AM208" s="8"/>
+      <c r="AN208" s="8"/>
+    </row>
+    <row r="209" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="14" t="s">
         <v>250</v>
       </c>
@@ -13616,8 +16513,21 @@
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
-    </row>
-    <row r="210" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB209" s="8"/>
+      <c r="AC209" s="8"/>
+      <c r="AD209" s="8"/>
+      <c r="AE209" s="8"/>
+      <c r="AF209" s="8"/>
+      <c r="AG209" s="8"/>
+      <c r="AH209" s="8"/>
+      <c r="AI209" s="8"/>
+      <c r="AJ209" s="8"/>
+      <c r="AK209" s="8"/>
+      <c r="AL209" s="8"/>
+      <c r="AM209" s="8"/>
+      <c r="AN209" s="8"/>
+    </row>
+    <row r="210" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="14" t="s">
         <v>251</v>
       </c>
@@ -13652,8 +16562,21 @@
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
-    </row>
-    <row r="211" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB210" s="8"/>
+      <c r="AC210" s="8"/>
+      <c r="AD210" s="8"/>
+      <c r="AE210" s="8"/>
+      <c r="AF210" s="8"/>
+      <c r="AG210" s="8"/>
+      <c r="AH210" s="8"/>
+      <c r="AI210" s="8"/>
+      <c r="AJ210" s="8"/>
+      <c r="AK210" s="8"/>
+      <c r="AL210" s="8"/>
+      <c r="AM210" s="8"/>
+      <c r="AN210" s="8"/>
+    </row>
+    <row r="211" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="15" t="s">
         <v>252</v>
       </c>
@@ -13712,8 +16635,21 @@
         <v>1</v>
       </c>
       <c r="AA211" s="9"/>
-    </row>
-    <row r="212" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB211" s="8"/>
+      <c r="AC211" s="8"/>
+      <c r="AD211" s="8"/>
+      <c r="AE211" s="8"/>
+      <c r="AF211" s="8"/>
+      <c r="AG211" s="8"/>
+      <c r="AH211" s="8"/>
+      <c r="AI211" s="8"/>
+      <c r="AJ211" s="8"/>
+      <c r="AK211" s="8"/>
+      <c r="AL211" s="8"/>
+      <c r="AM211" s="8"/>
+      <c r="AN211" s="8"/>
+    </row>
+    <row r="212" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="14" t="s">
         <v>332</v>
       </c>
@@ -13750,8 +16686,21 @@
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
-    </row>
-    <row r="213" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB212" s="8"/>
+      <c r="AC212" s="8"/>
+      <c r="AD212" s="8"/>
+      <c r="AE212" s="8"/>
+      <c r="AF212" s="8"/>
+      <c r="AG212" s="8"/>
+      <c r="AH212" s="8"/>
+      <c r="AI212" s="8"/>
+      <c r="AJ212" s="8"/>
+      <c r="AK212" s="8"/>
+      <c r="AL212" s="8"/>
+      <c r="AM212" s="8"/>
+      <c r="AN212" s="8"/>
+    </row>
+    <row r="213" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="14" t="s">
         <v>253</v>
       </c>
@@ -13820,8 +16769,21 @@
         <v>1</v>
       </c>
       <c r="AA213" s="9"/>
-    </row>
-    <row r="214" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB213" s="8"/>
+      <c r="AC213" s="8"/>
+      <c r="AD213" s="8"/>
+      <c r="AE213" s="8"/>
+      <c r="AF213" s="8"/>
+      <c r="AG213" s="8"/>
+      <c r="AH213" s="8"/>
+      <c r="AI213" s="8"/>
+      <c r="AJ213" s="8"/>
+      <c r="AK213" s="8"/>
+      <c r="AL213" s="8"/>
+      <c r="AM213" s="8"/>
+      <c r="AN213" s="8"/>
+    </row>
+    <row r="214" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="14" t="s">
         <v>254</v>
       </c>
@@ -13866,8 +16828,21 @@
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
-    </row>
-    <row r="215" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB214" s="8"/>
+      <c r="AC214" s="8"/>
+      <c r="AD214" s="8"/>
+      <c r="AE214" s="8"/>
+      <c r="AF214" s="8"/>
+      <c r="AG214" s="8"/>
+      <c r="AH214" s="8"/>
+      <c r="AI214" s="8"/>
+      <c r="AJ214" s="8"/>
+      <c r="AK214" s="8"/>
+      <c r="AL214" s="8"/>
+      <c r="AM214" s="8"/>
+      <c r="AN214" s="8"/>
+    </row>
+    <row r="215" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="14" t="s">
         <v>255</v>
       </c>
@@ -13942,8 +16917,21 @@
       <c r="AA215" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB215" s="8"/>
+      <c r="AC215" s="8"/>
+      <c r="AD215" s="8"/>
+      <c r="AE215" s="8"/>
+      <c r="AF215" s="8"/>
+      <c r="AG215" s="8"/>
+      <c r="AH215" s="8"/>
+      <c r="AI215" s="8"/>
+      <c r="AJ215" s="8"/>
+      <c r="AK215" s="8"/>
+      <c r="AL215" s="8"/>
+      <c r="AM215" s="8"/>
+      <c r="AN215" s="8"/>
+    </row>
+    <row r="216" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="14" t="s">
         <v>256</v>
       </c>
@@ -14012,8 +17000,21 @@
         <v>1</v>
       </c>
       <c r="AA216" s="9"/>
-    </row>
-    <row r="217" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB216" s="8"/>
+      <c r="AC216" s="8"/>
+      <c r="AD216" s="8"/>
+      <c r="AE216" s="8"/>
+      <c r="AF216" s="8"/>
+      <c r="AG216" s="8"/>
+      <c r="AH216" s="8"/>
+      <c r="AI216" s="8"/>
+      <c r="AJ216" s="8"/>
+      <c r="AK216" s="8"/>
+      <c r="AL216" s="8"/>
+      <c r="AM216" s="8"/>
+      <c r="AN216" s="8"/>
+    </row>
+    <row r="217" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="14" t="s">
         <v>257</v>
       </c>
@@ -14080,8 +17081,21 @@
         <v>1</v>
       </c>
       <c r="AA217" s="9"/>
-    </row>
-    <row r="218" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB217" s="8"/>
+      <c r="AC217" s="8"/>
+      <c r="AD217" s="8"/>
+      <c r="AE217" s="8"/>
+      <c r="AF217" s="8"/>
+      <c r="AG217" s="8"/>
+      <c r="AH217" s="8"/>
+      <c r="AI217" s="8"/>
+      <c r="AJ217" s="8"/>
+      <c r="AK217" s="8"/>
+      <c r="AL217" s="8"/>
+      <c r="AM217" s="8"/>
+      <c r="AN217" s="8"/>
+    </row>
+    <row r="218" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="14" t="s">
         <v>258</v>
       </c>
@@ -14160,27 +17174,56 @@
       <c r="AA218" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB218" s="8"/>
+      <c r="AC218" s="8"/>
+      <c r="AD218" s="8"/>
+      <c r="AE218" s="8"/>
+      <c r="AF218" s="8"/>
+      <c r="AG218" s="8"/>
+      <c r="AH218" s="8"/>
+      <c r="AI218" s="8"/>
+      <c r="AJ218" s="8"/>
+      <c r="AK218" s="8"/>
+      <c r="AL218" s="8"/>
+      <c r="AM218" s="8"/>
+      <c r="AN218" s="8"/>
+    </row>
+    <row r="219" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C219" s="6">
+        <v>1</v>
+      </c>
+      <c r="D219" s="7">
+        <v>1</v>
+      </c>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
+      <c r="G219" s="7">
+        <v>1</v>
+      </c>
       <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
+      <c r="I219" s="7">
+        <v>1</v>
+      </c>
       <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
+      <c r="K219" s="7">
+        <v>1</v>
+      </c>
+      <c r="L219" s="7">
+        <v>1</v>
+      </c>
+      <c r="M219" s="7">
+        <v>1</v>
+      </c>
+      <c r="N219" s="7">
+        <v>1</v>
+      </c>
       <c r="O219" s="8"/>
       <c r="P219" s="11">
         <v>1</v>
@@ -14202,8 +17245,21 @@
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
-    </row>
-    <row r="220" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB219" s="8"/>
+      <c r="AC219" s="8"/>
+      <c r="AD219" s="8"/>
+      <c r="AE219" s="8"/>
+      <c r="AF219" s="8"/>
+      <c r="AG219" s="8"/>
+      <c r="AH219" s="8"/>
+      <c r="AI219" s="8"/>
+      <c r="AJ219" s="8"/>
+      <c r="AK219" s="8"/>
+      <c r="AL219" s="8"/>
+      <c r="AM219" s="8"/>
+      <c r="AN219" s="8"/>
+    </row>
+    <row r="220" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="14" t="s">
         <v>260</v>
       </c>
@@ -14248,8 +17304,21 @@
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
-    </row>
-    <row r="221" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB220" s="8"/>
+      <c r="AC220" s="8"/>
+      <c r="AD220" s="8"/>
+      <c r="AE220" s="8"/>
+      <c r="AF220" s="8"/>
+      <c r="AG220" s="8"/>
+      <c r="AH220" s="8"/>
+      <c r="AI220" s="8"/>
+      <c r="AJ220" s="8"/>
+      <c r="AK220" s="8"/>
+      <c r="AL220" s="8"/>
+      <c r="AM220" s="8"/>
+      <c r="AN220" s="8"/>
+    </row>
+    <row r="221" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="14" t="s">
         <v>261</v>
       </c>
@@ -14326,8 +17395,21 @@
       <c r="AA221" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB221" s="8"/>
+      <c r="AC221" s="8"/>
+      <c r="AD221" s="8"/>
+      <c r="AE221" s="8"/>
+      <c r="AF221" s="8"/>
+      <c r="AG221" s="8"/>
+      <c r="AH221" s="8"/>
+      <c r="AI221" s="8"/>
+      <c r="AJ221" s="8"/>
+      <c r="AK221" s="8"/>
+      <c r="AL221" s="8"/>
+      <c r="AM221" s="8"/>
+      <c r="AN221" s="8"/>
+    </row>
+    <row r="222" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="14" t="s">
         <v>262</v>
       </c>
@@ -14410,8 +17492,21 @@
       <c r="AA222" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB222" s="8"/>
+      <c r="AC222" s="8"/>
+      <c r="AD222" s="8"/>
+      <c r="AE222" s="8"/>
+      <c r="AF222" s="8"/>
+      <c r="AG222" s="8"/>
+      <c r="AH222" s="8"/>
+      <c r="AI222" s="8"/>
+      <c r="AJ222" s="8"/>
+      <c r="AK222" s="8"/>
+      <c r="AL222" s="8"/>
+      <c r="AM222" s="8"/>
+      <c r="AN222" s="8"/>
+    </row>
+    <row r="223" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="14" t="s">
         <v>263</v>
       </c>
@@ -14492,8 +17587,21 @@
         <v>1</v>
       </c>
       <c r="AA223" s="9"/>
-    </row>
-    <row r="224" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB223" s="8"/>
+      <c r="AC223" s="8"/>
+      <c r="AD223" s="8"/>
+      <c r="AE223" s="8"/>
+      <c r="AF223" s="8"/>
+      <c r="AG223" s="8"/>
+      <c r="AH223" s="8"/>
+      <c r="AI223" s="8"/>
+      <c r="AJ223" s="8"/>
+      <c r="AK223" s="8"/>
+      <c r="AL223" s="8"/>
+      <c r="AM223" s="8"/>
+      <c r="AN223" s="8"/>
+    </row>
+    <row r="224" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="15" t="s">
         <v>264</v>
       </c>
@@ -14530,8 +17638,21 @@
         <v>1</v>
       </c>
       <c r="AA224" s="9"/>
-    </row>
-    <row r="225" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB224" s="8"/>
+      <c r="AC224" s="8"/>
+      <c r="AD224" s="8"/>
+      <c r="AE224" s="8"/>
+      <c r="AF224" s="8"/>
+      <c r="AG224" s="8"/>
+      <c r="AH224" s="8"/>
+      <c r="AI224" s="8"/>
+      <c r="AJ224" s="8"/>
+      <c r="AK224" s="8"/>
+      <c r="AL224" s="8"/>
+      <c r="AM224" s="8"/>
+      <c r="AN224" s="8"/>
+    </row>
+    <row r="225" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="14" t="s">
         <v>333</v>
       </c>
@@ -14606,8 +17727,21 @@
         <v>1</v>
       </c>
       <c r="AA225" s="9"/>
-    </row>
-    <row r="226" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB225" s="8"/>
+      <c r="AC225" s="8"/>
+      <c r="AD225" s="8"/>
+      <c r="AE225" s="8"/>
+      <c r="AF225" s="8"/>
+      <c r="AG225" s="8"/>
+      <c r="AH225" s="8"/>
+      <c r="AI225" s="8"/>
+      <c r="AJ225" s="8"/>
+      <c r="AK225" s="8"/>
+      <c r="AL225" s="8"/>
+      <c r="AM225" s="8"/>
+      <c r="AN225" s="8"/>
+    </row>
+    <row r="226" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="14" t="s">
         <v>265</v>
       </c>
@@ -14678,8 +17812,21 @@
         <v>1</v>
       </c>
       <c r="AA226" s="9"/>
-    </row>
-    <row r="227" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB226" s="8"/>
+      <c r="AC226" s="8"/>
+      <c r="AD226" s="8"/>
+      <c r="AE226" s="8"/>
+      <c r="AF226" s="8"/>
+      <c r="AG226" s="8"/>
+      <c r="AH226" s="8"/>
+      <c r="AI226" s="8"/>
+      <c r="AJ226" s="8"/>
+      <c r="AK226" s="8"/>
+      <c r="AL226" s="8"/>
+      <c r="AM226" s="8"/>
+      <c r="AN226" s="8"/>
+    </row>
+    <row r="227" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="14" t="s">
         <v>266</v>
       </c>
@@ -14730,8 +17877,21 @@
         <v>1</v>
       </c>
       <c r="AA227" s="9"/>
-    </row>
-    <row r="228" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB227" s="8"/>
+      <c r="AC227" s="8"/>
+      <c r="AD227" s="8"/>
+      <c r="AE227" s="8"/>
+      <c r="AF227" s="8"/>
+      <c r="AG227" s="8"/>
+      <c r="AH227" s="8"/>
+      <c r="AI227" s="8"/>
+      <c r="AJ227" s="8"/>
+      <c r="AK227" s="8"/>
+      <c r="AL227" s="8"/>
+      <c r="AM227" s="8"/>
+      <c r="AN227" s="8"/>
+    </row>
+    <row r="228" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="14" t="s">
         <v>267</v>
       </c>
@@ -14814,8 +17974,21 @@
       <c r="AA228" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB228" s="8"/>
+      <c r="AC228" s="8"/>
+      <c r="AD228" s="8"/>
+      <c r="AE228" s="8"/>
+      <c r="AF228" s="8"/>
+      <c r="AG228" s="8"/>
+      <c r="AH228" s="8"/>
+      <c r="AI228" s="8"/>
+      <c r="AJ228" s="8"/>
+      <c r="AK228" s="8"/>
+      <c r="AL228" s="8"/>
+      <c r="AM228" s="8"/>
+      <c r="AN228" s="8"/>
+    </row>
+    <row r="229" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="14" t="s">
         <v>268</v>
       </c>
@@ -14890,14 +18063,27 @@
         <v>1</v>
       </c>
       <c r="AA229" s="9"/>
-    </row>
-    <row r="230" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB229" s="8"/>
+      <c r="AC229" s="8"/>
+      <c r="AD229" s="8"/>
+      <c r="AE229" s="8"/>
+      <c r="AF229" s="8"/>
+      <c r="AG229" s="8"/>
+      <c r="AH229" s="8"/>
+      <c r="AI229" s="8"/>
+      <c r="AJ229" s="8"/>
+      <c r="AK229" s="8"/>
+      <c r="AL229" s="8"/>
+      <c r="AM229" s="8"/>
+      <c r="AN229" s="8"/>
+    </row>
+    <row r="230" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="14" t="s">
         <v>269</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C230" s="6">
         <v>1</v>
@@ -14907,9 +18093,7 @@
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
-      <c r="G230" s="7">
-        <v>1</v>
-      </c>
+      <c r="G230" s="8"/>
       <c r="H230" s="8"/>
       <c r="I230" s="7">
         <v>1</v>
@@ -14918,9 +18102,7 @@
       <c r="K230" s="7">
         <v>1</v>
       </c>
-      <c r="L230" s="7">
-        <v>1</v>
-      </c>
+      <c r="L230" s="8"/>
       <c r="M230" s="7">
         <v>1</v>
       </c>
@@ -14950,8 +18132,21 @@
         <v>1</v>
       </c>
       <c r="AA230" s="9"/>
-    </row>
-    <row r="231" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB230" s="8"/>
+      <c r="AC230" s="8"/>
+      <c r="AD230" s="8"/>
+      <c r="AE230" s="8"/>
+      <c r="AF230" s="8"/>
+      <c r="AG230" s="8"/>
+      <c r="AH230" s="8"/>
+      <c r="AI230" s="8"/>
+      <c r="AJ230" s="8"/>
+      <c r="AK230" s="8"/>
+      <c r="AL230" s="8"/>
+      <c r="AM230" s="8"/>
+      <c r="AN230" s="8"/>
+    </row>
+    <row r="231" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="14" t="s">
         <v>270</v>
       </c>
@@ -15030,8 +18225,21 @@
       <c r="AA231" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB231" s="8"/>
+      <c r="AC231" s="8"/>
+      <c r="AD231" s="8"/>
+      <c r="AE231" s="8"/>
+      <c r="AF231" s="8"/>
+      <c r="AG231" s="8"/>
+      <c r="AH231" s="8"/>
+      <c r="AI231" s="8"/>
+      <c r="AJ231" s="8"/>
+      <c r="AK231" s="8"/>
+      <c r="AL231" s="8"/>
+      <c r="AM231" s="8"/>
+      <c r="AN231" s="8"/>
+    </row>
+    <row r="232" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="14" t="s">
         <v>271</v>
       </c>
@@ -15102,8 +18310,21 @@
         <v>1</v>
       </c>
       <c r="AA232" s="9"/>
-    </row>
-    <row r="233" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB232" s="8"/>
+      <c r="AC232" s="8"/>
+      <c r="AD232" s="8"/>
+      <c r="AE232" s="8"/>
+      <c r="AF232" s="8"/>
+      <c r="AG232" s="8"/>
+      <c r="AH232" s="8"/>
+      <c r="AI232" s="8"/>
+      <c r="AJ232" s="8"/>
+      <c r="AK232" s="8"/>
+      <c r="AL232" s="8"/>
+      <c r="AM232" s="8"/>
+      <c r="AN232" s="8"/>
+    </row>
+    <row r="233" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="14" t="s">
         <v>334</v>
       </c>
@@ -15170,8 +18391,21 @@
         <v>1</v>
       </c>
       <c r="AA233" s="9"/>
-    </row>
-    <row r="234" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB233" s="8"/>
+      <c r="AC233" s="8"/>
+      <c r="AD233" s="8"/>
+      <c r="AE233" s="8"/>
+      <c r="AF233" s="8"/>
+      <c r="AG233" s="8"/>
+      <c r="AH233" s="8"/>
+      <c r="AI233" s="8"/>
+      <c r="AJ233" s="8"/>
+      <c r="AK233" s="8"/>
+      <c r="AL233" s="8"/>
+      <c r="AM233" s="8"/>
+      <c r="AN233" s="8"/>
+    </row>
+    <row r="234" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="14" t="s">
         <v>272</v>
       </c>
@@ -15232,6 +18466,19 @@
         <v>1</v>
       </c>
       <c r="AA234" s="9"/>
+      <c r="AB234" s="8"/>
+      <c r="AC234" s="8"/>
+      <c r="AD234" s="8"/>
+      <c r="AE234" s="8"/>
+      <c r="AF234" s="8"/>
+      <c r="AG234" s="8"/>
+      <c r="AH234" s="8"/>
+      <c r="AI234" s="8"/>
+      <c r="AJ234" s="8"/>
+      <c r="AK234" s="8"/>
+      <c r="AL234" s="8"/>
+      <c r="AM234" s="8"/>
+      <c r="AN234" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/score/bxb-template.xlsx
+++ b/assets/score/bxb-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWRCh\OneDrive\Desktop\gitproject\bxbscore\assets\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1848F7-BBC7-4C2A-98F4-7B7425D32A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607BF53-E057-4918-9307-DA0D05FF5ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AA196" authorId="0" shapeId="0" xr:uid="{E42C26AB-1423-4BFC-9CB0-103777AF6897}">
+    <comment ref="AA196" authorId="0" shapeId="0" xr:uid="{DAC82235-DE85-442D-AB5D-BAE5885C745A}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>Participant Name</t>
   </si>
@@ -1094,6 +1094,9 @@
   <si>
     <t>Tan Cheng Tat</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -2508,7 +2511,7 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -2631,17 +2634,33 @@
         <v>1</v>
       </c>
       <c r="BA5" s="17"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
+      <c r="BB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>1</v>
+      </c>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
+      <c r="BE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>1</v>
+      </c>
       <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
+      <c r="BJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>1</v>
+      </c>
       <c r="BM5" s="4"/>
       <c r="BN5" s="4"/>
       <c r="BO5" s="4">
@@ -2852,7 +2871,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="3"/>
@@ -2944,19 +2963,33 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
-      <c r="BM7" s="4"/>
+      <c r="BM7" s="4">
+        <v>1</v>
+      </c>
       <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
-      <c r="BP7" s="4"/>
+      <c r="BO7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ7" s="4"/>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
       <c r="BT7" s="4"/>
-      <c r="BU7" s="4"/>
+      <c r="BU7" s="4">
+        <v>1</v>
+      </c>
       <c r="BV7" s="4"/>
-      <c r="BW7" s="4"/>
-      <c r="BX7" s="4"/>
-      <c r="BY7" s="18"/>
+      <c r="BW7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
@@ -3196,7 +3229,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="3"/>
@@ -3275,17 +3308,29 @@
         <v>1</v>
       </c>
       <c r="BA9" s="17"/>
-      <c r="BB9" s="3"/>
+      <c r="BB9" s="3">
+        <v>1</v>
+      </c>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
+      <c r="BE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>1</v>
+      </c>
       <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
+      <c r="BH9" s="3">
+        <v>1</v>
+      </c>
       <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
+      <c r="BJ9" s="3">
+        <v>1</v>
+      </c>
       <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
+      <c r="BL9" s="3">
+        <v>1</v>
+      </c>
       <c r="BM9" s="4"/>
       <c r="BN9" s="4"/>
       <c r="BO9" s="4"/>
@@ -4250,7 +4295,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -4283,17 +4328,39 @@
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
       <c r="AA15" s="18"/>
       <c r="AB15" s="17">
         <v>1</v>
@@ -4404,19 +4471,45 @@
       <c r="BL15" s="3">
         <v>1</v>
       </c>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
-      <c r="BP15" s="4"/>
-      <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
-      <c r="BT15" s="4"/>
-      <c r="BU15" s="4"/>
-      <c r="BV15" s="4"/>
-      <c r="BW15" s="4"/>
-      <c r="BX15" s="4"/>
-      <c r="BY15" s="18"/>
+      <c r="BM15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
@@ -4886,7 +4979,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -4921,17 +5014,35 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
       <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
       <c r="AA19" s="18"/>
       <c r="AB19" s="17">
         <v>1</v>
@@ -5036,18 +5147,36 @@
       <c r="BL19" s="3">
         <v>1</v>
       </c>
-      <c r="BM19" s="4"/>
+      <c r="BM19" s="4">
+        <v>1</v>
+      </c>
       <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
-      <c r="BP19" s="4"/>
-      <c r="BQ19" s="4"/>
+      <c r="BO19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="4">
+        <v>1</v>
+      </c>
       <c r="BR19" s="4"/>
-      <c r="BS19" s="4"/>
+      <c r="BS19" s="4">
+        <v>1</v>
+      </c>
       <c r="BT19" s="4"/>
-      <c r="BU19" s="4"/>
-      <c r="BV19" s="4"/>
-      <c r="BW19" s="4"/>
-      <c r="BX19" s="4"/>
+      <c r="BU19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX19" s="4">
+        <v>1</v>
+      </c>
       <c r="BY19" s="18"/>
     </row>
     <row r="20" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -5056,7 +5185,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -5200,18 +5329,28 @@
       <c r="BL20" s="3">
         <v>1</v>
       </c>
-      <c r="BM20" s="4"/>
+      <c r="BM20" s="4">
+        <v>1</v>
+      </c>
       <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
+      <c r="BO20" s="4">
+        <v>1</v>
+      </c>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
       <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
+      <c r="BS20" s="4">
+        <v>1</v>
+      </c>
       <c r="BT20" s="4"/>
       <c r="BU20" s="4"/>
       <c r="BV20" s="4"/>
-      <c r="BW20" s="4"/>
-      <c r="BX20" s="4"/>
+      <c r="BW20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX20" s="4">
+        <v>1</v>
+      </c>
       <c r="BY20" s="18"/>
     </row>
     <row r="21" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -5220,7 +5359,7 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
@@ -5398,17 +5537,29 @@
       </c>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
+      <c r="BO21" s="4">
+        <v>1</v>
+      </c>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
-      <c r="BR21" s="4"/>
-      <c r="BS21" s="4"/>
+      <c r="BR21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS21" s="4">
+        <v>1</v>
+      </c>
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4"/>
-      <c r="BW21" s="4"/>
-      <c r="BX21" s="4"/>
-      <c r="BY21" s="18"/>
+      <c r="BW21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY21" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -6042,7 +6193,7 @@
       </c>
       <c r="B26" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="3"/>
@@ -6130,7 +6281,9 @@
       </c>
       <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
-      <c r="BO26" s="4"/>
+      <c r="BO26" s="4">
+        <v>1</v>
+      </c>
       <c r="BP26" s="4"/>
       <c r="BQ26" s="4"/>
       <c r="BR26" s="4"/>
@@ -6139,8 +6292,12 @@
       <c r="BU26" s="4"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
-      <c r="BX26" s="4"/>
-      <c r="BY26" s="18"/>
+      <c r="BX26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY26" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
@@ -6148,7 +6305,7 @@
       </c>
       <c r="B27" s="11">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -6306,16 +6463,30 @@
       </c>
       <c r="BM27" s="4"/>
       <c r="BN27" s="4"/>
-      <c r="BO27" s="4"/>
-      <c r="BP27" s="4"/>
-      <c r="BQ27" s="4"/>
+      <c r="BO27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ27" s="4">
+        <v>1</v>
+      </c>
       <c r="BR27" s="4"/>
-      <c r="BS27" s="4"/>
+      <c r="BS27" s="4">
+        <v>1</v>
+      </c>
       <c r="BT27" s="4"/>
-      <c r="BU27" s="4"/>
+      <c r="BU27" s="4">
+        <v>1</v>
+      </c>
       <c r="BV27" s="4"/>
-      <c r="BW27" s="4"/>
-      <c r="BX27" s="4"/>
+      <c r="BW27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX27" s="4">
+        <v>1</v>
+      </c>
       <c r="BY27" s="18"/>
     </row>
     <row r="28" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -6420,7 +6591,7 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -6606,19 +6777,37 @@
       <c r="BL29" s="3">
         <v>1</v>
       </c>
-      <c r="BM29" s="4"/>
-      <c r="BN29" s="4"/>
-      <c r="BO29" s="4"/>
+      <c r="BM29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="4">
+        <v>1</v>
+      </c>
       <c r="BP29" s="4"/>
       <c r="BQ29" s="4"/>
-      <c r="BR29" s="4"/>
-      <c r="BS29" s="4"/>
-      <c r="BT29" s="4"/>
+      <c r="BR29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT29" s="4">
+        <v>1</v>
+      </c>
       <c r="BU29" s="4"/>
       <c r="BV29" s="4"/>
-      <c r="BW29" s="4"/>
-      <c r="BX29" s="4"/>
-      <c r="BY29" s="18"/>
+      <c r="BW29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY29" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
@@ -6940,7 +7129,7 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C32" s="17">
         <v>1</v>
@@ -7080,18 +7269,40 @@
       <c r="BL32" s="3">
         <v>1</v>
       </c>
-      <c r="BM32" s="4"/>
-      <c r="BN32" s="4"/>
-      <c r="BO32" s="4"/>
-      <c r="BP32" s="4"/>
-      <c r="BQ32" s="4"/>
+      <c r="BM32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ32" s="4">
+        <v>1</v>
+      </c>
       <c r="BR32" s="4"/>
-      <c r="BS32" s="4"/>
-      <c r="BT32" s="4"/>
-      <c r="BU32" s="4"/>
-      <c r="BV32" s="4"/>
-      <c r="BW32" s="4"/>
-      <c r="BX32" s="4"/>
+      <c r="BS32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW32" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX32" s="4">
+        <v>1</v>
+      </c>
       <c r="BY32" s="18"/>
     </row>
     <row r="33" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -7204,7 +7415,7 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C34" s="17">
         <v>1</v>
@@ -7362,18 +7573,38 @@
       <c r="BL34" s="3">
         <v>1</v>
       </c>
-      <c r="BM34" s="4"/>
-      <c r="BN34" s="4"/>
-      <c r="BO34" s="4"/>
-      <c r="BP34" s="4"/>
-      <c r="BQ34" s="4"/>
+      <c r="BM34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ34" s="4">
+        <v>1</v>
+      </c>
       <c r="BR34" s="4"/>
-      <c r="BS34" s="4"/>
+      <c r="BS34" s="4">
+        <v>1</v>
+      </c>
       <c r="BT34" s="4"/>
-      <c r="BU34" s="4"/>
-      <c r="BV34" s="4"/>
-      <c r="BW34" s="4"/>
-      <c r="BX34" s="4"/>
+      <c r="BU34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX34" s="4">
+        <v>1</v>
+      </c>
       <c r="BY34" s="18"/>
     </row>
     <row r="35" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -7382,7 +7613,7 @@
       </c>
       <c r="B35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35" s="17">
         <v>1</v>
@@ -7447,10 +7678,16 @@
       <c r="BE35" s="3"/>
       <c r="BF35" s="3"/>
       <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
+      <c r="BH35" s="3">
+        <v>1</v>
+      </c>
       <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
+      <c r="BJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="3">
+        <v>1</v>
+      </c>
       <c r="BL35" s="3"/>
       <c r="BM35" s="4"/>
       <c r="BN35" s="4"/>
@@ -7472,7 +7709,7 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C36" s="17">
         <v>1</v>
@@ -7567,29 +7804,57 @@
       </c>
       <c r="AZ36" s="18"/>
       <c r="BA36" s="17"/>
-      <c r="BB36" s="3"/>
+      <c r="BB36" s="3">
+        <v>1</v>
+      </c>
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="3"/>
+      <c r="BE36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH36" s="3">
+        <v>1</v>
+      </c>
       <c r="BI36" s="3"/>
-      <c r="BJ36" s="3"/>
-      <c r="BK36" s="3"/>
-      <c r="BL36" s="3"/>
+      <c r="BJ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL36" s="3">
+        <v>1</v>
+      </c>
       <c r="BM36" s="4"/>
       <c r="BN36" s="4"/>
-      <c r="BO36" s="4"/>
-      <c r="BP36" s="4"/>
+      <c r="BO36" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP36" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ36" s="4"/>
       <c r="BR36" s="4"/>
-      <c r="BS36" s="4"/>
+      <c r="BS36" s="4">
+        <v>1</v>
+      </c>
       <c r="BT36" s="4"/>
-      <c r="BU36" s="4"/>
+      <c r="BU36" s="4">
+        <v>1</v>
+      </c>
       <c r="BV36" s="4"/>
-      <c r="BW36" s="4"/>
-      <c r="BX36" s="4"/>
+      <c r="BW36" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX36" s="4">
+        <v>1</v>
+      </c>
       <c r="BY36" s="18"/>
     </row>
     <row r="37" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -9416,7 +9681,7 @@
       </c>
       <c r="B49" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C49" s="17">
         <v>1</v>
@@ -9580,18 +9845,38 @@
       <c r="BL49" s="3">
         <v>1</v>
       </c>
-      <c r="BM49" s="4"/>
-      <c r="BN49" s="4"/>
-      <c r="BO49" s="4"/>
-      <c r="BP49" s="4"/>
-      <c r="BQ49" s="4"/>
+      <c r="BM49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ49" s="4">
+        <v>1</v>
+      </c>
       <c r="BR49" s="4"/>
-      <c r="BS49" s="4"/>
+      <c r="BS49" s="4">
+        <v>1</v>
+      </c>
       <c r="BT49" s="4"/>
-      <c r="BU49" s="4"/>
-      <c r="BV49" s="4"/>
-      <c r="BW49" s="4"/>
-      <c r="BX49" s="4"/>
+      <c r="BU49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW49" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX49" s="4">
+        <v>1</v>
+      </c>
       <c r="BY49" s="18"/>
     </row>
     <row r="50" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -9996,7 +10281,7 @@
       </c>
       <c r="B53" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="3"/>
@@ -10082,16 +10367,26 @@
       <c r="BL53" s="3"/>
       <c r="BM53" s="4"/>
       <c r="BN53" s="4"/>
-      <c r="BO53" s="4"/>
-      <c r="BP53" s="4"/>
-      <c r="BQ53" s="4"/>
+      <c r="BO53" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP53" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ53" s="4">
+        <v>1</v>
+      </c>
       <c r="BR53" s="4"/>
       <c r="BS53" s="4"/>
       <c r="BT53" s="4"/>
       <c r="BU53" s="4"/>
       <c r="BV53" s="4"/>
-      <c r="BW53" s="4"/>
-      <c r="BX53" s="4"/>
+      <c r="BW53" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX53" s="4">
+        <v>1</v>
+      </c>
       <c r="BY53" s="18"/>
     </row>
     <row r="54" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -10480,7 +10775,7 @@
       </c>
       <c r="B56" s="11">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C56" s="17">
         <v>1</v>
@@ -10648,19 +10943,37 @@
       <c r="BL56" s="3">
         <v>1</v>
       </c>
-      <c r="BM56" s="4"/>
+      <c r="BM56" s="4">
+        <v>1</v>
+      </c>
       <c r="BN56" s="4"/>
-      <c r="BO56" s="4"/>
-      <c r="BP56" s="4"/>
-      <c r="BQ56" s="4"/>
+      <c r="BO56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ56" s="4">
+        <v>1</v>
+      </c>
       <c r="BR56" s="4"/>
-      <c r="BS56" s="4"/>
-      <c r="BT56" s="4"/>
+      <c r="BS56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT56" s="4">
+        <v>1</v>
+      </c>
       <c r="BU56" s="4"/>
       <c r="BV56" s="4"/>
-      <c r="BW56" s="4"/>
-      <c r="BX56" s="4"/>
-      <c r="BY56" s="18"/>
+      <c r="BW56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY56" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
@@ -11194,7 +11507,7 @@
       </c>
       <c r="B60" s="11">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C60" s="19">
         <v>1</v>
@@ -11318,7 +11631,9 @@
       <c r="BL60" s="5"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
-      <c r="BO60" s="6"/>
+      <c r="BO60" s="6">
+        <v>1</v>
+      </c>
       <c r="BP60" s="6"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="6"/>
@@ -11326,8 +11641,12 @@
       <c r="BT60" s="6"/>
       <c r="BU60" s="6"/>
       <c r="BV60" s="6"/>
-      <c r="BW60" s="6"/>
-      <c r="BX60" s="6"/>
+      <c r="BW60" s="6">
+        <v>1</v>
+      </c>
+      <c r="BX60" s="6">
+        <v>1</v>
+      </c>
       <c r="BY60" s="20"/>
     </row>
     <row r="61" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -11424,7 +11743,7 @@
       </c>
       <c r="B62" s="11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="3"/>
@@ -11524,18 +11843,38 @@
       <c r="AZ62" s="21">
         <v>1</v>
       </c>
-      <c r="BA62" s="22"/>
-      <c r="BB62" s="7"/>
-      <c r="BC62" s="7"/>
+      <c r="BA62" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB62" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC62" s="7">
+        <v>1</v>
+      </c>
       <c r="BD62" s="7"/>
-      <c r="BE62" s="7"/>
-      <c r="BF62" s="7"/>
-      <c r="BG62" s="7"/>
-      <c r="BH62" s="7"/>
+      <c r="BE62" s="7">
+        <v>1</v>
+      </c>
+      <c r="BF62" s="7">
+        <v>1</v>
+      </c>
+      <c r="BG62" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH62" s="7">
+        <v>1</v>
+      </c>
       <c r="BI62" s="7"/>
-      <c r="BJ62" s="7"/>
-      <c r="BK62" s="7"/>
-      <c r="BL62" s="7"/>
+      <c r="BJ62" s="7">
+        <v>1</v>
+      </c>
+      <c r="BK62" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL62" s="7">
+        <v>1</v>
+      </c>
       <c r="BM62" s="8">
         <v>1</v>
       </c>
@@ -12120,7 +12459,7 @@
       </c>
       <c r="B66" s="11">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C66" s="17">
         <v>1</v>
@@ -12260,17 +12599,31 @@
       </c>
       <c r="BM66" s="4"/>
       <c r="BN66" s="4"/>
-      <c r="BO66" s="4"/>
-      <c r="BP66" s="4"/>
-      <c r="BQ66" s="4"/>
+      <c r="BO66" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP66" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ66" s="4">
+        <v>1</v>
+      </c>
       <c r="BR66" s="4"/>
-      <c r="BS66" s="4"/>
+      <c r="BS66" s="4">
+        <v>1</v>
+      </c>
       <c r="BT66" s="4"/>
-      <c r="BU66" s="4"/>
+      <c r="BU66" s="4">
+        <v>1</v>
+      </c>
       <c r="BV66" s="4"/>
       <c r="BW66" s="4"/>
-      <c r="BX66" s="4"/>
-      <c r="BY66" s="18"/>
+      <c r="BX66" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY66" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
@@ -12278,7 +12631,7 @@
       </c>
       <c r="B67" s="11">
         <f t="shared" ref="B67:B130" si="1">SUM(C67:CX67)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C67" s="17">
         <v>1</v>
@@ -12448,18 +12801,32 @@
       <c r="BL67" s="3">
         <v>1</v>
       </c>
-      <c r="BM67" s="4"/>
-      <c r="BN67" s="4"/>
-      <c r="BO67" s="4"/>
+      <c r="BM67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO67" s="4">
+        <v>1</v>
+      </c>
       <c r="BP67" s="4"/>
       <c r="BQ67" s="4"/>
       <c r="BR67" s="4"/>
-      <c r="BS67" s="4"/>
-      <c r="BT67" s="4"/>
+      <c r="BS67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT67" s="4">
+        <v>1</v>
+      </c>
       <c r="BU67" s="4"/>
       <c r="BV67" s="4"/>
-      <c r="BW67" s="4"/>
-      <c r="BX67" s="4"/>
+      <c r="BW67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX67" s="4">
+        <v>1</v>
+      </c>
       <c r="BY67" s="18"/>
     </row>
     <row r="68" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -12774,7 +13141,7 @@
       </c>
       <c r="B70" s="11">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C70" s="17">
         <v>1</v>
@@ -12941,8 +13308,12 @@
       <c r="BO70" s="4">
         <v>1</v>
       </c>
-      <c r="BP70" s="4"/>
-      <c r="BQ70" s="4"/>
+      <c r="BP70" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ70" s="4">
+        <v>1</v>
+      </c>
       <c r="BR70" s="4"/>
       <c r="BS70" s="4">
         <v>1</v>
@@ -13058,7 +13429,7 @@
       </c>
       <c r="B72" s="11">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -13148,18 +13519,34 @@
       <c r="AZ72" s="18">
         <v>1</v>
       </c>
-      <c r="BA72" s="17"/>
-      <c r="BB72" s="3"/>
+      <c r="BA72" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB72" s="3">
+        <v>1</v>
+      </c>
       <c r="BC72" s="3"/>
       <c r="BD72" s="3"/>
-      <c r="BE72" s="3"/>
-      <c r="BF72" s="3"/>
+      <c r="BE72" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF72" s="3">
+        <v>1</v>
+      </c>
       <c r="BG72" s="3"/>
-      <c r="BH72" s="3"/>
+      <c r="BH72" s="3">
+        <v>1</v>
+      </c>
       <c r="BI72" s="3"/>
-      <c r="BJ72" s="3"/>
-      <c r="BK72" s="3"/>
-      <c r="BL72" s="3"/>
+      <c r="BJ72" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK72" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL72" s="3">
+        <v>1</v>
+      </c>
       <c r="BM72" s="4">
         <v>1</v>
       </c>
@@ -13190,7 +13577,7 @@
       </c>
       <c r="B73" s="11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -13311,17 +13698,33 @@
         <v>1</v>
       </c>
       <c r="BA73" s="17"/>
-      <c r="BB73" s="3"/>
+      <c r="BB73" s="3">
+        <v>1</v>
+      </c>
       <c r="BC73" s="3"/>
       <c r="BD73" s="3"/>
-      <c r="BE73" s="3"/>
-      <c r="BF73" s="3"/>
-      <c r="BG73" s="3"/>
-      <c r="BH73" s="3"/>
+      <c r="BE73" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG73" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH73" s="3">
+        <v>1</v>
+      </c>
       <c r="BI73" s="3"/>
-      <c r="BJ73" s="3"/>
-      <c r="BK73" s="3"/>
-      <c r="BL73" s="3"/>
+      <c r="BJ73" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK73" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL73" s="3">
+        <v>1</v>
+      </c>
       <c r="BM73" s="4"/>
       <c r="BN73" s="4"/>
       <c r="BO73" s="4">
@@ -13574,7 +13977,7 @@
       </c>
       <c r="B75" s="11">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -13674,18 +14077,36 @@
       <c r="AZ75" s="18">
         <v>1</v>
       </c>
-      <c r="BA75" s="17"/>
-      <c r="BB75" s="3"/>
+      <c r="BA75" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB75" s="3">
+        <v>1</v>
+      </c>
       <c r="BC75" s="3"/>
       <c r="BD75" s="3"/>
-      <c r="BE75" s="3"/>
-      <c r="BF75" s="3"/>
-      <c r="BG75" s="3"/>
-      <c r="BH75" s="3"/>
+      <c r="BE75" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF75" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG75" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH75" s="3">
+        <v>1</v>
+      </c>
       <c r="BI75" s="3"/>
-      <c r="BJ75" s="3"/>
-      <c r="BK75" s="3"/>
-      <c r="BL75" s="3"/>
+      <c r="BJ75" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK75" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL75" s="3">
+        <v>1</v>
+      </c>
       <c r="BM75" s="4">
         <v>1</v>
       </c>
@@ -15448,7 +15869,7 @@
       </c>
       <c r="B86" s="11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="3"/>
@@ -15528,7 +15949,9 @@
       <c r="BL86" s="3"/>
       <c r="BM86" s="4"/>
       <c r="BN86" s="4"/>
-      <c r="BO86" s="4"/>
+      <c r="BO86" s="4">
+        <v>1</v>
+      </c>
       <c r="BP86" s="4"/>
       <c r="BQ86" s="4"/>
       <c r="BR86" s="4"/>
@@ -15536,8 +15959,12 @@
       <c r="BT86" s="4"/>
       <c r="BU86" s="4"/>
       <c r="BV86" s="4"/>
-      <c r="BW86" s="4"/>
-      <c r="BX86" s="4"/>
+      <c r="BW86" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX86" s="4">
+        <v>1</v>
+      </c>
       <c r="BY86" s="18"/>
     </row>
     <row r="87" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -15804,7 +16231,7 @@
       </c>
       <c r="B89" s="11">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C89" s="17">
         <v>1</v>
@@ -15926,16 +16353,24 @@
       </c>
       <c r="BM89" s="4"/>
       <c r="BN89" s="4"/>
-      <c r="BO89" s="4"/>
+      <c r="BO89" s="4">
+        <v>1</v>
+      </c>
       <c r="BP89" s="4"/>
-      <c r="BQ89" s="4"/>
+      <c r="BQ89" s="4">
+        <v>1</v>
+      </c>
       <c r="BR89" s="4"/>
       <c r="BS89" s="4"/>
       <c r="BT89" s="4"/>
       <c r="BU89" s="4"/>
       <c r="BV89" s="4"/>
-      <c r="BW89" s="4"/>
-      <c r="BX89" s="4"/>
+      <c r="BW89" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX89" s="4">
+        <v>1</v>
+      </c>
       <c r="BY89" s="18"/>
     </row>
     <row r="90" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -16178,7 +16613,7 @@
       </c>
       <c r="B91" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="3"/>
@@ -16326,18 +16761,34 @@
       <c r="BL91" s="3">
         <v>1</v>
       </c>
-      <c r="BM91" s="4"/>
-      <c r="BN91" s="4"/>
-      <c r="BO91" s="4"/>
-      <c r="BP91" s="4"/>
-      <c r="BQ91" s="4"/>
+      <c r="BM91" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN91" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO91" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP91" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ91" s="4">
+        <v>1</v>
+      </c>
       <c r="BR91" s="4"/>
-      <c r="BS91" s="4"/>
+      <c r="BS91" s="4">
+        <v>1</v>
+      </c>
       <c r="BT91" s="4"/>
       <c r="BU91" s="4"/>
       <c r="BV91" s="4"/>
-      <c r="BW91" s="4"/>
-      <c r="BX91" s="4"/>
+      <c r="BW91" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX91" s="4">
+        <v>1</v>
+      </c>
       <c r="BY91" s="18"/>
     </row>
     <row r="92" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -16346,7 +16797,7 @@
       </c>
       <c r="B92" s="11">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C92" s="17">
         <v>1</v>
@@ -16466,18 +16917,32 @@
       <c r="BJ92" s="3"/>
       <c r="BK92" s="3"/>
       <c r="BL92" s="3"/>
-      <c r="BM92" s="4"/>
+      <c r="BM92" s="4">
+        <v>1</v>
+      </c>
       <c r="BN92" s="4"/>
-      <c r="BO92" s="4"/>
-      <c r="BP92" s="4"/>
-      <c r="BQ92" s="4"/>
+      <c r="BO92" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP92" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ92" s="4">
+        <v>1</v>
+      </c>
       <c r="BR92" s="4"/>
-      <c r="BS92" s="4"/>
+      <c r="BS92" s="4">
+        <v>1</v>
+      </c>
       <c r="BT92" s="4"/>
       <c r="BU92" s="4"/>
       <c r="BV92" s="4"/>
-      <c r="BW92" s="4"/>
-      <c r="BX92" s="4"/>
+      <c r="BW92" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX92" s="4">
+        <v>1</v>
+      </c>
       <c r="BY92" s="18"/>
     </row>
     <row r="93" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -16672,7 +17137,7 @@
       </c>
       <c r="B94" s="11">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C94" s="17">
         <v>1</v>
@@ -16772,7 +17237,9 @@
       <c r="AZ94" s="18">
         <v>1</v>
       </c>
-      <c r="BA94" s="17"/>
+      <c r="BA94" s="17">
+        <v>1</v>
+      </c>
       <c r="BB94" s="3">
         <v>1</v>
       </c>
@@ -16799,19 +17266,33 @@
       <c r="BK94" s="3">
         <v>1</v>
       </c>
-      <c r="BL94" s="3"/>
+      <c r="BL94" s="3">
+        <v>1</v>
+      </c>
       <c r="BM94" s="4"/>
       <c r="BN94" s="4"/>
-      <c r="BO94" s="4"/>
-      <c r="BP94" s="4"/>
-      <c r="BQ94" s="4"/>
+      <c r="BO94" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP94" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ94" s="4">
+        <v>1</v>
+      </c>
       <c r="BR94" s="4"/>
-      <c r="BS94" s="4"/>
+      <c r="BS94" s="4">
+        <v>1</v>
+      </c>
       <c r="BT94" s="4"/>
       <c r="BU94" s="4"/>
       <c r="BV94" s="4"/>
-      <c r="BW94" s="4"/>
-      <c r="BX94" s="4"/>
+      <c r="BW94" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX94" s="4">
+        <v>1</v>
+      </c>
       <c r="BY94" s="18"/>
     </row>
     <row r="95" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -16820,7 +17301,7 @@
       </c>
       <c r="B95" s="11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="3"/>
@@ -16916,18 +17397,34 @@
       <c r="BL95" s="3">
         <v>1</v>
       </c>
-      <c r="BM95" s="4"/>
+      <c r="BM95" s="4">
+        <v>1</v>
+      </c>
       <c r="BN95" s="4"/>
-      <c r="BO95" s="4"/>
-      <c r="BP95" s="4"/>
-      <c r="BQ95" s="4"/>
+      <c r="BO95" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP95" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ95" s="4">
+        <v>1</v>
+      </c>
       <c r="BR95" s="4"/>
-      <c r="BS95" s="4"/>
+      <c r="BS95" s="4">
+        <v>1</v>
+      </c>
       <c r="BT95" s="4"/>
-      <c r="BU95" s="4"/>
+      <c r="BU95" s="4">
+        <v>1</v>
+      </c>
       <c r="BV95" s="4"/>
-      <c r="BW95" s="4"/>
-      <c r="BX95" s="4"/>
+      <c r="BW95" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX95" s="4">
+        <v>1</v>
+      </c>
       <c r="BY95" s="18"/>
     </row>
     <row r="96" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -18140,7 +18637,7 @@
       </c>
       <c r="B103" s="11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="3"/>
@@ -18224,7 +18721,9 @@
       <c r="BL103" s="3"/>
       <c r="BM103" s="4"/>
       <c r="BN103" s="4"/>
-      <c r="BO103" s="4"/>
+      <c r="BO103" s="4">
+        <v>1</v>
+      </c>
       <c r="BP103" s="4"/>
       <c r="BQ103" s="4"/>
       <c r="BR103" s="4"/>
@@ -18232,8 +18731,12 @@
       <c r="BT103" s="4"/>
       <c r="BU103" s="4"/>
       <c r="BV103" s="4"/>
-      <c r="BW103" s="4"/>
-      <c r="BX103" s="4"/>
+      <c r="BW103" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX103" s="4">
+        <v>1</v>
+      </c>
       <c r="BY103" s="18"/>
     </row>
     <row r="104" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -18242,7 +18745,7 @@
       </c>
       <c r="B104" s="11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C104" s="17">
         <v>1</v>
@@ -18390,17 +18893,33 @@
       </c>
       <c r="BM104" s="4"/>
       <c r="BN104" s="4"/>
-      <c r="BO104" s="4"/>
-      <c r="BP104" s="4"/>
-      <c r="BQ104" s="4"/>
+      <c r="BO104" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP104" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ104" s="4">
+        <v>1</v>
+      </c>
       <c r="BR104" s="4"/>
-      <c r="BS104" s="4"/>
+      <c r="BS104" s="4">
+        <v>1</v>
+      </c>
       <c r="BT104" s="4"/>
-      <c r="BU104" s="4"/>
+      <c r="BU104" s="4">
+        <v>1</v>
+      </c>
       <c r="BV104" s="4"/>
-      <c r="BW104" s="4"/>
-      <c r="BX104" s="4"/>
-      <c r="BY104" s="18"/>
+      <c r="BW104" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX104" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY104" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
@@ -19022,7 +19541,7 @@
       </c>
       <c r="B110" s="11">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="17">
         <v>1</v>
@@ -19136,13 +19655,23 @@
       <c r="BB110" s="3"/>
       <c r="BC110" s="3"/>
       <c r="BD110" s="3"/>
-      <c r="BE110" s="3"/>
-      <c r="BF110" s="3"/>
+      <c r="BE110" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF110" s="3">
+        <v>1</v>
+      </c>
       <c r="BG110" s="3"/>
-      <c r="BH110" s="3"/>
+      <c r="BH110" s="3">
+        <v>1</v>
+      </c>
       <c r="BI110" s="3"/>
-      <c r="BJ110" s="3"/>
-      <c r="BK110" s="3"/>
+      <c r="BJ110" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK110" s="3">
+        <v>1</v>
+      </c>
       <c r="BL110" s="3"/>
       <c r="BM110" s="4"/>
       <c r="BN110" s="4"/>
@@ -19164,7 +19693,7 @@
       </c>
       <c r="B111" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C111" s="17">
         <v>1</v>
@@ -19308,18 +19837,34 @@
       <c r="BL111" s="3">
         <v>1</v>
       </c>
-      <c r="BM111" s="4"/>
+      <c r="BM111" s="4">
+        <v>1</v>
+      </c>
       <c r="BN111" s="4"/>
-      <c r="BO111" s="4"/>
-      <c r="BP111" s="4"/>
-      <c r="BQ111" s="4"/>
+      <c r="BO111" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP111" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ111" s="4">
+        <v>1</v>
+      </c>
       <c r="BR111" s="4"/>
-      <c r="BS111" s="4"/>
+      <c r="BS111" s="4">
+        <v>1</v>
+      </c>
       <c r="BT111" s="4"/>
-      <c r="BU111" s="4"/>
+      <c r="BU111" s="4">
+        <v>1</v>
+      </c>
       <c r="BV111" s="4"/>
-      <c r="BW111" s="4"/>
-      <c r="BX111" s="4"/>
+      <c r="BW111" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX111" s="4">
+        <v>1</v>
+      </c>
       <c r="BY111" s="18"/>
     </row>
     <row r="112" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -19472,7 +20017,7 @@
       </c>
       <c r="B113" s="11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="3"/>
@@ -19552,18 +20097,28 @@
       <c r="BJ113" s="3"/>
       <c r="BK113" s="3"/>
       <c r="BL113" s="3"/>
-      <c r="BM113" s="4"/>
+      <c r="BM113" s="4">
+        <v>1</v>
+      </c>
       <c r="BN113" s="4"/>
       <c r="BO113" s="4"/>
-      <c r="BP113" s="4"/>
+      <c r="BP113" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ113" s="4"/>
       <c r="BR113" s="4"/>
-      <c r="BS113" s="4"/>
+      <c r="BS113" s="4">
+        <v>1</v>
+      </c>
       <c r="BT113" s="4"/>
       <c r="BU113" s="4"/>
       <c r="BV113" s="4"/>
-      <c r="BW113" s="4"/>
-      <c r="BX113" s="4"/>
+      <c r="BW113" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX113" s="4">
+        <v>1</v>
+      </c>
       <c r="BY113" s="18"/>
     </row>
     <row r="114" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -19572,7 +20127,7 @@
       </c>
       <c r="B114" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C114" s="17">
         <v>1</v>
@@ -19712,20 +20267,30 @@
       <c r="BL114" s="3">
         <v>1</v>
       </c>
-      <c r="BM114" s="4"/>
+      <c r="BM114" s="4">
+        <v>1</v>
+      </c>
       <c r="BN114" s="4"/>
       <c r="BO114" s="4">
         <v>1</v>
       </c>
-      <c r="BP114" s="4"/>
-      <c r="BQ114" s="4"/>
+      <c r="BP114" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ114" s="4">
+        <v>1</v>
+      </c>
       <c r="BR114" s="4"/>
       <c r="BS114" s="4">
         <v>1</v>
       </c>
       <c r="BT114" s="4"/>
-      <c r="BU114" s="4"/>
-      <c r="BV114" s="4"/>
+      <c r="BU114" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV114" s="4">
+        <v>1</v>
+      </c>
       <c r="BW114" s="4">
         <v>1</v>
       </c>
@@ -20328,7 +20893,7 @@
       </c>
       <c r="B119" s="11">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C119" s="17">
         <v>1</v>
@@ -20442,26 +21007,52 @@
       <c r="BB119" s="3"/>
       <c r="BC119" s="3"/>
       <c r="BD119" s="3"/>
-      <c r="BE119" s="3"/>
-      <c r="BF119" s="3"/>
+      <c r="BE119" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF119" s="3">
+        <v>1</v>
+      </c>
       <c r="BG119" s="3"/>
-      <c r="BH119" s="3"/>
+      <c r="BH119" s="3">
+        <v>1</v>
+      </c>
       <c r="BI119" s="3"/>
-      <c r="BJ119" s="3"/>
-      <c r="BK119" s="3"/>
-      <c r="BL119" s="3"/>
+      <c r="BJ119" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK119" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL119" s="3">
+        <v>1</v>
+      </c>
       <c r="BM119" s="4"/>
       <c r="BN119" s="4"/>
-      <c r="BO119" s="4"/>
-      <c r="BP119" s="4"/>
-      <c r="BQ119" s="4"/>
+      <c r="BO119" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP119" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ119" s="4">
+        <v>1</v>
+      </c>
       <c r="BR119" s="4"/>
-      <c r="BS119" s="4"/>
+      <c r="BS119" s="4">
+        <v>1</v>
+      </c>
       <c r="BT119" s="4"/>
-      <c r="BU119" s="4"/>
+      <c r="BU119" s="4">
+        <v>1</v>
+      </c>
       <c r="BV119" s="4"/>
-      <c r="BW119" s="4"/>
-      <c r="BX119" s="4"/>
+      <c r="BW119" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX119" s="4">
+        <v>1</v>
+      </c>
       <c r="BY119" s="18"/>
     </row>
     <row r="120" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -20656,7 +21247,7 @@
       </c>
       <c r="B122" s="11">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C122" s="17">
         <v>1</v>
@@ -20808,18 +21399,36 @@
       <c r="BL122" s="3">
         <v>1</v>
       </c>
-      <c r="BM122" s="4"/>
-      <c r="BN122" s="4"/>
-      <c r="BO122" s="4"/>
-      <c r="BP122" s="4"/>
-      <c r="BQ122" s="4"/>
+      <c r="BM122" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN122" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO122" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP122" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ122" s="4">
+        <v>1</v>
+      </c>
       <c r="BR122" s="4"/>
-      <c r="BS122" s="4"/>
+      <c r="BS122" s="4">
+        <v>1</v>
+      </c>
       <c r="BT122" s="4"/>
-      <c r="BU122" s="4"/>
+      <c r="BU122" s="4">
+        <v>1</v>
+      </c>
       <c r="BV122" s="4"/>
-      <c r="BW122" s="4"/>
-      <c r="BX122" s="4"/>
+      <c r="BW122" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX122" s="4">
+        <v>1</v>
+      </c>
       <c r="BY122" s="18"/>
     </row>
     <row r="123" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -21140,7 +21749,7 @@
       </c>
       <c r="B125" s="11">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C125" s="17">
         <v>1</v>
@@ -21242,16 +21851,24 @@
       <c r="BL125" s="3"/>
       <c r="BM125" s="4"/>
       <c r="BN125" s="4"/>
-      <c r="BO125" s="4"/>
-      <c r="BP125" s="4"/>
+      <c r="BO125" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP125" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ125" s="4"/>
       <c r="BR125" s="4"/>
       <c r="BS125" s="4"/>
       <c r="BT125" s="4"/>
       <c r="BU125" s="4"/>
       <c r="BV125" s="4"/>
-      <c r="BW125" s="4"/>
-      <c r="BX125" s="4"/>
+      <c r="BW125" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX125" s="4">
+        <v>1</v>
+      </c>
       <c r="BY125" s="18"/>
     </row>
     <row r="126" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -21836,7 +22453,7 @@
       </c>
       <c r="B130" s="11">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C130" s="17">
         <v>1</v>
@@ -21957,15 +22574,23 @@
       <c r="BM130" s="4"/>
       <c r="BN130" s="4"/>
       <c r="BO130" s="4"/>
-      <c r="BP130" s="4"/>
-      <c r="BQ130" s="4"/>
+      <c r="BP130" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ130" s="4">
+        <v>1</v>
+      </c>
       <c r="BR130" s="4"/>
       <c r="BS130" s="4"/>
       <c r="BT130" s="4"/>
       <c r="BU130" s="4"/>
       <c r="BV130" s="4"/>
-      <c r="BW130" s="4"/>
-      <c r="BX130" s="4"/>
+      <c r="BW130" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX130" s="4">
+        <v>1</v>
+      </c>
       <c r="BY130" s="18"/>
     </row>
     <row r="131" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -21974,7 +22599,7 @@
       </c>
       <c r="B131" s="11">
         <f t="shared" ref="B131:B194" si="2">SUM(C131:CX131)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C131" s="17">
         <v>1</v>
@@ -22098,18 +22723,32 @@
         <v>1</v>
       </c>
       <c r="BL131" s="3"/>
-      <c r="BM131" s="4"/>
+      <c r="BM131" s="4">
+        <v>1</v>
+      </c>
       <c r="BN131" s="4"/>
-      <c r="BO131" s="4"/>
-      <c r="BP131" s="4"/>
-      <c r="BQ131" s="4"/>
+      <c r="BO131" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP131" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ131" s="4">
+        <v>1</v>
+      </c>
       <c r="BR131" s="4"/>
       <c r="BS131" s="4"/>
       <c r="BT131" s="4"/>
-      <c r="BU131" s="4"/>
+      <c r="BU131" s="4">
+        <v>1</v>
+      </c>
       <c r="BV131" s="4"/>
-      <c r="BW131" s="4"/>
-      <c r="BX131" s="4"/>
+      <c r="BW131" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX131" s="4">
+        <v>1</v>
+      </c>
       <c r="BY131" s="18"/>
     </row>
     <row r="132" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -22118,7 +22757,7 @@
       </c>
       <c r="B132" s="11">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C132" s="17">
         <v>1</v>
@@ -22242,18 +22881,38 @@
       <c r="AZ132" s="18">
         <v>1</v>
       </c>
-      <c r="BA132" s="17"/>
-      <c r="BB132" s="3"/>
-      <c r="BC132" s="3"/>
+      <c r="BA132" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB132" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC132" s="3">
+        <v>1</v>
+      </c>
       <c r="BD132" s="3"/>
-      <c r="BE132" s="3"/>
-      <c r="BF132" s="3"/>
-      <c r="BG132" s="3"/>
-      <c r="BH132" s="3"/>
+      <c r="BE132" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF132" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG132" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH132" s="3">
+        <v>1</v>
+      </c>
       <c r="BI132" s="3"/>
-      <c r="BJ132" s="3"/>
-      <c r="BK132" s="3"/>
-      <c r="BL132" s="3"/>
+      <c r="BJ132" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK132" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL132" s="3">
+        <v>1</v>
+      </c>
       <c r="BM132" s="4">
         <v>1</v>
       </c>
@@ -22292,7 +22951,7 @@
       </c>
       <c r="B133" s="11">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C133" s="17">
         <v>1</v>
@@ -22458,19 +23117,39 @@
       <c r="BL133" s="3">
         <v>1</v>
       </c>
-      <c r="BM133" s="4"/>
-      <c r="BN133" s="4"/>
-      <c r="BO133" s="4"/>
-      <c r="BP133" s="4"/>
-      <c r="BQ133" s="4"/>
+      <c r="BM133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ133" s="4">
+        <v>1</v>
+      </c>
       <c r="BR133" s="4"/>
-      <c r="BS133" s="4"/>
-      <c r="BT133" s="4"/>
+      <c r="BS133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT133" s="4">
+        <v>1</v>
+      </c>
       <c r="BU133" s="4"/>
       <c r="BV133" s="4"/>
-      <c r="BW133" s="4"/>
-      <c r="BX133" s="4"/>
-      <c r="BY133" s="18"/>
+      <c r="BW133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY133" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
@@ -22844,7 +23523,7 @@
       </c>
       <c r="B137" s="11">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C137" s="17">
         <v>1</v>
@@ -22996,18 +23675,28 @@
       <c r="BL137" s="3">
         <v>1</v>
       </c>
-      <c r="BM137" s="4"/>
+      <c r="BM137" s="4">
+        <v>1</v>
+      </c>
       <c r="BN137" s="4"/>
-      <c r="BO137" s="4"/>
+      <c r="BO137" s="4">
+        <v>1</v>
+      </c>
       <c r="BP137" s="4"/>
       <c r="BQ137" s="4"/>
       <c r="BR137" s="4"/>
-      <c r="BS137" s="4"/>
+      <c r="BS137" s="4">
+        <v>1</v>
+      </c>
       <c r="BT137" s="4"/>
       <c r="BU137" s="4"/>
       <c r="BV137" s="4"/>
-      <c r="BW137" s="4"/>
-      <c r="BX137" s="4"/>
+      <c r="BW137" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX137" s="4">
+        <v>1</v>
+      </c>
       <c r="BY137" s="18"/>
     </row>
     <row r="138" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -23016,7 +23705,7 @@
       </c>
       <c r="B138" s="11">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C138" s="17">
         <v>1</v>
@@ -23146,18 +23835,38 @@
       <c r="AZ138" s="18">
         <v>1</v>
       </c>
-      <c r="BA138" s="17"/>
-      <c r="BB138" s="3"/>
-      <c r="BC138" s="3"/>
+      <c r="BA138" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB138" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC138" s="3">
+        <v>1</v>
+      </c>
       <c r="BD138" s="3"/>
-      <c r="BE138" s="3"/>
-      <c r="BF138" s="3"/>
-      <c r="BG138" s="3"/>
-      <c r="BH138" s="3"/>
+      <c r="BE138" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF138" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG138" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH138" s="3">
+        <v>1</v>
+      </c>
       <c r="BI138" s="3"/>
-      <c r="BJ138" s="3"/>
-      <c r="BK138" s="3"/>
-      <c r="BL138" s="3"/>
+      <c r="BJ138" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK138" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL138" s="3">
+        <v>1</v>
+      </c>
       <c r="BM138" s="4"/>
       <c r="BN138" s="4"/>
       <c r="BO138" s="4"/>
@@ -23746,7 +24455,7 @@
       </c>
       <c r="B143" s="11">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C143" s="17">
         <v>1</v>
@@ -23898,18 +24607,42 @@
       <c r="AZ143" s="18">
         <v>1</v>
       </c>
-      <c r="BA143" s="17"/>
-      <c r="BB143" s="3"/>
-      <c r="BC143" s="3"/>
-      <c r="BD143" s="3"/>
-      <c r="BE143" s="3"/>
-      <c r="BF143" s="3"/>
-      <c r="BG143" s="3"/>
-      <c r="BH143" s="3"/>
-      <c r="BI143" s="3"/>
-      <c r="BJ143" s="3"/>
-      <c r="BK143" s="3"/>
-      <c r="BL143" s="3"/>
+      <c r="BA143" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK143" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL143" s="3">
+        <v>1</v>
+      </c>
       <c r="BM143" s="4">
         <v>1</v>
       </c>
@@ -23956,7 +24689,7 @@
       </c>
       <c r="B144" s="11">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C144" s="17">
         <v>1</v>
@@ -24130,18 +24863,38 @@
       <c r="BL144" s="3">
         <v>1</v>
       </c>
-      <c r="BM144" s="4"/>
-      <c r="BN144" s="4"/>
-      <c r="BO144" s="4"/>
-      <c r="BP144" s="4"/>
-      <c r="BQ144" s="4"/>
+      <c r="BM144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ144" s="4">
+        <v>1</v>
+      </c>
       <c r="BR144" s="4"/>
-      <c r="BS144" s="4"/>
+      <c r="BS144" s="4">
+        <v>1</v>
+      </c>
       <c r="BT144" s="4"/>
-      <c r="BU144" s="4"/>
-      <c r="BV144" s="4"/>
-      <c r="BW144" s="4"/>
-      <c r="BX144" s="4"/>
+      <c r="BU144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW144" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX144" s="4">
+        <v>1</v>
+      </c>
       <c r="BY144" s="18"/>
     </row>
     <row r="145" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -24150,7 +24903,7 @@
       </c>
       <c r="B145" s="11">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C145" s="17">
         <v>1</v>
@@ -24233,23 +24986,35 @@
       <c r="BE145" s="3"/>
       <c r="BF145" s="3"/>
       <c r="BG145" s="3"/>
-      <c r="BH145" s="3"/>
+      <c r="BH145" s="3">
+        <v>1</v>
+      </c>
       <c r="BI145" s="3"/>
       <c r="BJ145" s="3"/>
-      <c r="BK145" s="3"/>
+      <c r="BK145" s="3">
+        <v>1</v>
+      </c>
       <c r="BL145" s="3"/>
-      <c r="BM145" s="4"/>
+      <c r="BM145" s="4">
+        <v>1</v>
+      </c>
       <c r="BN145" s="4"/>
       <c r="BO145" s="4"/>
-      <c r="BP145" s="4"/>
+      <c r="BP145" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ145" s="4"/>
       <c r="BR145" s="4"/>
       <c r="BS145" s="4"/>
       <c r="BT145" s="4"/>
       <c r="BU145" s="4"/>
       <c r="BV145" s="4"/>
-      <c r="BW145" s="4"/>
-      <c r="BX145" s="4"/>
+      <c r="BW145" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX145" s="4">
+        <v>1</v>
+      </c>
       <c r="BY145" s="18"/>
     </row>
     <row r="146" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -24582,7 +25347,7 @@
       </c>
       <c r="B148" s="11">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C148" s="17">
         <v>1</v>
@@ -24770,19 +25535,45 @@
       <c r="BL148" s="3">
         <v>1</v>
       </c>
-      <c r="BM148" s="4"/>
-      <c r="BN148" s="4"/>
-      <c r="BO148" s="4"/>
-      <c r="BP148" s="4"/>
-      <c r="BQ148" s="4"/>
-      <c r="BR148" s="4"/>
-      <c r="BS148" s="4"/>
-      <c r="BT148" s="4"/>
-      <c r="BU148" s="4"/>
-      <c r="BV148" s="4"/>
-      <c r="BW148" s="4"/>
-      <c r="BX148" s="4"/>
-      <c r="BY148" s="18"/>
+      <c r="BM148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY148" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
@@ -25332,7 +26123,7 @@
       </c>
       <c r="B152" s="11">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C152" s="17">
         <v>1</v>
@@ -25508,19 +26299,35 @@
       <c r="BL152" s="3">
         <v>1</v>
       </c>
-      <c r="BM152" s="4"/>
-      <c r="BN152" s="4"/>
-      <c r="BO152" s="4"/>
+      <c r="BM152" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN152" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO152" s="4">
+        <v>1</v>
+      </c>
       <c r="BP152" s="4"/>
       <c r="BQ152" s="4"/>
       <c r="BR152" s="4"/>
-      <c r="BS152" s="4"/>
-      <c r="BT152" s="4"/>
+      <c r="BS152" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT152" s="4">
+        <v>1</v>
+      </c>
       <c r="BU152" s="4"/>
       <c r="BV152" s="4"/>
-      <c r="BW152" s="4"/>
-      <c r="BX152" s="4"/>
-      <c r="BY152" s="18"/>
+      <c r="BW152" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX152" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY152" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="12" t="s">
@@ -25528,7 +26335,7 @@
       </c>
       <c r="B153" s="11">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C153" s="17">
         <v>1</v>
@@ -25710,18 +26517,40 @@
       <c r="BL153" s="3">
         <v>1</v>
       </c>
-      <c r="BM153" s="4"/>
-      <c r="BN153" s="4"/>
-      <c r="BO153" s="4"/>
-      <c r="BP153" s="4"/>
-      <c r="BQ153" s="4"/>
-      <c r="BR153" s="4"/>
-      <c r="BS153" s="4"/>
+      <c r="BM153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS153" s="4">
+        <v>1</v>
+      </c>
       <c r="BT153" s="4"/>
-      <c r="BU153" s="4"/>
-      <c r="BV153" s="4"/>
-      <c r="BW153" s="4"/>
-      <c r="BX153" s="4"/>
+      <c r="BU153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX153" s="4">
+        <v>1</v>
+      </c>
       <c r="BY153" s="18"/>
     </row>
     <row r="154" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -26150,7 +26979,7 @@
       </c>
       <c r="B157" s="11">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C157" s="17">
         <v>1</v>
@@ -26338,19 +27167,43 @@
       <c r="BL157" s="3">
         <v>1</v>
       </c>
-      <c r="BM157" s="4"/>
-      <c r="BN157" s="4"/>
-      <c r="BO157" s="4"/>
+      <c r="BM157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO157" s="4">
+        <v>1</v>
+      </c>
       <c r="BP157" s="4"/>
-      <c r="BQ157" s="4"/>
-      <c r="BR157" s="4"/>
-      <c r="BS157" s="4"/>
-      <c r="BT157" s="4"/>
-      <c r="BU157" s="4"/>
-      <c r="BV157" s="4"/>
-      <c r="BW157" s="4"/>
-      <c r="BX157" s="4"/>
-      <c r="BY157" s="18"/>
+      <c r="BQ157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY157" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
@@ -26358,7 +27211,7 @@
       </c>
       <c r="B158" s="11">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C158" s="17">
         <v>1</v>
@@ -26544,19 +27397,37 @@
       <c r="BL158" s="3">
         <v>1</v>
       </c>
-      <c r="BM158" s="4"/>
-      <c r="BN158" s="4"/>
-      <c r="BO158" s="4"/>
+      <c r="BM158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO158" s="4">
+        <v>1</v>
+      </c>
       <c r="BP158" s="4"/>
       <c r="BQ158" s="4"/>
-      <c r="BR158" s="4"/>
-      <c r="BS158" s="4"/>
-      <c r="BT158" s="4"/>
+      <c r="BR158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT158" s="4">
+        <v>1</v>
+      </c>
       <c r="BU158" s="4"/>
       <c r="BV158" s="4"/>
-      <c r="BW158" s="4"/>
-      <c r="BX158" s="4"/>
-      <c r="BY158" s="18"/>
+      <c r="BW158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY158" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="12" t="s">
@@ -27118,7 +27989,7 @@
       </c>
       <c r="B162" s="11">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C162" s="17">
         <v>1</v>
@@ -27283,8 +28154,12 @@
       <c r="BO162" s="4">
         <v>1</v>
       </c>
-      <c r="BP162" s="4"/>
-      <c r="BQ162" s="4"/>
+      <c r="BP162" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ162" s="4">
+        <v>1</v>
+      </c>
       <c r="BR162" s="4"/>
       <c r="BS162" s="4">
         <v>1</v>
@@ -27482,7 +28357,7 @@
       </c>
       <c r="B164" s="11">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C164" s="17">
         <v>1</v>
@@ -27612,19 +28487,35 @@
       <c r="BL164" s="3">
         <v>1</v>
       </c>
-      <c r="BM164" s="4"/>
-      <c r="BN164" s="4"/>
-      <c r="BO164" s="4"/>
+      <c r="BM164" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN164" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO164" s="4">
+        <v>1</v>
+      </c>
       <c r="BP164" s="4"/>
       <c r="BQ164" s="4"/>
       <c r="BR164" s="4"/>
-      <c r="BS164" s="4"/>
-      <c r="BT164" s="4"/>
+      <c r="BS164" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT164" s="4">
+        <v>1</v>
+      </c>
       <c r="BU164" s="4"/>
       <c r="BV164" s="4"/>
-      <c r="BW164" s="4"/>
-      <c r="BX164" s="4"/>
-      <c r="BY164" s="18"/>
+      <c r="BW164" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX164" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY164" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
@@ -27738,7 +28629,7 @@
       </c>
       <c r="B166" s="11">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C166" s="17">
         <v>1</v>
@@ -27891,7 +28782,9 @@
       <c r="BG166" s="3"/>
       <c r="BH166" s="3"/>
       <c r="BI166" s="3"/>
-      <c r="BJ166" s="3"/>
+      <c r="BJ166" s="3">
+        <v>1</v>
+      </c>
       <c r="BK166" s="3"/>
       <c r="BL166" s="3"/>
       <c r="BM166" s="4">
@@ -28112,7 +29005,7 @@
       </c>
       <c r="B168" s="11">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C168" s="17">
         <v>1</v>
@@ -28254,18 +29147,36 @@
       <c r="BL168" s="3">
         <v>1</v>
       </c>
-      <c r="BM168" s="4"/>
-      <c r="BN168" s="4"/>
-      <c r="BO168" s="4"/>
-      <c r="BP168" s="4"/>
-      <c r="BQ168" s="4"/>
+      <c r="BM168" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN168" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO168" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP168" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ168" s="4">
+        <v>1</v>
+      </c>
       <c r="BR168" s="4"/>
-      <c r="BS168" s="4"/>
+      <c r="BS168" s="4">
+        <v>1</v>
+      </c>
       <c r="BT168" s="4"/>
-      <c r="BU168" s="4"/>
+      <c r="BU168" s="4">
+        <v>1</v>
+      </c>
       <c r="BV168" s="4"/>
-      <c r="BW168" s="4"/>
-      <c r="BX168" s="4"/>
+      <c r="BW168" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX168" s="4">
+        <v>1</v>
+      </c>
       <c r="BY168" s="18"/>
     </row>
     <row r="169" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -28274,7 +29185,7 @@
       </c>
       <c r="B169" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C169" s="17">
         <v>1</v>
@@ -28381,15 +29292,21 @@
       <c r="BM169" s="4"/>
       <c r="BN169" s="4"/>
       <c r="BO169" s="4"/>
-      <c r="BP169" s="4"/>
-      <c r="BQ169" s="4"/>
+      <c r="BP169" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ169" s="4">
+        <v>1</v>
+      </c>
       <c r="BR169" s="4"/>
       <c r="BS169" s="4"/>
       <c r="BT169" s="4"/>
       <c r="BU169" s="4"/>
       <c r="BV169" s="4"/>
       <c r="BW169" s="4"/>
-      <c r="BX169" s="4"/>
+      <c r="BX169" s="4">
+        <v>1</v>
+      </c>
       <c r="BY169" s="18"/>
     </row>
     <row r="170" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -28592,7 +29509,7 @@
       </c>
       <c r="B171" s="11">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C171" s="17">
         <v>1</v>
@@ -28710,30 +29627,64 @@
       <c r="AZ171" s="18">
         <v>1</v>
       </c>
-      <c r="BA171" s="17"/>
-      <c r="BB171" s="3"/>
+      <c r="BA171" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB171" s="3">
+        <v>1</v>
+      </c>
       <c r="BC171" s="3"/>
       <c r="BD171" s="3"/>
-      <c r="BE171" s="3"/>
-      <c r="BF171" s="3"/>
+      <c r="BE171" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="BF171" s="3">
+        <v>1</v>
+      </c>
       <c r="BG171" s="3"/>
-      <c r="BH171" s="3"/>
+      <c r="BH171" s="3">
+        <v>1</v>
+      </c>
       <c r="BI171" s="3"/>
-      <c r="BJ171" s="3"/>
-      <c r="BK171" s="3"/>
-      <c r="BL171" s="3"/>
-      <c r="BM171" s="4"/>
-      <c r="BN171" s="4"/>
-      <c r="BO171" s="4"/>
-      <c r="BP171" s="4"/>
-      <c r="BQ171" s="4"/>
+      <c r="BJ171" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK171" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL171" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ171" s="4">
+        <v>1</v>
+      </c>
       <c r="BR171" s="4"/>
-      <c r="BS171" s="4"/>
+      <c r="BS171" s="4">
+        <v>1</v>
+      </c>
       <c r="BT171" s="4"/>
       <c r="BU171" s="4"/>
-      <c r="BV171" s="4"/>
-      <c r="BW171" s="4"/>
-      <c r="BX171" s="4"/>
+      <c r="BV171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW171" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX171" s="4">
+        <v>1</v>
+      </c>
       <c r="BY171" s="18"/>
     </row>
     <row r="172" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -28742,7 +29693,7 @@
       </c>
       <c r="B172" s="11">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C172" s="17">
         <v>1</v>
@@ -28927,28 +29878,42 @@
       <c r="BM172" s="4">
         <v>1</v>
       </c>
-      <c r="BN172" s="4"/>
+      <c r="BN172" s="4">
+        <v>1</v>
+      </c>
       <c r="BO172" s="4">
         <v>1</v>
       </c>
-      <c r="BP172" s="4"/>
-      <c r="BQ172" s="4"/>
+      <c r="BP172" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ172" s="4">
+        <v>1</v>
+      </c>
       <c r="BR172" s="4">
         <v>1</v>
       </c>
       <c r="BS172" s="4">
         <v>1</v>
       </c>
-      <c r="BT172" s="4"/>
-      <c r="BU172" s="4"/>
-      <c r="BV172" s="4"/>
+      <c r="BT172" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU172" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV172" s="4">
+        <v>1</v>
+      </c>
       <c r="BW172" s="4">
         <v>1</v>
       </c>
       <c r="BX172" s="4">
         <v>1</v>
       </c>
-      <c r="BY172" s="18"/>
+      <c r="BY172" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="12" t="s">
@@ -29352,7 +30317,7 @@
       </c>
       <c r="B175" s="11">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C175" s="17">
         <v>1</v>
@@ -29503,8 +30468,12 @@
       <c r="BO175" s="4">
         <v>1</v>
       </c>
-      <c r="BP175" s="4"/>
-      <c r="BQ175" s="4"/>
+      <c r="BP175" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ175" s="4">
+        <v>1</v>
+      </c>
       <c r="BR175" s="4"/>
       <c r="BS175" s="4">
         <v>1</v>
@@ -29526,7 +30495,7 @@
       </c>
       <c r="B176" s="11">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C176" s="17">
         <v>1</v>
@@ -29662,18 +30631,38 @@
       <c r="AZ176" s="18">
         <v>1</v>
       </c>
-      <c r="BA176" s="17"/>
-      <c r="BB176" s="3"/>
-      <c r="BC176" s="3"/>
+      <c r="BA176" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB176" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC176" s="3">
+        <v>1</v>
+      </c>
       <c r="BD176" s="3"/>
-      <c r="BE176" s="3"/>
-      <c r="BF176" s="3"/>
-      <c r="BG176" s="3"/>
-      <c r="BH176" s="3"/>
+      <c r="BE176" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF176" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG176" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH176" s="3">
+        <v>1</v>
+      </c>
       <c r="BI176" s="3"/>
-      <c r="BJ176" s="3"/>
-      <c r="BK176" s="3"/>
-      <c r="BL176" s="3"/>
+      <c r="BJ176" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK176" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL176" s="3">
+        <v>1</v>
+      </c>
       <c r="BM176" s="4">
         <v>1</v>
       </c>
@@ -29708,7 +30697,9 @@
       <c r="BX176" s="4">
         <v>1</v>
       </c>
-      <c r="BY176" s="18"/>
+      <c r="BY176" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
@@ -30080,7 +31071,7 @@
       </c>
       <c r="B179" s="11">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C179" s="17">
         <v>1</v>
@@ -30246,18 +31237,38 @@
       <c r="BL179" s="7">
         <v>1</v>
       </c>
-      <c r="BM179" s="8"/>
-      <c r="BN179" s="8"/>
-      <c r="BO179" s="8"/>
-      <c r="BP179" s="8"/>
-      <c r="BQ179" s="8"/>
-      <c r="BR179" s="8"/>
-      <c r="BS179" s="8"/>
+      <c r="BM179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BO179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BP179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS179" s="8">
+        <v>1</v>
+      </c>
       <c r="BT179" s="8"/>
-      <c r="BU179" s="8"/>
-      <c r="BV179" s="8"/>
+      <c r="BU179" s="8">
+        <v>1</v>
+      </c>
+      <c r="BV179" s="8">
+        <v>1</v>
+      </c>
       <c r="BW179" s="8"/>
-      <c r="BX179" s="8"/>
+      <c r="BX179" s="8">
+        <v>1</v>
+      </c>
       <c r="BY179" s="21"/>
     </row>
     <row r="180" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -30400,7 +31411,7 @@
       </c>
       <c r="B181" s="11">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C181" s="17">
         <v>1</v>
@@ -30570,19 +31581,43 @@
       <c r="BL181" s="3">
         <v>1</v>
       </c>
-      <c r="BM181" s="4"/>
-      <c r="BN181" s="4"/>
-      <c r="BO181" s="4"/>
-      <c r="BP181" s="4"/>
-      <c r="BQ181" s="4"/>
+      <c r="BM181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ181" s="4">
+        <v>1</v>
+      </c>
       <c r="BR181" s="4"/>
-      <c r="BS181" s="4"/>
-      <c r="BT181" s="4"/>
-      <c r="BU181" s="4"/>
-      <c r="BV181" s="4"/>
-      <c r="BW181" s="4"/>
-      <c r="BX181" s="4"/>
-      <c r="BY181" s="18"/>
+      <c r="BS181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX181" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY181" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
@@ -30590,7 +31625,7 @@
       </c>
       <c r="B182" s="11">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C182" s="17">
         <v>1</v>
@@ -30742,18 +31777,36 @@
       <c r="BL182" s="3">
         <v>1</v>
       </c>
-      <c r="BM182" s="4"/>
-      <c r="BN182" s="4"/>
-      <c r="BO182" s="4"/>
-      <c r="BP182" s="4"/>
-      <c r="BQ182" s="4"/>
+      <c r="BM182" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN182" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO182" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP182" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ182" s="4">
+        <v>1</v>
+      </c>
       <c r="BR182" s="4"/>
-      <c r="BS182" s="4"/>
+      <c r="BS182" s="4">
+        <v>1</v>
+      </c>
       <c r="BT182" s="4"/>
-      <c r="BU182" s="4"/>
+      <c r="BU182" s="4">
+        <v>1</v>
+      </c>
       <c r="BV182" s="4"/>
-      <c r="BW182" s="4"/>
-      <c r="BX182" s="4"/>
+      <c r="BW182" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX182" s="4">
+        <v>1</v>
+      </c>
       <c r="BY182" s="18"/>
     </row>
     <row r="183" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -30762,7 +31815,7 @@
       </c>
       <c r="B183" s="11">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C183" s="17"/>
       <c r="D183" s="3"/>
@@ -30830,18 +31883,32 @@
       <c r="AZ183" s="18">
         <v>1</v>
       </c>
-      <c r="BA183" s="17"/>
-      <c r="BB183" s="3"/>
+      <c r="BA183" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB183" s="3">
+        <v>1</v>
+      </c>
       <c r="BC183" s="3"/>
       <c r="BD183" s="3"/>
-      <c r="BE183" s="3"/>
+      <c r="BE183" s="3">
+        <v>1</v>
+      </c>
       <c r="BF183" s="3"/>
       <c r="BG183" s="3"/>
-      <c r="BH183" s="3"/>
+      <c r="BH183" s="3">
+        <v>1</v>
+      </c>
       <c r="BI183" s="3"/>
-      <c r="BJ183" s="3"/>
-      <c r="BK183" s="3"/>
-      <c r="BL183" s="3"/>
+      <c r="BJ183" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK183" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL183" s="3">
+        <v>1</v>
+      </c>
       <c r="BM183" s="4"/>
       <c r="BN183" s="4"/>
       <c r="BO183" s="4">
@@ -31096,7 +32163,7 @@
       </c>
       <c r="B186" s="11">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C186" s="17">
         <v>1</v>
@@ -31214,18 +32281,38 @@
       <c r="AZ186" s="18">
         <v>1</v>
       </c>
-      <c r="BA186" s="17"/>
-      <c r="BB186" s="3"/>
-      <c r="BC186" s="3"/>
+      <c r="BA186" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB186" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC186" s="3">
+        <v>1</v>
+      </c>
       <c r="BD186" s="3"/>
-      <c r="BE186" s="3"/>
-      <c r="BF186" s="3"/>
-      <c r="BG186" s="3"/>
-      <c r="BH186" s="3"/>
+      <c r="BE186" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF186" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG186" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH186" s="3">
+        <v>1</v>
+      </c>
       <c r="BI186" s="3"/>
-      <c r="BJ186" s="3"/>
-      <c r="BK186" s="3"/>
-      <c r="BL186" s="3"/>
+      <c r="BJ186" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK186" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL186" s="3">
+        <v>1</v>
+      </c>
       <c r="BM186" s="4">
         <v>1</v>
       </c>
@@ -31928,7 +33015,7 @@
       </c>
       <c r="B192" s="11">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C192" s="17">
         <v>1</v>
@@ -32090,19 +33177,37 @@
       <c r="BL192" s="3">
         <v>1</v>
       </c>
-      <c r="BM192" s="4"/>
+      <c r="BM192" s="4">
+        <v>1</v>
+      </c>
       <c r="BN192" s="4"/>
-      <c r="BO192" s="4"/>
-      <c r="BP192" s="4"/>
-      <c r="BQ192" s="4"/>
+      <c r="BO192" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP192" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ192" s="4">
+        <v>1</v>
+      </c>
       <c r="BR192" s="4"/>
-      <c r="BS192" s="4"/>
+      <c r="BS192" s="4">
+        <v>1</v>
+      </c>
       <c r="BT192" s="4"/>
       <c r="BU192" s="4"/>
-      <c r="BV192" s="4"/>
-      <c r="BW192" s="4"/>
-      <c r="BX192" s="4"/>
-      <c r="BY192" s="18"/>
+      <c r="BV192" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW192" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX192" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY192" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="12" t="s">
@@ -32110,7 +33215,7 @@
       </c>
       <c r="B193" s="11">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C193" s="17">
         <v>1</v>
@@ -32214,7 +33319,9 @@
       <c r="AZ193" s="18">
         <v>1</v>
       </c>
-      <c r="BA193" s="17"/>
+      <c r="BA193" s="17">
+        <v>1</v>
+      </c>
       <c r="BB193" s="3">
         <v>1</v>
       </c>
@@ -32226,7 +33333,9 @@
       <c r="BF193" s="3">
         <v>1</v>
       </c>
-      <c r="BG193" s="3"/>
+      <c r="BG193" s="3">
+        <v>1</v>
+      </c>
       <c r="BH193" s="3">
         <v>1</v>
       </c>
@@ -32600,7 +33709,7 @@
       </c>
       <c r="B196" s="11">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C196" s="17">
         <v>1</v>
@@ -32722,7 +33831,9 @@
       <c r="AZ196" s="18">
         <v>1</v>
       </c>
-      <c r="BA196" s="17"/>
+      <c r="BA196" s="17">
+        <v>1</v>
+      </c>
       <c r="BB196" s="3">
         <v>1</v>
       </c>
@@ -33290,7 +34401,7 @@
       </c>
       <c r="B201" s="11">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C201" s="17">
         <v>1</v>
@@ -33420,16 +34531,26 @@
       </c>
       <c r="BM201" s="4"/>
       <c r="BN201" s="4"/>
-      <c r="BO201" s="4"/>
-      <c r="BP201" s="4"/>
+      <c r="BO201" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP201" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ201" s="4"/>
       <c r="BR201" s="4"/>
-      <c r="BS201" s="4"/>
+      <c r="BS201" s="4">
+        <v>1</v>
+      </c>
       <c r="BT201" s="4"/>
       <c r="BU201" s="4"/>
       <c r="BV201" s="4"/>
-      <c r="BW201" s="4"/>
-      <c r="BX201" s="4"/>
+      <c r="BW201" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX201" s="4">
+        <v>1</v>
+      </c>
       <c r="BY201" s="18"/>
     </row>
     <row r="202" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -33438,7 +34559,7 @@
       </c>
       <c r="B202" s="11">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C202" s="17">
         <v>1</v>
@@ -33591,14 +34712,20 @@
       <c r="BO202" s="4">
         <v>1</v>
       </c>
-      <c r="BP202" s="4"/>
-      <c r="BQ202" s="4"/>
+      <c r="BP202" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ202" s="4">
+        <v>1</v>
+      </c>
       <c r="BR202" s="4"/>
       <c r="BS202" s="4">
         <v>1</v>
       </c>
       <c r="BT202" s="4"/>
-      <c r="BU202" s="4"/>
+      <c r="BU202" s="4">
+        <v>1</v>
+      </c>
       <c r="BV202" s="4"/>
       <c r="BW202" s="4">
         <v>1</v>
@@ -34666,7 +35793,7 @@
       </c>
       <c r="B210" s="11">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C210" s="17">
         <v>1</v>
@@ -34804,18 +35931,32 @@
       <c r="BL210" s="3">
         <v>1</v>
       </c>
-      <c r="BM210" s="4"/>
+      <c r="BM210" s="4">
+        <v>1</v>
+      </c>
       <c r="BN210" s="4"/>
-      <c r="BO210" s="4"/>
-      <c r="BP210" s="4"/>
-      <c r="BQ210" s="4"/>
+      <c r="BO210" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP210" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ210" s="4">
+        <v>1</v>
+      </c>
       <c r="BR210" s="4"/>
       <c r="BS210" s="4"/>
       <c r="BT210" s="4"/>
-      <c r="BU210" s="4"/>
+      <c r="BU210" s="4">
+        <v>1</v>
+      </c>
       <c r="BV210" s="4"/>
-      <c r="BW210" s="4"/>
-      <c r="BX210" s="4"/>
+      <c r="BW210" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX210" s="4">
+        <v>1</v>
+      </c>
       <c r="BY210" s="18"/>
     </row>
     <row r="211" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -34824,7 +35965,7 @@
       </c>
       <c r="B211" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C211" s="17">
         <v>1</v>
@@ -34948,18 +36089,34 @@
       <c r="BL211" s="3">
         <v>1</v>
       </c>
-      <c r="BM211" s="4"/>
-      <c r="BN211" s="4"/>
-      <c r="BO211" s="4"/>
-      <c r="BP211" s="4"/>
-      <c r="BQ211" s="4"/>
+      <c r="BM211" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN211" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO211" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP211" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ211" s="4">
+        <v>1</v>
+      </c>
       <c r="BR211" s="4"/>
-      <c r="BS211" s="4"/>
+      <c r="BS211" s="4">
+        <v>1</v>
+      </c>
       <c r="BT211" s="4"/>
       <c r="BU211" s="4"/>
       <c r="BV211" s="4"/>
-      <c r="BW211" s="4"/>
-      <c r="BX211" s="4"/>
+      <c r="BW211" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX211" s="4">
+        <v>1</v>
+      </c>
       <c r="BY211" s="18"/>
     </row>
     <row r="212" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -35416,7 +36573,7 @@
       </c>
       <c r="B215" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C215" s="17"/>
       <c r="D215" s="3"/>
@@ -35499,15 +36656,21 @@
       <c r="BM215" s="4"/>
       <c r="BN215" s="4"/>
       <c r="BO215" s="4"/>
-      <c r="BP215" s="4"/>
+      <c r="BP215" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ215" s="4"/>
       <c r="BR215" s="4"/>
       <c r="BS215" s="4"/>
       <c r="BT215" s="4"/>
       <c r="BU215" s="4"/>
       <c r="BV215" s="4"/>
-      <c r="BW215" s="4"/>
-      <c r="BX215" s="4"/>
+      <c r="BW215" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX215" s="4">
+        <v>1</v>
+      </c>
       <c r="BY215" s="18"/>
     </row>
     <row r="216" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -35516,7 +36679,7 @@
       </c>
       <c r="B216" s="11">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C216" s="22">
         <v>1</v>
@@ -35654,17 +36817,25 @@
         <v>1</v>
       </c>
       <c r="BL216" s="3"/>
-      <c r="BM216" s="4"/>
+      <c r="BM216" s="4">
+        <v>1</v>
+      </c>
       <c r="BN216" s="4"/>
       <c r="BO216" s="4">
         <v>1</v>
       </c>
-      <c r="BP216" s="4"/>
-      <c r="BQ216" s="4"/>
+      <c r="BP216" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ216" s="4">
+        <v>1</v>
+      </c>
       <c r="BR216" s="4"/>
       <c r="BS216" s="4"/>
       <c r="BT216" s="4"/>
-      <c r="BU216" s="4"/>
+      <c r="BU216" s="4">
+        <v>1</v>
+      </c>
       <c r="BV216" s="4"/>
       <c r="BW216" s="4">
         <v>1</v>
@@ -35800,7 +36971,7 @@
       </c>
       <c r="B218" s="11">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C218" s="17">
         <v>1</v>
@@ -35960,18 +37131,36 @@
       <c r="BL218" s="3">
         <v>1</v>
       </c>
-      <c r="BM218" s="4"/>
-      <c r="BN218" s="4"/>
-      <c r="BO218" s="4"/>
-      <c r="BP218" s="4"/>
-      <c r="BQ218" s="4"/>
+      <c r="BM218" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN218" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO218" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP218" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ218" s="4">
+        <v>1</v>
+      </c>
       <c r="BR218" s="4"/>
-      <c r="BS218" s="4"/>
+      <c r="BS218" s="4">
+        <v>1</v>
+      </c>
       <c r="BT218" s="4"/>
-      <c r="BU218" s="4"/>
+      <c r="BU218" s="4">
+        <v>1</v>
+      </c>
       <c r="BV218" s="4"/>
-      <c r="BW218" s="4"/>
-      <c r="BX218" s="4"/>
+      <c r="BW218" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX218" s="4">
+        <v>1</v>
+      </c>
       <c r="BY218" s="18"/>
     </row>
     <row r="219" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -36502,7 +37691,7 @@
       </c>
       <c r="B222" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C222" s="17"/>
       <c r="D222" s="3"/>
@@ -36598,18 +37787,40 @@
       <c r="AZ222" s="18">
         <v>1</v>
       </c>
-      <c r="BA222" s="17"/>
-      <c r="BB222" s="3"/>
-      <c r="BC222" s="3"/>
+      <c r="BA222" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC222" s="3">
+        <v>1</v>
+      </c>
       <c r="BD222" s="3"/>
-      <c r="BE222" s="3"/>
-      <c r="BF222" s="3"/>
-      <c r="BG222" s="3"/>
-      <c r="BH222" s="3"/>
-      <c r="BI222" s="3"/>
-      <c r="BJ222" s="3"/>
-      <c r="BK222" s="3"/>
-      <c r="BL222" s="3"/>
+      <c r="BE222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK222" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL222" s="3">
+        <v>1</v>
+      </c>
       <c r="BM222" s="4">
         <v>1</v>
       </c>
@@ -36846,7 +38057,7 @@
       </c>
       <c r="B224" s="11">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C224" s="17">
         <v>1</v>
@@ -37024,18 +38235,30 @@
       <c r="BL224" s="3">
         <v>1</v>
       </c>
-      <c r="BM224" s="4"/>
+      <c r="BM224" s="4">
+        <v>1</v>
+      </c>
       <c r="BN224" s="4"/>
-      <c r="BO224" s="4"/>
+      <c r="BO224" s="4">
+        <v>1</v>
+      </c>
       <c r="BP224" s="4"/>
       <c r="BQ224" s="4"/>
       <c r="BR224" s="4"/>
-      <c r="BS224" s="4"/>
-      <c r="BT224" s="4"/>
+      <c r="BS224" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT224" s="4">
+        <v>1</v>
+      </c>
       <c r="BU224" s="4"/>
       <c r="BV224" s="4"/>
-      <c r="BW224" s="4"/>
-      <c r="BX224" s="4"/>
+      <c r="BW224" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX224" s="4">
+        <v>1</v>
+      </c>
       <c r="BY224" s="18"/>
     </row>
     <row r="225" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -38042,43 +39265,21 @@
       </c>
       <c r="B230" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C230" s="17">
-        <v>1</v>
-      </c>
-      <c r="D230" s="3">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C230" s="17"/>
+      <c r="D230" s="3"/>
       <c r="E230" s="3"/>
-      <c r="F230" s="3">
-        <v>1</v>
-      </c>
-      <c r="G230" s="3">
-        <v>1</v>
-      </c>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="3">
-        <v>1</v>
-      </c>
-      <c r="J230" s="3">
-        <v>1</v>
-      </c>
-      <c r="K230" s="3">
-        <v>1</v>
-      </c>
-      <c r="L230" s="3">
-        <v>1</v>
-      </c>
-      <c r="M230" s="3">
-        <v>1</v>
-      </c>
-      <c r="N230" s="3">
-        <v>1</v>
-      </c>
-      <c r="O230" s="3">
-        <v>1</v>
-      </c>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
       <c r="P230" s="4">
         <v>1</v>
       </c>
@@ -38136,17 +39337,31 @@
       <c r="AZ230" s="18">
         <v>1</v>
       </c>
-      <c r="BA230" s="17"/>
+      <c r="BA230" s="17">
+        <v>1</v>
+      </c>
       <c r="BB230" s="3"/>
       <c r="BC230" s="3"/>
       <c r="BD230" s="3"/>
-      <c r="BE230" s="3"/>
-      <c r="BF230" s="3"/>
-      <c r="BG230" s="3"/>
-      <c r="BH230" s="3"/>
+      <c r="BE230" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF230" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG230" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH230" s="3">
+        <v>1</v>
+      </c>
       <c r="BI230" s="3"/>
-      <c r="BJ230" s="3"/>
-      <c r="BK230" s="3"/>
+      <c r="BJ230" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK230" s="3">
+        <v>1</v>
+      </c>
       <c r="BL230" s="3"/>
       <c r="BM230" s="4"/>
       <c r="BN230" s="4"/>
@@ -38388,7 +39603,7 @@
       </c>
       <c r="B232" s="11">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C232" s="17">
         <v>1</v>
@@ -38556,18 +39771,34 @@
       <c r="BL232" s="3">
         <v>1</v>
       </c>
-      <c r="BM232" s="4"/>
+      <c r="BM232" s="4">
+        <v>1</v>
+      </c>
       <c r="BN232" s="4"/>
-      <c r="BO232" s="4"/>
-      <c r="BP232" s="4"/>
-      <c r="BQ232" s="4"/>
+      <c r="BO232" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP232" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ232" s="4">
+        <v>1</v>
+      </c>
       <c r="BR232" s="4"/>
-      <c r="BS232" s="4"/>
+      <c r="BS232" s="4">
+        <v>1</v>
+      </c>
       <c r="BT232" s="4"/>
       <c r="BU232" s="4"/>
-      <c r="BV232" s="4"/>
-      <c r="BW232" s="4"/>
-      <c r="BX232" s="4"/>
+      <c r="BV232" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW232" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX232" s="4">
+        <v>1</v>
+      </c>
       <c r="BY232" s="18"/>
     </row>
     <row r="233" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
@@ -38576,7 +39807,7 @@
       </c>
       <c r="B233" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C233" s="17">
         <v>1</v>
@@ -38678,18 +39909,34 @@
       <c r="AZ233" s="18">
         <v>1</v>
       </c>
-      <c r="BA233" s="17"/>
-      <c r="BB233" s="3"/>
+      <c r="BA233" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB233" s="3">
+        <v>1</v>
+      </c>
       <c r="BC233" s="3"/>
       <c r="BD233" s="3"/>
-      <c r="BE233" s="3"/>
-      <c r="BF233" s="3"/>
+      <c r="BE233" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF233" s="3">
+        <v>1</v>
+      </c>
       <c r="BG233" s="3"/>
-      <c r="BH233" s="3"/>
+      <c r="BH233" s="3">
+        <v>1</v>
+      </c>
       <c r="BI233" s="3"/>
-      <c r="BJ233" s="3"/>
-      <c r="BK233" s="3"/>
-      <c r="BL233" s="3"/>
+      <c r="BJ233" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK233" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL233" s="3">
+        <v>1</v>
+      </c>
       <c r="BM233" s="4">
         <v>1</v>
       </c>
@@ -39524,7 +40771,7 @@
       </c>
       <c r="B238" s="11">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C238" s="17">
         <v>1</v>
@@ -39656,18 +40903,40 @@
       <c r="AZ238" s="18">
         <v>1</v>
       </c>
-      <c r="BA238" s="17"/>
-      <c r="BB238" s="3"/>
-      <c r="BC238" s="3"/>
+      <c r="BA238" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC238" s="3">
+        <v>1</v>
+      </c>
       <c r="BD238" s="3"/>
-      <c r="BE238" s="3"/>
-      <c r="BF238" s="3"/>
-      <c r="BG238" s="3"/>
-      <c r="BH238" s="3"/>
-      <c r="BI238" s="3"/>
-      <c r="BJ238" s="3"/>
-      <c r="BK238" s="3"/>
-      <c r="BL238" s="3"/>
+      <c r="BE238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK238" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL238" s="3">
+        <v>1</v>
+      </c>
       <c r="BM238" s="4">
         <v>1</v>
       </c>
@@ -39710,7 +40979,7 @@
       </c>
       <c r="B239" s="11">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C239" s="17">
         <v>1</v>
@@ -39870,18 +41139,36 @@
       <c r="BL239" s="3">
         <v>1</v>
       </c>
-      <c r="BM239" s="4"/>
-      <c r="BN239" s="4"/>
-      <c r="BO239" s="4"/>
-      <c r="BP239" s="4"/>
+      <c r="BM239" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN239" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO239" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP239" s="4">
+        <v>1</v>
+      </c>
       <c r="BQ239" s="4"/>
       <c r="BR239" s="4"/>
-      <c r="BS239" s="4"/>
+      <c r="BS239" s="4">
+        <v>1</v>
+      </c>
       <c r="BT239" s="4"/>
-      <c r="BU239" s="4"/>
-      <c r="BV239" s="4"/>
-      <c r="BW239" s="4"/>
-      <c r="BX239" s="4"/>
+      <c r="BU239" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV239" s="4">
+        <v>1</v>
+      </c>
+      <c r="BW239" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX239" s="4">
+        <v>1</v>
+      </c>
       <c r="BY239" s="18"/>
     </row>
     <row r="240" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">

--- a/assets/score/bxb-template.xlsx
+++ b/assets/score/bxb-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWRCh\OneDrive\Desktop\gitproject\bxbscore\assets\score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520B33F-0D88-4276-82A5-1BB24AC17C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D73B883-A2AD-404C-9806-076353A0940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{7F520E0E-A91E-45B5-A85D-62EFB1C3D427}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AA196" authorId="0" shapeId="0" xr:uid="{E4C17234-8AA5-454E-B132-83664949ED27}">
+    <comment ref="AA196" authorId="0" shapeId="0" xr:uid="{30F122C3-03BD-48AF-A375-8DFBE443D188}">
       <text>
         <r>
           <rPr>
@@ -1339,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1374,11 +1374,44 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1727,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FD4630-A43E-4101-88FC-4337AD741BC4}">
   <dimension ref="A1:CX240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:CX240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2423,7 +2456,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -2610,16 +2643,28 @@
       <c r="CK4" s="3">
         <v>2</v>
       </c>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
+      <c r="CL4" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM4" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO4" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP4" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ4" s="4"/>
       <c r="CR4" s="4"/>
       <c r="CS4" s="4"/>
       <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
+      <c r="CU4" s="4">
+        <v>2</v>
+      </c>
       <c r="CV4" s="4"/>
       <c r="CW4" s="4"/>
       <c r="CX4" s="18"/>
@@ -2630,7 +2675,7 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -2809,18 +2854,34 @@
         <v>1</v>
       </c>
       <c r="BY5" s="18"/>
-      <c r="BZ5" s="17"/>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
+      <c r="BZ5" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>2</v>
+      </c>
       <c r="CC5" s="3"/>
       <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
+      <c r="CE5" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>2</v>
+      </c>
       <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
+      <c r="CH5" s="3">
+        <v>2</v>
+      </c>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="3"/>
+      <c r="CJ5" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>2</v>
+      </c>
       <c r="CL5" s="4">
         <v>2</v>
       </c>
@@ -2855,7 +2916,7 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -3026,28 +3087,56 @@
         <v>1</v>
       </c>
       <c r="BY6" s="18"/>
-      <c r="BZ6" s="17"/>
+      <c r="BZ6" s="17">
+        <v>2</v>
+      </c>
       <c r="CA6" s="3"/>
-      <c r="CB6" s="3"/>
+      <c r="CB6" s="3">
+        <v>2</v>
+      </c>
       <c r="CC6" s="3"/>
       <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
+      <c r="CE6" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF6" s="3">
+        <v>2</v>
+      </c>
       <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
+      <c r="CH6" s="3">
+        <v>2</v>
+      </c>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
-      <c r="CK6" s="3"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CQ6" s="4"/>
+      <c r="CJ6" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK6" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL6" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM6" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN6" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ6" s="4">
+        <v>2</v>
+      </c>
       <c r="CR6" s="4"/>
       <c r="CS6" s="4"/>
       <c r="CT6" s="4"/>
-      <c r="CU6" s="4"/>
+      <c r="CU6" s="4">
+        <v>2</v>
+      </c>
       <c r="CV6" s="4"/>
       <c r="CW6" s="4"/>
       <c r="CX6" s="18"/>
@@ -3058,7 +3147,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="3"/>
@@ -3189,19 +3278,39 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
+      <c r="CL7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR7" s="4">
+        <v>2</v>
+      </c>
       <c r="CS7" s="4"/>
       <c r="CT7" s="4"/>
-      <c r="CU7" s="4"/>
+      <c r="CU7" s="4">
+        <v>2</v>
+      </c>
       <c r="CV7" s="4"/>
-      <c r="CW7" s="4"/>
-      <c r="CX7" s="18"/>
+      <c r="CW7" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX7" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
@@ -3209,7 +3318,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -3443,7 +3552,9 @@
       <c r="CB8" s="3">
         <v>2</v>
       </c>
-      <c r="CC8" s="3"/>
+      <c r="CC8" s="3">
+        <v>2</v>
+      </c>
       <c r="CD8" s="3">
         <v>2</v>
       </c>
@@ -3488,7 +3599,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="3"/>
@@ -3530,7 +3641,9 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
+      <c r="AK9" s="3">
+        <v>1</v>
+      </c>
       <c r="AL9" s="3">
         <v>1</v>
       </c>
@@ -3607,18 +3720,28 @@
         <v>1</v>
       </c>
       <c r="BY9" s="18"/>
-      <c r="BZ9" s="17"/>
+      <c r="BZ9" s="17">
+        <v>2</v>
+      </c>
       <c r="CA9" s="3"/>
       <c r="CB9" s="3"/>
       <c r="CC9" s="3"/>
       <c r="CD9" s="3"/>
-      <c r="CE9" s="3"/>
-      <c r="CF9" s="3"/>
+      <c r="CE9" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF9" s="3">
+        <v>2</v>
+      </c>
       <c r="CG9" s="3"/>
-      <c r="CH9" s="3"/>
+      <c r="CH9" s="3">
+        <v>2</v>
+      </c>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
-      <c r="CK9" s="3"/>
+      <c r="CK9" s="3">
+        <v>2</v>
+      </c>
       <c r="CL9" s="4">
         <v>2</v>
       </c>
@@ -3946,7 +4069,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -4020,9 +4143,7 @@
       <c r="AL11" s="3">
         <v>1</v>
       </c>
-      <c r="AM11" s="3">
-        <v>1</v>
-      </c>
+      <c r="AM11" s="3"/>
       <c r="AN11" s="3">
         <v>1</v>
       </c>
@@ -4165,7 +4286,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -4362,18 +4483,34 @@
       <c r="BY12" s="18">
         <v>1</v>
       </c>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
+      <c r="BZ12" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA12" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB12" s="3">
+        <v>2</v>
+      </c>
       <c r="CC12" s="3"/>
       <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
+      <c r="CE12" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF12" s="3">
+        <v>2</v>
+      </c>
       <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
+      <c r="CH12" s="3">
+        <v>2</v>
+      </c>
       <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-      <c r="CK12" s="3"/>
+      <c r="CJ12" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK12" s="3">
+        <v>2</v>
+      </c>
       <c r="CL12" s="4">
         <v>2</v>
       </c>
@@ -4663,7 +4800,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -4788,18 +4925,28 @@
       <c r="BW14" s="4"/>
       <c r="BX14" s="4"/>
       <c r="BY14" s="18"/>
-      <c r="BZ14" s="17"/>
+      <c r="BZ14" s="17">
+        <v>2</v>
+      </c>
       <c r="CA14" s="3"/>
-      <c r="CB14" s="3"/>
+      <c r="CB14" s="3">
+        <v>2</v>
+      </c>
       <c r="CC14" s="3"/>
       <c r="CD14" s="3"/>
       <c r="CE14" s="3"/>
       <c r="CF14" s="3"/>
       <c r="CG14" s="3"/>
-      <c r="CH14" s="3"/>
+      <c r="CH14" s="3">
+        <v>2</v>
+      </c>
       <c r="CI14" s="3"/>
-      <c r="CJ14" s="3"/>
-      <c r="CK14" s="3"/>
+      <c r="CJ14" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK14" s="3">
+        <v>2</v>
+      </c>
       <c r="CL14" s="4"/>
       <c r="CM14" s="4"/>
       <c r="CN14" s="4"/>
@@ -4820,7 +4967,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -5067,19 +5214,37 @@
       <c r="CK15" s="3">
         <v>2</v>
       </c>
-      <c r="CL15" s="4"/>
-      <c r="CM15" s="4"/>
-      <c r="CN15" s="4"/>
+      <c r="CL15" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM15" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN15" s="4">
+        <v>2</v>
+      </c>
       <c r="CO15" s="4"/>
       <c r="CP15" s="4"/>
-      <c r="CQ15" s="4"/>
-      <c r="CR15" s="4"/>
-      <c r="CS15" s="4"/>
+      <c r="CQ15" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR15" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS15" s="4">
+        <v>2</v>
+      </c>
       <c r="CT15" s="4"/>
       <c r="CU15" s="4"/>
-      <c r="CV15" s="4"/>
-      <c r="CW15" s="4"/>
-      <c r="CX15" s="18"/>
+      <c r="CV15" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW15" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX15" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
@@ -5087,7 +5252,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -5262,16 +5427,28 @@
       <c r="CK16" s="3">
         <v>2</v>
       </c>
-      <c r="CL16" s="4"/>
-      <c r="CM16" s="4"/>
+      <c r="CL16" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM16" s="4">
+        <v>2</v>
+      </c>
       <c r="CN16" s="4"/>
-      <c r="CO16" s="4"/>
-      <c r="CP16" s="4"/>
+      <c r="CO16" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP16" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ16" s="4"/>
-      <c r="CR16" s="4"/>
+      <c r="CR16" s="4">
+        <v>2</v>
+      </c>
       <c r="CS16" s="4"/>
       <c r="CT16" s="4"/>
-      <c r="CU16" s="4"/>
+      <c r="CU16" s="4">
+        <v>2</v>
+      </c>
       <c r="CV16" s="4"/>
       <c r="CW16" s="4"/>
       <c r="CX16" s="18"/>
@@ -5282,7 +5459,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -5477,19 +5654,39 @@
       <c r="CK17" s="3">
         <v>2</v>
       </c>
-      <c r="CL17" s="4"/>
-      <c r="CM17" s="4"/>
-      <c r="CN17" s="4"/>
-      <c r="CO17" s="4"/>
-      <c r="CP17" s="4"/>
-      <c r="CQ17" s="4"/>
+      <c r="CL17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ17" s="4">
+        <v>2</v>
+      </c>
       <c r="CR17" s="4"/>
-      <c r="CS17" s="4"/>
-      <c r="CT17" s="4"/>
-      <c r="CU17" s="4"/>
+      <c r="CS17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT17" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU17" s="4">
+        <v>2</v>
+      </c>
       <c r="CV17" s="4"/>
       <c r="CW17" s="4"/>
-      <c r="CX17" s="18"/>
+      <c r="CX17" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -5497,7 +5694,7 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -5611,18 +5808,34 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
-      <c r="BP18" s="4"/>
-      <c r="BQ18" s="4"/>
+      <c r="BM18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="4">
+        <v>1</v>
+      </c>
       <c r="BR18" s="4"/>
       <c r="BS18" s="4"/>
       <c r="BT18" s="4"/>
-      <c r="BU18" s="4"/>
+      <c r="BU18" s="4">
+        <v>1</v>
+      </c>
       <c r="BV18" s="4"/>
-      <c r="BW18" s="4"/>
-      <c r="BX18" s="4"/>
+      <c r="BW18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX18" s="4">
+        <v>1</v>
+      </c>
       <c r="BY18" s="18"/>
       <c r="BZ18" s="17"/>
       <c r="CA18" s="3"/>
@@ -5636,16 +5849,28 @@
       <c r="CI18" s="3"/>
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
-      <c r="CL18" s="4"/>
-      <c r="CM18" s="4"/>
-      <c r="CN18" s="4"/>
-      <c r="CO18" s="4"/>
+      <c r="CL18" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM18" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN18" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO18" s="4">
+        <v>2</v>
+      </c>
       <c r="CP18" s="4"/>
-      <c r="CQ18" s="4"/>
+      <c r="CQ18" s="4">
+        <v>2</v>
+      </c>
       <c r="CR18" s="4"/>
       <c r="CS18" s="4"/>
       <c r="CT18" s="4"/>
-      <c r="CU18" s="4"/>
+      <c r="CU18" s="4">
+        <v>2</v>
+      </c>
       <c r="CV18" s="4"/>
       <c r="CW18" s="4"/>
       <c r="CX18" s="18"/>
@@ -5656,7 +5881,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -5867,19 +6092,45 @@
       <c r="CI19" s="3"/>
       <c r="CJ19" s="3"/>
       <c r="CK19" s="3"/>
-      <c r="CL19" s="4"/>
-      <c r="CM19" s="4"/>
-      <c r="CN19" s="4"/>
-      <c r="CO19" s="4"/>
-      <c r="CP19" s="4"/>
-      <c r="CQ19" s="4"/>
-      <c r="CR19" s="4"/>
-      <c r="CS19" s="4"/>
-      <c r="CT19" s="4"/>
-      <c r="CU19" s="4"/>
-      <c r="CV19" s="4"/>
-      <c r="CW19" s="4"/>
-      <c r="CX19" s="18"/>
+      <c r="CL19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW19" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX19" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
@@ -5887,7 +6138,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -6086,17 +6337,29 @@
       <c r="CK20" s="3">
         <v>2</v>
       </c>
-      <c r="CL20" s="4"/>
-      <c r="CM20" s="4"/>
-      <c r="CN20" s="4"/>
+      <c r="CL20" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM20" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN20" s="4">
+        <v>2</v>
+      </c>
       <c r="CO20" s="4"/>
       <c r="CP20" s="4"/>
-      <c r="CQ20" s="4"/>
+      <c r="CQ20" s="4">
+        <v>2</v>
+      </c>
       <c r="CR20" s="4"/>
-      <c r="CS20" s="4"/>
+      <c r="CS20" s="4">
+        <v>2</v>
+      </c>
       <c r="CT20" s="4"/>
       <c r="CU20" s="4"/>
-      <c r="CV20" s="4"/>
+      <c r="CV20" s="4">
+        <v>2</v>
+      </c>
       <c r="CW20" s="4"/>
       <c r="CX20" s="18"/>
     </row>
@@ -7318,7 +7581,7 @@
       </c>
       <c r="B27" s="11">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -7501,18 +7764,34 @@
         <v>1</v>
       </c>
       <c r="BY27" s="18"/>
-      <c r="BZ27" s="17"/>
-      <c r="CA27" s="3"/>
-      <c r="CB27" s="3"/>
+      <c r="BZ27" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA27" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB27" s="3">
+        <v>2</v>
+      </c>
       <c r="CC27" s="3"/>
       <c r="CD27" s="3"/>
-      <c r="CE27" s="3"/>
-      <c r="CF27" s="3"/>
+      <c r="CE27" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF27" s="3">
+        <v>2</v>
+      </c>
       <c r="CG27" s="3"/>
-      <c r="CH27" s="3"/>
+      <c r="CH27" s="3">
+        <v>2</v>
+      </c>
       <c r="CI27" s="3"/>
-      <c r="CJ27" s="3"/>
-      <c r="CK27" s="3"/>
+      <c r="CJ27" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK27" s="3">
+        <v>2</v>
+      </c>
       <c r="CL27" s="4"/>
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
@@ -7654,7 +7933,7 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C29" s="17">
         <v>1</v>
@@ -7871,18 +8150,38 @@
       <c r="BY29" s="18">
         <v>1</v>
       </c>
-      <c r="BZ29" s="17"/>
-      <c r="CA29" s="3"/>
-      <c r="CB29" s="3"/>
+      <c r="BZ29" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA29" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB29" s="3">
+        <v>2</v>
+      </c>
       <c r="CC29" s="3"/>
-      <c r="CD29" s="3"/>
-      <c r="CE29" s="3"/>
-      <c r="CF29" s="3"/>
-      <c r="CG29" s="3"/>
-      <c r="CH29" s="3"/>
+      <c r="CD29" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE29" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF29" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG29" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH29" s="3">
+        <v>2</v>
+      </c>
       <c r="CI29" s="3"/>
-      <c r="CJ29" s="3"/>
-      <c r="CK29" s="3"/>
+      <c r="CJ29" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK29" s="3">
+        <v>2</v>
+      </c>
       <c r="CL29" s="4"/>
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
@@ -7903,7 +8202,7 @@
       </c>
       <c r="B30" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C30" s="17">
         <v>1</v>
@@ -8104,17 +8403,25 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
-      <c r="CL30" s="4"/>
+      <c r="CL30" s="4">
+        <v>2</v>
+      </c>
       <c r="CM30" s="4"/>
-      <c r="CN30" s="4"/>
+      <c r="CN30" s="4">
+        <v>2</v>
+      </c>
       <c r="CO30" s="4"/>
       <c r="CP30" s="4"/>
       <c r="CQ30" s="4"/>
       <c r="CR30" s="4"/>
-      <c r="CS30" s="4"/>
+      <c r="CS30" s="4">
+        <v>2</v>
+      </c>
       <c r="CT30" s="4"/>
       <c r="CU30" s="4"/>
-      <c r="CV30" s="4"/>
+      <c r="CV30" s="4">
+        <v>2</v>
+      </c>
       <c r="CW30" s="4"/>
       <c r="CX30" s="18"/>
     </row>
@@ -8124,7 +8431,7 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C31" s="17">
         <v>1</v>
@@ -8247,16 +8554,26 @@
       <c r="CI31" s="3"/>
       <c r="CJ31" s="3"/>
       <c r="CK31" s="3"/>
-      <c r="CL31" s="4"/>
+      <c r="CL31" s="4">
+        <v>2</v>
+      </c>
       <c r="CM31" s="4"/>
-      <c r="CN31" s="4"/>
-      <c r="CO31" s="4"/>
-      <c r="CP31" s="4"/>
+      <c r="CN31" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO31" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP31" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ31" s="4"/>
       <c r="CR31" s="4"/>
       <c r="CS31" s="4"/>
       <c r="CT31" s="4"/>
-      <c r="CU31" s="4"/>
+      <c r="CU31" s="4">
+        <v>2</v>
+      </c>
       <c r="CV31" s="4"/>
       <c r="CW31" s="4"/>
       <c r="CX31" s="18"/>
@@ -8267,7 +8584,7 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C32" s="17">
         <v>1</v>
@@ -8474,19 +8791,45 @@
       <c r="CK32" s="3">
         <v>2</v>
       </c>
-      <c r="CL32" s="4"/>
-      <c r="CM32" s="4"/>
-      <c r="CN32" s="4"/>
-      <c r="CO32" s="4"/>
-      <c r="CP32" s="4"/>
-      <c r="CQ32" s="4"/>
-      <c r="CR32" s="4"/>
-      <c r="CS32" s="4"/>
-      <c r="CT32" s="4"/>
-      <c r="CU32" s="4"/>
-      <c r="CV32" s="4"/>
-      <c r="CW32" s="4"/>
-      <c r="CX32" s="18"/>
+      <c r="CL32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW32" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX32" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
@@ -8985,7 +9328,7 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C36" s="17">
         <v>1</v>
@@ -9144,16 +9487,30 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
-      <c r="CL36" s="4"/>
-      <c r="CM36" s="4"/>
-      <c r="CN36" s="4"/>
-      <c r="CO36" s="4"/>
-      <c r="CP36" s="4"/>
-      <c r="CQ36" s="4"/>
+      <c r="CL36" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM36" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN36" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO36" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP36" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ36" s="4">
+        <v>2</v>
+      </c>
       <c r="CR36" s="4"/>
       <c r="CS36" s="4"/>
       <c r="CT36" s="4"/>
-      <c r="CU36" s="4"/>
+      <c r="CU36" s="4">
+        <v>2</v>
+      </c>
       <c r="CV36" s="4"/>
       <c r="CW36" s="4"/>
       <c r="CX36" s="18"/>
@@ -9281,7 +9638,7 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C38" s="17">
         <v>1</v>
@@ -9446,29 +9803,59 @@
         <v>1</v>
       </c>
       <c r="BY38" s="18"/>
-      <c r="BZ38" s="17"/>
+      <c r="BZ38" s="17">
+        <v>2</v>
+      </c>
       <c r="CA38" s="3"/>
-      <c r="CB38" s="3"/>
+      <c r="CB38" s="3">
+        <v>2</v>
+      </c>
       <c r="CC38" s="3"/>
       <c r="CD38" s="3"/>
-      <c r="CE38" s="3"/>
-      <c r="CF38" s="3"/>
+      <c r="CE38" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF38" s="3">
+        <v>2</v>
+      </c>
       <c r="CG38" s="3"/>
-      <c r="CH38" s="3"/>
+      <c r="CH38" s="3">
+        <v>2</v>
+      </c>
       <c r="CI38" s="3"/>
-      <c r="CJ38" s="3"/>
-      <c r="CK38" s="3"/>
-      <c r="CL38" s="4"/>
-      <c r="CM38" s="4"/>
-      <c r="CN38" s="4"/>
-      <c r="CO38" s="4"/>
-      <c r="CP38" s="4"/>
-      <c r="CQ38" s="4"/>
-      <c r="CR38" s="4"/>
+      <c r="CJ38" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK38" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL38" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM38" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN38" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO38" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP38" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ38" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR38" s="4">
+        <v>2</v>
+      </c>
       <c r="CS38" s="4"/>
       <c r="CT38" s="4"/>
       <c r="CU38" s="4"/>
-      <c r="CV38" s="4"/>
+      <c r="CV38" s="4">
+        <v>2</v>
+      </c>
       <c r="CW38" s="4"/>
       <c r="CX38" s="18"/>
     </row>
@@ -9478,7 +9865,7 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C39" s="17">
         <v>1</v>
@@ -9625,19 +10012,43 @@
       <c r="CK39" s="3">
         <v>2</v>
       </c>
-      <c r="CL39" s="4"/>
-      <c r="CM39" s="4"/>
-      <c r="CN39" s="4"/>
-      <c r="CO39" s="4"/>
-      <c r="CP39" s="4"/>
-      <c r="CQ39" s="4"/>
-      <c r="CR39" s="4"/>
-      <c r="CS39" s="4"/>
-      <c r="CT39" s="4"/>
-      <c r="CU39" s="4"/>
+      <c r="CL39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU39" s="4">
+        <v>2</v>
+      </c>
       <c r="CV39" s="4"/>
-      <c r="CW39" s="4"/>
-      <c r="CX39" s="18"/>
+      <c r="CW39" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX39" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
@@ -9645,7 +10056,7 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C40" s="17">
         <v>1</v>
@@ -9876,19 +10287,41 @@
       <c r="CK40" s="3">
         <v>2</v>
       </c>
-      <c r="CL40" s="4"/>
-      <c r="CM40" s="4"/>
-      <c r="CN40" s="4"/>
-      <c r="CO40" s="4"/>
-      <c r="CP40" s="4"/>
-      <c r="CQ40" s="4"/>
-      <c r="CR40" s="4"/>
-      <c r="CS40" s="4"/>
+      <c r="CL40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS40" s="4">
+        <v>2</v>
+      </c>
       <c r="CT40" s="4"/>
-      <c r="CU40" s="4"/>
-      <c r="CV40" s="4"/>
+      <c r="CU40" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV40" s="4">
+        <v>2</v>
+      </c>
       <c r="CW40" s="4"/>
-      <c r="CX40" s="18"/>
+      <c r="CX40" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
@@ -10399,10 +10832,10 @@
       <c r="CF42" s="3">
         <v>2</v>
       </c>
-      <c r="CG42" s="3">
-        <v>2</v>
-      </c>
-      <c r="CH42" s="3"/>
+      <c r="CG42" s="3"/>
+      <c r="CH42" s="3">
+        <v>2</v>
+      </c>
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3">
         <v>2</v>
@@ -10545,7 +10978,7 @@
       </c>
       <c r="B44" s="11">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C44" s="17">
         <v>1</v>
@@ -10813,8 +11246,12 @@
       <c r="CN44" s="4">
         <v>2</v>
       </c>
-      <c r="CO44" s="4"/>
-      <c r="CP44" s="4"/>
+      <c r="CO44" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP44" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ44" s="4">
         <v>2</v>
       </c>
@@ -10824,8 +11261,12 @@
       <c r="CS44" s="4">
         <v>2</v>
       </c>
-      <c r="CT44" s="4"/>
-      <c r="CU44" s="4"/>
+      <c r="CT44" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU44" s="4">
+        <v>2</v>
+      </c>
       <c r="CV44" s="4">
         <v>2</v>
       </c>
@@ -11086,7 +11527,7 @@
       </c>
       <c r="B47" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="3"/>
@@ -11150,7 +11591,9 @@
       <c r="BH47" s="3"/>
       <c r="BI47" s="3"/>
       <c r="BJ47" s="3"/>
-      <c r="BK47" s="3"/>
+      <c r="BK47" s="3">
+        <v>1</v>
+      </c>
       <c r="BL47" s="3"/>
       <c r="BM47" s="4"/>
       <c r="BN47" s="4"/>
@@ -11478,7 +11921,7 @@
       </c>
       <c r="B49" s="11">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C49" s="17">
         <v>1</v>
@@ -11705,18 +12148,42 @@
       <c r="CK49" s="3">
         <v>2</v>
       </c>
-      <c r="CL49" s="4"/>
-      <c r="CM49" s="4"/>
-      <c r="CN49" s="4"/>
-      <c r="CO49" s="4"/>
-      <c r="CP49" s="4"/>
-      <c r="CQ49" s="4"/>
-      <c r="CR49" s="4"/>
-      <c r="CS49" s="4"/>
-      <c r="CT49" s="4"/>
-      <c r="CU49" s="4"/>
-      <c r="CV49" s="4"/>
-      <c r="CW49" s="4"/>
+      <c r="CL49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV49" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW49" s="4">
+        <v>2</v>
+      </c>
       <c r="CX49" s="18"/>
     </row>
     <row r="50" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
@@ -12668,7 +13135,7 @@
       </c>
       <c r="B55" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C55" s="17">
         <v>1</v>
@@ -12843,16 +13310,26 @@
       <c r="CK55" s="3">
         <v>2</v>
       </c>
-      <c r="CL55" s="4"/>
+      <c r="CL55" s="4">
+        <v>2</v>
+      </c>
       <c r="CM55" s="4"/>
-      <c r="CN55" s="4"/>
-      <c r="CO55" s="4"/>
+      <c r="CN55" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO55" s="4">
+        <v>2</v>
+      </c>
       <c r="CP55" s="4"/>
       <c r="CQ55" s="4"/>
       <c r="CR55" s="4"/>
-      <c r="CS55" s="4"/>
+      <c r="CS55" s="4">
+        <v>2</v>
+      </c>
       <c r="CT55" s="4"/>
-      <c r="CU55" s="4"/>
+      <c r="CU55" s="4">
+        <v>2</v>
+      </c>
       <c r="CV55" s="4"/>
       <c r="CW55" s="4"/>
       <c r="CX55" s="18"/>
@@ -13781,7 +14258,7 @@
       </c>
       <c r="B60" s="11">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C60" s="19">
         <v>1</v>
@@ -13922,24 +14399,46 @@
         <v>1</v>
       </c>
       <c r="BY60" s="20"/>
-      <c r="BZ60" s="19"/>
-      <c r="CA60" s="5"/>
-      <c r="CB60" s="5"/>
+      <c r="BZ60" s="19">
+        <v>2</v>
+      </c>
+      <c r="CA60" s="5">
+        <v>2</v>
+      </c>
+      <c r="CB60" s="5">
+        <v>2</v>
+      </c>
       <c r="CC60" s="5"/>
       <c r="CD60" s="5"/>
-      <c r="CE60" s="5"/>
-      <c r="CF60" s="5"/>
+      <c r="CE60" s="5">
+        <v>2</v>
+      </c>
+      <c r="CF60" s="5">
+        <v>2</v>
+      </c>
       <c r="CG60" s="5"/>
-      <c r="CH60" s="5"/>
+      <c r="CH60" s="5">
+        <v>2</v>
+      </c>
       <c r="CI60" s="5"/>
       <c r="CJ60" s="5"/>
-      <c r="CK60" s="5"/>
-      <c r="CL60" s="6"/>
-      <c r="CM60" s="6"/>
-      <c r="CN60" s="6"/>
+      <c r="CK60" s="5">
+        <v>2</v>
+      </c>
+      <c r="CL60" s="6">
+        <v>2</v>
+      </c>
+      <c r="CM60" s="6">
+        <v>2</v>
+      </c>
+      <c r="CN60" s="6">
+        <v>2</v>
+      </c>
       <c r="CO60" s="6"/>
       <c r="CP60" s="6"/>
-      <c r="CQ60" s="6"/>
+      <c r="CQ60" s="6">
+        <v>2</v>
+      </c>
       <c r="CR60" s="6"/>
       <c r="CS60" s="6"/>
       <c r="CT60" s="6"/>
@@ -14505,7 +15004,7 @@
       </c>
       <c r="B64" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="17">
         <v>1</v>
@@ -14565,7 +15064,9 @@
       <c r="AD64" s="3">
         <v>1</v>
       </c>
-      <c r="AE64" s="3"/>
+      <c r="AE64" s="3">
+        <v>1</v>
+      </c>
       <c r="AF64" s="3">
         <v>1</v>
       </c>
@@ -14722,7 +15223,7 @@
       </c>
       <c r="B65" s="11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C65" s="17">
         <v>1</v>
@@ -14901,31 +15402,79 @@
       <c r="BY65" s="18">
         <v>1</v>
       </c>
-      <c r="BZ65" s="17"/>
-      <c r="CA65" s="3"/>
-      <c r="CB65" s="3"/>
-      <c r="CC65" s="3"/>
-      <c r="CD65" s="3"/>
-      <c r="CE65" s="3"/>
-      <c r="CF65" s="3"/>
-      <c r="CG65" s="3"/>
-      <c r="CH65" s="3"/>
-      <c r="CI65" s="3"/>
-      <c r="CJ65" s="3"/>
-      <c r="CK65" s="3"/>
-      <c r="CL65" s="4"/>
-      <c r="CM65" s="4"/>
-      <c r="CN65" s="4"/>
-      <c r="CO65" s="4"/>
-      <c r="CP65" s="4"/>
-      <c r="CQ65" s="4"/>
-      <c r="CR65" s="4"/>
-      <c r="CS65" s="4"/>
+      <c r="BZ65" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CC65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CD65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK65" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS65" s="4">
+        <v>2</v>
+      </c>
       <c r="CT65" s="4"/>
-      <c r="CU65" s="4"/>
-      <c r="CV65" s="4"/>
-      <c r="CW65" s="4"/>
-      <c r="CX65" s="18"/>
+      <c r="CU65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW65" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX65" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
@@ -16332,7 +16881,7 @@
       </c>
       <c r="B73" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -16511,18 +17060,34 @@
         <v>1</v>
       </c>
       <c r="BY73" s="18"/>
-      <c r="BZ73" s="17"/>
-      <c r="CA73" s="3"/>
-      <c r="CB73" s="3"/>
+      <c r="BZ73" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA73" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB73" s="3">
+        <v>2</v>
+      </c>
       <c r="CC73" s="3"/>
       <c r="CD73" s="3"/>
-      <c r="CE73" s="3"/>
-      <c r="CF73" s="3"/>
+      <c r="CE73" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF73" s="3">
+        <v>2</v>
+      </c>
       <c r="CG73" s="3"/>
-      <c r="CH73" s="3"/>
+      <c r="CH73" s="3">
+        <v>2</v>
+      </c>
       <c r="CI73" s="3"/>
-      <c r="CJ73" s="3"/>
-      <c r="CK73" s="3"/>
+      <c r="CJ73" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK73" s="3">
+        <v>2</v>
+      </c>
       <c r="CL73" s="4">
         <v>2</v>
       </c>
@@ -16800,7 +17365,7 @@
       </c>
       <c r="B75" s="11">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -16955,16 +17520,28 @@
       <c r="BY75" s="18"/>
       <c r="BZ75" s="17"/>
       <c r="CA75" s="3"/>
-      <c r="CB75" s="3"/>
+      <c r="CB75" s="3">
+        <v>2</v>
+      </c>
       <c r="CC75" s="3"/>
       <c r="CD75" s="3"/>
-      <c r="CE75" s="3"/>
-      <c r="CF75" s="3"/>
+      <c r="CE75" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF75" s="3">
+        <v>2</v>
+      </c>
       <c r="CG75" s="3"/>
-      <c r="CH75" s="3"/>
+      <c r="CH75" s="3">
+        <v>2</v>
+      </c>
       <c r="CI75" s="3"/>
-      <c r="CJ75" s="3"/>
-      <c r="CK75" s="3"/>
+      <c r="CJ75" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK75" s="3">
+        <v>2</v>
+      </c>
       <c r="CL75" s="4"/>
       <c r="CM75" s="4"/>
       <c r="CN75" s="4"/>
@@ -17238,7 +17815,7 @@
       </c>
       <c r="B77" s="11">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -17430,17 +18007,31 @@
       </c>
       <c r="BY77" s="18"/>
       <c r="BZ77" s="17"/>
-      <c r="CA77" s="3"/>
-      <c r="CB77" s="3"/>
+      <c r="CA77" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB77" s="3">
+        <v>2</v>
+      </c>
       <c r="CC77" s="3"/>
       <c r="CD77" s="3"/>
-      <c r="CE77" s="3"/>
-      <c r="CF77" s="3"/>
+      <c r="CE77" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF77" s="3">
+        <v>2</v>
+      </c>
       <c r="CG77" s="3"/>
-      <c r="CH77" s="3"/>
+      <c r="CH77" s="3">
+        <v>2</v>
+      </c>
       <c r="CI77" s="3"/>
-      <c r="CJ77" s="3"/>
-      <c r="CK77" s="3"/>
+      <c r="CJ77" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK77" s="3">
+        <v>2</v>
+      </c>
       <c r="CL77" s="4">
         <v>2</v>
       </c>
@@ -17481,7 +18072,7 @@
       </c>
       <c r="B78" s="11">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -17595,7 +18186,9 @@
       <c r="CH78" s="3"/>
       <c r="CI78" s="3"/>
       <c r="CJ78" s="3"/>
-      <c r="CK78" s="3"/>
+      <c r="CK78" s="3">
+        <v>2</v>
+      </c>
       <c r="CL78" s="4"/>
       <c r="CM78" s="4"/>
       <c r="CN78" s="4"/>
@@ -18327,7 +18920,7 @@
       </c>
       <c r="B82" s="11">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C82" s="17">
         <v>1</v>
@@ -18552,19 +19145,33 @@
       <c r="CK82" s="3">
         <v>2</v>
       </c>
-      <c r="CL82" s="4"/>
-      <c r="CM82" s="4"/>
-      <c r="CN82" s="4"/>
+      <c r="CL82" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM82" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN82" s="4">
+        <v>2</v>
+      </c>
       <c r="CO82" s="4"/>
       <c r="CP82" s="4"/>
-      <c r="CQ82" s="4"/>
-      <c r="CR82" s="4"/>
+      <c r="CQ82" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR82" s="4">
+        <v>2</v>
+      </c>
       <c r="CS82" s="4"/>
       <c r="CT82" s="4"/>
       <c r="CU82" s="4"/>
       <c r="CV82" s="4"/>
-      <c r="CW82" s="4"/>
-      <c r="CX82" s="18"/>
+      <c r="CW82" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX82" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
@@ -18924,7 +19531,7 @@
       </c>
       <c r="B85" s="11">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="3"/>
@@ -19047,18 +19654,34 @@
         <v>1</v>
       </c>
       <c r="BY85" s="18"/>
-      <c r="BZ85" s="17"/>
-      <c r="CA85" s="3"/>
-      <c r="CB85" s="3"/>
+      <c r="BZ85" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA85" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB85" s="3">
+        <v>2</v>
+      </c>
       <c r="CC85" s="3"/>
       <c r="CD85" s="3"/>
-      <c r="CE85" s="3"/>
-      <c r="CF85" s="3"/>
+      <c r="CE85" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF85" s="3">
+        <v>2</v>
+      </c>
       <c r="CG85" s="3"/>
-      <c r="CH85" s="3"/>
+      <c r="CH85" s="3">
+        <v>2</v>
+      </c>
       <c r="CI85" s="3"/>
-      <c r="CJ85" s="3"/>
-      <c r="CK85" s="3"/>
+      <c r="CJ85" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK85" s="24">
+        <v>2</v>
+      </c>
       <c r="CL85" s="4">
         <v>2</v>
       </c>
@@ -19234,7 +19857,7 @@
       </c>
       <c r="B87" s="11">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C87" s="17">
         <v>1</v>
@@ -19371,31 +19994,61 @@
         <v>1</v>
       </c>
       <c r="BY87" s="18"/>
-      <c r="BZ87" s="17"/>
-      <c r="CA87" s="3"/>
-      <c r="CB87" s="3"/>
+      <c r="BZ87" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA87" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB87" s="3">
+        <v>2</v>
+      </c>
       <c r="CC87" s="3"/>
       <c r="CD87" s="3"/>
-      <c r="CE87" s="3"/>
-      <c r="CF87" s="3"/>
+      <c r="CE87" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF87" s="3">
+        <v>2</v>
+      </c>
       <c r="CG87" s="3"/>
-      <c r="CH87" s="3"/>
+      <c r="CH87" s="3">
+        <v>2</v>
+      </c>
       <c r="CI87" s="3"/>
-      <c r="CJ87" s="3"/>
-      <c r="CK87" s="3"/>
-      <c r="CL87" s="4"/>
-      <c r="CM87" s="4"/>
-      <c r="CN87" s="4"/>
+      <c r="CJ87" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK87" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL87" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM87" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN87" s="4">
+        <v>2</v>
+      </c>
       <c r="CO87" s="4"/>
       <c r="CP87" s="4"/>
-      <c r="CQ87" s="4"/>
-      <c r="CR87" s="4"/>
-      <c r="CS87" s="4"/>
+      <c r="CQ87" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR87" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS87" s="4">
+        <v>2</v>
+      </c>
       <c r="CT87" s="4"/>
       <c r="CU87" s="4"/>
       <c r="CV87" s="4"/>
       <c r="CW87" s="4"/>
-      <c r="CX87" s="18"/>
+      <c r="CX87" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
@@ -19542,7 +20195,7 @@
       </c>
       <c r="B89" s="11">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C89" s="17">
         <v>1</v>
@@ -19718,7 +20371,9 @@
       <c r="CN89" s="4">
         <v>2</v>
       </c>
-      <c r="CO89" s="4"/>
+      <c r="CO89" s="4">
+        <v>2</v>
+      </c>
       <c r="CP89" s="4"/>
       <c r="CQ89" s="4"/>
       <c r="CR89" s="4"/>
@@ -19726,7 +20381,9 @@
         <v>2</v>
       </c>
       <c r="CT89" s="4"/>
-      <c r="CU89" s="4"/>
+      <c r="CU89" s="4">
+        <v>2</v>
+      </c>
       <c r="CV89" s="4">
         <v>2</v>
       </c>
@@ -20024,7 +20681,7 @@
       </c>
       <c r="B91" s="11">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="3"/>
@@ -20233,19 +20890,43 @@
       <c r="CK91" s="3">
         <v>2</v>
       </c>
-      <c r="CL91" s="4"/>
-      <c r="CM91" s="4"/>
-      <c r="CN91" s="4"/>
-      <c r="CO91" s="4"/>
-      <c r="CP91" s="4"/>
-      <c r="CQ91" s="4"/>
-      <c r="CR91" s="4"/>
-      <c r="CS91" s="4"/>
+      <c r="CL91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS91" s="4">
+        <v>2</v>
+      </c>
       <c r="CT91" s="4"/>
-      <c r="CU91" s="4"/>
-      <c r="CV91" s="4"/>
-      <c r="CW91" s="4"/>
-      <c r="CX91" s="18"/>
+      <c r="CU91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW91" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX91" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
@@ -20253,7 +20934,7 @@
       </c>
       <c r="B92" s="11">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C92" s="17">
         <v>1</v>
@@ -20361,18 +21042,36 @@
       <c r="AZ92" s="18">
         <v>1</v>
       </c>
-      <c r="BA92" s="17"/>
-      <c r="BB92" s="3"/>
+      <c r="BA92" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB92" s="3">
+        <v>1</v>
+      </c>
       <c r="BC92" s="3"/>
       <c r="BD92" s="3"/>
-      <c r="BE92" s="3"/>
-      <c r="BF92" s="3"/>
-      <c r="BG92" s="3"/>
-      <c r="BH92" s="3"/>
+      <c r="BE92" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF92" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG92" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH92" s="3">
+        <v>1</v>
+      </c>
       <c r="BI92" s="3"/>
-      <c r="BJ92" s="3"/>
-      <c r="BK92" s="3"/>
-      <c r="BL92" s="3"/>
+      <c r="BJ92" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK92" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL92" s="3">
+        <v>1</v>
+      </c>
       <c r="BM92" s="4">
         <v>1</v>
       </c>
@@ -20400,28 +21099,58 @@
         <v>1</v>
       </c>
       <c r="BY92" s="18"/>
-      <c r="BZ92" s="17"/>
+      <c r="BZ92" s="17">
+        <v>2</v>
+      </c>
       <c r="CA92" s="3"/>
-      <c r="CB92" s="3"/>
+      <c r="CB92" s="3">
+        <v>2</v>
+      </c>
       <c r="CC92" s="3"/>
       <c r="CD92" s="3"/>
-      <c r="CE92" s="3"/>
-      <c r="CF92" s="3"/>
+      <c r="CE92" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF92" s="3">
+        <v>2</v>
+      </c>
       <c r="CG92" s="3"/>
-      <c r="CH92" s="3"/>
+      <c r="CH92" s="3">
+        <v>2</v>
+      </c>
       <c r="CI92" s="3"/>
-      <c r="CJ92" s="3"/>
-      <c r="CK92" s="3"/>
-      <c r="CL92" s="4"/>
-      <c r="CM92" s="4"/>
-      <c r="CN92" s="4"/>
-      <c r="CO92" s="4"/>
-      <c r="CP92" s="4"/>
-      <c r="CQ92" s="4"/>
+      <c r="CJ92" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK92" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL92" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM92" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN92" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO92" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP92" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ92" s="4">
+        <v>2</v>
+      </c>
       <c r="CR92" s="4"/>
-      <c r="CS92" s="4"/>
+      <c r="CS92" s="4">
+        <v>2</v>
+      </c>
       <c r="CT92" s="4"/>
-      <c r="CU92" s="4"/>
+      <c r="CU92" s="4">
+        <v>2</v>
+      </c>
       <c r="CV92" s="4"/>
       <c r="CW92" s="4"/>
       <c r="CX92" s="18"/>
@@ -20661,7 +21390,7 @@
       </c>
       <c r="B94" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C94" s="17">
         <v>1</v>
@@ -20822,28 +21551,56 @@
         <v>1</v>
       </c>
       <c r="BY94" s="18"/>
-      <c r="BZ94" s="17"/>
-      <c r="CA94" s="3"/>
-      <c r="CB94" s="3"/>
+      <c r="BZ94" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA94" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB94" s="3">
+        <v>2</v>
+      </c>
       <c r="CC94" s="3"/>
       <c r="CD94" s="3"/>
-      <c r="CE94" s="3"/>
-      <c r="CF94" s="3"/>
+      <c r="CE94" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF94" s="3">
+        <v>2</v>
+      </c>
       <c r="CG94" s="3"/>
-      <c r="CH94" s="3"/>
+      <c r="CH94" s="3">
+        <v>2</v>
+      </c>
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
-      <c r="CK94" s="3"/>
-      <c r="CL94" s="4"/>
-      <c r="CM94" s="4"/>
-      <c r="CN94" s="4"/>
-      <c r="CO94" s="4"/>
-      <c r="CP94" s="4"/>
-      <c r="CQ94" s="4"/>
+      <c r="CK94" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL94" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM94" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN94" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO94" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP94" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ94" s="4">
+        <v>2</v>
+      </c>
       <c r="CR94" s="4"/>
       <c r="CS94" s="4"/>
       <c r="CT94" s="4"/>
-      <c r="CU94" s="4"/>
+      <c r="CU94" s="4">
+        <v>2</v>
+      </c>
       <c r="CV94" s="4"/>
       <c r="CW94" s="4"/>
       <c r="CX94" s="18"/>
@@ -20854,7 +21611,7 @@
       </c>
       <c r="B95" s="11">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="3"/>
@@ -20979,26 +21736,62 @@
         <v>1</v>
       </c>
       <c r="BY95" s="18"/>
-      <c r="BZ95" s="17"/>
-      <c r="CA95" s="3"/>
-      <c r="CB95" s="3"/>
+      <c r="BZ95" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB95" s="3">
+        <v>2</v>
+      </c>
       <c r="CC95" s="3"/>
-      <c r="CD95" s="3"/>
-      <c r="CE95" s="3"/>
-      <c r="CF95" s="3"/>
-      <c r="CG95" s="3"/>
-      <c r="CH95" s="3"/>
+      <c r="CD95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH95" s="3">
+        <v>2</v>
+      </c>
       <c r="CI95" s="3"/>
-      <c r="CJ95" s="3"/>
-      <c r="CK95" s="3"/>
-      <c r="CL95" s="4"/>
-      <c r="CM95" s="4"/>
-      <c r="CN95" s="4"/>
-      <c r="CO95" s="4"/>
-      <c r="CP95" s="4"/>
-      <c r="CQ95" s="4"/>
-      <c r="CR95" s="4"/>
-      <c r="CS95" s="4"/>
+      <c r="CJ95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK95" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR95" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS95" s="4">
+        <v>2</v>
+      </c>
       <c r="CT95" s="4"/>
       <c r="CU95" s="4"/>
       <c r="CV95" s="4"/>
@@ -21011,7 +21804,7 @@
       </c>
       <c r="B96" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C96" s="17">
         <v>1</v>
@@ -21039,7 +21832,9 @@
       <c r="N96" s="3">
         <v>1</v>
       </c>
-      <c r="O96" s="3"/>
+      <c r="O96" s="3">
+        <v>1</v>
+      </c>
       <c r="P96" s="4">
         <v>1</v>
       </c>
@@ -21172,28 +21967,60 @@
         <v>1</v>
       </c>
       <c r="BY96" s="18"/>
-      <c r="BZ96" s="17"/>
-      <c r="CA96" s="3"/>
-      <c r="CB96" s="3"/>
+      <c r="BZ96" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA96" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB96" s="3">
+        <v>2</v>
+      </c>
       <c r="CC96" s="3"/>
       <c r="CD96" s="3"/>
-      <c r="CE96" s="3"/>
-      <c r="CF96" s="3"/>
+      <c r="CE96" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF96" s="3">
+        <v>2</v>
+      </c>
       <c r="CG96" s="3"/>
-      <c r="CH96" s="3"/>
+      <c r="CH96" s="3">
+        <v>2</v>
+      </c>
       <c r="CI96" s="3"/>
-      <c r="CJ96" s="3"/>
-      <c r="CK96" s="3"/>
-      <c r="CL96" s="4"/>
-      <c r="CM96" s="4"/>
-      <c r="CN96" s="4"/>
-      <c r="CO96" s="4"/>
-      <c r="CP96" s="4"/>
-      <c r="CQ96" s="4"/>
+      <c r="CJ96" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK96" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL96" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM96" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN96" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO96" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP96" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ96" s="4">
+        <v>2</v>
+      </c>
       <c r="CR96" s="4"/>
       <c r="CS96" s="4"/>
-      <c r="CT96" s="4"/>
-      <c r="CU96" s="4"/>
+      <c r="CT96" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU96" s="4">
+        <v>2</v>
+      </c>
       <c r="CV96" s="4"/>
       <c r="CW96" s="4"/>
       <c r="CX96" s="18"/>
@@ -21331,7 +22158,7 @@
       </c>
       <c r="B98" s="11">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C98" s="17">
         <v>1</v>
@@ -21540,14 +22367,24 @@
       <c r="CK98" s="3">
         <v>2</v>
       </c>
-      <c r="CL98" s="4"/>
-      <c r="CM98" s="4"/>
-      <c r="CN98" s="4"/>
+      <c r="CL98" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM98" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN98" s="4">
+        <v>2</v>
+      </c>
       <c r="CO98" s="4"/>
       <c r="CP98" s="4"/>
-      <c r="CQ98" s="4"/>
+      <c r="CQ98" s="4">
+        <v>2</v>
+      </c>
       <c r="CR98" s="4"/>
-      <c r="CS98" s="4"/>
+      <c r="CS98" s="4">
+        <v>2</v>
+      </c>
       <c r="CT98" s="4"/>
       <c r="CU98" s="4"/>
       <c r="CV98" s="4"/>
@@ -21560,7 +22397,7 @@
       </c>
       <c r="B99" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C99" s="17">
         <v>1</v>
@@ -21779,19 +22616,37 @@
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
-      <c r="CL99" s="4"/>
-      <c r="CM99" s="4"/>
-      <c r="CN99" s="4"/>
+      <c r="CL99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN99" s="4">
+        <v>2</v>
+      </c>
       <c r="CO99" s="4"/>
       <c r="CP99" s="4"/>
-      <c r="CQ99" s="4"/>
-      <c r="CR99" s="4"/>
-      <c r="CS99" s="4"/>
+      <c r="CQ99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS99" s="4">
+        <v>2</v>
+      </c>
       <c r="CT99" s="4"/>
       <c r="CU99" s="4"/>
-      <c r="CV99" s="4"/>
-      <c r="CW99" s="4"/>
-      <c r="CX99" s="18"/>
+      <c r="CV99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX99" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
@@ -21799,7 +22654,7 @@
       </c>
       <c r="B100" s="11">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C100" s="17">
         <v>1</v>
@@ -21990,18 +22845,36 @@
         <v>1</v>
       </c>
       <c r="BY100" s="18"/>
-      <c r="BZ100" s="17"/>
-      <c r="CA100" s="3"/>
-      <c r="CB100" s="3"/>
+      <c r="BZ100" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA100" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB100" s="3">
+        <v>2</v>
+      </c>
       <c r="CC100" s="3"/>
-      <c r="CD100" s="3"/>
-      <c r="CE100" s="3"/>
-      <c r="CF100" s="3"/>
+      <c r="CD100" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE100" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF100" s="3">
+        <v>2</v>
+      </c>
       <c r="CG100" s="3"/>
-      <c r="CH100" s="3"/>
+      <c r="CH100" s="3">
+        <v>2</v>
+      </c>
       <c r="CI100" s="3"/>
-      <c r="CJ100" s="3"/>
-      <c r="CK100" s="3"/>
+      <c r="CJ100" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK100" s="3">
+        <v>2</v>
+      </c>
       <c r="CL100" s="4">
         <v>2</v>
       </c>
@@ -22589,7 +23462,7 @@
       </c>
       <c r="B104" s="11">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C104" s="17">
         <v>1</v>
@@ -22805,9 +23678,13 @@
         <v>2</v>
       </c>
       <c r="CT104" s="4"/>
-      <c r="CU104" s="4"/>
+      <c r="CU104" s="4">
+        <v>2</v>
+      </c>
       <c r="CV104" s="4"/>
-      <c r="CW104" s="4"/>
+      <c r="CW104" s="4">
+        <v>2</v>
+      </c>
       <c r="CX104" s="18"/>
     </row>
     <row r="105" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
@@ -23585,7 +24462,7 @@
       </c>
       <c r="B110" s="11">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C110" s="17">
         <v>1</v>
@@ -23750,12 +24627,20 @@
       <c r="CI110" s="3"/>
       <c r="CJ110" s="3"/>
       <c r="CK110" s="3"/>
-      <c r="CL110" s="4"/>
-      <c r="CM110" s="4"/>
-      <c r="CN110" s="4"/>
+      <c r="CL110" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM110" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN110" s="4">
+        <v>2</v>
+      </c>
       <c r="CO110" s="4"/>
       <c r="CP110" s="4"/>
-      <c r="CQ110" s="4"/>
+      <c r="CQ110" s="4">
+        <v>2</v>
+      </c>
       <c r="CR110" s="4"/>
       <c r="CS110" s="4"/>
       <c r="CT110" s="4"/>
@@ -23770,7 +24655,7 @@
       </c>
       <c r="B111" s="11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C111" s="17">
         <v>1</v>
@@ -23945,28 +24830,62 @@
       <c r="BY111" s="18"/>
       <c r="BZ111" s="17"/>
       <c r="CA111" s="3"/>
-      <c r="CB111" s="3"/>
+      <c r="CB111" s="3">
+        <v>2</v>
+      </c>
       <c r="CC111" s="3"/>
       <c r="CD111" s="3"/>
-      <c r="CE111" s="3"/>
+      <c r="CE111" s="3">
+        <v>2</v>
+      </c>
       <c r="CF111" s="3"/>
       <c r="CG111" s="3"/>
-      <c r="CH111" s="3"/>
+      <c r="CH111" s="3">
+        <v>2</v>
+      </c>
       <c r="CI111" s="3"/>
-      <c r="CJ111" s="3"/>
-      <c r="CK111" s="3"/>
-      <c r="CL111" s="4"/>
-      <c r="CM111" s="4"/>
-      <c r="CN111" s="4"/>
-      <c r="CO111" s="4"/>
-      <c r="CP111" s="4"/>
-      <c r="CQ111" s="4"/>
-      <c r="CR111" s="4"/>
-      <c r="CS111" s="4"/>
-      <c r="CT111" s="4"/>
-      <c r="CU111" s="4"/>
-      <c r="CV111" s="4"/>
-      <c r="CW111" s="4"/>
+      <c r="CJ111" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK111" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV111" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW111" s="4">
+        <v>2</v>
+      </c>
       <c r="CX111" s="18"/>
     </row>
     <row r="112" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
@@ -24727,7 +25646,7 @@
       </c>
       <c r="B116" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C116" s="17">
         <v>1</v>
@@ -24844,19 +25763,37 @@
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
-      <c r="CL116" s="4"/>
-      <c r="CM116" s="4"/>
-      <c r="CN116" s="4"/>
+      <c r="CL116" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM116" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN116" s="4">
+        <v>2</v>
+      </c>
       <c r="CO116" s="4"/>
       <c r="CP116" s="4"/>
-      <c r="CQ116" s="4"/>
-      <c r="CR116" s="4"/>
-      <c r="CS116" s="4"/>
+      <c r="CQ116" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR116" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS116" s="4">
+        <v>2</v>
+      </c>
       <c r="CT116" s="4"/>
       <c r="CU116" s="4"/>
-      <c r="CV116" s="4"/>
-      <c r="CW116" s="4"/>
-      <c r="CX116" s="18"/>
+      <c r="CV116" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW116" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX116" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
@@ -25216,7 +26153,7 @@
       </c>
       <c r="B119" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C119" s="17">
         <v>1</v>
@@ -25377,21 +26314,29 @@
         <v>1</v>
       </c>
       <c r="BY119" s="18"/>
-      <c r="BZ119" s="17"/>
+      <c r="BZ119" s="17">
+        <v>2</v>
+      </c>
       <c r="CA119" s="3"/>
       <c r="CB119" s="3">
         <v>2</v>
       </c>
       <c r="CC119" s="3"/>
       <c r="CD119" s="3"/>
-      <c r="CE119" s="3"/>
-      <c r="CF119" s="3"/>
+      <c r="CE119" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF119" s="3">
+        <v>2</v>
+      </c>
       <c r="CG119" s="3"/>
       <c r="CH119" s="3">
         <v>2</v>
       </c>
       <c r="CI119" s="3"/>
-      <c r="CJ119" s="3"/>
+      <c r="CJ119" s="3">
+        <v>2</v>
+      </c>
       <c r="CK119" s="3">
         <v>2</v>
       </c>
@@ -25894,7 +26839,7 @@
       </c>
       <c r="B123" s="11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C123" s="17">
         <v>1</v>
@@ -26067,28 +27012,54 @@
         <v>1</v>
       </c>
       <c r="BY123" s="18"/>
-      <c r="BZ123" s="17"/>
+      <c r="BZ123" s="17">
+        <v>2</v>
+      </c>
       <c r="CA123" s="3"/>
-      <c r="CB123" s="3"/>
+      <c r="CB123" s="3">
+        <v>2</v>
+      </c>
       <c r="CC123" s="3"/>
       <c r="CD123" s="3"/>
-      <c r="CE123" s="3"/>
-      <c r="CF123" s="3"/>
+      <c r="CE123" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF123" s="3">
+        <v>2</v>
+      </c>
       <c r="CG123" s="3"/>
-      <c r="CH123" s="3"/>
+      <c r="CH123" s="3">
+        <v>2</v>
+      </c>
       <c r="CI123" s="3"/>
-      <c r="CJ123" s="3"/>
-      <c r="CK123" s="3"/>
-      <c r="CL123" s="4"/>
-      <c r="CM123" s="4"/>
-      <c r="CN123" s="4"/>
-      <c r="CO123" s="4"/>
-      <c r="CP123" s="4"/>
+      <c r="CJ123" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK123" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL123" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM123" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN123" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO123" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP123" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ123" s="4"/>
       <c r="CR123" s="4"/>
       <c r="CS123" s="4"/>
       <c r="CT123" s="4"/>
-      <c r="CU123" s="4"/>
+      <c r="CU123" s="4">
+        <v>2</v>
+      </c>
       <c r="CV123" s="4"/>
       <c r="CW123" s="4"/>
       <c r="CX123" s="18"/>
@@ -26284,7 +27255,7 @@
       </c>
       <c r="B125" s="11">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C125" s="17">
         <v>1</v>
@@ -26407,16 +27378,24 @@
       <c r="BY125" s="18"/>
       <c r="BZ125" s="17"/>
       <c r="CA125" s="3"/>
-      <c r="CB125" s="3"/>
+      <c r="CB125" s="3">
+        <v>2</v>
+      </c>
       <c r="CC125" s="3"/>
       <c r="CD125" s="3"/>
-      <c r="CE125" s="3"/>
+      <c r="CE125" s="3">
+        <v>2</v>
+      </c>
       <c r="CF125" s="3"/>
       <c r="CG125" s="3"/>
-      <c r="CH125" s="3"/>
+      <c r="CH125" s="3">
+        <v>2</v>
+      </c>
       <c r="CI125" s="3"/>
       <c r="CJ125" s="3"/>
-      <c r="CK125" s="3"/>
+      <c r="CK125" s="3">
+        <v>2</v>
+      </c>
       <c r="CL125" s="4"/>
       <c r="CM125" s="4"/>
       <c r="CN125" s="4"/>
@@ -26437,7 +27416,7 @@
       </c>
       <c r="B126" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C126" s="17">
         <v>1</v>
@@ -26596,26 +27575,48 @@
       <c r="BY126" s="18"/>
       <c r="BZ126" s="17"/>
       <c r="CA126" s="3"/>
-      <c r="CB126" s="3"/>
+      <c r="CB126" s="3">
+        <v>2</v>
+      </c>
       <c r="CC126" s="3"/>
       <c r="CD126" s="3"/>
-      <c r="CE126" s="3"/>
-      <c r="CF126" s="3"/>
+      <c r="CE126" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF126" s="3">
+        <v>2</v>
+      </c>
       <c r="CG126" s="3"/>
-      <c r="CH126" s="3"/>
+      <c r="CH126" s="3">
+        <v>2</v>
+      </c>
       <c r="CI126" s="3"/>
-      <c r="CJ126" s="3"/>
-      <c r="CK126" s="3"/>
-      <c r="CL126" s="4"/>
+      <c r="CJ126" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK126" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL126" s="4">
+        <v>2</v>
+      </c>
       <c r="CM126" s="4"/>
-      <c r="CN126" s="4"/>
-      <c r="CO126" s="4"/>
-      <c r="CP126" s="4"/>
+      <c r="CN126" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO126" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP126" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ126" s="4"/>
       <c r="CR126" s="4"/>
       <c r="CS126" s="4"/>
       <c r="CT126" s="4"/>
-      <c r="CU126" s="4"/>
+      <c r="CU126" s="4">
+        <v>2</v>
+      </c>
       <c r="CV126" s="4"/>
       <c r="CW126" s="4"/>
       <c r="CX126" s="18"/>
@@ -26626,7 +27627,7 @@
       </c>
       <c r="B127" s="11">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C127" s="17">
         <v>1</v>
@@ -26789,16 +27790,32 @@
       <c r="CK127" s="3">
         <v>2</v>
       </c>
-      <c r="CL127" s="4"/>
-      <c r="CM127" s="4"/>
+      <c r="CL127" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM127" s="4">
+        <v>2</v>
+      </c>
       <c r="CN127" s="4"/>
-      <c r="CO127" s="4"/>
-      <c r="CP127" s="4"/>
-      <c r="CQ127" s="4"/>
-      <c r="CR127" s="4"/>
+      <c r="CO127" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP127" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ127" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR127" s="4">
+        <v>2</v>
+      </c>
       <c r="CS127" s="4"/>
-      <c r="CT127" s="4"/>
-      <c r="CU127" s="4"/>
+      <c r="CT127" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU127" s="4">
+        <v>2</v>
+      </c>
       <c r="CV127" s="4"/>
       <c r="CW127" s="4"/>
       <c r="CX127" s="18"/>
@@ -27169,7 +28186,7 @@
       </c>
       <c r="B130" s="11">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C130" s="17">
         <v>1</v>
@@ -27308,18 +28325,32 @@
         <v>1</v>
       </c>
       <c r="BY130" s="18"/>
-      <c r="BZ130" s="17"/>
+      <c r="BZ130" s="17">
+        <v>2</v>
+      </c>
       <c r="CA130" s="3"/>
-      <c r="CB130" s="3"/>
+      <c r="CB130" s="3">
+        <v>2</v>
+      </c>
       <c r="CC130" s="3"/>
       <c r="CD130" s="3"/>
-      <c r="CE130" s="3"/>
-      <c r="CF130" s="3"/>
+      <c r="CE130" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF130" s="3">
+        <v>2</v>
+      </c>
       <c r="CG130" s="3"/>
-      <c r="CH130" s="3"/>
+      <c r="CH130" s="3">
+        <v>2</v>
+      </c>
       <c r="CI130" s="3"/>
-      <c r="CJ130" s="3"/>
-      <c r="CK130" s="3"/>
+      <c r="CJ130" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK130" s="3">
+        <v>2</v>
+      </c>
       <c r="CL130" s="4"/>
       <c r="CM130" s="4"/>
       <c r="CN130" s="4"/>
@@ -27340,7 +28371,7 @@
       </c>
       <c r="B131" s="11">
         <f t="shared" ref="B131:B194" si="2">SUM(C131:CX131)</f>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C131" s="17">
         <v>1</v>
@@ -27521,16 +28552,30 @@
       <c r="CK131" s="3">
         <v>2</v>
       </c>
-      <c r="CL131" s="4"/>
-      <c r="CM131" s="4"/>
-      <c r="CN131" s="4"/>
-      <c r="CO131" s="4"/>
-      <c r="CP131" s="4"/>
-      <c r="CQ131" s="4"/>
+      <c r="CL131" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM131" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN131" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO131" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP131" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ131" s="4">
+        <v>2</v>
+      </c>
       <c r="CR131" s="4"/>
       <c r="CS131" s="4"/>
       <c r="CT131" s="4"/>
-      <c r="CU131" s="4"/>
+      <c r="CU131" s="4">
+        <v>2</v>
+      </c>
       <c r="CV131" s="4"/>
       <c r="CW131" s="4"/>
       <c r="CX131" s="18"/>
@@ -27760,7 +28805,7 @@
       </c>
       <c r="B133" s="11">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C133" s="17">
         <v>1</v>
@@ -27991,19 +29036,37 @@
       <c r="CK133" s="3">
         <v>2</v>
       </c>
-      <c r="CL133" s="4"/>
-      <c r="CM133" s="4"/>
-      <c r="CN133" s="4"/>
+      <c r="CL133" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM133" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN133" s="4">
+        <v>2</v>
+      </c>
       <c r="CO133" s="4"/>
       <c r="CP133" s="4"/>
-      <c r="CQ133" s="4"/>
-      <c r="CR133" s="4"/>
-      <c r="CS133" s="4"/>
+      <c r="CQ133" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR133" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS133" s="4">
+        <v>2</v>
+      </c>
       <c r="CT133" s="4"/>
       <c r="CU133" s="4"/>
-      <c r="CV133" s="4"/>
-      <c r="CW133" s="4"/>
-      <c r="CX133" s="18"/>
+      <c r="CV133" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW133" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX133" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
@@ -28011,7 +29074,7 @@
       </c>
       <c r="B134" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C134" s="17"/>
       <c r="D134" s="3"/>
@@ -28098,18 +29161,30 @@
       <c r="BW134" s="4"/>
       <c r="BX134" s="4"/>
       <c r="BY134" s="18"/>
-      <c r="BZ134" s="17"/>
+      <c r="BZ134" s="17">
+        <v>2</v>
+      </c>
       <c r="CA134" s="3"/>
-      <c r="CB134" s="3"/>
+      <c r="CB134" s="3">
+        <v>2</v>
+      </c>
       <c r="CC134" s="3"/>
       <c r="CD134" s="3"/>
-      <c r="CE134" s="3"/>
-      <c r="CF134" s="3"/>
+      <c r="CE134" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF134" s="3">
+        <v>2</v>
+      </c>
       <c r="CG134" s="3"/>
-      <c r="CH134" s="3"/>
+      <c r="CH134" s="3">
+        <v>2</v>
+      </c>
       <c r="CI134" s="3"/>
       <c r="CJ134" s="3"/>
-      <c r="CK134" s="3"/>
+      <c r="CK134" s="3">
+        <v>2</v>
+      </c>
       <c r="CL134" s="4"/>
       <c r="CM134" s="4"/>
       <c r="CN134" s="4"/>
@@ -29314,7 +30389,7 @@
       </c>
       <c r="B141" s="11">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C141" s="17">
         <v>1</v>
@@ -29465,16 +30540,26 @@
       <c r="CK141" s="3">
         <v>2</v>
       </c>
-      <c r="CL141" s="4"/>
+      <c r="CL141" s="4">
+        <v>2</v>
+      </c>
       <c r="CM141" s="4"/>
-      <c r="CN141" s="4"/>
-      <c r="CO141" s="4"/>
-      <c r="CP141" s="4"/>
+      <c r="CN141" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO141" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP141" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ141" s="4"/>
       <c r="CR141" s="4"/>
       <c r="CS141" s="4"/>
       <c r="CT141" s="4"/>
-      <c r="CU141" s="4"/>
+      <c r="CU141" s="4">
+        <v>2</v>
+      </c>
       <c r="CV141" s="4"/>
       <c r="CW141" s="4"/>
       <c r="CX141" s="18"/>
@@ -30389,7 +31474,7 @@
       </c>
       <c r="B146" s="11">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C146" s="17">
         <v>1</v>
@@ -30578,17 +31663,31 @@
       <c r="CI146" s="3"/>
       <c r="CJ146" s="3"/>
       <c r="CK146" s="3"/>
-      <c r="CL146" s="4"/>
-      <c r="CM146" s="4"/>
-      <c r="CN146" s="4"/>
+      <c r="CL146" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM146" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN146" s="4">
+        <v>2</v>
+      </c>
       <c r="CO146" s="4"/>
-      <c r="CP146" s="4"/>
-      <c r="CQ146" s="4"/>
+      <c r="CP146" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ146" s="4">
+        <v>2</v>
+      </c>
       <c r="CR146" s="4"/>
-      <c r="CS146" s="4"/>
+      <c r="CS146" s="4">
+        <v>2</v>
+      </c>
       <c r="CT146" s="4"/>
       <c r="CU146" s="4"/>
-      <c r="CV146" s="4"/>
+      <c r="CV146" s="4">
+        <v>2</v>
+      </c>
       <c r="CW146" s="4"/>
       <c r="CX146" s="18"/>
     </row>
@@ -31492,7 +32591,7 @@
       </c>
       <c r="B151" s="11">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C151" s="17">
         <v>1</v>
@@ -31676,7 +32775,9 @@
       </c>
       <c r="CI151" s="3"/>
       <c r="CJ151" s="3"/>
-      <c r="CK151" s="3"/>
+      <c r="CK151" s="3">
+        <v>2</v>
+      </c>
       <c r="CL151" s="4">
         <v>2</v>
       </c>
@@ -31707,7 +32808,7 @@
       </c>
       <c r="B152" s="11">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C152" s="17">
         <v>1</v>
@@ -31912,18 +33013,38 @@
       <c r="BY152" s="18">
         <v>1</v>
       </c>
-      <c r="BZ152" s="17"/>
-      <c r="CA152" s="3"/>
-      <c r="CB152" s="3"/>
+      <c r="BZ152" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA152" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB152" s="3">
+        <v>2</v>
+      </c>
       <c r="CC152" s="3"/>
-      <c r="CD152" s="3"/>
-      <c r="CE152" s="3"/>
-      <c r="CF152" s="3"/>
-      <c r="CG152" s="3"/>
-      <c r="CH152" s="3"/>
+      <c r="CD152" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE152" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF152" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG152" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH152" s="3">
+        <v>2</v>
+      </c>
       <c r="CI152" s="3"/>
-      <c r="CJ152" s="3"/>
-      <c r="CK152" s="3"/>
+      <c r="CJ152" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK152" s="3">
+        <v>2</v>
+      </c>
       <c r="CL152" s="4"/>
       <c r="CM152" s="4"/>
       <c r="CN152" s="4"/>
@@ -32322,7 +33443,7 @@
       </c>
       <c r="B155" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C155" s="17"/>
       <c r="D155" s="3"/>
@@ -32439,29 +33560,55 @@
         <v>1</v>
       </c>
       <c r="BY155" s="18"/>
-      <c r="BZ155" s="17"/>
+      <c r="BZ155" s="17">
+        <v>2</v>
+      </c>
       <c r="CA155" s="3"/>
-      <c r="CB155" s="3"/>
+      <c r="CB155" s="3">
+        <v>2</v>
+      </c>
       <c r="CC155" s="3"/>
       <c r="CD155" s="3"/>
       <c r="CE155" s="3"/>
-      <c r="CF155" s="3"/>
+      <c r="CF155" s="3">
+        <v>2</v>
+      </c>
       <c r="CG155" s="3"/>
-      <c r="CH155" s="3"/>
+      <c r="CH155" s="3">
+        <v>2</v>
+      </c>
       <c r="CI155" s="3"/>
-      <c r="CJ155" s="3"/>
-      <c r="CK155" s="3"/>
-      <c r="CL155" s="4"/>
-      <c r="CM155" s="4"/>
-      <c r="CN155" s="4"/>
-      <c r="CO155" s="4"/>
-      <c r="CP155" s="4"/>
-      <c r="CQ155" s="4"/>
+      <c r="CJ155" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK155" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL155" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM155" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN155" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO155" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP155" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ155" s="4">
+        <v>2</v>
+      </c>
       <c r="CR155" s="4"/>
       <c r="CS155" s="4"/>
       <c r="CT155" s="4"/>
       <c r="CU155" s="4"/>
-      <c r="CV155" s="4"/>
+      <c r="CV155" s="4">
+        <v>2</v>
+      </c>
       <c r="CW155" s="4"/>
       <c r="CX155" s="18"/>
     </row>
@@ -33941,7 +35088,7 @@
       </c>
       <c r="B162" s="11">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C162" s="17">
         <v>1</v>
@@ -34126,18 +35273,36 @@
         <v>1</v>
       </c>
       <c r="BY162" s="18"/>
-      <c r="BZ162" s="17"/>
-      <c r="CA162" s="3"/>
-      <c r="CB162" s="3"/>
+      <c r="BZ162" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA162" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB162" s="3">
+        <v>2</v>
+      </c>
       <c r="CC162" s="3"/>
-      <c r="CD162" s="3"/>
-      <c r="CE162" s="3"/>
-      <c r="CF162" s="3"/>
+      <c r="CD162" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE162" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF162" s="3">
+        <v>2</v>
+      </c>
       <c r="CG162" s="3"/>
-      <c r="CH162" s="3"/>
+      <c r="CH162" s="3">
+        <v>2</v>
+      </c>
       <c r="CI162" s="3"/>
-      <c r="CJ162" s="3"/>
-      <c r="CK162" s="3"/>
+      <c r="CJ162" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK162" s="3">
+        <v>2</v>
+      </c>
       <c r="CL162" s="4">
         <v>2</v>
       </c>
@@ -34172,7 +35337,7 @@
       </c>
       <c r="B163" s="11">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C163" s="17">
         <v>1</v>
@@ -34353,19 +35518,37 @@
       <c r="CI163" s="3"/>
       <c r="CJ163" s="3"/>
       <c r="CK163" s="3"/>
-      <c r="CL163" s="4"/>
-      <c r="CM163" s="4"/>
-      <c r="CN163" s="4"/>
+      <c r="CL163" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM163" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN163" s="4">
+        <v>2</v>
+      </c>
       <c r="CO163" s="4"/>
       <c r="CP163" s="4"/>
-      <c r="CQ163" s="4"/>
-      <c r="CR163" s="4"/>
-      <c r="CS163" s="4"/>
+      <c r="CQ163" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR163" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS163" s="4">
+        <v>2</v>
+      </c>
       <c r="CT163" s="4"/>
       <c r="CU163" s="4"/>
-      <c r="CV163" s="4"/>
-      <c r="CW163" s="4"/>
-      <c r="CX163" s="18"/>
+      <c r="CV163" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW163" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX163" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="164" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
@@ -34586,7 +35769,7 @@
       </c>
       <c r="B165" s="11">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="3"/>
@@ -34687,16 +35870,28 @@
       <c r="BY165" s="18"/>
       <c r="BZ165" s="17"/>
       <c r="CA165" s="3"/>
-      <c r="CB165" s="3"/>
+      <c r="CB165" s="3">
+        <v>2</v>
+      </c>
       <c r="CC165" s="3"/>
       <c r="CD165" s="3"/>
-      <c r="CE165" s="3"/>
-      <c r="CF165" s="3"/>
+      <c r="CE165" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF165" s="3">
+        <v>2</v>
+      </c>
       <c r="CG165" s="3"/>
-      <c r="CH165" s="3"/>
+      <c r="CH165" s="3">
+        <v>2</v>
+      </c>
       <c r="CI165" s="3"/>
-      <c r="CJ165" s="3"/>
-      <c r="CK165" s="3"/>
+      <c r="CJ165" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK165" s="3">
+        <v>2</v>
+      </c>
       <c r="CL165" s="4"/>
       <c r="CM165" s="4"/>
       <c r="CN165" s="4"/>
@@ -34717,7 +35912,7 @@
       </c>
       <c r="B166" s="11">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C166" s="17">
         <v>1</v>
@@ -34861,20 +36056,40 @@
       <c r="AZ166" s="18">
         <v>1</v>
       </c>
-      <c r="BA166" s="17"/>
-      <c r="BB166" s="3"/>
-      <c r="BC166" s="3"/>
+      <c r="BA166" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB166" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC166" s="3">
+        <v>1</v>
+      </c>
       <c r="BD166" s="3"/>
-      <c r="BE166" s="3"/>
-      <c r="BF166" s="3"/>
-      <c r="BG166" s="3"/>
-      <c r="BH166" s="3"/>
-      <c r="BI166" s="3"/>
+      <c r="BE166" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF166" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG166" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH166" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI166" s="3">
+        <v>1</v>
+      </c>
       <c r="BJ166" s="3">
         <v>1</v>
       </c>
-      <c r="BK166" s="3"/>
-      <c r="BL166" s="3"/>
+      <c r="BK166" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL166" s="3">
+        <v>1</v>
+      </c>
       <c r="BM166" s="4">
         <v>1</v>
       </c>
@@ -34914,31 +36129,77 @@
       <c r="BY166" s="18">
         <v>1</v>
       </c>
-      <c r="BZ166" s="17"/>
-      <c r="CA166" s="3"/>
-      <c r="CB166" s="3"/>
+      <c r="BZ166" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB166" s="3">
+        <v>2</v>
+      </c>
       <c r="CC166" s="3"/>
-      <c r="CD166" s="3"/>
-      <c r="CE166" s="3"/>
-      <c r="CF166" s="3"/>
-      <c r="CG166" s="3"/>
-      <c r="CH166" s="3"/>
+      <c r="CD166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH166" s="3">
+        <v>2</v>
+      </c>
       <c r="CI166" s="3"/>
-      <c r="CJ166" s="3"/>
-      <c r="CK166" s="3"/>
-      <c r="CL166" s="4"/>
-      <c r="CM166" s="4"/>
-      <c r="CN166" s="4"/>
-      <c r="CO166" s="4"/>
-      <c r="CP166" s="4"/>
-      <c r="CQ166" s="4"/>
-      <c r="CR166" s="4"/>
-      <c r="CS166" s="4"/>
-      <c r="CT166" s="4"/>
-      <c r="CU166" s="4"/>
-      <c r="CV166" s="4"/>
-      <c r="CW166" s="4"/>
-      <c r="CX166" s="18"/>
+      <c r="CJ166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK166" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW166" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX166" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="s">
@@ -34946,7 +36207,7 @@
       </c>
       <c r="B167" s="11">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C167" s="17">
         <v>1</v>
@@ -35062,18 +36323,40 @@
       <c r="AX167" s="4"/>
       <c r="AY167" s="4"/>
       <c r="AZ167" s="18"/>
-      <c r="BA167" s="17"/>
-      <c r="BB167" s="3"/>
-      <c r="BC167" s="3"/>
+      <c r="BA167" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC167" s="3">
+        <v>1</v>
+      </c>
       <c r="BD167" s="3"/>
-      <c r="BE167" s="3"/>
-      <c r="BF167" s="3"/>
-      <c r="BG167" s="3"/>
-      <c r="BH167" s="3"/>
-      <c r="BI167" s="3"/>
-      <c r="BJ167" s="3"/>
-      <c r="BK167" s="3"/>
-      <c r="BL167" s="3"/>
+      <c r="BE167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK167" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL167" s="3">
+        <v>1</v>
+      </c>
       <c r="BM167" s="4">
         <v>1</v>
       </c>
@@ -35143,7 +36426,7 @@
       </c>
       <c r="B168" s="11">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C168" s="17">
         <v>1</v>
@@ -35342,9 +36625,15 @@
       <c r="CK168" s="3">
         <v>2</v>
       </c>
-      <c r="CL168" s="4"/>
-      <c r="CM168" s="4"/>
-      <c r="CN168" s="4"/>
+      <c r="CL168" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM168" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN168" s="4">
+        <v>2</v>
+      </c>
       <c r="CO168" s="4"/>
       <c r="CP168" s="4"/>
       <c r="CQ168" s="4"/>
@@ -35362,7 +36651,7 @@
       </c>
       <c r="B169" s="11">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C169" s="17">
         <v>1</v>
@@ -35452,8 +36741,12 @@
       <c r="BB169" s="3"/>
       <c r="BC169" s="3"/>
       <c r="BD169" s="3"/>
-      <c r="BE169" s="3"/>
-      <c r="BF169" s="3"/>
+      <c r="BE169" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF169" s="3">
+        <v>1</v>
+      </c>
       <c r="BG169" s="3"/>
       <c r="BH169" s="3">
         <v>1</v>
@@ -35465,7 +36758,9 @@
       <c r="BK169" s="3">
         <v>1</v>
       </c>
-      <c r="BL169" s="3"/>
+      <c r="BL169" s="3">
+        <v>1</v>
+      </c>
       <c r="BM169" s="4"/>
       <c r="BN169" s="4"/>
       <c r="BO169" s="4"/>
@@ -35492,23 +36787,39 @@
       <c r="CB169" s="3"/>
       <c r="CC169" s="3"/>
       <c r="CD169" s="3"/>
-      <c r="CE169" s="3"/>
-      <c r="CF169" s="3"/>
+      <c r="CE169" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF169" s="3">
+        <v>2</v>
+      </c>
       <c r="CG169" s="3"/>
-      <c r="CH169" s="3"/>
+      <c r="CH169" s="3">
+        <v>2</v>
+      </c>
       <c r="CI169" s="3"/>
       <c r="CJ169" s="3"/>
-      <c r="CK169" s="3"/>
-      <c r="CL169" s="4"/>
+      <c r="CK169" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL169" s="4">
+        <v>2</v>
+      </c>
       <c r="CM169" s="4"/>
-      <c r="CN169" s="4"/>
-      <c r="CO169" s="4"/>
+      <c r="CN169" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO169" s="4">
+        <v>2</v>
+      </c>
       <c r="CP169" s="4"/>
       <c r="CQ169" s="4"/>
       <c r="CR169" s="4"/>
       <c r="CS169" s="4"/>
       <c r="CT169" s="4"/>
-      <c r="CU169" s="4"/>
+      <c r="CU169" s="4">
+        <v>2</v>
+      </c>
       <c r="CV169" s="4"/>
       <c r="CW169" s="4"/>
       <c r="CX169" s="18"/>
@@ -35770,7 +37081,7 @@
       </c>
       <c r="B171" s="11">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C171" s="17">
         <v>1</v>
@@ -35970,7 +37281,9 @@
       <c r="CJ171" s="3">
         <v>2</v>
       </c>
-      <c r="CK171" s="3"/>
+      <c r="CK171" s="3">
+        <v>2</v>
+      </c>
       <c r="CL171" s="4">
         <v>2</v>
       </c>
@@ -36802,7 +38115,7 @@
       </c>
       <c r="B175" s="11">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C175" s="17">
         <v>1</v>
@@ -36973,18 +38286,32 @@
         <v>1</v>
       </c>
       <c r="BY175" s="18"/>
-      <c r="BZ175" s="17"/>
+      <c r="BZ175" s="17">
+        <v>2</v>
+      </c>
       <c r="CA175" s="3"/>
-      <c r="CB175" s="3"/>
+      <c r="CB175" s="3">
+        <v>2</v>
+      </c>
       <c r="CC175" s="3"/>
       <c r="CD175" s="3"/>
-      <c r="CE175" s="3"/>
-      <c r="CF175" s="3"/>
+      <c r="CE175" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF175" s="3">
+        <v>2</v>
+      </c>
       <c r="CG175" s="3"/>
-      <c r="CH175" s="3"/>
+      <c r="CH175" s="3">
+        <v>2</v>
+      </c>
       <c r="CI175" s="3"/>
-      <c r="CJ175" s="3"/>
-      <c r="CK175" s="3"/>
+      <c r="CJ175" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK175" s="3">
+        <v>2</v>
+      </c>
       <c r="CL175" s="4">
         <v>2</v>
       </c>
@@ -37015,7 +38342,7 @@
       </c>
       <c r="B176" s="11">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C176" s="17">
         <v>1</v>
@@ -37241,8 +38568,12 @@
       <c r="CN176" s="4">
         <v>2</v>
       </c>
-      <c r="CO176" s="4"/>
-      <c r="CP176" s="4"/>
+      <c r="CO176" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP176" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ176" s="4">
         <v>2</v>
       </c>
@@ -37252,8 +38583,12 @@
       <c r="CS176" s="4">
         <v>2</v>
       </c>
-      <c r="CT176" s="4"/>
-      <c r="CU176" s="4"/>
+      <c r="CT176" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU176" s="4">
+        <v>2</v>
+      </c>
       <c r="CV176" s="4">
         <v>2</v>
       </c>
@@ -37270,7 +38605,7 @@
       </c>
       <c r="B177" s="11">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C177" s="17">
         <v>1</v>
@@ -37475,18 +38810,34 @@
         <v>1</v>
       </c>
       <c r="BY177" s="18"/>
-      <c r="BZ177" s="17"/>
-      <c r="CA177" s="3"/>
-      <c r="CB177" s="3"/>
+      <c r="BZ177" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA177" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB177" s="3">
+        <v>2</v>
+      </c>
       <c r="CC177" s="3"/>
       <c r="CD177" s="3"/>
-      <c r="CE177" s="3"/>
-      <c r="CF177" s="3"/>
+      <c r="CE177" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF177" s="3">
+        <v>2</v>
+      </c>
       <c r="CG177" s="3"/>
-      <c r="CH177" s="3"/>
+      <c r="CH177" s="3">
+        <v>2</v>
+      </c>
       <c r="CI177" s="3"/>
-      <c r="CJ177" s="3"/>
-      <c r="CK177" s="3"/>
+      <c r="CJ177" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK177" s="3">
+        <v>2</v>
+      </c>
       <c r="CL177" s="4">
         <v>2</v>
       </c>
@@ -37981,7 +39332,7 @@
       </c>
       <c r="B180" s="11">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C180" s="17">
         <v>1</v>
@@ -38097,38 +39448,64 @@
       </c>
       <c r="BM180" s="4"/>
       <c r="BN180" s="4"/>
-      <c r="BO180" s="4"/>
-      <c r="BP180" s="4"/>
-      <c r="BQ180" s="4"/>
+      <c r="BO180" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP180" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ180" s="4">
+        <v>1</v>
+      </c>
       <c r="BR180" s="4"/>
       <c r="BS180" s="4"/>
       <c r="BT180" s="4"/>
       <c r="BU180" s="4"/>
       <c r="BV180" s="4"/>
-      <c r="BW180" s="4"/>
-      <c r="BX180" s="4"/>
+      <c r="BW180" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX180" s="4">
+        <v>1</v>
+      </c>
       <c r="BY180" s="18"/>
       <c r="BZ180" s="17"/>
       <c r="CA180" s="3"/>
       <c r="CB180" s="3"/>
       <c r="CC180" s="3"/>
       <c r="CD180" s="3"/>
-      <c r="CE180" s="3"/>
-      <c r="CF180" s="3"/>
+      <c r="CE180" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF180" s="3">
+        <v>2</v>
+      </c>
       <c r="CG180" s="3"/>
-      <c r="CH180" s="3"/>
+      <c r="CH180" s="3">
+        <v>2</v>
+      </c>
       <c r="CI180" s="3"/>
       <c r="CJ180" s="3"/>
-      <c r="CK180" s="3"/>
-      <c r="CL180" s="4"/>
+      <c r="CK180" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL180" s="4">
+        <v>2</v>
+      </c>
       <c r="CM180" s="4"/>
-      <c r="CN180" s="4"/>
-      <c r="CO180" s="4"/>
+      <c r="CN180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO180" s="4">
+        <v>2</v>
+      </c>
       <c r="CP180" s="4"/>
       <c r="CQ180" s="4"/>
       <c r="CR180" s="4"/>
       <c r="CS180" s="4"/>
-      <c r="CT180" s="4"/>
+      <c r="CT180" s="4">
+        <v>2</v>
+      </c>
       <c r="CU180" s="4"/>
       <c r="CV180" s="4"/>
       <c r="CW180" s="4"/>
@@ -38140,7 +39517,7 @@
       </c>
       <c r="B181" s="11">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C181" s="17">
         <v>1</v>
@@ -38381,19 +39758,43 @@
       <c r="CK181" s="3">
         <v>2</v>
       </c>
-      <c r="CL181" s="4"/>
-      <c r="CM181" s="4"/>
-      <c r="CN181" s="4"/>
-      <c r="CO181" s="4"/>
-      <c r="CP181" s="4"/>
-      <c r="CQ181" s="4"/>
-      <c r="CR181" s="4"/>
-      <c r="CS181" s="4"/>
-      <c r="CT181" s="4"/>
-      <c r="CU181" s="4"/>
+      <c r="CL181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU181" s="4">
+        <v>2</v>
+      </c>
       <c r="CV181" s="4"/>
-      <c r="CW181" s="4"/>
-      <c r="CX181" s="18"/>
+      <c r="CW181" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX181" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
@@ -38401,7 +39802,7 @@
       </c>
       <c r="B182" s="11">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C182" s="17">
         <v>1</v>
@@ -38610,16 +40011,30 @@
       <c r="CK182" s="3">
         <v>2</v>
       </c>
-      <c r="CL182" s="4"/>
-      <c r="CM182" s="4"/>
-      <c r="CN182" s="4"/>
-      <c r="CO182" s="4"/>
-      <c r="CP182" s="4"/>
-      <c r="CQ182" s="4"/>
+      <c r="CL182" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM182" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN182" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO182" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP182" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ182" s="4">
+        <v>2</v>
+      </c>
       <c r="CR182" s="4"/>
       <c r="CS182" s="4"/>
       <c r="CT182" s="4"/>
-      <c r="CU182" s="4"/>
+      <c r="CU182" s="4">
+        <v>2</v>
+      </c>
       <c r="CV182" s="4"/>
       <c r="CW182" s="4"/>
       <c r="CX182" s="18"/>
@@ -38630,7 +40045,7 @@
       </c>
       <c r="B183" s="11">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C183" s="17"/>
       <c r="D183" s="3"/>
@@ -38753,18 +40168,34 @@
         <v>1</v>
       </c>
       <c r="BY183" s="18"/>
-      <c r="BZ183" s="17"/>
-      <c r="CA183" s="3"/>
-      <c r="CB183" s="3"/>
+      <c r="BZ183" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA183" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB183" s="3">
+        <v>2</v>
+      </c>
       <c r="CC183" s="3"/>
       <c r="CD183" s="3"/>
-      <c r="CE183" s="3"/>
-      <c r="CF183" s="3"/>
+      <c r="CE183" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF183" s="3">
+        <v>2</v>
+      </c>
       <c r="CG183" s="3"/>
-      <c r="CH183" s="3"/>
+      <c r="CH183" s="3">
+        <v>2</v>
+      </c>
       <c r="CI183" s="3"/>
-      <c r="CJ183" s="3"/>
-      <c r="CK183" s="3"/>
+      <c r="CJ183" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK183" s="3">
+        <v>2</v>
+      </c>
       <c r="CL183" s="4">
         <v>2</v>
       </c>
@@ -39590,7 +41021,7 @@
       </c>
       <c r="B189" s="11">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C189" s="17"/>
       <c r="D189" s="3"/>
@@ -39765,19 +41196,35 @@
       <c r="CK189" s="3">
         <v>2</v>
       </c>
-      <c r="CL189" s="4"/>
-      <c r="CM189" s="4"/>
-      <c r="CN189" s="4"/>
+      <c r="CL189" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM189" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN189" s="4">
+        <v>2</v>
+      </c>
       <c r="CO189" s="4"/>
       <c r="CP189" s="4"/>
-      <c r="CQ189" s="4"/>
-      <c r="CR189" s="4"/>
-      <c r="CS189" s="4"/>
+      <c r="CQ189" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR189" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS189" s="4">
+        <v>2</v>
+      </c>
       <c r="CT189" s="4"/>
       <c r="CU189" s="4"/>
-      <c r="CV189" s="4"/>
+      <c r="CV189" s="4">
+        <v>2</v>
+      </c>
       <c r="CW189" s="4"/>
-      <c r="CX189" s="18"/>
+      <c r="CX189" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="190" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
@@ -39785,7 +41232,7 @@
       </c>
       <c r="B190" s="11">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="3"/>
@@ -39948,19 +41395,37 @@
       <c r="CK190" s="3">
         <v>2</v>
       </c>
-      <c r="CL190" s="4"/>
-      <c r="CM190" s="4"/>
-      <c r="CN190" s="4"/>
-      <c r="CO190" s="4"/>
+      <c r="CL190" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM190" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN190" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO190" s="4">
+        <v>2</v>
+      </c>
       <c r="CP190" s="4"/>
-      <c r="CQ190" s="4"/>
-      <c r="CR190" s="4"/>
+      <c r="CQ190" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR190" s="4">
+        <v>2</v>
+      </c>
       <c r="CS190" s="4"/>
       <c r="CT190" s="4"/>
-      <c r="CU190" s="4"/>
-      <c r="CV190" s="4"/>
+      <c r="CU190" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV190" s="4">
+        <v>2</v>
+      </c>
       <c r="CW190" s="4"/>
-      <c r="CX190" s="18"/>
+      <c r="CX190" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="191" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="12" t="s">
@@ -39968,7 +41433,7 @@
       </c>
       <c r="B191" s="11">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C191" s="17">
         <v>1</v>
@@ -40139,18 +41604,38 @@
       <c r="CI191" s="3"/>
       <c r="CJ191" s="3"/>
       <c r="CK191" s="3"/>
-      <c r="CL191" s="4"/>
-      <c r="CM191" s="4"/>
-      <c r="CN191" s="4"/>
-      <c r="CO191" s="4"/>
-      <c r="CP191" s="4"/>
-      <c r="CQ191" s="4"/>
-      <c r="CR191" s="4"/>
-      <c r="CS191" s="4"/>
+      <c r="CL191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR191" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS191" s="4">
+        <v>2</v>
+      </c>
       <c r="CT191" s="4"/>
-      <c r="CU191" s="4"/>
+      <c r="CU191" s="4">
+        <v>2</v>
+      </c>
       <c r="CV191" s="4"/>
-      <c r="CW191" s="4"/>
+      <c r="CW191" s="4">
+        <v>2</v>
+      </c>
       <c r="CX191" s="18"/>
     </row>
     <row r="192" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
@@ -40159,7 +41644,7 @@
       </c>
       <c r="B192" s="11">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C192" s="17">
         <v>1</v>
@@ -40380,19 +41865,33 @@
       <c r="CK192" s="3">
         <v>2</v>
       </c>
-      <c r="CL192" s="4"/>
-      <c r="CM192" s="4"/>
-      <c r="CN192" s="4"/>
+      <c r="CL192" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM192" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN192" s="4">
+        <v>2</v>
+      </c>
       <c r="CO192" s="4"/>
       <c r="CP192" s="4"/>
-      <c r="CQ192" s="4"/>
+      <c r="CQ192" s="4">
+        <v>2</v>
+      </c>
       <c r="CR192" s="4"/>
-      <c r="CS192" s="4"/>
+      <c r="CS192" s="4">
+        <v>2</v>
+      </c>
       <c r="CT192" s="4"/>
       <c r="CU192" s="4"/>
-      <c r="CV192" s="4"/>
+      <c r="CV192" s="4">
+        <v>2</v>
+      </c>
       <c r="CW192" s="4"/>
-      <c r="CX192" s="18"/>
+      <c r="CX192" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="12" t="s">
@@ -40400,7 +41899,7 @@
       </c>
       <c r="B193" s="11">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C193" s="17">
         <v>1</v>
@@ -40557,14 +42056,18 @@
         <v>1</v>
       </c>
       <c r="BY193" s="18"/>
-      <c r="BZ193" s="17"/>
+      <c r="BZ193" s="17">
+        <v>2</v>
+      </c>
       <c r="CA193" s="3"/>
       <c r="CB193" s="3">
         <v>2</v>
       </c>
       <c r="CC193" s="3"/>
       <c r="CD193" s="3"/>
-      <c r="CE193" s="3"/>
+      <c r="CE193" s="3">
+        <v>2</v>
+      </c>
       <c r="CF193" s="3">
         <v>2</v>
       </c>
@@ -41250,7 +42753,7 @@
       </c>
       <c r="B197" s="11">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C197" s="17">
         <v>1</v>
@@ -41433,16 +42936,34 @@
       <c r="CI197" s="3"/>
       <c r="CJ197" s="3"/>
       <c r="CK197" s="3"/>
-      <c r="CL197" s="4"/>
-      <c r="CM197" s="4"/>
-      <c r="CN197" s="4"/>
-      <c r="CO197" s="4"/>
-      <c r="CP197" s="4"/>
-      <c r="CQ197" s="4"/>
+      <c r="CL197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ197" s="4">
+        <v>2</v>
+      </c>
       <c r="CR197" s="4"/>
-      <c r="CS197" s="4"/>
-      <c r="CT197" s="4"/>
-      <c r="CU197" s="4"/>
+      <c r="CS197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT197" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU197" s="4">
+        <v>2</v>
+      </c>
       <c r="CV197" s="4"/>
       <c r="CW197" s="4"/>
       <c r="CX197" s="18"/>
@@ -41453,7 +42974,7 @@
       </c>
       <c r="B198" s="11">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C198" s="17">
         <v>1</v>
@@ -41580,7 +43101,9 @@
       <c r="BY198" s="18"/>
       <c r="BZ198" s="17"/>
       <c r="CA198" s="3"/>
-      <c r="CB198" s="3"/>
+      <c r="CB198" s="3">
+        <v>2</v>
+      </c>
       <c r="CC198" s="3"/>
       <c r="CD198" s="3"/>
       <c r="CE198" s="3">
@@ -41598,7 +43121,9 @@
       <c r="CK198" s="3">
         <v>2</v>
       </c>
-      <c r="CL198" s="4"/>
+      <c r="CL198" s="4">
+        <v>2</v>
+      </c>
       <c r="CM198" s="4"/>
       <c r="CN198" s="4"/>
       <c r="CO198" s="4"/>
@@ -41858,7 +43383,7 @@
       </c>
       <c r="B201" s="11">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C201" s="17">
         <v>1</v>
@@ -42033,16 +43558,28 @@
       <c r="CK201" s="3">
         <v>2</v>
       </c>
-      <c r="CL201" s="4"/>
-      <c r="CM201" s="4"/>
-      <c r="CN201" s="4"/>
-      <c r="CO201" s="4"/>
+      <c r="CL201" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM201" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN201" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO201" s="4">
+        <v>2</v>
+      </c>
       <c r="CP201" s="4"/>
-      <c r="CQ201" s="4"/>
+      <c r="CQ201" s="4">
+        <v>2</v>
+      </c>
       <c r="CR201" s="4"/>
       <c r="CS201" s="4"/>
       <c r="CT201" s="4"/>
-      <c r="CU201" s="4"/>
+      <c r="CU201" s="4">
+        <v>2</v>
+      </c>
       <c r="CV201" s="4"/>
       <c r="CW201" s="4"/>
       <c r="CX201" s="18"/>
@@ -42270,7 +43807,7 @@
       </c>
       <c r="B203" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" s="17">
         <v>1</v>
@@ -42341,10 +43878,16 @@
       <c r="BE203" s="3"/>
       <c r="BF203" s="3"/>
       <c r="BG203" s="3"/>
-      <c r="BH203" s="3"/>
+      <c r="BH203" s="3">
+        <v>1</v>
+      </c>
       <c r="BI203" s="3"/>
-      <c r="BJ203" s="3"/>
-      <c r="BK203" s="3"/>
+      <c r="BJ203" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK203" s="3">
+        <v>1</v>
+      </c>
       <c r="BL203" s="3"/>
       <c r="BM203" s="4"/>
       <c r="BN203" s="4"/>
@@ -42391,7 +43934,7 @@
       </c>
       <c r="B204" s="11">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C204" s="17">
         <v>1</v>
@@ -42632,19 +44175,33 @@
       <c r="CK204" s="3">
         <v>2</v>
       </c>
-      <c r="CL204" s="4"/>
-      <c r="CM204" s="4"/>
-      <c r="CN204" s="4"/>
+      <c r="CL204" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM204" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN204" s="4">
+        <v>2</v>
+      </c>
       <c r="CO204" s="4"/>
       <c r="CP204" s="4"/>
-      <c r="CQ204" s="4"/>
-      <c r="CR204" s="4"/>
+      <c r="CQ204" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR204" s="4">
+        <v>2</v>
+      </c>
       <c r="CS204" s="4"/>
       <c r="CT204" s="4"/>
       <c r="CU204" s="4"/>
-      <c r="CV204" s="4"/>
+      <c r="CV204" s="4">
+        <v>2</v>
+      </c>
       <c r="CW204" s="4"/>
-      <c r="CX204" s="18"/>
+      <c r="CX204" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="205" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
@@ -42891,7 +44448,7 @@
       </c>
       <c r="B206" s="11">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C206" s="17">
         <v>1</v>
@@ -43060,13 +44617,23 @@
       <c r="CK206" s="3">
         <v>2</v>
       </c>
-      <c r="CL206" s="4"/>
-      <c r="CM206" s="4"/>
-      <c r="CN206" s="4"/>
+      <c r="CL206" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM206" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN206" s="4">
+        <v>2</v>
+      </c>
       <c r="CO206" s="4"/>
       <c r="CP206" s="4"/>
-      <c r="CQ206" s="4"/>
-      <c r="CR206" s="4"/>
+      <c r="CQ206" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR206" s="4">
+        <v>2</v>
+      </c>
       <c r="CS206" s="4"/>
       <c r="CT206" s="4"/>
       <c r="CU206" s="4"/>
@@ -43587,7 +45154,7 @@
       </c>
       <c r="B210" s="11">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C210" s="17">
         <v>1</v>
@@ -43776,12 +45343,16 @@
       <c r="CK210" s="3">
         <v>2</v>
       </c>
-      <c r="CL210" s="4"/>
+      <c r="CL210" s="4">
+        <v>2</v>
+      </c>
       <c r="CM210" s="4"/>
       <c r="CN210" s="4"/>
       <c r="CO210" s="4"/>
       <c r="CP210" s="4"/>
-      <c r="CQ210" s="4"/>
+      <c r="CQ210" s="4">
+        <v>2</v>
+      </c>
       <c r="CR210" s="4"/>
       <c r="CS210" s="4"/>
       <c r="CT210" s="4"/>
@@ -43796,7 +45367,7 @@
       </c>
       <c r="B211" s="11">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C211" s="17">
         <v>1</v>
@@ -43975,16 +45546,26 @@
       <c r="CK211" s="3">
         <v>2</v>
       </c>
-      <c r="CL211" s="4"/>
+      <c r="CL211" s="4">
+        <v>2</v>
+      </c>
       <c r="CM211" s="4"/>
-      <c r="CN211" s="4"/>
-      <c r="CO211" s="4"/>
-      <c r="CP211" s="4"/>
+      <c r="CN211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP211" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ211" s="4"/>
       <c r="CR211" s="4"/>
       <c r="CS211" s="4"/>
       <c r="CT211" s="4"/>
-      <c r="CU211" s="4"/>
+      <c r="CU211" s="4">
+        <v>2</v>
+      </c>
       <c r="CV211" s="4"/>
       <c r="CW211" s="4"/>
       <c r="CX211" s="18"/>
@@ -44528,7 +46109,7 @@
       </c>
       <c r="B215" s="11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C215" s="17"/>
       <c r="D215" s="3"/>
@@ -44603,10 +46184,16 @@
       <c r="BE215" s="3"/>
       <c r="BF215" s="3"/>
       <c r="BG215" s="3"/>
-      <c r="BH215" s="3"/>
+      <c r="BH215" s="3">
+        <v>1</v>
+      </c>
       <c r="BI215" s="3"/>
-      <c r="BJ215" s="3"/>
-      <c r="BK215" s="3"/>
+      <c r="BJ215" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK215" s="3">
+        <v>1</v>
+      </c>
       <c r="BL215" s="3"/>
       <c r="BM215" s="4"/>
       <c r="BN215" s="4"/>
@@ -44629,20 +46216,32 @@
       <c r="BY215" s="18"/>
       <c r="BZ215" s="17"/>
       <c r="CA215" s="3"/>
-      <c r="CB215" s="3"/>
+      <c r="CB215" s="3">
+        <v>2</v>
+      </c>
       <c r="CC215" s="3"/>
       <c r="CD215" s="3"/>
       <c r="CE215" s="3"/>
-      <c r="CF215" s="3"/>
+      <c r="CF215" s="3">
+        <v>2</v>
+      </c>
       <c r="CG215" s="3"/>
-      <c r="CH215" s="3"/>
+      <c r="CH215" s="3">
+        <v>2</v>
+      </c>
       <c r="CI215" s="3"/>
       <c r="CJ215" s="3"/>
-      <c r="CK215" s="3"/>
-      <c r="CL215" s="4"/>
+      <c r="CK215" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL215" s="4">
+        <v>2</v>
+      </c>
       <c r="CM215" s="4"/>
       <c r="CN215" s="4"/>
-      <c r="CO215" s="4"/>
+      <c r="CO215" s="4">
+        <v>2</v>
+      </c>
       <c r="CP215" s="4"/>
       <c r="CQ215" s="4"/>
       <c r="CR215" s="4"/>
@@ -44659,7 +46258,7 @@
       </c>
       <c r="B216" s="11">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C216" s="22">
         <v>1</v>
@@ -44824,18 +46423,30 @@
         <v>1</v>
       </c>
       <c r="BY216" s="18"/>
-      <c r="BZ216" s="17"/>
+      <c r="BZ216" s="17">
+        <v>2</v>
+      </c>
       <c r="CA216" s="3"/>
-      <c r="CB216" s="3"/>
+      <c r="CB216" s="3">
+        <v>2</v>
+      </c>
       <c r="CC216" s="3"/>
       <c r="CD216" s="3"/>
-      <c r="CE216" s="3"/>
-      <c r="CF216" s="3"/>
+      <c r="CE216" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF216" s="3">
+        <v>2</v>
+      </c>
       <c r="CG216" s="3"/>
       <c r="CH216" s="3"/>
       <c r="CI216" s="3"/>
-      <c r="CJ216" s="3"/>
-      <c r="CK216" s="3"/>
+      <c r="CJ216" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK216" s="3">
+        <v>2</v>
+      </c>
       <c r="CL216" s="4">
         <v>2</v>
       </c>
@@ -44864,7 +46475,7 @@
       </c>
       <c r="B217" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C217" s="17"/>
       <c r="D217" s="3"/>
@@ -44977,28 +46588,50 @@
         <v>1</v>
       </c>
       <c r="BY217" s="18"/>
-      <c r="BZ217" s="17"/>
+      <c r="BZ217" s="17">
+        <v>2</v>
+      </c>
       <c r="CA217" s="3"/>
-      <c r="CB217" s="3"/>
+      <c r="CB217" s="3">
+        <v>2</v>
+      </c>
       <c r="CC217" s="3"/>
       <c r="CD217" s="3"/>
       <c r="CE217" s="3"/>
-      <c r="CF217" s="3"/>
+      <c r="CF217" s="3">
+        <v>2</v>
+      </c>
       <c r="CG217" s="3"/>
-      <c r="CH217" s="3"/>
+      <c r="CH217" s="3">
+        <v>2</v>
+      </c>
       <c r="CI217" s="3"/>
       <c r="CJ217" s="3"/>
-      <c r="CK217" s="3"/>
-      <c r="CL217" s="4"/>
-      <c r="CM217" s="4"/>
+      <c r="CK217" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL217" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM217" s="4">
+        <v>2</v>
+      </c>
       <c r="CN217" s="4"/>
-      <c r="CO217" s="4"/>
+      <c r="CO217" s="4">
+        <v>2</v>
+      </c>
       <c r="CP217" s="4"/>
-      <c r="CQ217" s="4"/>
-      <c r="CR217" s="4"/>
+      <c r="CQ217" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR217" s="4">
+        <v>2</v>
+      </c>
       <c r="CS217" s="4"/>
       <c r="CT217" s="4"/>
-      <c r="CU217" s="4"/>
+      <c r="CU217" s="4">
+        <v>2</v>
+      </c>
       <c r="CV217" s="4"/>
       <c r="CW217" s="4"/>
       <c r="CX217" s="18"/>
@@ -45009,7 +46642,7 @@
       </c>
       <c r="B218" s="11">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C218" s="17">
         <v>1</v>
@@ -45200,18 +46833,34 @@
         <v>1</v>
       </c>
       <c r="BY218" s="18"/>
-      <c r="BZ218" s="17"/>
-      <c r="CA218" s="3"/>
-      <c r="CB218" s="3"/>
+      <c r="BZ218" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA218" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB218" s="3">
+        <v>2</v>
+      </c>
       <c r="CC218" s="3"/>
       <c r="CD218" s="3"/>
-      <c r="CE218" s="3"/>
-      <c r="CF218" s="3"/>
+      <c r="CE218" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF218" s="3">
+        <v>2</v>
+      </c>
       <c r="CG218" s="3"/>
-      <c r="CH218" s="3"/>
+      <c r="CH218" s="3">
+        <v>2</v>
+      </c>
       <c r="CI218" s="3"/>
-      <c r="CJ218" s="3"/>
-      <c r="CK218" s="3"/>
+      <c r="CJ218" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK218" s="3">
+        <v>2</v>
+      </c>
       <c r="CL218" s="4"/>
       <c r="CM218" s="4"/>
       <c r="CN218" s="4"/>
@@ -45232,7 +46881,7 @@
       </c>
       <c r="B219" s="11">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C219" s="17">
         <v>1</v>
@@ -45361,16 +47010,24 @@
       <c r="BY219" s="18"/>
       <c r="BZ219" s="17"/>
       <c r="CA219" s="3"/>
-      <c r="CB219" s="3"/>
+      <c r="CB219" s="3">
+        <v>2</v>
+      </c>
       <c r="CC219" s="3"/>
       <c r="CD219" s="3"/>
-      <c r="CE219" s="3"/>
+      <c r="CE219" s="3">
+        <v>2</v>
+      </c>
       <c r="CF219" s="3"/>
       <c r="CG219" s="3"/>
-      <c r="CH219" s="3"/>
+      <c r="CH219" s="3">
+        <v>2</v>
+      </c>
       <c r="CI219" s="3"/>
       <c r="CJ219" s="3"/>
-      <c r="CK219" s="3"/>
+      <c r="CK219" s="3">
+        <v>2</v>
+      </c>
       <c r="CL219" s="4">
         <v>2</v>
       </c>
@@ -45399,7 +47056,7 @@
       </c>
       <c r="B220" s="11">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C220" s="17">
         <v>1</v>
@@ -45592,18 +47249,40 @@
       <c r="BY220" s="18">
         <v>1</v>
       </c>
-      <c r="BZ220" s="17"/>
-      <c r="CA220" s="3"/>
-      <c r="CB220" s="3"/>
+      <c r="BZ220" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB220" s="3">
+        <v>2</v>
+      </c>
       <c r="CC220" s="3"/>
-      <c r="CD220" s="3"/>
-      <c r="CE220" s="3"/>
-      <c r="CF220" s="3"/>
-      <c r="CG220" s="3"/>
-      <c r="CH220" s="3"/>
-      <c r="CI220" s="3"/>
-      <c r="CJ220" s="3"/>
-      <c r="CK220" s="3"/>
+      <c r="CD220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CG220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CI220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ220" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK220" s="3">
+        <v>2</v>
+      </c>
       <c r="CL220" s="4"/>
       <c r="CM220" s="4"/>
       <c r="CN220" s="4"/>
@@ -46066,7 +47745,7 @@
       </c>
       <c r="B223" s="11">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C223" s="17">
         <v>1</v>
@@ -46259,18 +47938,36 @@
       <c r="BY223" s="18">
         <v>1</v>
       </c>
-      <c r="BZ223" s="17"/>
-      <c r="CA223" s="3"/>
-      <c r="CB223" s="3"/>
+      <c r="BZ223" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA223" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB223" s="3">
+        <v>2</v>
+      </c>
       <c r="CC223" s="3"/>
-      <c r="CD223" s="3"/>
-      <c r="CE223" s="3"/>
-      <c r="CF223" s="3"/>
+      <c r="CD223" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE223" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF223" s="3">
+        <v>2</v>
+      </c>
       <c r="CG223" s="3"/>
-      <c r="CH223" s="3"/>
+      <c r="CH223" s="3">
+        <v>2</v>
+      </c>
       <c r="CI223" s="3"/>
-      <c r="CJ223" s="3"/>
-      <c r="CK223" s="3"/>
+      <c r="CJ223" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK223" s="3">
+        <v>2</v>
+      </c>
       <c r="CL223" s="4">
         <v>2</v>
       </c>
@@ -46548,7 +48245,7 @@
       </c>
       <c r="B225" s="11">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C225" s="17">
         <v>1</v>
@@ -46739,17 +48436,27 @@
       <c r="CK225" s="3">
         <v>2</v>
       </c>
-      <c r="CL225" s="4"/>
-      <c r="CM225" s="4"/>
-      <c r="CN225" s="4"/>
+      <c r="CL225" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM225" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN225" s="4">
+        <v>2</v>
+      </c>
       <c r="CO225" s="4"/>
       <c r="CP225" s="4"/>
-      <c r="CQ225" s="4"/>
+      <c r="CQ225" s="4">
+        <v>2</v>
+      </c>
       <c r="CR225" s="4"/>
       <c r="CS225" s="4"/>
       <c r="CT225" s="4"/>
       <c r="CU225" s="4"/>
-      <c r="CV225" s="4"/>
+      <c r="CV225" s="4">
+        <v>2</v>
+      </c>
       <c r="CW225" s="4"/>
       <c r="CX225" s="18"/>
     </row>
@@ -46759,7 +48466,7 @@
       </c>
       <c r="B226" s="11">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C226" s="17">
         <v>1</v>
@@ -46908,26 +48615,52 @@
       <c r="BY226" s="18"/>
       <c r="BZ226" s="17"/>
       <c r="CA226" s="3"/>
-      <c r="CB226" s="3"/>
+      <c r="CB226" s="3">
+        <v>2</v>
+      </c>
       <c r="CC226" s="3"/>
       <c r="CD226" s="3"/>
-      <c r="CE226" s="3"/>
-      <c r="CF226" s="3"/>
+      <c r="CE226" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF226" s="3">
+        <v>2</v>
+      </c>
       <c r="CG226" s="3"/>
-      <c r="CH226" s="3"/>
+      <c r="CH226" s="3">
+        <v>2</v>
+      </c>
       <c r="CI226" s="3"/>
       <c r="CJ226" s="3"/>
-      <c r="CK226" s="3"/>
-      <c r="CL226" s="4"/>
-      <c r="CM226" s="4"/>
-      <c r="CN226" s="4"/>
-      <c r="CO226" s="4"/>
-      <c r="CP226" s="4"/>
+      <c r="CK226" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL226" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM226" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN226" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO226" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP226" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ226" s="4"/>
-      <c r="CR226" s="4"/>
-      <c r="CS226" s="4"/>
+      <c r="CR226" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS226" s="4">
+        <v>2</v>
+      </c>
       <c r="CT226" s="4"/>
-      <c r="CU226" s="4"/>
+      <c r="CU226" s="4">
+        <v>2</v>
+      </c>
       <c r="CV226" s="4"/>
       <c r="CW226" s="4"/>
       <c r="CX226" s="18"/>
@@ -47195,7 +48928,7 @@
       </c>
       <c r="B228" s="11">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C228" s="17">
         <v>1</v>
@@ -47458,19 +49191,45 @@
       <c r="CK228" s="3">
         <v>2</v>
       </c>
-      <c r="CL228" s="4"/>
-      <c r="CM228" s="4"/>
-      <c r="CN228" s="4"/>
-      <c r="CO228" s="4"/>
-      <c r="CP228" s="4"/>
-      <c r="CQ228" s="4"/>
-      <c r="CR228" s="4"/>
-      <c r="CS228" s="4"/>
-      <c r="CT228" s="4"/>
-      <c r="CU228" s="4"/>
-      <c r="CV228" s="4"/>
-      <c r="CW228" s="4"/>
-      <c r="CX228" s="18"/>
+      <c r="CL228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW228" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX228" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="229" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
@@ -47478,7 +49237,7 @@
       </c>
       <c r="B229" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C229" s="17">
         <v>1</v>
@@ -47735,19 +49494,45 @@
       <c r="CK229" s="3">
         <v>2</v>
       </c>
-      <c r="CL229" s="4"/>
-      <c r="CM229" s="4"/>
-      <c r="CN229" s="4"/>
-      <c r="CO229" s="4"/>
-      <c r="CP229" s="4"/>
-      <c r="CQ229" s="4"/>
-      <c r="CR229" s="4"/>
-      <c r="CS229" s="4"/>
-      <c r="CT229" s="4"/>
-      <c r="CU229" s="4"/>
-      <c r="CV229" s="4"/>
-      <c r="CW229" s="4"/>
-      <c r="CX229" s="18"/>
+      <c r="CL229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW229" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX229" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="230" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="12" t="s">
@@ -48163,7 +49948,7 @@
       </c>
       <c r="B232" s="11">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C232" s="17">
         <v>1</v>
@@ -48361,30 +50146,68 @@
       </c>
       <c r="BY232" s="18"/>
       <c r="BZ232" s="17"/>
-      <c r="CA232" s="3"/>
-      <c r="CB232" s="3"/>
+      <c r="CA232" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB232" s="3">
+        <v>2</v>
+      </c>
       <c r="CC232" s="3"/>
-      <c r="CD232" s="3"/>
-      <c r="CE232" s="3"/>
-      <c r="CF232" s="3"/>
+      <c r="CD232" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE232" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF232" s="3">
+        <v>2</v>
+      </c>
       <c r="CG232" s="3"/>
-      <c r="CH232" s="3"/>
+      <c r="CH232" s="3">
+        <v>2</v>
+      </c>
       <c r="CI232" s="3"/>
-      <c r="CJ232" s="3"/>
-      <c r="CK232" s="3"/>
-      <c r="CL232" s="4"/>
-      <c r="CM232" s="4"/>
-      <c r="CN232" s="4"/>
-      <c r="CO232" s="4"/>
-      <c r="CP232" s="4"/>
+      <c r="CJ232" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK232" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP232" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ232" s="4"/>
-      <c r="CR232" s="4"/>
-      <c r="CS232" s="4"/>
-      <c r="CT232" s="4"/>
-      <c r="CU232" s="4"/>
-      <c r="CV232" s="4"/>
+      <c r="CR232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU232" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV232" s="4">
+        <v>2</v>
+      </c>
       <c r="CW232" s="4"/>
-      <c r="CX232" s="18"/>
+      <c r="CX232" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="233" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="12" t="s">
@@ -48902,7 +50725,7 @@
       </c>
       <c r="B235" s="11">
         <f>SUM(C235:CX235)</f>
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C235" s="17">
         <v>1</v>
@@ -49103,31 +50926,71 @@
         <v>1</v>
       </c>
       <c r="BY235" s="18"/>
-      <c r="BZ235" s="17"/>
-      <c r="CA235" s="3"/>
-      <c r="CB235" s="3"/>
+      <c r="BZ235" s="17">
+        <v>2</v>
+      </c>
+      <c r="CA235" s="3">
+        <v>2</v>
+      </c>
+      <c r="CB235" s="3">
+        <v>2</v>
+      </c>
       <c r="CC235" s="3"/>
-      <c r="CD235" s="3"/>
-      <c r="CE235" s="3"/>
-      <c r="CF235" s="3"/>
+      <c r="CD235" s="3">
+        <v>2</v>
+      </c>
+      <c r="CE235" s="3">
+        <v>2</v>
+      </c>
+      <c r="CF235" s="3">
+        <v>2</v>
+      </c>
       <c r="CG235" s="3"/>
-      <c r="CH235" s="3"/>
+      <c r="CH235" s="3">
+        <v>2</v>
+      </c>
       <c r="CI235" s="3"/>
-      <c r="CJ235" s="3"/>
-      <c r="CK235" s="3"/>
-      <c r="CL235" s="4"/>
-      <c r="CM235" s="4"/>
-      <c r="CN235" s="4"/>
-      <c r="CO235" s="4"/>
-      <c r="CP235" s="4"/>
+      <c r="CJ235" s="3">
+        <v>2</v>
+      </c>
+      <c r="CK235" s="3">
+        <v>2</v>
+      </c>
+      <c r="CL235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP235" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ235" s="4"/>
       <c r="CR235" s="4"/>
-      <c r="CS235" s="4"/>
-      <c r="CT235" s="4"/>
-      <c r="CU235" s="4"/>
-      <c r="CV235" s="4"/>
-      <c r="CW235" s="4"/>
-      <c r="CX235" s="4"/>
+      <c r="CS235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW235" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX235" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="236" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="12" t="s">
@@ -49334,7 +51197,7 @@
       </c>
       <c r="B237" s="11">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C237" s="17">
         <v>1</v>
@@ -49543,19 +51406,39 @@
       <c r="CI237" s="3"/>
       <c r="CJ237" s="3"/>
       <c r="CK237" s="3"/>
-      <c r="CL237" s="4"/>
-      <c r="CM237" s="4"/>
-      <c r="CN237" s="4"/>
+      <c r="CL237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN237" s="4">
+        <v>2</v>
+      </c>
       <c r="CO237" s="4"/>
-      <c r="CP237" s="4"/>
-      <c r="CQ237" s="4"/>
-      <c r="CR237" s="4"/>
-      <c r="CS237" s="4"/>
+      <c r="CP237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS237" s="4">
+        <v>2</v>
+      </c>
       <c r="CT237" s="4"/>
       <c r="CU237" s="4"/>
-      <c r="CV237" s="4"/>
-      <c r="CW237" s="4"/>
-      <c r="CX237" s="18"/>
+      <c r="CV237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CW237" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX237" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="238" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="13" t="s">
@@ -49563,7 +51446,7 @@
       </c>
       <c r="B238" s="11">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C238" s="17">
         <v>1</v>
@@ -49785,8 +51668,12 @@
       <c r="CN238" s="4">
         <v>2</v>
       </c>
-      <c r="CO238" s="4"/>
-      <c r="CP238" s="4"/>
+      <c r="CO238" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP238" s="4">
+        <v>2</v>
+      </c>
       <c r="CQ238" s="4">
         <v>2</v>
       </c>
@@ -49796,8 +51683,12 @@
       <c r="CS238" s="4">
         <v>2</v>
       </c>
-      <c r="CT238" s="4"/>
-      <c r="CU238" s="4"/>
+      <c r="CT238" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU238" s="4">
+        <v>2</v>
+      </c>
       <c r="CV238" s="4">
         <v>2</v>
       </c>
@@ -49814,7 +51705,7 @@
       </c>
       <c r="B239" s="11">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C239" s="17">
         <v>1</v>
@@ -50041,19 +51932,43 @@
       <c r="CK239" s="3">
         <v>2</v>
       </c>
-      <c r="CL239" s="4"/>
-      <c r="CM239" s="4"/>
-      <c r="CN239" s="4"/>
-      <c r="CO239" s="4"/>
-      <c r="CP239" s="4"/>
-      <c r="CQ239" s="4"/>
-      <c r="CR239" s="4"/>
-      <c r="CS239" s="4"/>
-      <c r="CT239" s="4"/>
-      <c r="CU239" s="4"/>
+      <c r="CL239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CN239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CO239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CP239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CQ239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CR239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CS239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CT239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CU239" s="4">
+        <v>2</v>
+      </c>
       <c r="CV239" s="4"/>
-      <c r="CW239" s="4"/>
-      <c r="CX239" s="18"/>
+      <c r="CW239" s="4">
+        <v>2</v>
+      </c>
+      <c r="CX239" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="12" t="s">
